--- a/data/reservoir_summary.xlsx
+++ b/data/reservoir_summary.xlsx
@@ -171,22 +171,22 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="A1" t="str">
-            <v>reservoir_10_0.25_2_1_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.25_10_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>reservoir_10_0.25_2_1_ROOT_MEAN</v>
+            <v>reservoir_10_0.25_10_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>reservoir_10_0.25_2_1_ROOT_SAMPLE</v>
+            <v>reservoir_10_0.25_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>reservoir_10_0.25_2_10_ALL_ACTIONS</v>
+            <v>reservoir_10_0.25_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="9">
@@ -196,17 +196,17 @@
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>reservoir_10_0.25_2_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.25_2_15_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>reservoir_10_0.25_2_15_ROOT_SAMPLE</v>
+            <v>reservoir_10_0.25_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>reservoir_10_0.25_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.25_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="17">
@@ -216,172 +216,292 @@
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>reservoir_10_0.25_5_1_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.25_2_50_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>reservoir_10_0.25_5_1_ROOT_MEAN</v>
+            <v>reservoir_10_0.25_5_15_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>reservoir_10_0.25_5_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.25_5_15_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>reservoir_10_0.25_5_10_ROOT_SAMPLE</v>
+            <v>reservoir_10_0.25_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>reservoir_10_0.25_5_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.25_5_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>reservoir_10_0.5_10_1_ROOT_MEAN</v>
+            <v>reservoir_10_0.25_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>reservoir_10_0.5_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.5_10_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>reservoir_10_0.5_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_10_0.5_10_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>reservoir_10_0.5_2_15_ROOT_SAMPLE</v>
+            <v>reservoir_10_0.5_10_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>reservoir_10_0.5_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.5_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>reservoir_10_0.5_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_10_0.5_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>reservoir_10_0.5_5_10_ROOT_SAMPLE</v>
+            <v>reservoir_10_0.5_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>reservoir_10_0.5_5_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.5_2_15_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>reservoir_10_0.5_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_10_0.5_2_15_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>reservoir_10_noop_noop_noop</v>
+            <v>reservoir_10_0.5_2_15_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>reservoir_10_random</v>
+            <v>reservoir_10_0.5_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>reservoir_20_0.25_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.5_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>reservoir_20_0.25_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_0.5_2_50_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>reservoir_20_0.25_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_10_0.5_5_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>reservoir_20_0.25_2_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.5_5_15_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>reservoir_20_0.25_2_15_ROOT_SAMPLE</v>
+            <v>reservoir_10_0.5_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>reservoir_20_0.25_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.5_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>reservoir_20_0.25_2_5_ALL_ACTIONS</v>
+            <v>reservoir_10_1_10_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>reservoir_20_0.25_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_1_10_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>reservoir_20_0.25_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_10_1_10_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>reservoir_20_0.5_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_1_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>reservoir_20_0.5_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_10_1_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>reservoir_20_0.5_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_1_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>reservoir_20_0.5_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_1_2_15_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>reservoir_20_0.5_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_10_1_2_15_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>reservoir_20_noop_noop</v>
+            <v>reservoir_10_1_2_15_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>reservoir_20_random</v>
+            <v>reservoir_10_1_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>reservoir_30_noop</v>
+            <v>reservoir_10_1_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>reservoir_30_random</v>
+            <v>reservoir_10_1_2_5_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87" t="str">
+            <v>reservoir_10_1_2_50_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89" t="str">
+            <v>reservoir_10_1_5_10_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91" t="str">
+            <v>reservoir_10_1_5_15_CONSENSUS_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93" t="str">
+            <v>reservoir_10_1_5_5_ALL_ACTIONS_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95" t="str">
+            <v>reservoir_10_1_5_5_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97" t="str">
+            <v>reservoir_10_2_10_5_ALL_ACTIONS_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99" t="str">
+            <v>reservoir_10_2_10_5_CONSENSUS_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101" t="str">
+            <v>reservoir_10_2_10_5_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103" t="str">
+            <v>reservoir_10_2_2_10_ALL_ACTIONS_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105" t="str">
+            <v>reservoir_10_2_2_10_CONSENSUS_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107" t="str">
+            <v>reservoir_10_2_2_10_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109" t="str">
+            <v>reservoir_10_2_2_15_ALL_ACTIONS_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111" t="str">
+            <v>reservoir_10_2_2_15_CONSENSUS_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113" t="str">
+            <v>reservoir_10_2_2_15_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115" t="str">
+            <v>reservoir_10_2_2_5_ALL_ACTIONS_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117" t="str">
+            <v>reservoir_10_2_2_5_CONSENSUS_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119" t="str">
+            <v>reservoir_10_2_2_5_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121" t="str">
+            <v>reservoir_10_2_5_10_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123" t="str">
+            <v>reservoir_10_2_5_5_ALL_ACTIONS_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125" t="str">
+            <v>reservoir_10_2_5_5_CONSENSUS_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127" t="str">
+            <v>reservoir_10_2_5_5_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="A129" t="str">
+            <v>reservoir_10_5_2_10_CONSENSUS_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="A131" t="str">
+            <v>reservoir_10_noop_noop</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="A133" t="str">
+            <v>reservoir_10_random_random</v>
           </cell>
         </row>
       </sheetData>
@@ -678,7 +798,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -718,28 +838,22 @@
       </c>
       <c r="B2">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;B1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;B1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-471159.38002606365</v>
+        <v>-1040694.4035340393</v>
       </c>
       <c r="C2">
-        <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;B1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;B1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;B1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;B1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>30526.875202438008</v>
-      </c>
-      <c r="D2" s="2">
+        <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;B1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;B1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;B1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;B1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
+        <v>25840.822727708834</v>
+      </c>
+      <c r="D2" s="2" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;D1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;D1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-401070.89392069302</v>
-      </c>
-      <c r="E2" s="3">
-        <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;D1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;D1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;D1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;D1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>26036.030649789856</v>
-      </c>
-      <c r="F2" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;F1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;F1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-570539.3633354007</v>
-      </c>
-      <c r="G2" s="3">
-        <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;F1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;F1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;F1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;F1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>31516.88817693602</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
@@ -747,27 +861,27 @@
       </c>
       <c r="B3" s="1">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;B1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;B1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-448117.4488883774</v>
+        <v>-730572.06487864989</v>
       </c>
       <c r="C3">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;B1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;B1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;B1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;B1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>30526.875202438008</v>
-      </c>
-      <c r="D3" s="2">
+        <v>24616.534391881643</v>
+      </c>
+      <c r="D3" s="2" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;D1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;D1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-361404.60721211118</v>
-      </c>
-      <c r="E3" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="E3" s="3" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;D1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;D1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;D1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;D1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>26036.030649789856</v>
-      </c>
-      <c r="F3" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F3" s="2" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;F1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;F1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-523146.52889339527</v>
-      </c>
-      <c r="G3" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="G3" s="3" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;F1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;F1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;F1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;F1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>31516.88817693602</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -782,19 +896,19 @@
       </c>
       <c r="B6">
         <f t="array" aca="1" ref="B6" ca="1">MAX( IF(  ISNA(raw!E2:E31), "", raw!E2:E31 ) )</f>
-        <v>-365676.3003529667</v>
+        <v>-707681.55103869957</v>
       </c>
       <c r="C6">
         <f ca="1">INDIRECT( "raw!"&amp;"F"&amp;(1+MATCH(B6, raw!E2:E31, 0) ) )</f>
-        <v>54764.603688698131</v>
+        <v>40639.020483363041</v>
       </c>
       <c r="D6">
         <f t="array" aca="1" ref="D6" ca="1">MAX( IF(  ISNA(raw!G2:G31), "", raw!G2:G31 ) )</f>
-        <v>-76034.465727231058</v>
-      </c>
-      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="e">
         <f ca="1" xml:space="preserve"> INDIRECT("raw!"&amp;"H"&amp;(1+MATCH(D6, raw!G2:G31, 0)))</f>
-        <v>17936.610526599674</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -803,33 +917,40 @@
       </c>
       <c r="B7" s="3">
         <f t="array" aca="1" ref="B7" ca="1">MAX( IF(  ISNA(raw!E34:E63), "", raw!E34:E63 ) )</f>
-        <v>-365676.29999022</v>
+        <v>-707505.43711016641</v>
       </c>
       <c r="C7">
         <f ca="1">INDIRECT( "raw!"&amp;"F"&amp;(33+MATCH(B7, raw!E34:E63, 0) ) )</f>
-        <v>54764.603778218923</v>
+        <v>39913.890441837088</v>
       </c>
       <c r="D7" s="3">
         <f t="array" aca="1" ref="D7" ca="1">MAX( IF(  ISNA(raw!G34:G63), "", raw!G34:G63 ) )</f>
-        <v>-76030.549560652697</v>
-      </c>
-      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="e">
         <f ca="1">INDIRECT( "raw!"&amp;"H"&amp;(33+MATCH(D7, raw!G34:G63, 0) ) )</f>
-        <v>17937.323435614959</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3">
+        <f t="array" aca="1" ref="B8" ca="1">MAX( IF(  ISNA(raw!E65:E88), "", raw!E65:E88 ) )</f>
+        <v>-713035.113067133</v>
+      </c>
+      <c r="C8">
+        <f ca="1">INDIRECT( "raw!"&amp;"F"&amp;(64+MATCH(B8, raw!E65:E88, 0) ) )</f>
+        <v>40414.684129262867</v>
+      </c>
       <c r="D8" s="3">
         <f t="array" aca="1" ref="D8" ca="1">MAX( IF(  ISNA(raw!G65:G88), "", raw!G65:G88 ) )</f>
-        <v>-76030.325780168394</v>
-      </c>
-      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="e">
         <f ca="1">INDIRECT( "raw!"&amp;"H"&amp;(64+MATCH(D8, raw!G65:G88, 0) ) )</f>
-        <v>31420.944963103295</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -838,11 +959,11 @@
       </c>
       <c r="B9" s="3">
         <f t="array" aca="1" ref="B9" ca="1">MAX( IF(  ISNA(raw!E92:E97), "", raw!E92:E97 ) )</f>
-        <v>-365676.3003529667</v>
-      </c>
-      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="e">
         <f ca="1">INDIRECT( "raw!"&amp;"F"&amp;(91+MATCH(B9, raw!E92:E97, 0) ) )</f>
-        <v>54764.603688698131</v>
+        <v>#N/A</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -945,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1002,13 +1123,13 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-365676.30342921789</v>
-      </c>
-      <c r="F2">
+        <v>#N/A</v>
+      </c>
+      <c r="F2" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>54764.603865932753</v>
+        <v>#N/A</v>
       </c>
       <c r="G2" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -1032,13 +1153,13 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-365676.3003529667</v>
-      </c>
-      <c r="F3">
+        <v>#N/A</v>
+      </c>
+      <c r="F3" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>54764.603688698131</v>
+        <v>#N/A</v>
       </c>
       <c r="G3" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -1136,13 +1257,13 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-365676.37159141793</v>
-      </c>
-      <c r="F7">
+        <v>#N/A</v>
+      </c>
+      <c r="F7" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>54764.57596948545</v>
+        <v>#N/A</v>
       </c>
       <c r="G7" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -1164,19 +1285,19 @@
       </c>
       <c r="E8">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-386040.86480162223</v>
+        <v>-708354.66271083301</v>
       </c>
       <c r="F8">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>33926.994621084545</v>
-      </c>
-      <c r="G8">
+        <v>40348.617225192662</v>
+      </c>
+      <c r="G8" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-76125.602391528359</v>
-      </c>
-      <c r="H8">
+        <v>#N/A</v>
+      </c>
+      <c r="H8" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>17941.134412890857</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1192,13 +1313,13 @@
       <c r="D9">
         <v>5</v>
       </c>
-      <c r="E9" t="e">
+      <c r="E9">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F9" t="e">
-        <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>-712666.43021396652</v>
+      </c>
+      <c r="F9">
+        <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
+        <v>39847.355988397991</v>
       </c>
       <c r="G9" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -1218,13 +1339,13 @@
       <c r="D10">
         <v>5</v>
       </c>
-      <c r="E10" t="e">
+      <c r="E10">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F10" t="e">
-        <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>-733045.43069279951</v>
+      </c>
+      <c r="F10">
+        <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
+        <v>38394.629508467398</v>
       </c>
       <c r="G10" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -1244,21 +1365,21 @@
       <c r="D11">
         <v>5</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-388859.90497400146</v>
-      </c>
-      <c r="F11">
+        <v>#N/A</v>
+      </c>
+      <c r="F11" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>43089.621379953933</v>
-      </c>
-      <c r="G11">
+        <v>#N/A</v>
+      </c>
+      <c r="G11" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-76034.465727231058</v>
-      </c>
-      <c r="H11">
+        <v>#N/A</v>
+      </c>
+      <c r="H11" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>17936.610526599674</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1276,11 +1397,11 @@
       </c>
       <c r="E12">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-388862.69820419734</v>
+        <v>-710729.47429503326</v>
       </c>
       <c r="F12">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>43090.083112618122</v>
+        <v>39957.880652231535</v>
       </c>
       <c r="G12" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -1303,9 +1424,9 @@
       <c r="D13">
         <v>5</v>
       </c>
-      <c r="E13" t="e">
+      <c r="E13">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
+        <v>-750009.68659553293</v>
       </c>
       <c r="F13" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
@@ -1334,19 +1455,19 @@
       </c>
       <c r="E14">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-383129.06883876602</v>
+        <v>-710017.80558049981</v>
       </c>
       <c r="F14">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>38805.056048829189</v>
-      </c>
-      <c r="G14">
+        <v>40360.92961446158</v>
+      </c>
+      <c r="G14" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-1452518.0928317965</v>
-      </c>
-      <c r="H14">
+        <v>#N/A</v>
+      </c>
+      <c r="H14" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>208313.37439300967</v>
+        <v>#N/A</v>
       </c>
       <c r="K14" t="s">
         <v>24</v>
@@ -1365,9 +1486,9 @@
       <c r="D15">
         <v>10</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-390321.09888475743</v>
+        <v>#N/A</v>
       </c>
       <c r="F15" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
@@ -1419,19 +1540,19 @@
       </c>
       <c r="E17">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-388859.90482034476</v>
+        <v>-707681.55103869957</v>
       </c>
       <c r="F17">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>61461.009086890757</v>
-      </c>
-      <c r="G17">
+        <v>40639.020483363041</v>
+      </c>
+      <c r="G17" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-76127.949751374457</v>
-      </c>
-      <c r="H17">
+        <v>#N/A</v>
+      </c>
+      <c r="H17" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>22024.841181326032</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1447,9 +1568,9 @@
       <c r="D18">
         <v>10</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-389421.69396241213</v>
+        <v>#N/A</v>
       </c>
       <c r="F18" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
@@ -1501,19 +1622,19 @@
       </c>
       <c r="E20">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-388930.40486720303</v>
+        <v>-709021.09014419978</v>
       </c>
       <c r="F20">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>61467.057361898449</v>
-      </c>
-      <c r="G20">
+        <v>40113.59854833554</v>
+      </c>
+      <c r="G20" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-80838.878966656484</v>
-      </c>
-      <c r="H20">
+        <v>#N/A</v>
+      </c>
+      <c r="H20" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>22751.661365072865</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1529,9 +1650,9 @@
       <c r="D21">
         <v>15</v>
       </c>
-      <c r="E21" t="e">
+      <c r="E21">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
+        <v>-835883.99848549964</v>
       </c>
       <c r="F21" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
@@ -1583,11 +1704,11 @@
       </c>
       <c r="E23">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-388862.9143985851</v>
+        <v>-708492.99496816634</v>
       </c>
       <c r="F23">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>43089.544126821507</v>
+        <v>40027.392959266581</v>
       </c>
       <c r="G23" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -1820,13 +1941,13 @@
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C34&amp;"_"&amp;B34&amp;"_"&amp;D34&amp;"_"&amp;A34&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C34&amp;"_"&amp;B34&amp;"_"&amp;D34&amp;"_"&amp;A34&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-365676.30399596901</v>
-      </c>
-      <c r="F34">
+        <v>#N/A</v>
+      </c>
+      <c r="F34" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C34&amp;"_"&amp;B34&amp;"_"&amp;D34&amp;"_"&amp;A34&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C34&amp;"_"&amp;B34&amp;"_"&amp;D34&amp;"_"&amp;A34&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C34&amp;"_"&amp;B34&amp;"_"&amp;D34&amp;"_"&amp;A34&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C34&amp;"_"&amp;B34&amp;"_"&amp;D34&amp;"_"&amp;A34&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>54764.603684621565</v>
+        <v>#N/A</v>
       </c>
       <c r="G34" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C34&amp;"_"&amp;B34&amp;"_"&amp;D34&amp;"_"&amp;A34&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C34&amp;"_"&amp;B34&amp;"_"&amp;D34&amp;"_"&amp;A34&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -1850,13 +1971,13 @@
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="3" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-365676.29999022</v>
-      </c>
-      <c r="F35">
+        <v>#N/A</v>
+      </c>
+      <c r="F35" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>54764.603778218923</v>
+        <v>#N/A</v>
       </c>
       <c r="G35" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -1994,19 +2115,19 @@
       </c>
       <c r="E40">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C40&amp;"_"&amp;B40&amp;"_"&amp;D40&amp;"_"&amp;A40&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C40&amp;"_"&amp;B40&amp;"_"&amp;D40&amp;"_"&amp;A40&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-388859.90496031381</v>
+        <v>-708425.19139766623</v>
       </c>
       <c r="F40">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C40&amp;"_"&amp;B40&amp;"_"&amp;D40&amp;"_"&amp;A40&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C40&amp;"_"&amp;B40&amp;"_"&amp;D40&amp;"_"&amp;A40&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C40&amp;"_"&amp;B40&amp;"_"&amp;D40&amp;"_"&amp;A40&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C40&amp;"_"&amp;B40&amp;"_"&amp;D40&amp;"_"&amp;A40&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>43089.621385872582</v>
-      </c>
-      <c r="G40">
+        <v>40312.000744603567</v>
+      </c>
+      <c r="G40" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C40&amp;"_"&amp;B40&amp;"_"&amp;D40&amp;"_"&amp;A40&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C40&amp;"_"&amp;B40&amp;"_"&amp;D40&amp;"_"&amp;A40&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-76033.778682369346</v>
-      </c>
-      <c r="H40">
+        <v>#N/A</v>
+      </c>
+      <c r="H40" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C40&amp;"_"&amp;B40&amp;"_"&amp;D40&amp;"_"&amp;A40&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C40&amp;"_"&amp;B40&amp;"_"&amp;D40&amp;"_"&amp;A40&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C40&amp;"_"&amp;B40&amp;"_"&amp;D40&amp;"_"&amp;A40&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C40&amp;"_"&amp;B40&amp;"_"&amp;D40&amp;"_"&amp;A40&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>31421.788657526875</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2024,11 +2145,11 @@
       </c>
       <c r="E41">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C41&amp;"_"&amp;B41&amp;"_"&amp;D41&amp;"_"&amp;A41&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C41&amp;"_"&amp;B41&amp;"_"&amp;D41&amp;"_"&amp;A41&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-389815.97145790712</v>
+        <v>-737097.21774646663</v>
       </c>
       <c r="F41">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C41&amp;"_"&amp;B41&amp;"_"&amp;D41&amp;"_"&amp;A41&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C41&amp;"_"&amp;B41&amp;"_"&amp;D41&amp;"_"&amp;A41&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C41&amp;"_"&amp;B41&amp;"_"&amp;D41&amp;"_"&amp;A41&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C41&amp;"_"&amp;B41&amp;"_"&amp;D41&amp;"_"&amp;A41&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>43125.348879601326</v>
+        <v>42615.027854960223</v>
       </c>
       <c r="G41" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C41&amp;"_"&amp;B41&amp;"_"&amp;D41&amp;"_"&amp;A41&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C41&amp;"_"&amp;B41&amp;"_"&amp;D41&amp;"_"&amp;A41&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -2072,19 +2193,19 @@
       </c>
       <c r="E43">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C43&amp;"_"&amp;B43&amp;"_"&amp;D43&amp;"_"&amp;A43&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C43&amp;"_"&amp;B43&amp;"_"&amp;D43&amp;"_"&amp;A43&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-385264.28692939191</v>
+        <v>-708559.80412906618</v>
       </c>
       <c r="F43">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C43&amp;"_"&amp;B43&amp;"_"&amp;D43&amp;"_"&amp;A43&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C43&amp;"_"&amp;B43&amp;"_"&amp;D43&amp;"_"&amp;A43&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C43&amp;"_"&amp;B43&amp;"_"&amp;D43&amp;"_"&amp;A43&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C43&amp;"_"&amp;B43&amp;"_"&amp;D43&amp;"_"&amp;A43&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>35408.477561118983</v>
-      </c>
-      <c r="G43">
+        <v>40142.715762711923</v>
+      </c>
+      <c r="G43" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C43&amp;"_"&amp;B43&amp;"_"&amp;D43&amp;"_"&amp;A43&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C43&amp;"_"&amp;B43&amp;"_"&amp;D43&amp;"_"&amp;A43&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-76030.549560652697</v>
-      </c>
-      <c r="H43">
+        <v>#N/A</v>
+      </c>
+      <c r="H43" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C43&amp;"_"&amp;B43&amp;"_"&amp;D43&amp;"_"&amp;A43&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C43&amp;"_"&amp;B43&amp;"_"&amp;D43&amp;"_"&amp;A43&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C43&amp;"_"&amp;B43&amp;"_"&amp;D43&amp;"_"&amp;A43&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C43&amp;"_"&amp;B43&amp;"_"&amp;D43&amp;"_"&amp;A43&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>17937.323435614959</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2102,11 +2223,11 @@
       </c>
       <c r="E44">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C44&amp;"_"&amp;B44&amp;"_"&amp;D44&amp;"_"&amp;A44&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C44&amp;"_"&amp;B44&amp;"_"&amp;D44&amp;"_"&amp;A44&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-377600.02754070389</v>
+        <v>-731254.21310143324</v>
       </c>
       <c r="F44">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C44&amp;"_"&amp;B44&amp;"_"&amp;D44&amp;"_"&amp;A44&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C44&amp;"_"&amp;B44&amp;"_"&amp;D44&amp;"_"&amp;A44&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C44&amp;"_"&amp;B44&amp;"_"&amp;D44&amp;"_"&amp;A44&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C44&amp;"_"&amp;B44&amp;"_"&amp;D44&amp;"_"&amp;A44&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39499.002725785111</v>
+        <v>41652.037453250021</v>
       </c>
       <c r="G44" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C44&amp;"_"&amp;B44&amp;"_"&amp;D44&amp;"_"&amp;A44&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C44&amp;"_"&amp;B44&amp;"_"&amp;D44&amp;"_"&amp;A44&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -2126,9 +2247,13 @@
       <c r="D45">
         <v>5</v>
       </c>
-      <c r="E45" t="e">
+      <c r="E45">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C45&amp;"_"&amp;B45&amp;"_"&amp;D45&amp;"_"&amp;A45&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C45&amp;"_"&amp;B45&amp;"_"&amp;D45&amp;"_"&amp;A45&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
+        <v>-730924.02649516624</v>
+      </c>
+      <c r="F45">
+        <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C45&amp;"_"&amp;B45&amp;"_"&amp;D45&amp;"_"&amp;A45&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C45&amp;"_"&amp;B45&amp;"_"&amp;D45&amp;"_"&amp;A45&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C45&amp;"_"&amp;B45&amp;"_"&amp;D45&amp;"_"&amp;A45&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C45&amp;"_"&amp;B45&amp;"_"&amp;D45&amp;"_"&amp;A45&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
+        <v>39209.763780033019</v>
       </c>
       <c r="G45" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C45&amp;"_"&amp;B45&amp;"_"&amp;D45&amp;"_"&amp;A45&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C45&amp;"_"&amp;B45&amp;"_"&amp;D45&amp;"_"&amp;A45&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -2150,19 +2275,19 @@
       </c>
       <c r="E46">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-388860.36948702025</v>
-      </c>
-      <c r="F46" t="e">
-        <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;#REF!&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;#REF!&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;#REF!&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;#REF!&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G46">
+        <v>-709669.41458749969</v>
+      </c>
+      <c r="F46">
+        <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
+        <v>39924.11515192809</v>
+      </c>
+      <c r="G46" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-1452600.5036454862</v>
-      </c>
-      <c r="H46">
+        <v>#N/A</v>
+      </c>
+      <c r="H46" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>208290.57305300015</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2178,9 +2303,9 @@
       <c r="D47">
         <v>10</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C47&amp;"_"&amp;B47&amp;"_"&amp;D47&amp;"_"&amp;A47&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C47&amp;"_"&amp;B47&amp;"_"&amp;D47&amp;"_"&amp;A47&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-409669.54486485914</v>
+        <v>#N/A</v>
       </c>
       <c r="F47" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E8&amp;"_"&amp;C47&amp;"_"&amp;B47&amp;"_"&amp;D47&amp;"_"&amp;A47&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E8&amp;"_"&amp;C47&amp;"_"&amp;B47&amp;"_"&amp;D47&amp;"_"&amp;A47&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E8&amp;"_"&amp;C47&amp;"_"&amp;B47&amp;"_"&amp;D47&amp;"_"&amp;A47&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E8&amp;"_"&amp;C47&amp;"_"&amp;B47&amp;"_"&amp;D47&amp;"_"&amp;A47&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
@@ -2228,19 +2353,19 @@
       </c>
       <c r="E49">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C49&amp;"_"&amp;B49&amp;"_"&amp;D49&amp;"_"&amp;A49&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C49&amp;"_"&amp;B49&amp;"_"&amp;D49&amp;"_"&amp;A49&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-384270.28430407541</v>
+        <v>-708324.7575454663</v>
       </c>
       <c r="F49">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C49&amp;"_"&amp;B49&amp;"_"&amp;D49&amp;"_"&amp;A49&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C49&amp;"_"&amp;B49&amp;"_"&amp;D49&amp;"_"&amp;A49&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C49&amp;"_"&amp;B49&amp;"_"&amp;D49&amp;"_"&amp;A49&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C49&amp;"_"&amp;B49&amp;"_"&amp;D49&amp;"_"&amp;A49&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>37819.60041193349</v>
-      </c>
-      <c r="G49">
+        <v>39769.163534704305</v>
+      </c>
+      <c r="G49" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C49&amp;"_"&amp;B49&amp;"_"&amp;D49&amp;"_"&amp;A49&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C49&amp;"_"&amp;B49&amp;"_"&amp;D49&amp;"_"&amp;A49&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-76127.692341097689</v>
-      </c>
-      <c r="H49">
+        <v>#N/A</v>
+      </c>
+      <c r="H49" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C49&amp;"_"&amp;B49&amp;"_"&amp;D49&amp;"_"&amp;A49&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C49&amp;"_"&amp;B49&amp;"_"&amp;D49&amp;"_"&amp;A49&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C49&amp;"_"&amp;B49&amp;"_"&amp;D49&amp;"_"&amp;A49&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C49&amp;"_"&amp;B49&amp;"_"&amp;D49&amp;"_"&amp;A49&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>22029.261397090126</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2256,9 +2381,13 @@
       <c r="D50">
         <v>10</v>
       </c>
-      <c r="E50" t="e">
+      <c r="E50">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C50&amp;"_"&amp;B50&amp;"_"&amp;D50&amp;"_"&amp;A50&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C50&amp;"_"&amp;B50&amp;"_"&amp;D50&amp;"_"&amp;A50&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
+        <v>-746107.15572356642</v>
+      </c>
+      <c r="F50">
+        <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C50&amp;"_"&amp;B50&amp;"_"&amp;D50&amp;"_"&amp;A50&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C50&amp;"_"&amp;B50&amp;"_"&amp;D50&amp;"_"&amp;A50&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C50&amp;"_"&amp;B50&amp;"_"&amp;D50&amp;"_"&amp;A50&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C50&amp;"_"&amp;B50&amp;"_"&amp;D50&amp;"_"&amp;A50&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
+        <v>38447.550808583808</v>
       </c>
       <c r="G50" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C50&amp;"_"&amp;B50&amp;"_"&amp;D50&amp;"_"&amp;A50&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C50&amp;"_"&amp;B50&amp;"_"&amp;D50&amp;"_"&amp;A50&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -2304,21 +2433,21 @@
       <c r="D52">
         <v>15</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C52&amp;"_"&amp;B52&amp;"_"&amp;D52&amp;"_"&amp;A52&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C52&amp;"_"&amp;B52&amp;"_"&amp;D52&amp;"_"&amp;A52&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-388887.38711032062</v>
+        <v>#N/A</v>
       </c>
       <c r="F52" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;#REF!&amp;"_"&amp;C52&amp;"_"&amp;B52&amp;"_"&amp;D52&amp;"_"&amp;A52&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;#REF!&amp;"_"&amp;C52&amp;"_"&amp;B52&amp;"_"&amp;D52&amp;"_"&amp;A52&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;#REF!&amp;"_"&amp;C52&amp;"_"&amp;B52&amp;"_"&amp;D52&amp;"_"&amp;A52&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;#REF!&amp;"_"&amp;C52&amp;"_"&amp;B52&amp;"_"&amp;D52&amp;"_"&amp;A52&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#REF!</v>
       </c>
-      <c r="G52">
+      <c r="G52" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C52&amp;"_"&amp;B52&amp;"_"&amp;D52&amp;"_"&amp;A52&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C52&amp;"_"&amp;B52&amp;"_"&amp;D52&amp;"_"&amp;A52&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-77050.142581150038</v>
-      </c>
-      <c r="H52">
+        <v>#N/A</v>
+      </c>
+      <c r="H52" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C52&amp;"_"&amp;B52&amp;"_"&amp;D52&amp;"_"&amp;A52&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C52&amp;"_"&amp;B52&amp;"_"&amp;D52&amp;"_"&amp;A52&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C52&amp;"_"&amp;B52&amp;"_"&amp;D52&amp;"_"&amp;A52&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C52&amp;"_"&amp;B52&amp;"_"&amp;D52&amp;"_"&amp;A52&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>31433.915659960083</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2334,9 +2463,13 @@
       <c r="D53">
         <v>15</v>
       </c>
-      <c r="E53" t="e">
+      <c r="E53">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C53&amp;"_"&amp;B53&amp;"_"&amp;D53&amp;"_"&amp;A53&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C53&amp;"_"&amp;B53&amp;"_"&amp;D53&amp;"_"&amp;A53&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
+        <v>-807860.49984823295</v>
+      </c>
+      <c r="F53">
+        <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C53&amp;"_"&amp;B53&amp;"_"&amp;D53&amp;"_"&amp;A53&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C53&amp;"_"&amp;B53&amp;"_"&amp;D53&amp;"_"&amp;A53&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C53&amp;"_"&amp;B53&amp;"_"&amp;D53&amp;"_"&amp;A53&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C53&amp;"_"&amp;B53&amp;"_"&amp;D53&amp;"_"&amp;A53&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
+        <v>52748.596064635123</v>
       </c>
       <c r="G53" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C53&amp;"_"&amp;B53&amp;"_"&amp;D53&amp;"_"&amp;A53&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C53&amp;"_"&amp;B53&amp;"_"&amp;D53&amp;"_"&amp;A53&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -2382,13 +2515,13 @@
       <c r="D55">
         <v>15</v>
       </c>
-      <c r="E55" t="e">
+      <c r="E55">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C55&amp;"_"&amp;B55&amp;"_"&amp;D55&amp;"_"&amp;A55&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C55&amp;"_"&amp;B55&amp;"_"&amp;D55&amp;"_"&amp;A55&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F55" t="e">
-        <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E16&amp;"_"&amp;C55&amp;"_"&amp;B55&amp;"_"&amp;D55&amp;"_"&amp;A55&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E16&amp;"_"&amp;C55&amp;"_"&amp;B55&amp;"_"&amp;D55&amp;"_"&amp;A55&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E16&amp;"_"&amp;C55&amp;"_"&amp;B55&amp;"_"&amp;D55&amp;"_"&amp;A55&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E16&amp;"_"&amp;C55&amp;"_"&amp;B55&amp;"_"&amp;D55&amp;"_"&amp;A55&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>-707505.43711016641</v>
+      </c>
+      <c r="F55">
+        <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C55&amp;"_"&amp;B55&amp;"_"&amp;D55&amp;"_"&amp;A55&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C55&amp;"_"&amp;B55&amp;"_"&amp;D55&amp;"_"&amp;A55&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C55&amp;"_"&amp;B55&amp;"_"&amp;D55&amp;"_"&amp;A55&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C55&amp;"_"&amp;B55&amp;"_"&amp;D55&amp;"_"&amp;A55&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
+        <v>39913.890441837088</v>
       </c>
       <c r="G55" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C55&amp;"_"&amp;B55&amp;"_"&amp;D55&amp;"_"&amp;A55&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C55&amp;"_"&amp;B55&amp;"_"&amp;D55&amp;"_"&amp;A55&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -2408,9 +2541,13 @@
       <c r="D56">
         <v>15</v>
       </c>
-      <c r="E56" t="e">
+      <c r="E56">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C56&amp;"_"&amp;B56&amp;"_"&amp;D56&amp;"_"&amp;A56&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C56&amp;"_"&amp;B56&amp;"_"&amp;D56&amp;"_"&amp;A56&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
+        <v>-790026.68128093251</v>
+      </c>
+      <c r="F56">
+        <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C56&amp;"_"&amp;B56&amp;"_"&amp;D56&amp;"_"&amp;A56&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C56&amp;"_"&amp;B56&amp;"_"&amp;D56&amp;"_"&amp;A56&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C56&amp;"_"&amp;B56&amp;"_"&amp;D56&amp;"_"&amp;A56&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C56&amp;"_"&amp;B56&amp;"_"&amp;D56&amp;"_"&amp;A56&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
+        <v>43928.294066663962</v>
       </c>
       <c r="G56" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C56&amp;"_"&amp;B56&amp;"_"&amp;D56&amp;"_"&amp;A56&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C56&amp;"_"&amp;B56&amp;"_"&amp;D56&amp;"_"&amp;A56&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -2588,21 +2725,21 @@
       <c r="D65">
         <v>5</v>
       </c>
-      <c r="E65" t="e">
+      <c r="E65">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C65&amp;"_"&amp;B65&amp;"_"&amp;D65&amp;"_"&amp;A65&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C65&amp;"_"&amp;B65&amp;"_"&amp;D65&amp;"_"&amp;A65&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F65" t="e">
-        <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E33&amp;"_"&amp;C65&amp;"_"&amp;B65&amp;"_"&amp;D65&amp;"_"&amp;A65&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E33&amp;"_"&amp;C65&amp;"_"&amp;B65&amp;"_"&amp;D65&amp;"_"&amp;A65&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E33&amp;"_"&amp;C65&amp;"_"&amp;B65&amp;"_"&amp;D65&amp;"_"&amp;A65&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E33&amp;"_"&amp;C65&amp;"_"&amp;B65&amp;"_"&amp;D65&amp;"_"&amp;A65&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G65">
+        <v>-713944.47918773326</v>
+      </c>
+      <c r="F65">
+        <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C65&amp;"_"&amp;B65&amp;"_"&amp;D65&amp;"_"&amp;A65&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C65&amp;"_"&amp;B65&amp;"_"&amp;D65&amp;"_"&amp;A65&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C65&amp;"_"&amp;B65&amp;"_"&amp;D65&amp;"_"&amp;A65&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C65&amp;"_"&amp;B65&amp;"_"&amp;D65&amp;"_"&amp;A65&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
+        <v>39614.889483749255</v>
+      </c>
+      <c r="G65" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C65&amp;"_"&amp;B65&amp;"_"&amp;D65&amp;"_"&amp;A65&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C65&amp;"_"&amp;B65&amp;"_"&amp;D65&amp;"_"&amp;A65&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-76039.149059606891</v>
-      </c>
-      <c r="H65">
+        <v>#N/A</v>
+      </c>
+      <c r="H65" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C65&amp;"_"&amp;B65&amp;"_"&amp;D65&amp;"_"&amp;A65&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C65&amp;"_"&amp;B65&amp;"_"&amp;D65&amp;"_"&amp;A65&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C65&amp;"_"&amp;B65&amp;"_"&amp;D65&amp;"_"&amp;A65&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C65&amp;"_"&amp;B65&amp;"_"&amp;D65&amp;"_"&amp;A65&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>31427.003237631488</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2618,9 +2755,13 @@
       <c r="D66">
         <v>5</v>
       </c>
-      <c r="E66" t="e">
+      <c r="E66">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C66&amp;"_"&amp;B66&amp;"_"&amp;D66&amp;"_"&amp;A66&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C66&amp;"_"&amp;B66&amp;"_"&amp;D66&amp;"_"&amp;A66&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
+        <v>-752521.93103133305</v>
+      </c>
+      <c r="F66">
+        <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C66&amp;"_"&amp;B66&amp;"_"&amp;D66&amp;"_"&amp;A66&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C66&amp;"_"&amp;B66&amp;"_"&amp;D66&amp;"_"&amp;A66&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C66&amp;"_"&amp;B66&amp;"_"&amp;D66&amp;"_"&amp;A66&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C66&amp;"_"&amp;B66&amp;"_"&amp;D66&amp;"_"&amp;A66&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
+        <v>40533.687895286581</v>
       </c>
       <c r="G66" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C66&amp;"_"&amp;B66&amp;"_"&amp;D66&amp;"_"&amp;A66&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C66&amp;"_"&amp;B66&amp;"_"&amp;D66&amp;"_"&amp;A66&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -2662,17 +2803,21 @@
       <c r="D68">
         <v>5</v>
       </c>
-      <c r="E68" t="e">
+      <c r="E68">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C68&amp;"_"&amp;B68&amp;"_"&amp;D68&amp;"_"&amp;A68&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C68&amp;"_"&amp;B68&amp;"_"&amp;D68&amp;"_"&amp;A68&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G68">
+        <v>-714595.82531023282</v>
+      </c>
+      <c r="F68">
+        <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C68&amp;"_"&amp;B68&amp;"_"&amp;D68&amp;"_"&amp;A68&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C68&amp;"_"&amp;B68&amp;"_"&amp;D68&amp;"_"&amp;A68&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C68&amp;"_"&amp;B68&amp;"_"&amp;D68&amp;"_"&amp;A68&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C68&amp;"_"&amp;B68&amp;"_"&amp;D68&amp;"_"&amp;A68&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
+        <v>39485.986872775167</v>
+      </c>
+      <c r="G68" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C68&amp;"_"&amp;B68&amp;"_"&amp;D68&amp;"_"&amp;A68&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C68&amp;"_"&amp;B68&amp;"_"&amp;D68&amp;"_"&amp;A68&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-76030.325780168394</v>
-      </c>
-      <c r="H68">
+        <v>#N/A</v>
+      </c>
+      <c r="H68" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C68&amp;"_"&amp;B68&amp;"_"&amp;D68&amp;"_"&amp;A68&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C68&amp;"_"&amp;B68&amp;"_"&amp;D68&amp;"_"&amp;A68&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C68&amp;"_"&amp;B68&amp;"_"&amp;D68&amp;"_"&amp;A68&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C68&amp;"_"&amp;B68&amp;"_"&amp;D68&amp;"_"&amp;A68&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>31420.944963103295</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2710,9 +2855,13 @@
       <c r="D70">
         <v>5</v>
       </c>
-      <c r="E70" t="e">
+      <c r="E70">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C70&amp;"_"&amp;B70&amp;"_"&amp;D70&amp;"_"&amp;A70&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C70&amp;"_"&amp;B70&amp;"_"&amp;D70&amp;"_"&amp;A70&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
+        <v>-773556.11898486607</v>
+      </c>
+      <c r="F70">
+        <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C70&amp;"_"&amp;B70&amp;"_"&amp;D70&amp;"_"&amp;A70&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C70&amp;"_"&amp;B70&amp;"_"&amp;D70&amp;"_"&amp;A70&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C70&amp;"_"&amp;B70&amp;"_"&amp;D70&amp;"_"&amp;A70&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C70&amp;"_"&amp;B70&amp;"_"&amp;D70&amp;"_"&amp;A70&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
+        <v>48792.92047250054</v>
       </c>
       <c r="G70" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C70&amp;"_"&amp;B70&amp;"_"&amp;D70&amp;"_"&amp;A70&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C70&amp;"_"&amp;B70&amp;"_"&amp;D70&amp;"_"&amp;A70&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -2732,21 +2881,21 @@
       <c r="D71">
         <v>10</v>
       </c>
-      <c r="E71" t="e">
+      <c r="E71">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C71&amp;"_"&amp;B71&amp;"_"&amp;D71&amp;"_"&amp;A71&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C71&amp;"_"&amp;B71&amp;"_"&amp;D71&amp;"_"&amp;A71&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F71" t="e">
-        <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;#REF!&amp;"_"&amp;C71&amp;"_"&amp;B71&amp;"_"&amp;D71&amp;"_"&amp;A71&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;#REF!&amp;"_"&amp;C71&amp;"_"&amp;B71&amp;"_"&amp;D71&amp;"_"&amp;A71&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;#REF!&amp;"_"&amp;C71&amp;"_"&amp;B71&amp;"_"&amp;D71&amp;"_"&amp;A71&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;#REF!&amp;"_"&amp;C71&amp;"_"&amp;B71&amp;"_"&amp;D71&amp;"_"&amp;A71&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G71">
+        <v>-715593.3978017664</v>
+      </c>
+      <c r="F71">
+        <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C71&amp;"_"&amp;B71&amp;"_"&amp;D71&amp;"_"&amp;A71&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C71&amp;"_"&amp;B71&amp;"_"&amp;D71&amp;"_"&amp;A71&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C71&amp;"_"&amp;B71&amp;"_"&amp;D71&amp;"_"&amp;A71&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C71&amp;"_"&amp;B71&amp;"_"&amp;D71&amp;"_"&amp;A71&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
+        <v>39511.848051185632</v>
+      </c>
+      <c r="G71" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C71&amp;"_"&amp;B71&amp;"_"&amp;D71&amp;"_"&amp;A71&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C71&amp;"_"&amp;B71&amp;"_"&amp;D71&amp;"_"&amp;A71&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-76492.608631220835</v>
-      </c>
-      <c r="H71">
+        <v>#N/A</v>
+      </c>
+      <c r="H71" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C71&amp;"_"&amp;B71&amp;"_"&amp;D71&amp;"_"&amp;A71&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C71&amp;"_"&amp;B71&amp;"_"&amp;D71&amp;"_"&amp;A71&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C71&amp;"_"&amp;B71&amp;"_"&amp;D71&amp;"_"&amp;A71&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C71&amp;"_"&amp;B71&amp;"_"&amp;D71&amp;"_"&amp;A71&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>31400.73312268707</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2784,9 +2933,13 @@
       <c r="D73">
         <v>10</v>
       </c>
-      <c r="E73" t="e">
+      <c r="E73">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C73&amp;"_"&amp;B73&amp;"_"&amp;D73&amp;"_"&amp;A73&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C73&amp;"_"&amp;B73&amp;"_"&amp;D73&amp;"_"&amp;A73&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
+        <v>-732188.39324366627</v>
+      </c>
+      <c r="F73">
+        <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C73&amp;"_"&amp;B73&amp;"_"&amp;D73&amp;"_"&amp;A73&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C73&amp;"_"&amp;B73&amp;"_"&amp;D73&amp;"_"&amp;A73&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C73&amp;"_"&amp;B73&amp;"_"&amp;D73&amp;"_"&amp;A73&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C73&amp;"_"&amp;B73&amp;"_"&amp;D73&amp;"_"&amp;A73&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
+        <v>39788.119017081597</v>
       </c>
       <c r="G73" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C73&amp;"_"&amp;B73&amp;"_"&amp;D73&amp;"_"&amp;A73&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C73&amp;"_"&amp;B73&amp;"_"&amp;D73&amp;"_"&amp;A73&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -2806,9 +2959,13 @@
       <c r="D74">
         <v>10</v>
       </c>
-      <c r="E74" t="e">
+      <c r="E74">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C74&amp;"_"&amp;B74&amp;"_"&amp;D74&amp;"_"&amp;A74&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C74&amp;"_"&amp;B74&amp;"_"&amp;D74&amp;"_"&amp;A74&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
+        <v>-713035.113067133</v>
+      </c>
+      <c r="F74">
+        <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C74&amp;"_"&amp;B74&amp;"_"&amp;D74&amp;"_"&amp;A74&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C74&amp;"_"&amp;B74&amp;"_"&amp;D74&amp;"_"&amp;A74&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C74&amp;"_"&amp;B74&amp;"_"&amp;D74&amp;"_"&amp;A74&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C74&amp;"_"&amp;B74&amp;"_"&amp;D74&amp;"_"&amp;A74&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
+        <v>40414.684129262867</v>
       </c>
       <c r="G74" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C74&amp;"_"&amp;B74&amp;"_"&amp;D74&amp;"_"&amp;A74&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C74&amp;"_"&amp;B74&amp;"_"&amp;D74&amp;"_"&amp;A74&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -2946,9 +3103,13 @@
       <c r="D80">
         <v>15</v>
       </c>
-      <c r="E80" t="e">
+      <c r="E80">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
+        <v>-716188.77303919976</v>
+      </c>
+      <c r="F80">
+        <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
+        <v>39582.194171625961</v>
       </c>
       <c r="G80" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -3157,13 +3318,13 @@
       <c r="D92">
         <v>1</v>
       </c>
-      <c r="E92">
+      <c r="E92" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-365676.30342921789</v>
-      </c>
-      <c r="F92">
+        <v>#N/A</v>
+      </c>
+      <c r="F92" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>54764.603865932753</v>
+        <v>#N/A</v>
       </c>
       <c r="G92" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -3183,13 +3344,13 @@
       <c r="D93">
         <v>1</v>
       </c>
-      <c r="E93">
+      <c r="E93" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C93&amp;"_"&amp;B93&amp;"_"&amp;D93&amp;"_"&amp;A93&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C93&amp;"_"&amp;B93&amp;"_"&amp;D93&amp;"_"&amp;A93&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-365676.3003529667</v>
-      </c>
-      <c r="F93">
+        <v>#N/A</v>
+      </c>
+      <c r="F93" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C93&amp;"_"&amp;B93&amp;"_"&amp;D93&amp;"_"&amp;A93&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C93&amp;"_"&amp;B93&amp;"_"&amp;D93&amp;"_"&amp;A93&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C93&amp;"_"&amp;B93&amp;"_"&amp;D93&amp;"_"&amp;A93&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C93&amp;"_"&amp;B93&amp;"_"&amp;D93&amp;"_"&amp;A93&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>54764.603688698131</v>
+        <v>#N/A</v>
       </c>
       <c r="G93" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C93&amp;"_"&amp;B93&amp;"_"&amp;D93&amp;"_"&amp;A93&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C93&amp;"_"&amp;B93&amp;"_"&amp;D93&amp;"_"&amp;A93&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -3227,7 +3388,7 @@
         <v>19</v>
       </c>
       <c r="B95">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C95">
         <v>0.5</v>
@@ -3235,13 +3396,13 @@
       <c r="D95">
         <v>1</v>
       </c>
-      <c r="E95">
+      <c r="E95" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C95&amp;"_"&amp;B95&amp;"_"&amp;D95&amp;"_"&amp;A95&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C95&amp;"_"&amp;B95&amp;"_"&amp;D95&amp;"_"&amp;A95&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-365676.37159141793</v>
-      </c>
-      <c r="F95">
+        <v>#N/A</v>
+      </c>
+      <c r="F95" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C95&amp;"_"&amp;B95&amp;"_"&amp;D95&amp;"_"&amp;A95&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C95&amp;"_"&amp;B95&amp;"_"&amp;D95&amp;"_"&amp;A95&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C95&amp;"_"&amp;B95&amp;"_"&amp;D95&amp;"_"&amp;A95&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C95&amp;"_"&amp;B95&amp;"_"&amp;D95&amp;"_"&amp;A95&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>54764.57596948545</v>
+        <v>#N/A</v>
       </c>
       <c r="G95" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C95&amp;"_"&amp;B95&amp;"_"&amp;D95&amp;"_"&amp;A95&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;G1&amp;"_"&amp;C95&amp;"_"&amp;B95&amp;"_"&amp;D95&amp;"_"&amp;A95&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -3253,7 +3414,7 @@
         <v>19</v>
       </c>
       <c r="B96">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C96">
         <v>0.5</v>
@@ -3275,7 +3436,7 @@
         <v>19</v>
       </c>
       <c r="B97">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C97">
         <v>0.5</v>
@@ -3293,6 +3454,15 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E2:E97">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data/reservoir_summary.xlsx
+++ b/data/reservoir_summary.xlsx
@@ -2149,7 +2149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>

--- a/data/reservoir_summary.xlsx
+++ b/data/reservoir_summary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="20">
   <si>
     <t>ROOT</t>
   </si>
@@ -28,9 +28,6 @@
   </si>
   <si>
     <t>NOOP</t>
-  </si>
-  <si>
-    <t>REPLAN</t>
   </si>
   <si>
     <t>STRAIGHT LINE</t>
@@ -45,16 +42,10 @@
     <t>reservoirs -&gt;</t>
   </si>
   <si>
-    <t>PERFORMANCE FOR BEST SETTINGS</t>
-  </si>
-  <si>
     <t>PERFORMANCE VS LOOKAHEAD (+BEST)</t>
   </si>
   <si>
     <t>PERFORMANCE VS TIME (+BEST)</t>
-  </si>
-  <si>
-    <t>PERFORMANCE VS ALGORITHM (+BEST)</t>
   </si>
   <si>
     <t>PERFORMANCE VS #FUTURES (+BEST)</t>
@@ -127,12 +118,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -191,7 +181,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$6</c:f>
+              <c:f>Sheet1!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -203,6 +193,297 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>(Sheet1!$C$4,Sheet1!$E$4,Sheet1!$G$4,Sheet1!$I$4,Sheet1!$K$4)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>(Sheet1!$C$4,Sheet1!$E$4,Sheet1!$G$4,Sheet1!$I$4,Sheet1!$K$4)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$B$1,Sheet1!$D$1,Sheet1!$F$1,Sheet1!$H$1,Sheet1!$J$1)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$B$4,Sheet1!$D$4,Sheet1!$F$4,Sheet1!$H$4,Sheet1!$J$4)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>STRAIGHT LINE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>(Sheet1!$C$5,Sheet1!$E$5,Sheet1!$G$5,Sheet1!$I$5,Sheet1!$K$5)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>(Sheet1!$C$5,Sheet1!$E$5,Sheet1!$G$5,Sheet1!$I$5,Sheet1!$K$5)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$B$1,Sheet1!$D$1,Sheet1!$F$1,Sheet1!$H$1,Sheet1!$J$1)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$B$5,Sheet1!$D$5,Sheet1!$F$5,Sheet1!$H$5,Sheet1!$J$5)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CONSENSUS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>(Sheet1!$C$6,Sheet1!$E$6,Sheet1!$G$6,Sheet1!$I$6,Sheet1!$K$6)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>(Sheet1!$C$6,Sheet1!$E$6,Sheet1!$G$6,Sheet1!$I$6,Sheet1!$K$6)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>(Sheet1!$B$1,Sheet1!$D$1,Sheet1!$F$1,Sheet1!$H$1,Sheet1!$J$1)</c:f>
@@ -231,37 +512,37 @@
             <c:numRef>
               <c:f>(Sheet1!$B$6,Sheet1!$D$6,Sheet1!$F$6,Sheet1!$H$6,Sheet1!$J$6)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-705558.74752460001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-151004.78483646669</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-227135.92624956652</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-303580.59441856609</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-380435.87396523316</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
+          <c:idx val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>STRAIGHT LINE</c:v>
+                  <c:v>MEAN DETERMINIZATION</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -269,6 +550,59 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>(Sheet1!$C$7,Sheet1!$E$7,Sheet1!$G$7,Sheet1!$I$7,Sheet1!$K$7)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>(Sheet1!$C$7,Sheet1!$E$7,Sheet1!$G$7,Sheet1!$I$7,Sheet1!$K$7)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>(Sheet1!$B$1,Sheet1!$D$1,Sheet1!$F$1,Sheet1!$H$1,Sheet1!$J$1)</c:f>
@@ -300,10 +634,10 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-706549.62999373302</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-153286.71304893334</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -313,138 +647,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CONSENSUS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>(Sheet1!$B$1,Sheet1!$D$1,Sheet1!$F$1,Sheet1!$H$1,Sheet1!$J$1)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(Sheet1!$B$8,Sheet1!$D$8,Sheet1!$F$8,Sheet1!$H$8,Sheet1!$J$8)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>-713035.113067133</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-154479.67325916651</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-385520.4935253333</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MEAN DETERMINIZATION</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>(Sheet1!$B$1,Sheet1!$D$1,Sheet1!$F$1,Sheet1!$H$1,Sheet1!$J$1)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(Sheet1!$B$9,Sheet1!$D$9,Sheet1!$F$9,Sheet1!$H$9,Sheet1!$J$9)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>-705558.74752460001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-153204.55133199989</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-231559.13099383321</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-303580.59441856609</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-381345.3049581995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -467,6 +669,59 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>(Sheet1!$C$2,Sheet1!$E$2,Sheet1!$G$2,Sheet1!$I$2,Sheet1!$K$2)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>(Sheet1!$C$2,Sheet1!$E$2,Sheet1!$G$2,Sheet1!$I$2,Sheet1!$K$2)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>(Sheet1!$B$1,Sheet1!$D$1,Sheet1!$F$1,Sheet1!$H$1,Sheet1!$J$1)</c:f>
@@ -498,19 +753,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>-1040694.4035340393</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-640683.5398220839</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-793622.46569497674</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-941814.03215179872</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1087830.8501382796</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -533,6 +788,59 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>(Sheet1!$C$3,Sheet1!$E$3,Sheet1!$G$3,Sheet1!$I$3,Sheet1!$K$3)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>(Sheet1!$C$3,Sheet1!$E$3,Sheet1!$G$3,Sheet1!$I$3,Sheet1!$K$3)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>(Sheet1!$B$1,Sheet1!$D$1,Sheet1!$F$1,Sheet1!$H$1,Sheet1!$J$1)</c:f>
@@ -564,30 +872,30 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="0.000">
-                  <c:v>-730572.06487864989</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-371066.35316334968</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-437732.43098749971</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-525400.91213949979</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-604953.4535333087</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="81996032"/>
-        <c:axId val="82001920"/>
+        <c:axId val="52832512"/>
+        <c:axId val="52838400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81996032"/>
+        <c:axId val="52832512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -595,26 +903,25 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82001920"/>
+        <c:crossAx val="52838400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82001920"/>
+        <c:axId val="52838400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:title>
           <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81996032"/>
+        <c:crossAx val="52832512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -627,7 +934,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -645,7 +952,7 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -788,1071 +1095,1136 @@
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>reservoir_10_0.5_10_1_ROOT_MEAN</v>
+            <v>reservoir_10_0.25_5_50_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>reservoir_10_0.5_10_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.25_5_50_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>reservoir_10_0.5_10_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_0.25_5_50_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>reservoir_10_0.5_10_10_ROOT_SAMPLE</v>
+            <v>reservoir_10_0.5_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>reservoir_10_0.5_10_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.5_10_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>reservoir_10_0.5_10_15_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_0.5_10_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>reservoir_10_0.5_10_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.5_10_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>reservoir_10_0.5_10_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_0.5_10_15_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>reservoir_10_0.5_10_5_ROOT_SAMPLE</v>
+            <v>reservoir_10_0.5_10_15_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>reservoir_10_0.5_2_1_ROOT_MEAN</v>
+            <v>reservoir_10_0.5_10_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>reservoir_10_0.5_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.5_10_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>reservoir_10_0.5_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_0.5_10_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>reservoir_10_0.5_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_10_0.5_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>reservoir_10_0.5_2_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.5_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>reservoir_10_0.5_2_15_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_0.5_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>reservoir_10_0.5_2_15_ROOT_SAMPLE</v>
+            <v>reservoir_10_0.5_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>reservoir_10_0.5_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.5_2_15_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>reservoir_10_0.5_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_0.5_2_15_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>reservoir_10_0.5_2_50_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.5_2_15_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>reservoir_10_0.5_2_50_ROOT_SAMPLE</v>
+            <v>reservoir_10_0.5_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>reservoir_10_0.5_5_1_ROOT_MEAN</v>
+            <v>reservoir_10_0.5_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87" t="str">
-            <v>reservoir_10_0.5_5_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.5_2_50_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v>reservoir_10_0.5_5_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.5_2_50_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91" t="str">
-            <v>reservoir_10_0.5_5_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.5_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93" t="str">
-            <v>reservoir_10_0.5_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_10_0.5_5_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95" t="str">
-            <v>reservoir_10_1_10_1_ROOT_MEAN</v>
+            <v>reservoir_10_0.5_5_15_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97" t="str">
-            <v>reservoir_10_1_10_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.5_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99" t="str">
-            <v>reservoir_10_1_10_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_0.5_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101" t="str">
-            <v>reservoir_10_1_10_10_ROOT_SAMPLE</v>
+            <v>reservoir_10_0.5_5_50_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103" t="str">
-            <v>reservoir_10_1_10_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.5_5_50_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105" t="str">
-            <v>reservoir_10_1_10_15_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_1_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107" t="str">
-            <v>reservoir_10_1_10_15_ROOT_SAMPLE</v>
+            <v>reservoir_10_1_10_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109" t="str">
-            <v>reservoir_10_1_10_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_1_10_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111" t="str">
-            <v>reservoir_10_1_10_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_1_10_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113" t="str">
-            <v>reservoir_10_1_10_5_ROOT_SAMPLE</v>
+            <v>reservoir_10_1_10_15_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115" t="str">
-            <v>reservoir_10_1_2_1_ROOT_MEAN</v>
+            <v>reservoir_10_1_10_15_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117" t="str">
-            <v>reservoir_10_1_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_1_10_15_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="119">
           <cell r="A119" t="str">
-            <v>reservoir_10_1_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_1_10_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="121">
           <cell r="A121" t="str">
-            <v>reservoir_10_1_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_10_1_10_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="123">
           <cell r="A123" t="str">
-            <v>reservoir_10_1_2_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_1_10_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="125">
           <cell r="A125" t="str">
-            <v>reservoir_10_1_2_15_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_1_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="127">
           <cell r="A127" t="str">
-            <v>reservoir_10_1_2_15_ROOT_SAMPLE</v>
+            <v>reservoir_10_1_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="129">
           <cell r="A129" t="str">
-            <v>reservoir_10_1_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_1_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="131">
           <cell r="A131" t="str">
-            <v>reservoir_10_1_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_1_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="133">
           <cell r="A133" t="str">
-            <v>reservoir_10_1_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_10_1_2_15_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="135">
           <cell r="A135" t="str">
-            <v>reservoir_10_1_2_50_ROOT_SAMPLE</v>
+            <v>reservoir_10_1_2_15_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="137">
           <cell r="A137" t="str">
-            <v>reservoir_10_1_5_1_ROOT_MEAN</v>
+            <v>reservoir_10_1_2_15_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="139">
           <cell r="A139" t="str">
-            <v>reservoir_10_1_5_10_ROOT_SAMPLE</v>
+            <v>reservoir_10_1_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="141">
           <cell r="A141" t="str">
-            <v>reservoir_10_1_5_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_1_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="143">
           <cell r="A143" t="str">
-            <v>reservoir_10_1_5_15_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_1_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="145">
           <cell r="A145" t="str">
-            <v>reservoir_10_1_5_15_ROOT_SAMPLE</v>
+            <v>reservoir_10_1_2_50_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="147">
           <cell r="A147" t="str">
-            <v>reservoir_10_1_5_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_1_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="149">
           <cell r="A149" t="str">
-            <v>reservoir_10_1_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_10_1_5_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="151">
           <cell r="A151" t="str">
-            <v>reservoir_10_2_10_1_ROOT_MEAN</v>
+            <v>reservoir_10_1_5_15_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="153">
           <cell r="A153" t="str">
-            <v>reservoir_10_2_10_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_1_5_15_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="155">
           <cell r="A155" t="str">
-            <v>reservoir_10_2_10_10_ROOT_SAMPLE</v>
+            <v>reservoir_10_1_5_15_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="157">
           <cell r="A157" t="str">
-            <v>reservoir_10_2_10_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_1_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="159">
           <cell r="A159" t="str">
-            <v>reservoir_10_2_10_15_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_1_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="161">
           <cell r="A161" t="str">
-            <v>reservoir_10_2_10_15_ROOT_SAMPLE</v>
+            <v>reservoir_10_1_5_50_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="163">
           <cell r="A163" t="str">
-            <v>reservoir_10_2_10_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_2_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="165">
           <cell r="A165" t="str">
-            <v>reservoir_10_2_10_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_2_10_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="167">
           <cell r="A167" t="str">
-            <v>reservoir_10_2_10_5_ROOT_SAMPLE</v>
+            <v>reservoir_10_2_10_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="169">
           <cell r="A169" t="str">
-            <v>reservoir_10_2_2_1_ROOT_MEAN</v>
+            <v>reservoir_10_2_10_15_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="171">
           <cell r="A171" t="str">
-            <v>reservoir_10_2_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_2_10_15_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="173">
           <cell r="A173" t="str">
-            <v>reservoir_10_2_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_2_10_15_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="175">
           <cell r="A175" t="str">
-            <v>reservoir_10_2_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_10_2_10_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="177">
           <cell r="A177" t="str">
-            <v>reservoir_10_2_2_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_2_10_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="179">
           <cell r="A179" t="str">
-            <v>reservoir_10_2_2_15_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_2_10_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="181">
           <cell r="A181" t="str">
-            <v>reservoir_10_2_2_15_ROOT_SAMPLE</v>
+            <v>reservoir_10_2_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="183">
           <cell r="A183" t="str">
-            <v>reservoir_10_2_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_2_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="185">
           <cell r="A185" t="str">
-            <v>reservoir_10_2_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_2_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="187">
           <cell r="A187" t="str">
-            <v>reservoir_10_2_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_10_2_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="189">
           <cell r="A189" t="str">
-            <v>reservoir_10_2_2_50_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_2_2_15_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="191">
           <cell r="A191" t="str">
-            <v>reservoir_10_2_2_50_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_2_2_15_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="193">
           <cell r="A193" t="str">
-            <v>reservoir_10_2_5_1_ROOT_MEAN</v>
+            <v>reservoir_10_2_2_15_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="195">
           <cell r="A195" t="str">
-            <v>reservoir_10_2_5_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_2_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="197">
           <cell r="A197" t="str">
-            <v>reservoir_10_2_5_10_ROOT_SAMPLE</v>
+            <v>reservoir_10_2_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="199">
           <cell r="A199" t="str">
-            <v>reservoir_10_2_5_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_2_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="201">
           <cell r="A201" t="str">
-            <v>reservoir_10_2_5_15_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_2_2_50_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="203">
           <cell r="A203" t="str">
-            <v>reservoir_10_2_5_15_ROOT_SAMPLE</v>
+            <v>reservoir_10_2_2_50_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="205">
           <cell r="A205" t="str">
-            <v>reservoir_10_2_5_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_2_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="207">
           <cell r="A207" t="str">
-            <v>reservoir_10_2_5_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_2_5_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="209">
           <cell r="A209" t="str">
-            <v>reservoir_10_2_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_10_2_5_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="211">
           <cell r="A211" t="str">
-            <v>reservoir_10_5_10_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_2_5_15_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="213">
           <cell r="A213" t="str">
-            <v>reservoir_10_5_10_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_2_5_15_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="215">
           <cell r="A215" t="str">
-            <v>reservoir_10_5_10_10_ROOT_SAMPLE</v>
+            <v>reservoir_10_2_5_15_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="217">
           <cell r="A217" t="str">
-            <v>reservoir_10_5_10_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_2_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="219">
           <cell r="A219" t="str">
-            <v>reservoir_10_5_10_15_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_2_5_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="221">
           <cell r="A221" t="str">
-            <v>reservoir_10_5_10_15_ROOT_SAMPLE</v>
+            <v>reservoir_10_2_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="223">
           <cell r="A223" t="str">
-            <v>reservoir_10_5_10_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_5_10_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="225">
           <cell r="A225" t="str">
-            <v>reservoir_10_5_10_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_5_10_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="227">
           <cell r="A227" t="str">
-            <v>reservoir_10_5_10_5_ROOT_SAMPLE</v>
+            <v>reservoir_10_5_10_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="229">
           <cell r="A229" t="str">
-            <v>reservoir_10_5_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_5_10_15_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="231">
           <cell r="A231" t="str">
-            <v>reservoir_10_5_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_5_10_15_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="233">
           <cell r="A233" t="str">
-            <v>reservoir_10_5_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_10_5_10_15_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="235">
           <cell r="A235" t="str">
-            <v>reservoir_10_5_2_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_5_10_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="237">
           <cell r="A237" t="str">
-            <v>reservoir_10_5_2_15_ROOT_SAMPLE</v>
+            <v>reservoir_10_5_10_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="239">
           <cell r="A239" t="str">
-            <v>reservoir_10_5_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_5_10_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="241">
           <cell r="A241" t="str">
-            <v>reservoir_10_5_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_5_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="243">
           <cell r="A243" t="str">
-            <v>reservoir_10_5_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_10_5_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="245">
           <cell r="A245" t="str">
-            <v>reservoir_10_5_2_50_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_5_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="247">
           <cell r="A247" t="str">
-            <v>reservoir_10_5_2_50_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_5_2_15_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="249">
           <cell r="A249" t="str">
-            <v>reservoir_10_5_2_50_ROOT_SAMPLE</v>
+            <v>reservoir_10_5_2_15_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="251">
           <cell r="A251" t="str">
-            <v>reservoir_10_5_5_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_5_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="253">
           <cell r="A253" t="str">
-            <v>reservoir_10_5_5_10_ROOT_SAMPLE</v>
+            <v>reservoir_10_5_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="255">
           <cell r="A255" t="str">
-            <v>reservoir_10_5_5_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_5_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="257">
           <cell r="A257" t="str">
-            <v>reservoir_10_5_5_15_ROOT_SAMPLE</v>
+            <v>reservoir_10_5_2_50_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="259">
           <cell r="A259" t="str">
-            <v>reservoir_10_5_5_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_5_2_50_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="261">
           <cell r="A261" t="str">
-            <v>reservoir_10_noop_noop</v>
+            <v>reservoir_10_5_2_50_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="263">
           <cell r="A263" t="str">
-            <v>reservoir_10_random_random</v>
+            <v>reservoir_10_5_5_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="265">
           <cell r="A265" t="str">
-            <v>reservoir_20_0.25_10_1_ROOT_MEAN</v>
+            <v>reservoir_10_5_5_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="267">
           <cell r="A267" t="str">
-            <v>reservoir_20_0.25_2_1_ROOT_MEAN</v>
+            <v>reservoir_10_5_5_15_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="269">
           <cell r="A269" t="str">
-            <v>reservoir_20_0.25_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_5_5_15_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="271">
           <cell r="A271" t="str">
-            <v>reservoir_20_0.25_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_5_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="273">
           <cell r="A273" t="str">
-            <v>reservoir_20_0.25_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_10_noop_noop</v>
           </cell>
         </row>
         <row r="275">
           <cell r="A275" t="str">
-            <v>reservoir_20_0.25_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_random_random</v>
           </cell>
         </row>
         <row r="277">
           <cell r="A277" t="str">
-            <v>reservoir_20_0.25_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.25_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="279">
           <cell r="A279" t="str">
-            <v>reservoir_20_0.25_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.25_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="281">
           <cell r="A281" t="str">
-            <v>reservoir_20_0.25_5_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_0.25_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="283">
           <cell r="A283" t="str">
-            <v>reservoir_20_0.25_5_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.25_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="285">
           <cell r="A285" t="str">
-            <v>reservoir_20_0.25_5_10_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.25_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="287">
           <cell r="A287" t="str">
-            <v>reservoir_20_0.25_5_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_0.25_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="289">
           <cell r="A289" t="str">
-            <v>reservoir_20_0.25_5_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.25_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="291">
           <cell r="A291" t="str">
-            <v>reservoir_20_0.25_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.25_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="293">
           <cell r="A293" t="str">
-            <v>reservoir_20_0.5_10_1_ROOT_MEAN</v>
+            <v>reservoir_20_0.25_5_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="295">
           <cell r="A295" t="str">
-            <v>reservoir_20_0.5_2_1_ROOT_MEAN</v>
+            <v>reservoir_20_0.25_5_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="297">
           <cell r="A297" t="str">
-            <v>reservoir_20_0.5_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_0.25_5_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="299">
           <cell r="A299" t="str">
-            <v>reservoir_20_0.5_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.25_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="301">
           <cell r="A301" t="str">
-            <v>reservoir_20_0.5_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.25_5_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="303">
           <cell r="A303" t="str">
-            <v>reservoir_20_0.5_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.25_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="305">
           <cell r="A305" t="str">
-            <v>reservoir_20_0.5_5_1_ROOT_MEAN</v>
+            <v>reservoir_20_0.5_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="307">
           <cell r="A307" t="str">
-            <v>reservoir_20_0.5_5_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_0.5_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="309">
           <cell r="A309" t="str">
-            <v>reservoir_20_0.5_5_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.5_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="311">
           <cell r="A311" t="str">
-            <v>reservoir_20_0.5_5_10_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.5_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="313">
           <cell r="A313" t="str">
-            <v>reservoir_20_0.5_5_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_0.5_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="315">
           <cell r="A315" t="str">
-            <v>reservoir_20_0.5_5_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.5_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="317">
           <cell r="A317" t="str">
-            <v>reservoir_20_0.5_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.5_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="319">
           <cell r="A319" t="str">
-            <v>reservoir_20_1_10_1_ROOT_MEAN</v>
+            <v>reservoir_20_0.5_5_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="321">
           <cell r="A321" t="str">
-            <v>reservoir_20_1_2_1_ROOT_MEAN</v>
+            <v>reservoir_20_0.5_5_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="323">
           <cell r="A323" t="str">
-            <v>reservoir_20_1_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_0.5_5_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="325">
           <cell r="A325" t="str">
-            <v>reservoir_20_1_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.5_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="327">
           <cell r="A327" t="str">
-            <v>reservoir_20_1_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.5_5_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="329">
           <cell r="A329" t="str">
-            <v>reservoir_20_1_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_0.5_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="331">
           <cell r="A331" t="str">
-            <v>reservoir_20_1_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_1_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="333">
           <cell r="A333" t="str">
-            <v>reservoir_20_1_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_20_1_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="335">
           <cell r="A335" t="str">
-            <v>reservoir_20_1_5_1_ROOT_MEAN</v>
+            <v>reservoir_20_1_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="337">
           <cell r="A337" t="str">
-            <v>reservoir_20_1_5_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_1_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="339">
           <cell r="A339" t="str">
-            <v>reservoir_20_1_5_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_1_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="341">
           <cell r="A341" t="str">
-            <v>reservoir_20_1_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_20_1_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="343">
           <cell r="A343" t="str">
-            <v>reservoir_20_2_10_1_ROOT_MEAN</v>
+            <v>reservoir_20_1_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="345">
           <cell r="A345" t="str">
-            <v>reservoir_20_2_2_1_ROOT_MEAN</v>
+            <v>reservoir_20_1_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="347">
           <cell r="A347" t="str">
-            <v>reservoir_20_2_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_20_1_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="349">
           <cell r="A349" t="str">
-            <v>reservoir_20_2_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_20_1_5_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="351">
           <cell r="A351" t="str">
-            <v>reservoir_20_2_5_1_ROOT_MEAN</v>
+            <v>reservoir_20_1_5_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="353">
           <cell r="A353" t="str">
-            <v>reservoir_20_2_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_20_1_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="355">
           <cell r="A355" t="str">
-            <v>reservoir_20_noop_noop</v>
+            <v>reservoir_20_1_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="357">
           <cell r="A357" t="str">
-            <v>reservoir_20_random_random</v>
+            <v>reservoir_20_2_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="359">
           <cell r="A359" t="str">
-            <v>reservoir_30_0.25_10_1_ROOT_MEAN</v>
+            <v>reservoir_20_2_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="361">
           <cell r="A361" t="str">
-            <v>reservoir_30_0.25_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_20_2_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="363">
           <cell r="A363" t="str">
-            <v>reservoir_30_0.25_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_20_2_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="365">
           <cell r="A365" t="str">
-            <v>reservoir_30_0.5_10_1_ROOT_MEAN</v>
+            <v>reservoir_20_2_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="367">
           <cell r="A367" t="str">
-            <v>reservoir_30_0.5_2_1_ROOT_MEAN</v>
+            <v>reservoir_20_2_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="369">
           <cell r="A369" t="str">
-            <v>reservoir_30_0.5_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_20_noop_noop</v>
           </cell>
         </row>
         <row r="371">
           <cell r="A371" t="str">
-            <v>reservoir_30_0.5_5_1_ROOT_MEAN</v>
+            <v>reservoir_20_random_random</v>
           </cell>
         </row>
         <row r="373">
           <cell r="A373" t="str">
-            <v>reservoir_30_0.5_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_30_0.25_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="375">
           <cell r="A375" t="str">
-            <v>reservoir_30_1_10_1_ROOT_MEAN</v>
+            <v>reservoir_30_0.25_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="377">
           <cell r="A377" t="str">
-            <v>reservoir_30_1_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_30_0.25_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="379">
           <cell r="A379" t="str">
-            <v>reservoir_30_1_5_1_ROOT_MEAN</v>
+            <v>reservoir_30_0.5_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="381">
           <cell r="A381" t="str">
-            <v>reservoir_30_1_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_30_0.5_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="383">
           <cell r="A383" t="str">
-            <v>reservoir_30_2_10_1_ROOT_MEAN</v>
+            <v>reservoir_30_0.5_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="385">
           <cell r="A385" t="str">
-            <v>reservoir_30_2_2_1_ROOT_MEAN</v>
+            <v>reservoir_30_0.5_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="387">
           <cell r="A387" t="str">
-            <v>reservoir_30_2_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_30_0.5_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="389">
           <cell r="A389" t="str">
-            <v>reservoir_30_2_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_30_1_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="391">
           <cell r="A391" t="str">
-            <v>reservoir_30_2_5_1_ROOT_MEAN</v>
+            <v>reservoir_30_1_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="393">
           <cell r="A393" t="str">
-            <v>reservoir_30_2_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_30_1_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="395">
           <cell r="A395" t="str">
-            <v>reservoir_30_noop_noop</v>
+            <v>reservoir_30_1_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="397">
           <cell r="A397" t="str">
-            <v>reservoir_30_random_random</v>
+            <v>reservoir_30_2_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="399">
           <cell r="A399" t="str">
-            <v>reservoir_40_0.25_10_1_ROOT_MEAN</v>
+            <v>reservoir_30_2_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="401">
           <cell r="A401" t="str">
-            <v>reservoir_40_0.25_2_1_ROOT_MEAN</v>
+            <v>reservoir_30_2_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="403">
           <cell r="A403" t="str">
-            <v>reservoir_40_0.25_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_30_2_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="405">
           <cell r="A405" t="str">
-            <v>reservoir_40_0.25_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_30_2_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="407">
           <cell r="A407" t="str">
-            <v>reservoir_40_0.25_5_1_ROOT_MEAN</v>
+            <v>reservoir_30_2_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="409">
           <cell r="A409" t="str">
-            <v>reservoir_40_0.5_10_1_ROOT_MEAN</v>
+            <v>reservoir_30_noop_noop</v>
           </cell>
         </row>
         <row r="411">
           <cell r="A411" t="str">
-            <v>reservoir_40_0.5_2_1_ROOT_MEAN</v>
+            <v>reservoir_30_random_random</v>
           </cell>
         </row>
         <row r="413">
           <cell r="A413" t="str">
-            <v>reservoir_40_0.5_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_40_0.25_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="415">
           <cell r="A415" t="str">
-            <v>reservoir_40_0.5_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_40_0.25_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="417">
           <cell r="A417" t="str">
-            <v>reservoir_40_1_2_1_ROOT_MEAN</v>
+            <v>reservoir_40_0.25_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="419">
           <cell r="A419" t="str">
-            <v>reservoir_40_1_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_40_0.25_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="421">
           <cell r="A421" t="str">
-            <v>reservoir_40_1_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_40_0.25_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="423">
           <cell r="A423" t="str">
-            <v>reservoir_40_1_5_1_ROOT_MEAN</v>
+            <v>reservoir_40_0.25_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="425">
           <cell r="A425" t="str">
-            <v>reservoir_40_2_10_1_ROOT_MEAN</v>
+            <v>reservoir_40_0.5_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="427">
           <cell r="A427" t="str">
-            <v>reservoir_40_2_2_1_ROOT_MEAN</v>
+            <v>reservoir_40_0.5_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="429">
           <cell r="A429" t="str">
-            <v>reservoir_40_2_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_40_0.5_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="431">
           <cell r="A431" t="str">
-            <v>reservoir_40_2_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_40_0.5_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="433">
           <cell r="A433" t="str">
-            <v>reservoir_40_2_5_1_ROOT_MEAN</v>
+            <v>reservoir_40_0.5_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="435">
           <cell r="A435" t="str">
-            <v>reservoir_40_noop_noop</v>
+            <v>reservoir_40_1_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="437">
           <cell r="A437" t="str">
-            <v>reservoir_40_random_random</v>
+            <v>reservoir_40_1_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="439">
           <cell r="A439" t="str">
-            <v>reservoir_50_0.25_10_1_ROOT_MEAN</v>
+            <v>reservoir_40_1_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="441">
           <cell r="A441" t="str">
-            <v>reservoir_50_0.25_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_40_1_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="443">
           <cell r="A443" t="str">
-            <v>reservoir_50_0.25_5_1_ROOT_MEAN</v>
+            <v>reservoir_40_1_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="445">
           <cell r="A445" t="str">
-            <v>reservoir_50_0.5_2_1_ROOT_MEAN</v>
+            <v>reservoir_40_2_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="447">
           <cell r="A447" t="str">
-            <v>reservoir_50_0.5_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_40_2_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="449">
           <cell r="A449" t="str">
-            <v>reservoir_50_0.5_5_1_ROOT_MEAN</v>
+            <v>reservoir_40_2_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="451">
           <cell r="A451" t="str">
-            <v>reservoir_50_1_10_1_ROOT_MEAN</v>
+            <v>reservoir_40_2_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="453">
           <cell r="A453" t="str">
-            <v>reservoir_50_1_2_1_ROOT_MEAN</v>
+            <v>reservoir_40_2_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="455">
           <cell r="A455" t="str">
-            <v>reservoir_50_1_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_40_noop_noop</v>
           </cell>
         </row>
         <row r="457">
           <cell r="A457" t="str">
-            <v>reservoir_50_1_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_40_random_random</v>
           </cell>
         </row>
         <row r="459">
           <cell r="A459" t="str">
-            <v>reservoir_50_1_5_1_ROOT_MEAN</v>
+            <v>reservoir_50_0.25_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="461">
           <cell r="A461" t="str">
-            <v>reservoir_50_2_10_1_ROOT_MEAN</v>
+            <v>reservoir_50_0.25_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="463">
           <cell r="A463" t="str">
-            <v>reservoir_50_2_2_1_ROOT_MEAN</v>
+            <v>reservoir_50_0.25_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="465">
           <cell r="A465" t="str">
-            <v>reservoir_50_2_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_50_0.25_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="467">
           <cell r="A467" t="str">
-            <v>reservoir_50_2_5_1_ROOT_MEAN</v>
+            <v>reservoir_50_0.5_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="469">
           <cell r="A469" t="str">
-            <v>reservoir_50_noop_noop</v>
+            <v>reservoir_50_0.5_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="471">
           <cell r="A471" t="str">
+            <v>reservoir_50_0.5_2_5_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="473">
+          <cell r="A473" t="str">
+            <v>reservoir_50_0.5_5_1_ROOT_MEAN</v>
+          </cell>
+        </row>
+        <row r="475">
+          <cell r="A475" t="str">
+            <v>reservoir_50_1_10_1_ROOT_MEAN</v>
+          </cell>
+        </row>
+        <row r="477">
+          <cell r="A477" t="str">
+            <v>reservoir_50_1_2_1_ROOT_MEAN</v>
+          </cell>
+        </row>
+        <row r="479">
+          <cell r="A479" t="str">
+            <v>reservoir_50_1_2_10_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="481">
+          <cell r="A481" t="str">
+            <v>reservoir_50_1_2_5_CONSENSUS_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="483">
+          <cell r="A483" t="str">
+            <v>reservoir_50_1_2_5_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="485">
+          <cell r="A485" t="str">
+            <v>reservoir_50_1_5_1_ROOT_MEAN</v>
+          </cell>
+        </row>
+        <row r="487">
+          <cell r="A487" t="str">
+            <v>reservoir_50_2_10_1_ROOT_MEAN</v>
+          </cell>
+        </row>
+        <row r="489">
+          <cell r="A489" t="str">
+            <v>reservoir_50_2_2_1_ROOT_MEAN</v>
+          </cell>
+        </row>
+        <row r="491">
+          <cell r="A491" t="str">
+            <v>reservoir_50_2_2_5_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="493">
+          <cell r="A493" t="str">
+            <v>reservoir_50_2_5_1_ROOT_MEAN</v>
+          </cell>
+        </row>
+        <row r="495">
+          <cell r="A495" t="str">
+            <v>reservoir_50_noop_noop</v>
+          </cell>
+        </row>
+        <row r="497">
+          <cell r="A497" t="str">
             <v>reservoir_50_random_random</v>
           </cell>
         </row>
@@ -2147,10 +2519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2168,9 +2540,9 @@
     <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1">
         <v>10</v>
@@ -2188,373 +2560,406 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;B1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;B1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-1040694.4035340393</v>
-      </c>
-      <c r="C2">
+        <v>#REF!</v>
+      </c>
+      <c r="C2" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;B1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;B1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;B1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;B1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>25840.822727708834</v>
-      </c>
-      <c r="D2" s="2">
+        <v>#REF!</v>
+      </c>
+      <c r="D2" s="2" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;D1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;D1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-640683.5398220839</v>
-      </c>
-      <c r="E2" s="3">
+        <v>#REF!</v>
+      </c>
+      <c r="E2" s="3" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$D$1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$D$1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$D$1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$D$1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>16500.131416962133</v>
-      </c>
-      <c r="F2" s="2">
+        <v>#REF!</v>
+      </c>
+      <c r="F2" s="2" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;F1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;F1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-793622.46569497674</v>
-      </c>
-      <c r="G2" s="3">
+        <v>#REF!</v>
+      </c>
+      <c r="G2" s="3" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$F$1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$F$1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$F$1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$F$1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>18638.401338375752</v>
-      </c>
-      <c r="H2" s="2">
+        <v>#REF!</v>
+      </c>
+      <c r="H2" s="2" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;H1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;H1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-941814.03215179872</v>
-      </c>
-      <c r="I2" s="3">
+        <v>#REF!</v>
+      </c>
+      <c r="I2" s="3" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$H$1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$H$1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$H$1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$H$1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>21874.728599622267</v>
-      </c>
-      <c r="J2" s="2">
+        <v>#REF!</v>
+      </c>
+      <c r="J2" s="2" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;J1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;J1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-1087830.8501382796</v>
-      </c>
-      <c r="K2" s="3">
+        <v>#REF!</v>
+      </c>
+      <c r="K2" s="3" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$J$1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$J$1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$J$1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$J$1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>21094.660496211738</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="1" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;B1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;B1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-730572.06487864989</v>
-      </c>
-      <c r="C3">
+        <v>#REF!</v>
+      </c>
+      <c r="C3" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;B1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;B1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;B1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;B1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>24616.534391881643</v>
-      </c>
-      <c r="D3" s="2">
+        <v>#REF!</v>
+      </c>
+      <c r="D3" s="2" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;D1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;D1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-371066.35316334968</v>
-      </c>
-      <c r="E3" s="3">
+        <v>#REF!</v>
+      </c>
+      <c r="E3" s="3" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;D1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;D1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;D1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;D1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>13498.908938073539</v>
-      </c>
-      <c r="F3" s="2">
+        <v>#REF!</v>
+      </c>
+      <c r="F3" s="2" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;F1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;F1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-437732.43098749971</v>
-      </c>
-      <c r="G3" s="3">
+        <v>#REF!</v>
+      </c>
+      <c r="G3" s="3" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;F1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;F1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;F1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;F1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>13293.925853681592</v>
-      </c>
-      <c r="H3" s="2">
+        <v>#REF!</v>
+      </c>
+      <c r="H3" s="2" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;H1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;H1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-525400.91213949979</v>
-      </c>
-      <c r="I3" s="3">
+        <v>#REF!</v>
+      </c>
+      <c r="I3" s="3" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$H$1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$H$1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$H$1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$H$1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>13000.107852977553</v>
-      </c>
-      <c r="J3" s="2">
+        <v>#REF!</v>
+      </c>
+      <c r="J3" s="2" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;J1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;J1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-604953.4535333087</v>
-      </c>
-      <c r="K3" s="3">
+        <v>#REF!</v>
+      </c>
+      <c r="K3" s="3" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$J$1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$J$1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$J$1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$J$1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>19054.720276859789</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="e">
+        <f t="array" aca="1" ref="B4" ca="1">MAX( IF(  ISNA(raw!E2:E61), "", raw!E2:E61 ) )</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C4" t="e">
+        <f t="array" aca="1" ref="C4" ca="1">INDIRECT( "raw!"&amp;"F"&amp;(1+MATCH(B4, raw!E2:E61, 0) ) )</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D4" t="e">
+        <f t="array" aca="1" ref="D4" ca="1">MAX( IF(  ISNA(raw!G2:G61), "", raw!G2:G61 ) )</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E4" t="e">
+        <f ca="1" xml:space="preserve"> INDIRECT("raw!"&amp;"H"&amp;(1+MATCH(D4, raw!G2:G61, 0)))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F4" t="e">
+        <f t="array" aca="1" ref="F4" ca="1">MAX( IF(  ISNA(raw!I2:I61), "", raw!I2:I61 ) )</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G4" t="e">
+        <f ca="1" xml:space="preserve"> INDIRECT("raw!"&amp;"J"&amp;(1+MATCH(F4, raw!I2:I61, 0)))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H4" t="e">
+        <f t="array" aca="1" ref="H4" ca="1">MAX( IF(  ISNA(raw!K2:K61), "", raw!K2:K61 ) )</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I4" t="e">
+        <f ca="1" xml:space="preserve"> INDIRECT("raw!"&amp;"L"&amp;(1+MATCH(H4, raw!K2:K61, 0)))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J4" t="e">
+        <f t="array" aca="1" ref="J4" ca="1">MAX( IF(  ISNA(raw!M2:M61), "", raw!M2:M61 ) )</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K4" t="e">
+        <f ca="1" xml:space="preserve"> INDIRECT("raw!"&amp;"N"&amp;(1+MATCH(J4, raw!M2:M61, 0)))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="e">
+        <f t="array" aca="1" ref="B5" ca="1">MAX( IF(  ISNA(raw!E64:E123), "", raw!E64:E123 ) )</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C5" t="e">
+        <f t="array" aca="1" ref="C5" ca="1">INDIRECT( "raw!"&amp;"F"&amp;(63+MATCH(B5, raw!E64:E123, 0) ) )</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D5" s="3" t="e">
+        <f t="array" aca="1" ref="D5" ca="1">MAX( IF(  ISNA(raw!G64:G123), "", raw!G64:G123 ) )</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E5" t="e">
+        <f ca="1">INDIRECT( "raw!"&amp;"H"&amp;(63+MATCH(D5, raw!G64:G123, 0) ) )</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="array" aca="1" ref="F5" ca="1">MAX( IF(  ISNA(raw!I64:I123), "", raw!I64:I123 ) )</f>
+        <v>0</v>
+      </c>
+      <c r="G5" t="e">
+        <f ca="1">INDIRECT( "raw!"&amp;"J"&amp;(63+MATCH(F5, raw!I64:I123, 0) ) )</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="array" aca="1" ref="H5" ca="1">MAX( IF(  ISNA(raw!K64:K123), "", raw!K64:K123 ) )</f>
+        <v>0</v>
+      </c>
+      <c r="I5" t="e">
+        <f t="array" aca="1" ref="I5" ca="1">INDIRECT( "raw!"&amp;"L"&amp;(63+MATCH(H5, raw!K64:K123, 0) ) )</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="array" aca="1" ref="J5" ca="1">MAX( IF(  ISNA(raw!M64:M123), "", raw!M64:M123 ) )</f>
+        <v>0</v>
+      </c>
+      <c r="K5" t="e">
+        <f t="array" aca="1" ref="K5" ca="1">INDIRECT( "raw!"&amp;"N"&amp;(63+MATCH(J5, raw!M64:M123, 0) ) )</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6">
-        <f t="array" aca="1" ref="B6" ca="1">MAX( IF(  ISNA(raw!E2:E61), "", raw!E2:E61 ) )</f>
-        <v>-705558.74752460001</v>
-      </c>
-      <c r="C6">
-        <f t="array" aca="1" ref="C6" ca="1">INDIRECT( "raw!"&amp;"F"&amp;(1+MATCH(B6, raw!E2:E61, 0) ) )</f>
-        <v>40139.800010333158</v>
-      </c>
-      <c r="D6">
-        <f t="array" aca="1" ref="D6" ca="1">MAX( IF(  ISNA(raw!G2:G61), "", raw!G2:G61 ) )</f>
-        <v>-151004.78483646669</v>
-      </c>
-      <c r="E6">
-        <f ca="1" xml:space="preserve"> INDIRECT("raw!"&amp;"H"&amp;(1+MATCH(D6, raw!G2:G61, 0)))</f>
-        <v>331.22314261665247</v>
-      </c>
-      <c r="F6">
-        <f t="array" aca="1" ref="F6" ca="1">MAX( IF(  ISNA(raw!I2:I61), "", raw!I2:I61 ) )</f>
-        <v>-227135.92624956652</v>
-      </c>
-      <c r="G6">
-        <f ca="1" xml:space="preserve"> INDIRECT("raw!"&amp;"J"&amp;(1+MATCH(F6, raw!I2:I61, 0)))</f>
-        <v>838.67820589256996</v>
-      </c>
-      <c r="H6">
-        <f t="array" aca="1" ref="H6" ca="1">MAX( IF(  ISNA(raw!K2:K61), "", raw!K2:K61 ) )</f>
-        <v>-303580.59441856609</v>
-      </c>
-      <c r="I6">
-        <f ca="1" xml:space="preserve"> INDIRECT("raw!"&amp;"L"&amp;(1+MATCH(H6, raw!K2:K61, 0)))</f>
-        <v>1124.0477006857859</v>
-      </c>
-      <c r="J6">
-        <f t="array" aca="1" ref="J6" ca="1">MAX( IF(  ISNA(raw!M2:M61), "", raw!M2:M61 ) )</f>
-        <v>-380435.87396523316</v>
-      </c>
-      <c r="K6">
-        <f ca="1" xml:space="preserve"> INDIRECT("raw!"&amp;"N"&amp;(1+MATCH(J6, raw!M2:M61, 0)))</f>
-        <v>1035.7199735960439</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="e">
+        <f t="array" aca="1" ref="B6" ca="1">MAX( IF(  ISNA(raw!E125:E172), "", raw!E125:E172 ) )</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C6" t="e">
+        <f ca="1">INDIRECT( "raw!"&amp;"F"&amp;(124+MATCH(B6, raw!E125:E172, 0) ) )</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D6" s="3" t="e">
+        <f t="array" aca="1" ref="D6" ca="1">MAX( IF(  ISNA(raw!G125:G172), "", raw!G125:G172 ) )</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E6" t="e">
+        <f ca="1">INDIRECT( "raw!"&amp;"H"&amp;(124+MATCH(D6, raw!G125:G172, 0) ) )</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="array" aca="1" ref="F6" ca="1">MAX( IF(  ISNA(raw!I125:I172), "", raw!I125:I172 ) )</f>
+        <v>0</v>
+      </c>
+      <c r="G6" t="e">
+        <f ca="1">INDIRECT( "raw!"&amp;"J"&amp;(124+MATCH(F6, raw!I125:I172, 0) ) )</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="array" aca="1" ref="H6" ca="1">MAX( IF(  ISNA(raw!K125:K172), "", raw!K125:K172 ) )</f>
+        <v>0</v>
+      </c>
+      <c r="I6" t="e">
+        <f ca="1">INDIRECT( "raw!"&amp;"L"&amp;(124+MATCH(H6, raw!K125:K172, 0) ) )</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J6" s="3" t="e">
+        <f t="array" aca="1" ref="J6" ca="1">MAX( IF(  ISNA(raw!M125:M172), "", raw!M125:M172 ) )</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K6" t="e">
+        <f ca="1">INDIRECT( "raw!"&amp;"N"&amp;(124+MATCH(J6, raw!M125:M172, 0) ) )</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3">
-        <f t="array" aca="1" ref="B7" ca="1">MAX( IF(  ISNA(raw!E64:E123), "", raw!E64:E123 ) )</f>
-        <v>-706549.62999373302</v>
-      </c>
-      <c r="C7">
-        <f t="array" aca="1" ref="C7" ca="1">INDIRECT( "raw!"&amp;"F"&amp;(63+MATCH(B7, raw!E64:E123, 0) ) )</f>
-        <v>40189.103171348601</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="array" aca="1" ref="D7" ca="1">MAX( IF(  ISNA(raw!G64:G123), "", raw!G64:G123 ) )</f>
-        <v>-153286.71304893334</v>
-      </c>
-      <c r="E7">
-        <f ca="1">INDIRECT( "raw!"&amp;"H"&amp;(63+MATCH(D7, raw!G64:G123, 0) ) )</f>
-        <v>1540.3828499440026</v>
-      </c>
-      <c r="F7" s="3">
-        <f t="array" aca="1" ref="F7" ca="1">MAX( IF(  ISNA(raw!I64:I123), "", raw!I64:I123 ) )</f>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="e">
+        <f ca="1">MAX( IF(  ISNA(raw!E175:E186), "", raw!E175:E186 ) )</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C7" t="e">
+        <f ca="1">INDIRECT( "raw!"&amp;"F"&amp;(174+MATCH(B7, raw!E175:E186, 0) ) )</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D7" s="3" t="e">
+        <f t="array" aca="1" ref="D7" ca="1">MAX( IF(  ISNA(raw!G175:G186), "", raw!G175:G186 ) )</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E7" t="e">
+        <f ca="1">INDIRECT( "raw!"&amp;"H"&amp;(174+MATCH(D7, raw!G175:G186, 0) ) )</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F7" s="3" t="e">
+        <f t="array" aca="1" ref="F7" ca="1">MAX( IF(  ISNA(raw!I175:I186), "", raw!I175:I186 ) )</f>
+        <v>#REF!</v>
       </c>
       <c r="G7" t="e">
-        <f ca="1">INDIRECT( "raw!"&amp;"J"&amp;(63+MATCH(F7, raw!I64:I123, 0) ) )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H7" s="3">
-        <f t="array" aca="1" ref="H7" ca="1">MAX( IF(  ISNA(raw!K64:K123), "", raw!K64:K123 ) )</f>
-        <v>0</v>
+        <f ca="1">INDIRECT( "raw!"&amp;"J"&amp;(174+MATCH(F7, raw!I175:I186, 0) ) )</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H7" s="3" t="e">
+        <f t="array" aca="1" ref="H7" ca="1">MAX( IF(  ISNA(raw!K175:K186), "", raw!K175:K186 ) )</f>
+        <v>#REF!</v>
       </c>
       <c r="I7" t="e">
-        <f t="array" aca="1" ref="I7" ca="1">INDIRECT( "raw!"&amp;"L"&amp;(63+MATCH(H7, raw!K64:K123, 0) ) )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J7" s="3">
-        <f t="array" aca="1" ref="J7" ca="1">MAX( IF(  ISNA(raw!M64:M123), "", raw!M64:M123 ) )</f>
-        <v>0</v>
+        <f ca="1">INDIRECT( "raw!"&amp;"L"&amp;(174+MATCH(H7, raw!K175:K186, 0) ) )</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J7" s="3" t="e">
+        <f t="array" aca="1" ref="J7" ca="1">MAX( IF(  ISNA(raw!M175:M186), "", raw!M175:M186 ) )</f>
+        <v>#REF!</v>
       </c>
       <c r="K7" t="e">
-        <f t="array" aca="1" ref="K7" ca="1">INDIRECT( "raw!"&amp;"N"&amp;(63+MATCH(J7, raw!M64:M123, 0) ) )</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
+        <f ca="1">INDIRECT( "raw!"&amp;"N"&amp;(174+MATCH(J7, raw!M175:M186, 0) ) )</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
-        <f t="array" aca="1" ref="B8" ca="1">MAX( IF(  ISNA(raw!E125:E172), "", raw!E125:E172 ) )</f>
-        <v>-713035.113067133</v>
-      </c>
-      <c r="C8">
-        <f ca="1">INDIRECT( "raw!"&amp;"F"&amp;(124+MATCH(B8, raw!E125:E172, 0) ) )</f>
-        <v>40414.684129262867</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="array" aca="1" ref="D8" ca="1">MAX( IF(  ISNA(raw!G125:G172), "", raw!G125:G172 ) )</f>
-        <v>-154479.67325916651</v>
-      </c>
-      <c r="E8">
-        <f ca="1">INDIRECT( "raw!"&amp;"H"&amp;(124+MATCH(D8, raw!G125:G172, 0) ) )</f>
-        <v>1011.4446417538953</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="array" aca="1" ref="F8" ca="1">MAX( IF(  ISNA(raw!I125:I172), "", raw!I125:I172 ) )</f>
-        <v>0</v>
-      </c>
-      <c r="G8" t="e">
-        <f ca="1">INDIRECT( "raw!"&amp;"J"&amp;(124+MATCH(F8, raw!I125:I172, 0) ) )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H8" s="3">
-        <f t="array" aca="1" ref="H8" ca="1">MAX( IF(  ISNA(raw!K125:K172), "", raw!K125:K172 ) )</f>
-        <v>0</v>
-      </c>
-      <c r="I8" t="e">
-        <f ca="1">INDIRECT( "raw!"&amp;"L"&amp;(124+MATCH(H8, raw!K125:K172, 0) ) )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J8" s="3">
-        <f t="array" aca="1" ref="J8" ca="1">MAX( IF(  ISNA(raw!M125:M172), "", raw!M125:M172 ) )</f>
-        <v>-385520.4935253333</v>
-      </c>
-      <c r="K8">
-        <f ca="1">INDIRECT( "raw!"&amp;"N"&amp;(124+MATCH(J8, raw!M125:M172, 0) ) )</f>
-        <v>6491.5669504263406</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <f ca="1">MAX( IF(  ISNA(raw!E175:E186), "", raw!E175:E186 ) )</f>
-        <v>-705558.74752460001</v>
-      </c>
-      <c r="C9">
-        <f ca="1">INDIRECT( "raw!"&amp;"F"&amp;(174+MATCH(B9, raw!E175:E186, 0) ) )</f>
-        <v>40139.800010333158</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="array" aca="1" ref="D9" ca="1">MAX( IF(  ISNA(raw!G175:G186), "", raw!G175:G186 ) )</f>
-        <v>-153204.55133199989</v>
-      </c>
-      <c r="E9">
-        <f ca="1">INDIRECT( "raw!"&amp;"H"&amp;(174+MATCH(D9, raw!G175:G186, 0) ) )</f>
-        <v>805.80560200835032</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="array" aca="1" ref="F9" ca="1">MAX( IF(  ISNA(raw!I175:I186), "", raw!I175:I186 ) )</f>
-        <v>-231559.13099383321</v>
-      </c>
-      <c r="G9">
-        <f ca="1">INDIRECT( "raw!"&amp;"J"&amp;(174+MATCH(F9, raw!I175:I186, 0) ) )</f>
-        <v>1203.0885711158926</v>
-      </c>
-      <c r="H9" s="3">
-        <f t="array" aca="1" ref="H9" ca="1">MAX( IF(  ISNA(raw!K175:K186), "", raw!K175:K186 ) )</f>
-        <v>-303580.59441856609</v>
-      </c>
-      <c r="I9">
-        <f ca="1">INDIRECT( "raw!"&amp;"L"&amp;(174+MATCH(H9, raw!K175:K186, 0) ) )</f>
-        <v>1124.0477006857859</v>
-      </c>
-      <c r="J9" s="3">
-        <f t="array" aca="1" ref="J9" ca="1">MAX( IF(  ISNA(raw!M175:M186), "", raw!M175:M186 ) )</f>
-        <v>-381345.3049581995</v>
-      </c>
-      <c r="K9">
-        <f ca="1">INDIRECT( "raw!"&amp;"N"&amp;(174+MATCH(J9, raw!M175:M186, 0) ) )</f>
-        <v>1655.1433948237407</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>12</v>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21">
-        <v>30</v>
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>0.25</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>10</v>
+      <c r="A23">
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:K7">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B7">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D7">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F7">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H7">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J7">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2564,8 +2969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O186"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2584,16 +2989,16 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
       </c>
       <c r="E1">
         <v>10</v>
@@ -2624,21 +3029,21 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-707176.27752059989</v>
-      </c>
-      <c r="F2">
+        <v>#REF!</v>
+      </c>
+      <c r="F2" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39855.890614731688</v>
-      </c>
-      <c r="G2">
+        <v>#REF!</v>
+      </c>
+      <c r="G2" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-155121.34840939988</v>
-      </c>
-      <c r="H2">
+        <v>#REF!</v>
+      </c>
+      <c r="H2" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1456.5715260852623</v>
+        <v>#REF!</v>
       </c>
       <c r="I2" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -2648,13 +3053,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-306498.174091933</v>
-      </c>
-      <c r="L2">
+        <v>#REF!</v>
+      </c>
+      <c r="L2" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1255.0521047624875</v>
+        <v>#REF!</v>
       </c>
       <c r="M2" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -2678,13 +3083,13 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-707976.29801479972</v>
-      </c>
-      <c r="F3">
+        <v>#REF!</v>
+      </c>
+      <c r="F3" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39738.507186243398</v>
+        <v>#REF!</v>
       </c>
       <c r="G3" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -2702,21 +3107,21 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-304668.19096086634</v>
-      </c>
-      <c r="L3">
+        <v>#REF!</v>
+      </c>
+      <c r="L3" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1249.8824290964753</v>
-      </c>
-      <c r="M3">
+        <v>#REF!</v>
+      </c>
+      <c r="M3" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-381345.3049581995</v>
-      </c>
-      <c r="N3">
+        <v>#REF!</v>
+      </c>
+      <c r="N3" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1655.1433948237407</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -2732,45 +3137,45 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-706103.40030039928</v>
-      </c>
-      <c r="F4">
+        <v>#REF!</v>
+      </c>
+      <c r="F4" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40125.131817608206</v>
-      </c>
-      <c r="G4">
+        <v>#REF!</v>
+      </c>
+      <c r="G4" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-154082.36758016652</v>
-      </c>
-      <c r="H4">
+        <v>#REF!</v>
+      </c>
+      <c r="H4" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1177.2073551443777</v>
-      </c>
-      <c r="I4">
+        <v>#REF!</v>
+      </c>
+      <c r="I4" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-235294.04376306655</v>
-      </c>
-      <c r="J4">
+        <v>#REF!</v>
+      </c>
+      <c r="J4" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>3158.6318952781353</v>
-      </c>
-      <c r="K4">
+        <v>#REF!</v>
+      </c>
+      <c r="K4" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-319334.26670403284</v>
-      </c>
-      <c r="L4">
+        <v>#REF!</v>
+      </c>
+      <c r="L4" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>9927.0192716546553</v>
-      </c>
-      <c r="M4">
+        <v>#REF!</v>
+      </c>
+      <c r="M4" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-405128.92717929941</v>
-      </c>
-      <c r="N4">
+        <v>#REF!</v>
+      </c>
+      <c r="N4" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>21877.569130300075</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -2786,45 +3191,45 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-714143.28883299965</v>
-      </c>
-      <c r="F5">
+        <v>#REF!</v>
+      </c>
+      <c r="F5" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>38877.167416105498</v>
-      </c>
-      <c r="G5">
+        <v>#REF!</v>
+      </c>
+      <c r="G5" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-156512.00641349982</v>
-      </c>
-      <c r="H5">
+        <v>#REF!</v>
+      </c>
+      <c r="H5" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1422.4305356111629</v>
-      </c>
-      <c r="I5">
+        <v>#REF!</v>
+      </c>
+      <c r="I5" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-231559.13099383321</v>
-      </c>
-      <c r="J5">
+        <v>#REF!</v>
+      </c>
+      <c r="J5" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1203.0885711158926</v>
-      </c>
-      <c r="K5">
+        <v>#REF!</v>
+      </c>
+      <c r="K5" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-304522.55471549986</v>
-      </c>
-      <c r="L5">
+        <v>#REF!</v>
+      </c>
+      <c r="L5" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1186.679407033387</v>
-      </c>
-      <c r="M5">
+        <v>#REF!</v>
+      </c>
+      <c r="M5" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-381776.27758256649</v>
-      </c>
-      <c r="N5">
+        <v>#REF!</v>
+      </c>
+      <c r="N5" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1565.1670245883972</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2840,29 +3245,29 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-708566.26914166659</v>
+        <v>#REF!</v>
       </c>
       <c r="F6" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E4&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E4&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E4&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E4&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G6">
+        <v>#REF!</v>
+      </c>
+      <c r="G6" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-156119.75830389981</v>
-      </c>
-      <c r="H6">
+        <v>#REF!</v>
+      </c>
+      <c r="H6" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1591.5309955257499</v>
-      </c>
-      <c r="I6">
+        <v>#REF!</v>
+      </c>
+      <c r="I6" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-232691.83142523331</v>
-      </c>
-      <c r="J6">
+        <v>#REF!</v>
+      </c>
+      <c r="J6" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1924.686525893464</v>
+        <v>#REF!</v>
       </c>
       <c r="K6" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -2872,13 +3277,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-381631.11392139958</v>
-      </c>
-      <c r="N6">
+        <v>#REF!</v>
+      </c>
+      <c r="N6" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1459.3547047436343</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2894,37 +3299,37 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-705643.65988346632</v>
-      </c>
-      <c r="F7">
+        <v>#REF!</v>
+      </c>
+      <c r="F7" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40281.680381093189</v>
-      </c>
-      <c r="G7">
+        <v>#REF!</v>
+      </c>
+      <c r="G7" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-154990.3696792332</v>
-      </c>
-      <c r="H7">
+        <v>#REF!</v>
+      </c>
+      <c r="H7" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1127.1445578645835</v>
-      </c>
-      <c r="I7">
+        <v>#REF!</v>
+      </c>
+      <c r="I7" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-234169.83567736656</v>
-      </c>
-      <c r="J7">
+        <v>#REF!</v>
+      </c>
+      <c r="J7" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>2330.3084105465932</v>
-      </c>
-      <c r="K7">
+        <v>#REF!</v>
+      </c>
+      <c r="K7" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-309591.58502159955</v>
-      </c>
-      <c r="L7">
+        <v>#REF!</v>
+      </c>
+      <c r="L7" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>2831.3024900898117</v>
+        <v>#REF!</v>
       </c>
       <c r="M7" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -2948,21 +3353,21 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-707989.0735569332</v>
-      </c>
-      <c r="F8">
+        <v>#REF!</v>
+      </c>
+      <c r="F8" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40475.706227699484</v>
-      </c>
-      <c r="G8">
+        <v>#REF!</v>
+      </c>
+      <c r="G8" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-157172.3165227999</v>
-      </c>
-      <c r="H8">
+        <v>#REF!</v>
+      </c>
+      <c r="H8" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1476.8600927089458</v>
+        <v>#REF!</v>
       </c>
       <c r="I8" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -2972,21 +3377,21 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-305644.62943713303</v>
-      </c>
-      <c r="L8">
+        <v>#REF!</v>
+      </c>
+      <c r="L8" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1194.7146052286687</v>
-      </c>
-      <c r="M8">
+        <v>#REF!</v>
+      </c>
+      <c r="M8" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-382647.63756826619</v>
-      </c>
-      <c r="N8">
+        <v>#REF!</v>
+      </c>
+      <c r="N8" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>2227.2711662026813</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -3002,45 +3407,45 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-708551.13385009975</v>
-      </c>
-      <c r="F9">
+        <v>#REF!</v>
+      </c>
+      <c r="F9" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40236.894173354267</v>
-      </c>
-      <c r="G9">
+        <v>#REF!</v>
+      </c>
+      <c r="G9" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-156124.84147639995</v>
-      </c>
-      <c r="H9">
+        <v>#REF!</v>
+      </c>
+      <c r="H9" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1626.4742080983451</v>
-      </c>
-      <c r="I9">
+        <v>#REF!</v>
+      </c>
+      <c r="I9" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-232696.00473556653</v>
-      </c>
-      <c r="J9">
+        <v>#REF!</v>
+      </c>
+      <c r="J9" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1677.8228923353715</v>
-      </c>
-      <c r="K9">
+        <v>#REF!</v>
+      </c>
+      <c r="K9" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-303580.59441856609</v>
-      </c>
-      <c r="L9">
+        <v>#REF!</v>
+      </c>
+      <c r="L9" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1124.0477006857859</v>
-      </c>
-      <c r="M9">
+        <v>#REF!</v>
+      </c>
+      <c r="M9" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-382889.62196043285</v>
-      </c>
-      <c r="N9">
+        <v>#REF!</v>
+      </c>
+      <c r="N9" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>2106.6192195777394</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -3056,29 +3461,29 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-705558.74752460001</v>
-      </c>
-      <c r="F10">
+        <v>#REF!</v>
+      </c>
+      <c r="F10" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40139.800010333158</v>
-      </c>
-      <c r="G10">
+        <v>#REF!</v>
+      </c>
+      <c r="G10" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-153380.85815563324</v>
-      </c>
-      <c r="H10">
+        <v>#REF!</v>
+      </c>
+      <c r="H10" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1093.7278415012156</v>
-      </c>
-      <c r="I10">
+        <v>#REF!</v>
+      </c>
+      <c r="I10" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-234161.44414396663</v>
-      </c>
-      <c r="J10">
+        <v>#REF!</v>
+      </c>
+      <c r="J10" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>2535.8417624859931</v>
+        <v>#REF!</v>
       </c>
       <c r="K10" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -3088,13 +3493,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-384358.30849809939</v>
-      </c>
-      <c r="N10">
+        <v>#REF!</v>
+      </c>
+      <c r="N10" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>2602.9255264928879</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -3110,45 +3515,45 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-706300.03440493334</v>
-      </c>
-      <c r="F11">
+        <v>#REF!</v>
+      </c>
+      <c r="F11" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40803.957418211096</v>
-      </c>
-      <c r="G11">
+        <v>#REF!</v>
+      </c>
+      <c r="G11" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-158214.54124379982</v>
-      </c>
-      <c r="H11">
+        <v>#REF!</v>
+      </c>
+      <c r="H11" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1803.5727611976006</v>
-      </c>
-      <c r="I11">
+        <v>#REF!</v>
+      </c>
+      <c r="I11" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-232874.65566329969</v>
-      </c>
-      <c r="J11">
+        <v>#REF!</v>
+      </c>
+      <c r="J11" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1791.3972650362718</v>
-      </c>
-      <c r="K11">
+        <v>#REF!</v>
+      </c>
+      <c r="K11" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-306149.75874109974</v>
-      </c>
-      <c r="L11">
+        <v>#REF!</v>
+      </c>
+      <c r="L11" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1214.2441235958843</v>
-      </c>
-      <c r="M11">
+        <v>#REF!</v>
+      </c>
+      <c r="M11" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-382585.64683653292</v>
-      </c>
-      <c r="N11">
+        <v>#REF!</v>
+      </c>
+      <c r="N11" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1495.7481806413066</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -3164,45 +3569,45 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-709560.32436303294</v>
-      </c>
-      <c r="F12">
+        <v>#REF!</v>
+      </c>
+      <c r="F12" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39782.183561187376</v>
-      </c>
-      <c r="G12">
+        <v>#REF!</v>
+      </c>
+      <c r="G12" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-157120.03041009995</v>
-      </c>
-      <c r="H12">
+        <v>#REF!</v>
+      </c>
+      <c r="H12" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1446.5655300872577</v>
-      </c>
-      <c r="I12">
+        <v>#REF!</v>
+      </c>
+      <c r="I12" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-231820.20982006646</v>
-      </c>
-      <c r="J12">
+        <v>#REF!</v>
+      </c>
+      <c r="J12" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>2096.0807463683077</v>
-      </c>
-      <c r="K12">
+        <v>#REF!</v>
+      </c>
+      <c r="K12" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-304675.48072336626</v>
-      </c>
-      <c r="L12">
+        <v>#REF!</v>
+      </c>
+      <c r="L12" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1616.6550729638523</v>
-      </c>
-      <c r="M12">
+        <v>#REF!</v>
+      </c>
+      <c r="M12" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-382543.71589863283</v>
-      </c>
-      <c r="N12">
+        <v>#REF!</v>
+      </c>
+      <c r="N12" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>2113.2504216093844</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -3218,45 +3623,45 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-706146.38933343301</v>
-      </c>
-      <c r="F13">
+        <v>#REF!</v>
+      </c>
+      <c r="F13" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40227.833965427875</v>
-      </c>
-      <c r="G13">
+        <v>#REF!</v>
+      </c>
+      <c r="G13" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-153204.55133199989</v>
-      </c>
-      <c r="H13">
+        <v>#REF!</v>
+      </c>
+      <c r="H13" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>805.80560200835032</v>
-      </c>
-      <c r="I13">
+        <v>#REF!</v>
+      </c>
+      <c r="I13" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-235875.23647013301</v>
-      </c>
-      <c r="J13">
+        <v>#REF!</v>
+      </c>
+      <c r="J13" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>3308.5650726480067</v>
-      </c>
-      <c r="K13">
+        <v>#REF!</v>
+      </c>
+      <c r="K13" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-308070.09497569932</v>
-      </c>
-      <c r="L13">
+        <v>#REF!</v>
+      </c>
+      <c r="L13" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>2542.9820515049364</v>
-      </c>
-      <c r="M13">
+        <v>#REF!</v>
+      </c>
+      <c r="M13" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-387783.60361573286</v>
-      </c>
-      <c r="N13">
+        <v>#REF!</v>
+      </c>
+      <c r="N13" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>3305.8787894986522</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -3272,21 +3677,21 @@
       <c r="D14">
         <v>5</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-708354.66271083301</v>
-      </c>
-      <c r="F14">
+        <v>#REF!</v>
+      </c>
+      <c r="F14" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40348.617225192662</v>
-      </c>
-      <c r="G14">
+        <v>#REF!</v>
+      </c>
+      <c r="G14" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-154843.33727323316</v>
-      </c>
-      <c r="H14">
+        <v>#REF!</v>
+      </c>
+      <c r="H14" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1029.3425311819519</v>
+        <v>#REF!</v>
       </c>
       <c r="I14" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -3296,21 +3701,21 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-304871.40265066648</v>
-      </c>
-      <c r="L14">
+        <v>#REF!</v>
+      </c>
+      <c r="L14" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>971.77974559010818</v>
-      </c>
-      <c r="M14">
+        <v>#REF!</v>
+      </c>
+      <c r="M14" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-392535.69308073324</v>
-      </c>
-      <c r="N14">
+        <v>#REF!</v>
+      </c>
+      <c r="N14" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>23642.67062391643</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -3326,37 +3731,37 @@
       <c r="D15">
         <v>5</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-712666.43021396652</v>
-      </c>
-      <c r="F15">
+        <v>#REF!</v>
+      </c>
+      <c r="F15" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39847.355988397991</v>
-      </c>
-      <c r="G15">
+        <v>#REF!</v>
+      </c>
+      <c r="G15" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-152523.14369376667</v>
-      </c>
-      <c r="H15">
+        <v>#REF!</v>
+      </c>
+      <c r="H15" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1567.5241494811539</v>
-      </c>
-      <c r="I15">
+        <v>#REF!</v>
+      </c>
+      <c r="I15" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-230154.6530391665</v>
-      </c>
-      <c r="J15">
+        <v>#REF!</v>
+      </c>
+      <c r="J15" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>3180.8286936033937</v>
+        <v>#REF!</v>
       </c>
       <c r="K15" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L15" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="M15" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -3380,13 +3785,13 @@
       <c r="D16">
         <v>5</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C16&amp;"_"&amp;B16&amp;"_"&amp;D16&amp;"_"&amp;A16&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C16&amp;"_"&amp;B16&amp;"_"&amp;D16&amp;"_"&amp;A16&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-733045.43069279951</v>
-      </c>
-      <c r="F16">
+        <v>#REF!</v>
+      </c>
+      <c r="F16" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C16&amp;"_"&amp;B16&amp;"_"&amp;D16&amp;"_"&amp;A16&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C16&amp;"_"&amp;B16&amp;"_"&amp;D16&amp;"_"&amp;A16&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C16&amp;"_"&amp;B16&amp;"_"&amp;D16&amp;"_"&amp;A16&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C16&amp;"_"&amp;B16&amp;"_"&amp;D16&amp;"_"&amp;A16&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>38394.629508467398</v>
+        <v>#REF!</v>
       </c>
       <c r="G16" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C16&amp;"_"&amp;B16&amp;"_"&amp;D16&amp;"_"&amp;A16&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C16&amp;"_"&amp;B16&amp;"_"&amp;D16&amp;"_"&amp;A16&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -3458,21 +3863,21 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-306196.70714129967</v>
-      </c>
-      <c r="L17">
+        <v>#REF!</v>
+      </c>
+      <c r="L17" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1392.8996413635805</v>
-      </c>
-      <c r="M17">
+        <v>#REF!</v>
+      </c>
+      <c r="M17" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-381044.18098769989</v>
-      </c>
-      <c r="N17">
+        <v>#REF!</v>
+      </c>
+      <c r="N17" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1367.7896869551089</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -3488,37 +3893,37 @@
       <c r="D18">
         <v>5</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-710729.47429503326</v>
-      </c>
-      <c r="F18">
+        <v>#REF!</v>
+      </c>
+      <c r="F18" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39957.880652231535</v>
-      </c>
-      <c r="G18">
+        <v>#REF!</v>
+      </c>
+      <c r="G18" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-154977.5600046333</v>
-      </c>
-      <c r="H18">
+        <v>#REF!</v>
+      </c>
+      <c r="H18" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>7431.1136457822877</v>
-      </c>
-      <c r="I18">
+        <v>#REF!</v>
+      </c>
+      <c r="I18" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-227519.40325543334</v>
-      </c>
-      <c r="J18">
+        <v>#REF!</v>
+      </c>
+      <c r="J18" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>759.84999822858526</v>
+        <v>#REF!</v>
       </c>
       <c r="K18" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L18" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="M18" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -3542,13 +3947,13 @@
       <c r="D19">
         <v>5</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C19&amp;"_"&amp;B19&amp;"_"&amp;D19&amp;"_"&amp;A19&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C19&amp;"_"&amp;B19&amp;"_"&amp;D19&amp;"_"&amp;A19&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-750009.68659553293</v>
+        <v>#REF!</v>
       </c>
       <c r="F19" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C19&amp;"_"&amp;B19&amp;"_"&amp;D19&amp;"_"&amp;A19&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C19&amp;"_"&amp;B19&amp;"_"&amp;D19&amp;"_"&amp;A19&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C19&amp;"_"&amp;B19&amp;"_"&amp;D19&amp;"_"&amp;A19&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C19&amp;"_"&amp;B19&amp;"_"&amp;D19&amp;"_"&amp;A19&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="G19" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C19&amp;"_"&amp;B19&amp;"_"&amp;D19&amp;"_"&amp;A19&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C19&amp;"_"&amp;B19&amp;"_"&amp;D19&amp;"_"&amp;A19&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -3596,45 +4001,45 @@
       <c r="D20">
         <v>5</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-706746.04652696638</v>
-      </c>
-      <c r="F20">
+        <v>#REF!</v>
+      </c>
+      <c r="F20" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40098.766931812279</v>
-      </c>
-      <c r="G20">
+        <v>#REF!</v>
+      </c>
+      <c r="G20" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-155392.99714359985</v>
-      </c>
-      <c r="H20">
+        <v>#REF!</v>
+      </c>
+      <c r="H20" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1279.3291701854496</v>
-      </c>
-      <c r="I20">
+        <v>#REF!</v>
+      </c>
+      <c r="I20" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-231300.75912346659</v>
-      </c>
-      <c r="J20">
+        <v>#REF!</v>
+      </c>
+      <c r="J20" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1371.7301207557211</v>
-      </c>
-      <c r="K20">
+        <v>#REF!</v>
+      </c>
+      <c r="K20" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-304690.04398036649</v>
-      </c>
-      <c r="L20">
+        <v>#REF!</v>
+      </c>
+      <c r="L20" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1173.1834817198642</v>
-      </c>
-      <c r="M20">
+        <v>#REF!</v>
+      </c>
+      <c r="M20" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-381649.40912036638</v>
-      </c>
-      <c r="N20">
+        <v>#REF!</v>
+      </c>
+      <c r="N20" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1737.1878343554597</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -3650,37 +4055,37 @@
       <c r="D21">
         <v>5</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-709293.04800919991</v>
-      </c>
-      <c r="F21">
+        <v>#REF!</v>
+      </c>
+      <c r="F21" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40019.626090797821</v>
-      </c>
-      <c r="G21">
+        <v>#REF!</v>
+      </c>
+      <c r="G21" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-151140.33433659998</v>
-      </c>
-      <c r="H21">
+        <v>#REF!</v>
+      </c>
+      <c r="H21" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>564.22042106520564</v>
-      </c>
-      <c r="I21">
+        <v>#REF!</v>
+      </c>
+      <c r="I21" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-228393.99913639991</v>
-      </c>
-      <c r="J21">
+        <v>#REF!</v>
+      </c>
+      <c r="J21" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1337.4811028063486</v>
+        <v>#REF!</v>
       </c>
       <c r="K21" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L21" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="M21" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -3704,13 +4109,13 @@
       <c r="D22">
         <v>5</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C22&amp;"_"&amp;B22&amp;"_"&amp;D22&amp;"_"&amp;A22&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C22&amp;"_"&amp;B22&amp;"_"&amp;D22&amp;"_"&amp;A22&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-773535.59881746641</v>
-      </c>
-      <c r="F22">
+        <v>#REF!</v>
+      </c>
+      <c r="F22" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C22&amp;"_"&amp;B22&amp;"_"&amp;D22&amp;"_"&amp;A22&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C22&amp;"_"&amp;B22&amp;"_"&amp;D22&amp;"_"&amp;A22&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C22&amp;"_"&amp;B22&amp;"_"&amp;D22&amp;"_"&amp;A22&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C22&amp;"_"&amp;B22&amp;"_"&amp;D22&amp;"_"&amp;A22&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>37424.006452447087</v>
+        <v>#REF!</v>
       </c>
       <c r="G22" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C22&amp;"_"&amp;B22&amp;"_"&amp;D22&amp;"_"&amp;A22&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C22&amp;"_"&amp;B22&amp;"_"&amp;D22&amp;"_"&amp;A22&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -3758,45 +4163,45 @@
       <c r="D23">
         <v>5</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-707811.19175023271</v>
-      </c>
-      <c r="F23">
+        <v>#REF!</v>
+      </c>
+      <c r="F23" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40208.437091762557</v>
-      </c>
-      <c r="G23">
+        <v>#REF!</v>
+      </c>
+      <c r="G23" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-154634.03764569978</v>
-      </c>
-      <c r="H23">
+        <v>#REF!</v>
+      </c>
+      <c r="H23" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1347.5115957793255</v>
-      </c>
-      <c r="I23">
+        <v>#REF!</v>
+      </c>
+      <c r="I23" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-232403.21034536647</v>
-      </c>
-      <c r="J23">
+        <v>#REF!</v>
+      </c>
+      <c r="J23" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1737.1676754480518</v>
-      </c>
-      <c r="K23">
+        <v>#REF!</v>
+      </c>
+      <c r="K23" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-305331.83041136654</v>
-      </c>
-      <c r="L23">
+        <v>#REF!</v>
+      </c>
+      <c r="L23" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1344.8895128164982</v>
-      </c>
-      <c r="M23">
+        <v>#REF!</v>
+      </c>
+      <c r="M23" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-380435.87396523316</v>
-      </c>
-      <c r="N23">
+        <v>#REF!</v>
+      </c>
+      <c r="N23" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1035.7199735960439</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -3812,29 +4217,29 @@
       <c r="D24">
         <v>5</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-708426.35977360001</v>
-      </c>
-      <c r="F24">
+        <v>#REF!</v>
+      </c>
+      <c r="F24" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40181.329055406415</v>
-      </c>
-      <c r="G24">
+        <v>#REF!</v>
+      </c>
+      <c r="G24" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-151004.78483646669</v>
-      </c>
-      <c r="H24">
+        <v>#REF!</v>
+      </c>
+      <c r="H24" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>331.22314261665247</v>
-      </c>
-      <c r="I24">
+        <v>#REF!</v>
+      </c>
+      <c r="I24" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-227135.92624956652</v>
-      </c>
-      <c r="J24">
+        <v>#REF!</v>
+      </c>
+      <c r="J24" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>838.67820589256996</v>
+        <v>#REF!</v>
       </c>
       <c r="K24" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -3866,13 +4271,13 @@
       <c r="D25">
         <v>5</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C25&amp;"_"&amp;B25&amp;"_"&amp;D25&amp;"_"&amp;A25&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C25&amp;"_"&amp;B25&amp;"_"&amp;D25&amp;"_"&amp;A25&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-740969.70362759952</v>
-      </c>
-      <c r="F25">
+        <v>#REF!</v>
+      </c>
+      <c r="F25" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C25&amp;"_"&amp;B25&amp;"_"&amp;D25&amp;"_"&amp;A25&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C25&amp;"_"&amp;B25&amp;"_"&amp;D25&amp;"_"&amp;A25&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C25&amp;"_"&amp;B25&amp;"_"&amp;D25&amp;"_"&amp;A25&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C25&amp;"_"&amp;B25&amp;"_"&amp;D25&amp;"_"&amp;A25&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40993.554614234432</v>
+        <v>#REF!</v>
       </c>
       <c r="G25" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C25&amp;"_"&amp;B25&amp;"_"&amp;D25&amp;"_"&amp;A25&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C25&amp;"_"&amp;B25&amp;"_"&amp;D25&amp;"_"&amp;A25&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -3920,45 +4325,45 @@
       <c r="D26">
         <v>10</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-710017.80558049981</v>
-      </c>
-      <c r="F26">
+        <v>#REF!</v>
+      </c>
+      <c r="F26" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40360.92961446158</v>
-      </c>
-      <c r="G26">
+        <v>#REF!</v>
+      </c>
+      <c r="G26" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-155334.55564659979</v>
-      </c>
-      <c r="H26">
+        <v>#REF!</v>
+      </c>
+      <c r="H26" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1364.0753475778208</v>
-      </c>
-      <c r="I26">
+        <v>#REF!</v>
+      </c>
+      <c r="I26" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-294374.43877483328</v>
-      </c>
-      <c r="J26">
+        <v>#REF!</v>
+      </c>
+      <c r="J26" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>37230.456842516811</v>
-      </c>
-      <c r="K26">
+        <v>#REF!</v>
+      </c>
+      <c r="K26" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-313684.48887339974</v>
-      </c>
-      <c r="L26">
+        <v>#REF!</v>
+      </c>
+      <c r="L26" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>15253.388665133776</v>
+        <v>#REF!</v>
       </c>
       <c r="M26" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="N26" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -3980,15 +4385,15 @@
       </c>
       <c r="F27" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C27&amp;"_"&amp;B27&amp;"_"&amp;D27&amp;"_"&amp;A27&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C27&amp;"_"&amp;B27&amp;"_"&amp;D27&amp;"_"&amp;A27&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C27&amp;"_"&amp;B27&amp;"_"&amp;D27&amp;"_"&amp;A27&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C27&amp;"_"&amp;B27&amp;"_"&amp;D27&amp;"_"&amp;A27&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G27">
+        <v>#REF!</v>
+      </c>
+      <c r="G27" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C27&amp;"_"&amp;B27&amp;"_"&amp;D27&amp;"_"&amp;A27&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C27&amp;"_"&amp;B27&amp;"_"&amp;D27&amp;"_"&amp;A27&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-385263.72531576641</v>
-      </c>
-      <c r="H27">
+        <v>#REF!</v>
+      </c>
+      <c r="H27" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C27&amp;"_"&amp;B27&amp;"_"&amp;D27&amp;"_"&amp;A27&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C27&amp;"_"&amp;B27&amp;"_"&amp;D27&amp;"_"&amp;A27&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C27&amp;"_"&amp;B27&amp;"_"&amp;D27&amp;"_"&amp;A27&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C27&amp;"_"&amp;B27&amp;"_"&amp;D27&amp;"_"&amp;A27&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>17300.867445495416</v>
+        <v>#REF!</v>
       </c>
       <c r="I27" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C27&amp;"_"&amp;B27&amp;"_"&amp;D27&amp;"_"&amp;A27&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C27&amp;"_"&amp;B27&amp;"_"&amp;D27&amp;"_"&amp;A27&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -4028,13 +4433,13 @@
       <c r="D28">
         <v>10</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C28&amp;"_"&amp;B28&amp;"_"&amp;D28&amp;"_"&amp;A28&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C28&amp;"_"&amp;B28&amp;"_"&amp;D28&amp;"_"&amp;A28&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-730924.02649516624</v>
+        <v>#REF!</v>
       </c>
       <c r="F28" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C28&amp;"_"&amp;B28&amp;"_"&amp;D28&amp;"_"&amp;A28&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C28&amp;"_"&amp;B28&amp;"_"&amp;D28&amp;"_"&amp;A28&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C28&amp;"_"&amp;B28&amp;"_"&amp;D28&amp;"_"&amp;A28&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C28&amp;"_"&amp;B28&amp;"_"&amp;D28&amp;"_"&amp;A28&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="G28" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C28&amp;"_"&amp;B28&amp;"_"&amp;D28&amp;"_"&amp;A28&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C28&amp;"_"&amp;B28&amp;"_"&amp;D28&amp;"_"&amp;A28&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -4082,45 +4487,45 @@
       <c r="D29">
         <v>10</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-707681.55103869957</v>
-      </c>
-      <c r="F29">
+        <v>#REF!</v>
+      </c>
+      <c r="F29" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40639.020483363041</v>
-      </c>
-      <c r="G29">
+        <v>#REF!</v>
+      </c>
+      <c r="G29" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-153930.90511303328</v>
-      </c>
-      <c r="H29">
+        <v>#REF!</v>
+      </c>
+      <c r="H29" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>805.02794287099903</v>
-      </c>
-      <c r="I29">
+        <v>#REF!</v>
+      </c>
+      <c r="I29" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-230778.29135099991</v>
-      </c>
-      <c r="J29">
+        <v>#REF!</v>
+      </c>
+      <c r="J29" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1247.4499697070132</v>
-      </c>
-      <c r="K29">
+        <v>#REF!</v>
+      </c>
+      <c r="K29" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-304813.72248853318</v>
-      </c>
-      <c r="L29">
+        <v>#REF!</v>
+      </c>
+      <c r="L29" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1172.3272650141967</v>
+        <v>#REF!</v>
       </c>
       <c r="M29" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="N29" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -4142,15 +4547,15 @@
       </c>
       <c r="F30" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C30&amp;"_"&amp;B30&amp;"_"&amp;D30&amp;"_"&amp;A30&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C30&amp;"_"&amp;B30&amp;"_"&amp;D30&amp;"_"&amp;A30&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C30&amp;"_"&amp;B30&amp;"_"&amp;D30&amp;"_"&amp;A30&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C30&amp;"_"&amp;B30&amp;"_"&amp;D30&amp;"_"&amp;A30&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G30">
+        <v>#REF!</v>
+      </c>
+      <c r="G30" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C30&amp;"_"&amp;B30&amp;"_"&amp;D30&amp;"_"&amp;A30&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C30&amp;"_"&amp;B30&amp;"_"&amp;D30&amp;"_"&amp;A30&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-154533.34929799987</v>
-      </c>
-      <c r="H30">
+        <v>#REF!</v>
+      </c>
+      <c r="H30" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C30&amp;"_"&amp;B30&amp;"_"&amp;D30&amp;"_"&amp;A30&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C30&amp;"_"&amp;B30&amp;"_"&amp;D30&amp;"_"&amp;A30&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C30&amp;"_"&amp;B30&amp;"_"&amp;D30&amp;"_"&amp;A30&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C30&amp;"_"&amp;B30&amp;"_"&amp;D30&amp;"_"&amp;A30&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>3085.2781540686315</v>
+        <v>#REF!</v>
       </c>
       <c r="I30" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C30&amp;"_"&amp;B30&amp;"_"&amp;D30&amp;"_"&amp;A30&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C30&amp;"_"&amp;B30&amp;"_"&amp;D30&amp;"_"&amp;A30&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -4190,13 +4595,13 @@
       <c r="D31">
         <v>10</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C31&amp;"_"&amp;B31&amp;"_"&amp;D31&amp;"_"&amp;A31&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C31&amp;"_"&amp;B31&amp;"_"&amp;D31&amp;"_"&amp;A31&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-730991.83668766613</v>
+        <v>#REF!</v>
       </c>
       <c r="F31" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C31&amp;"_"&amp;B31&amp;"_"&amp;D31&amp;"_"&amp;A31&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C31&amp;"_"&amp;B31&amp;"_"&amp;D31&amp;"_"&amp;A31&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C31&amp;"_"&amp;B31&amp;"_"&amp;D31&amp;"_"&amp;A31&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C31&amp;"_"&amp;B31&amp;"_"&amp;D31&amp;"_"&amp;A31&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="G31" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C31&amp;"_"&amp;B31&amp;"_"&amp;D31&amp;"_"&amp;A31&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C31&amp;"_"&amp;B31&amp;"_"&amp;D31&amp;"_"&amp;A31&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -4244,21 +4649,21 @@
       <c r="D32">
         <v>10</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-707955.80275453313</v>
-      </c>
-      <c r="F32">
+        <v>#REF!</v>
+      </c>
+      <c r="F32" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39337.24707605705</v>
-      </c>
-      <c r="G32">
+        <v>#REF!</v>
+      </c>
+      <c r="G32" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-154378.51402019986</v>
-      </c>
-      <c r="H32">
+        <v>#REF!</v>
+      </c>
+      <c r="H32" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1338.9881336939552</v>
+        <v>#REF!</v>
       </c>
       <c r="I32" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -4268,21 +4673,21 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="K32">
+      <c r="K32" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-305393.32058683311</v>
-      </c>
-      <c r="L32">
+        <v>#REF!</v>
+      </c>
+      <c r="L32" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1520.1685962827185</v>
+        <v>#REF!</v>
       </c>
       <c r="M32" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="N32" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -4298,13 +4703,13 @@
       <c r="D33">
         <v>10</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-709461.00719539984</v>
-      </c>
-      <c r="F33">
+        <v>#REF!</v>
+      </c>
+      <c r="F33" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39759.085613775074</v>
+        <v>#REF!</v>
       </c>
       <c r="G33" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -4352,13 +4757,13 @@
       <c r="D34">
         <v>10</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C34&amp;"_"&amp;B34&amp;"_"&amp;D34&amp;"_"&amp;A34&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C34&amp;"_"&amp;B34&amp;"_"&amp;D34&amp;"_"&amp;A34&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-730924.02649516624</v>
-      </c>
-      <c r="F34">
+        <v>#REF!</v>
+      </c>
+      <c r="F34" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C34&amp;"_"&amp;B34&amp;"_"&amp;D34&amp;"_"&amp;A34&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C34&amp;"_"&amp;B34&amp;"_"&amp;D34&amp;"_"&amp;A34&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C34&amp;"_"&amp;B34&amp;"_"&amp;D34&amp;"_"&amp;A34&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C34&amp;"_"&amp;B34&amp;"_"&amp;D34&amp;"_"&amp;A34&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39209.763780033019</v>
+        <v>#REF!</v>
       </c>
       <c r="G34" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C34&amp;"_"&amp;B34&amp;"_"&amp;D34&amp;"_"&amp;A34&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C34&amp;"_"&amp;B34&amp;"_"&amp;D34&amp;"_"&amp;A34&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -4406,37 +4811,37 @@
       <c r="D35">
         <v>10</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-706648.56090229948</v>
-      </c>
-      <c r="F35">
+        <v>#REF!</v>
+      </c>
+      <c r="F35" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40159.741416499659</v>
-      </c>
-      <c r="G35">
+        <v>#REF!</v>
+      </c>
+      <c r="G35" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-153833.97406919996</v>
-      </c>
-      <c r="H35">
+        <v>#REF!</v>
+      </c>
+      <c r="H35" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1045.4007821595526</v>
-      </c>
-      <c r="I35">
+        <v>#REF!</v>
+      </c>
+      <c r="I35" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-230208.6270922331</v>
-      </c>
-      <c r="J35">
+        <v>#REF!</v>
+      </c>
+      <c r="J35" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1074.3805587772806</v>
-      </c>
-      <c r="K35">
+        <v>#REF!</v>
+      </c>
+      <c r="K35" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-305594.8805512999</v>
-      </c>
-      <c r="L35">
+        <v>#REF!</v>
+      </c>
+      <c r="L35" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1353.7619531072282</v>
+        <v>#REF!</v>
       </c>
       <c r="M35" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -4460,13 +4865,13 @@
       <c r="D36">
         <v>10</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C36&amp;"_"&amp;B36&amp;"_"&amp;D36&amp;"_"&amp;A36&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C36&amp;"_"&amp;B36&amp;"_"&amp;D36&amp;"_"&amp;A36&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-706559.657350066</v>
-      </c>
-      <c r="F36">
+        <v>#REF!</v>
+      </c>
+      <c r="F36" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C36&amp;"_"&amp;B36&amp;"_"&amp;D36&amp;"_"&amp;A36&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C36&amp;"_"&amp;B36&amp;"_"&amp;D36&amp;"_"&amp;A36&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C36&amp;"_"&amp;B36&amp;"_"&amp;D36&amp;"_"&amp;A36&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C36&amp;"_"&amp;B36&amp;"_"&amp;D36&amp;"_"&amp;A36&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40048.241726450608</v>
+        <v>#REF!</v>
       </c>
       <c r="G36" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C36&amp;"_"&amp;B36&amp;"_"&amp;D36&amp;"_"&amp;A36&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C36&amp;"_"&amp;B36&amp;"_"&amp;D36&amp;"_"&amp;A36&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -4514,13 +4919,13 @@
       <c r="D37">
         <v>10</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C37&amp;"_"&amp;B37&amp;"_"&amp;D37&amp;"_"&amp;A37&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C37&amp;"_"&amp;B37&amp;"_"&amp;D37&amp;"_"&amp;A37&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-731507.23811789963</v>
-      </c>
-      <c r="F37">
+        <v>#REF!</v>
+      </c>
+      <c r="F37" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C37&amp;"_"&amp;B37&amp;"_"&amp;D37&amp;"_"&amp;A37&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C37&amp;"_"&amp;B37&amp;"_"&amp;D37&amp;"_"&amp;A37&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C37&amp;"_"&amp;B37&amp;"_"&amp;D37&amp;"_"&amp;A37&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C37&amp;"_"&amp;B37&amp;"_"&amp;D37&amp;"_"&amp;A37&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39531.263700325624</v>
+        <v>#REF!</v>
       </c>
       <c r="G37" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C37&amp;"_"&amp;B37&amp;"_"&amp;D37&amp;"_"&amp;A37&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C37&amp;"_"&amp;B37&amp;"_"&amp;D37&amp;"_"&amp;A37&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -4568,13 +4973,13 @@
       <c r="D38">
         <v>15</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C38&amp;"_"&amp;B38&amp;"_"&amp;D38&amp;"_"&amp;A38&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C38&amp;"_"&amp;B38&amp;"_"&amp;D38&amp;"_"&amp;A38&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-709021.09014419978</v>
-      </c>
-      <c r="F38">
+        <v>#REF!</v>
+      </c>
+      <c r="F38" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C38&amp;"_"&amp;B38&amp;"_"&amp;D38&amp;"_"&amp;A38&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C38&amp;"_"&amp;B38&amp;"_"&amp;D38&amp;"_"&amp;A38&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C38&amp;"_"&amp;B38&amp;"_"&amp;D38&amp;"_"&amp;A38&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C38&amp;"_"&amp;B38&amp;"_"&amp;D38&amp;"_"&amp;A38&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40113.59854833554</v>
+        <v>#REF!</v>
       </c>
       <c r="G38" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C38&amp;"_"&amp;B38&amp;"_"&amp;D38&amp;"_"&amp;A38&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C38&amp;"_"&amp;B38&amp;"_"&amp;D38&amp;"_"&amp;A38&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -4622,13 +5027,13 @@
       <c r="D39">
         <v>15</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C39&amp;"_"&amp;B39&amp;"_"&amp;D39&amp;"_"&amp;A39&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C39&amp;"_"&amp;B39&amp;"_"&amp;D39&amp;"_"&amp;A39&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-835883.99848549964</v>
+        <v>#REF!</v>
       </c>
       <c r="F39" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C39&amp;"_"&amp;B39&amp;"_"&amp;D39&amp;"_"&amp;A39&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C39&amp;"_"&amp;B39&amp;"_"&amp;D39&amp;"_"&amp;A39&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C39&amp;"_"&amp;B39&amp;"_"&amp;D39&amp;"_"&amp;A39&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C39&amp;"_"&amp;B39&amp;"_"&amp;D39&amp;"_"&amp;A39&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="G39" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C39&amp;"_"&amp;B39&amp;"_"&amp;D39&amp;"_"&amp;A39&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C39&amp;"_"&amp;B39&amp;"_"&amp;D39&amp;"_"&amp;A39&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -4676,13 +5081,13 @@
       <c r="D40">
         <v>15</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C40&amp;"_"&amp;B40&amp;"_"&amp;D40&amp;"_"&amp;A40&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C40&amp;"_"&amp;B40&amp;"_"&amp;D40&amp;"_"&amp;A40&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-730924.02649516624</v>
+        <v>#REF!</v>
       </c>
       <c r="F40" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C40&amp;"_"&amp;B40&amp;"_"&amp;D40&amp;"_"&amp;A40&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C40&amp;"_"&amp;B40&amp;"_"&amp;D40&amp;"_"&amp;A40&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C40&amp;"_"&amp;B40&amp;"_"&amp;D40&amp;"_"&amp;A40&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C40&amp;"_"&amp;B40&amp;"_"&amp;D40&amp;"_"&amp;A40&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="G40" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C40&amp;"_"&amp;B40&amp;"_"&amp;D40&amp;"_"&amp;A40&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C40&amp;"_"&amp;B40&amp;"_"&amp;D40&amp;"_"&amp;A40&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -4730,13 +5135,13 @@
       <c r="D41">
         <v>15</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C41&amp;"_"&amp;B41&amp;"_"&amp;D41&amp;"_"&amp;A41&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C41&amp;"_"&amp;B41&amp;"_"&amp;D41&amp;"_"&amp;A41&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-708492.99496816634</v>
-      </c>
-      <c r="F41">
+        <v>#REF!</v>
+      </c>
+      <c r="F41" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C41&amp;"_"&amp;B41&amp;"_"&amp;D41&amp;"_"&amp;A41&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C41&amp;"_"&amp;B41&amp;"_"&amp;D41&amp;"_"&amp;A41&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C41&amp;"_"&amp;B41&amp;"_"&amp;D41&amp;"_"&amp;A41&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C41&amp;"_"&amp;B41&amp;"_"&amp;D41&amp;"_"&amp;A41&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40027.392959266581</v>
+        <v>#REF!</v>
       </c>
       <c r="G41" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C41&amp;"_"&amp;B41&amp;"_"&amp;D41&amp;"_"&amp;A41&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C41&amp;"_"&amp;B41&amp;"_"&amp;D41&amp;"_"&amp;A41&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -4790,7 +5195,7 @@
       </c>
       <c r="F42" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C42&amp;"_"&amp;B42&amp;"_"&amp;D42&amp;"_"&amp;A42&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C42&amp;"_"&amp;B42&amp;"_"&amp;D42&amp;"_"&amp;A42&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C42&amp;"_"&amp;B42&amp;"_"&amp;D42&amp;"_"&amp;A42&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C42&amp;"_"&amp;B42&amp;"_"&amp;D42&amp;"_"&amp;A42&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="G42" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C42&amp;"_"&amp;B42&amp;"_"&amp;D42&amp;"_"&amp;A42&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C42&amp;"_"&amp;B42&amp;"_"&amp;D42&amp;"_"&amp;A42&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -4892,13 +5297,13 @@
       <c r="D44">
         <v>15</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C44&amp;"_"&amp;B44&amp;"_"&amp;D44&amp;"_"&amp;A44&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C44&amp;"_"&amp;B44&amp;"_"&amp;D44&amp;"_"&amp;A44&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-710976.60654949979</v>
-      </c>
-      <c r="F44">
+        <v>#REF!</v>
+      </c>
+      <c r="F44" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C44&amp;"_"&amp;B44&amp;"_"&amp;D44&amp;"_"&amp;A44&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C44&amp;"_"&amp;B44&amp;"_"&amp;D44&amp;"_"&amp;A44&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C44&amp;"_"&amp;B44&amp;"_"&amp;D44&amp;"_"&amp;A44&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C44&amp;"_"&amp;B44&amp;"_"&amp;D44&amp;"_"&amp;A44&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40337.642309405266</v>
+        <v>#REF!</v>
       </c>
       <c r="G44" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C44&amp;"_"&amp;B44&amp;"_"&amp;D44&amp;"_"&amp;A44&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C44&amp;"_"&amp;B44&amp;"_"&amp;D44&amp;"_"&amp;A44&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -4946,13 +5351,13 @@
       <c r="D45">
         <v>15</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C45&amp;"_"&amp;B45&amp;"_"&amp;D45&amp;"_"&amp;A45&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C45&amp;"_"&amp;B45&amp;"_"&amp;D45&amp;"_"&amp;A45&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-714960.4189565666</v>
-      </c>
-      <c r="F45">
+        <v>#REF!</v>
+      </c>
+      <c r="F45" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C45&amp;"_"&amp;B45&amp;"_"&amp;D45&amp;"_"&amp;A45&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C45&amp;"_"&amp;B45&amp;"_"&amp;D45&amp;"_"&amp;A45&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C45&amp;"_"&amp;B45&amp;"_"&amp;D45&amp;"_"&amp;A45&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C45&amp;"_"&amp;B45&amp;"_"&amp;D45&amp;"_"&amp;A45&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40366.434513595312</v>
+        <v>#REF!</v>
       </c>
       <c r="G45" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C45&amp;"_"&amp;B45&amp;"_"&amp;D45&amp;"_"&amp;A45&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C45&amp;"_"&amp;B45&amp;"_"&amp;D45&amp;"_"&amp;A45&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -5000,13 +5405,13 @@
       <c r="D46">
         <v>15</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-730924.02649516624</v>
-      </c>
-      <c r="F46">
+        <v>#REF!</v>
+      </c>
+      <c r="F46" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39209.763780033019</v>
+        <v>#REF!</v>
       </c>
       <c r="G46" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -5054,13 +5459,13 @@
       <c r="D47">
         <v>15</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C47&amp;"_"&amp;B47&amp;"_"&amp;D47&amp;"_"&amp;A47&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C47&amp;"_"&amp;B47&amp;"_"&amp;D47&amp;"_"&amp;A47&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-708497.52910989977</v>
-      </c>
-      <c r="F47">
+        <v>#REF!</v>
+      </c>
+      <c r="F47" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C47&amp;"_"&amp;B47&amp;"_"&amp;D47&amp;"_"&amp;A47&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C47&amp;"_"&amp;B47&amp;"_"&amp;D47&amp;"_"&amp;A47&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C47&amp;"_"&amp;B47&amp;"_"&amp;D47&amp;"_"&amp;A47&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C47&amp;"_"&amp;B47&amp;"_"&amp;D47&amp;"_"&amp;A47&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39716.755846609776</v>
+        <v>#REF!</v>
       </c>
       <c r="G47" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C47&amp;"_"&amp;B47&amp;"_"&amp;D47&amp;"_"&amp;A47&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C47&amp;"_"&amp;B47&amp;"_"&amp;D47&amp;"_"&amp;A47&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -5108,13 +5513,13 @@
       <c r="D48">
         <v>15</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C48&amp;"_"&amp;B48&amp;"_"&amp;D48&amp;"_"&amp;A48&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C48&amp;"_"&amp;B48&amp;"_"&amp;D48&amp;"_"&amp;A48&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-711384.42396793317</v>
-      </c>
-      <c r="F48">
+        <v>#REF!</v>
+      </c>
+      <c r="F48" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C48&amp;"_"&amp;B48&amp;"_"&amp;D48&amp;"_"&amp;A48&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C48&amp;"_"&amp;B48&amp;"_"&amp;D48&amp;"_"&amp;A48&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C48&amp;"_"&amp;B48&amp;"_"&amp;D48&amp;"_"&amp;A48&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C48&amp;"_"&amp;B48&amp;"_"&amp;D48&amp;"_"&amp;A48&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39701.410599280047</v>
+        <v>#REF!</v>
       </c>
       <c r="G48" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C48&amp;"_"&amp;B48&amp;"_"&amp;D48&amp;"_"&amp;A48&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C48&amp;"_"&amp;B48&amp;"_"&amp;D48&amp;"_"&amp;A48&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -5162,13 +5567,13 @@
       <c r="D49">
         <v>15</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C49&amp;"_"&amp;B49&amp;"_"&amp;D49&amp;"_"&amp;A49&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C49&amp;"_"&amp;B49&amp;"_"&amp;D49&amp;"_"&amp;A49&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-730924.02649516624</v>
-      </c>
-      <c r="F49">
+        <v>#REF!</v>
+      </c>
+      <c r="F49" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C49&amp;"_"&amp;B49&amp;"_"&amp;D49&amp;"_"&amp;A49&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C49&amp;"_"&amp;B49&amp;"_"&amp;D49&amp;"_"&amp;A49&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C49&amp;"_"&amp;B49&amp;"_"&amp;D49&amp;"_"&amp;A49&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C49&amp;"_"&amp;B49&amp;"_"&amp;D49&amp;"_"&amp;A49&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39209.763780033019</v>
+        <v>#REF!</v>
       </c>
       <c r="G49" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C49&amp;"_"&amp;B49&amp;"_"&amp;D49&amp;"_"&amp;A49&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C49&amp;"_"&amp;B49&amp;"_"&amp;D49&amp;"_"&amp;A49&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -5222,7 +5627,7 @@
       </c>
       <c r="F50" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E5&amp;"_"&amp;C50&amp;"_"&amp;B50&amp;"_"&amp;D50&amp;"_"&amp;A50&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E5&amp;"_"&amp;C50&amp;"_"&amp;B50&amp;"_"&amp;D50&amp;"_"&amp;A50&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E5&amp;"_"&amp;C50&amp;"_"&amp;B50&amp;"_"&amp;D50&amp;"_"&amp;A50&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E5&amp;"_"&amp;C50&amp;"_"&amp;B50&amp;"_"&amp;D50&amp;"_"&amp;A50&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="G50" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C50&amp;"_"&amp;B50&amp;"_"&amp;D50&amp;"_"&amp;A50&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C50&amp;"_"&amp;B50&amp;"_"&amp;D50&amp;"_"&amp;A50&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -5276,7 +5681,7 @@
       </c>
       <c r="F51" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E6&amp;"_"&amp;C51&amp;"_"&amp;B51&amp;"_"&amp;D51&amp;"_"&amp;A51&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E6&amp;"_"&amp;C51&amp;"_"&amp;B51&amp;"_"&amp;D51&amp;"_"&amp;A51&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E6&amp;"_"&amp;C51&amp;"_"&amp;B51&amp;"_"&amp;D51&amp;"_"&amp;A51&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E6&amp;"_"&amp;C51&amp;"_"&amp;B51&amp;"_"&amp;D51&amp;"_"&amp;A51&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="G51" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C51&amp;"_"&amp;B51&amp;"_"&amp;D51&amp;"_"&amp;A51&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C51&amp;"_"&amp;B51&amp;"_"&amp;D51&amp;"_"&amp;A51&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -5330,7 +5735,7 @@
       </c>
       <c r="F52" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E7&amp;"_"&amp;C52&amp;"_"&amp;B52&amp;"_"&amp;D52&amp;"_"&amp;A52&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E7&amp;"_"&amp;C52&amp;"_"&amp;B52&amp;"_"&amp;D52&amp;"_"&amp;A52&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E7&amp;"_"&amp;C52&amp;"_"&amp;B52&amp;"_"&amp;D52&amp;"_"&amp;A52&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E7&amp;"_"&amp;C52&amp;"_"&amp;B52&amp;"_"&amp;D52&amp;"_"&amp;A52&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="G52" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C52&amp;"_"&amp;B52&amp;"_"&amp;D52&amp;"_"&amp;A52&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C52&amp;"_"&amp;B52&amp;"_"&amp;D52&amp;"_"&amp;A52&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -5438,7 +5843,7 @@
       </c>
       <c r="F54" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E14&amp;"_"&amp;C54&amp;"_"&amp;B54&amp;"_"&amp;D54&amp;"_"&amp;A54&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E14&amp;"_"&amp;C54&amp;"_"&amp;B54&amp;"_"&amp;D54&amp;"_"&amp;A54&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E14&amp;"_"&amp;C54&amp;"_"&amp;B54&amp;"_"&amp;D54&amp;"_"&amp;A54&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E14&amp;"_"&amp;C54&amp;"_"&amp;B54&amp;"_"&amp;D54&amp;"_"&amp;A54&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="G54" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C54&amp;"_"&amp;B54&amp;"_"&amp;D54&amp;"_"&amp;A54&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C54&amp;"_"&amp;B54&amp;"_"&amp;D54&amp;"_"&amp;A54&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -5492,7 +5897,7 @@
       </c>
       <c r="F55" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E15&amp;"_"&amp;C55&amp;"_"&amp;B55&amp;"_"&amp;D55&amp;"_"&amp;A55&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E15&amp;"_"&amp;C55&amp;"_"&amp;B55&amp;"_"&amp;D55&amp;"_"&amp;A55&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E15&amp;"_"&amp;C55&amp;"_"&amp;B55&amp;"_"&amp;D55&amp;"_"&amp;A55&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E15&amp;"_"&amp;C55&amp;"_"&amp;B55&amp;"_"&amp;D55&amp;"_"&amp;A55&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="G55" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C55&amp;"_"&amp;B55&amp;"_"&amp;D55&amp;"_"&amp;A55&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C55&amp;"_"&amp;B55&amp;"_"&amp;D55&amp;"_"&amp;A55&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -5853,12 +6258,12 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -5912,7 +6317,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -5966,7 +6371,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B66">
         <v>10</v>
@@ -6020,7 +6425,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -6074,7 +6479,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B68">
         <v>5</v>
@@ -6128,7 +6533,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B69">
         <v>10</v>
@@ -6182,7 +6587,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B70">
         <v>2</v>
@@ -6236,7 +6641,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B71">
         <v>5</v>
@@ -6290,7 +6695,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B72">
         <v>10</v>
@@ -6344,7 +6749,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B73">
         <v>2</v>
@@ -6398,7 +6803,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B74">
         <v>5</v>
@@ -6452,7 +6857,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B75">
         <v>10</v>
@@ -6506,7 +6911,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B76">
         <v>2</v>
@@ -6517,21 +6922,21 @@
       <c r="D76">
         <v>5</v>
       </c>
-      <c r="E76">
+      <c r="E76" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-708425.19139766623</v>
-      </c>
-      <c r="F76">
+        <v>#REF!</v>
+      </c>
+      <c r="F76" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40312.000744603567</v>
-      </c>
-      <c r="G76">
+        <v>#REF!</v>
+      </c>
+      <c r="G76" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-154313.18616666651</v>
-      </c>
-      <c r="H76">
+        <v>#REF!</v>
+      </c>
+      <c r="H76" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1299.1948805218929</v>
+        <v>#REF!</v>
       </c>
       <c r="I76" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -6560,7 +6965,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B77">
         <v>5</v>
@@ -6571,21 +6976,21 @@
       <c r="D77">
         <v>5</v>
       </c>
-      <c r="E77">
+      <c r="E77" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-737097.21774646663</v>
-      </c>
-      <c r="F77">
+        <v>#REF!</v>
+      </c>
+      <c r="F77" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>42615.027854960223</v>
-      </c>
-      <c r="G77">
+        <v>#REF!</v>
+      </c>
+      <c r="G77" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-153286.71304893334</v>
-      </c>
-      <c r="H77">
+        <v>#REF!</v>
+      </c>
+      <c r="H77" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1540.3828499440026</v>
+        <v>#REF!</v>
       </c>
       <c r="I77" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -6614,7 +7019,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B78">
         <v>10</v>
@@ -6668,7 +7073,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B79">
         <v>2</v>
@@ -6679,13 +7084,13 @@
       <c r="D79">
         <v>5</v>
       </c>
-      <c r="E79">
+      <c r="E79" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-708559.80412906618</v>
-      </c>
-      <c r="F79">
+        <v>#REF!</v>
+      </c>
+      <c r="F79" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40142.715762711923</v>
+        <v>#REF!</v>
       </c>
       <c r="G79" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -6722,7 +7127,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B80">
         <v>5</v>
@@ -6733,21 +7138,21 @@
       <c r="D80">
         <v>5</v>
       </c>
-      <c r="E80">
+      <c r="E80" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-731254.21310143324</v>
-      </c>
-      <c r="F80">
+        <v>#REF!</v>
+      </c>
+      <c r="F80" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>41652.037453250021</v>
-      </c>
-      <c r="G80">
+        <v>#REF!</v>
+      </c>
+      <c r="G80" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-178276.49227536659</v>
-      </c>
-      <c r="H80">
+        <v>#REF!</v>
+      </c>
+      <c r="H80" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>9098.9808762518533</v>
+        <v>#REF!</v>
       </c>
       <c r="I80" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -6776,7 +7181,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B81">
         <v>10</v>
@@ -6787,13 +7192,13 @@
       <c r="D81">
         <v>5</v>
       </c>
-      <c r="E81">
+      <c r="E81" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C81&amp;"_"&amp;B81&amp;"_"&amp;D81&amp;"_"&amp;A81&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C81&amp;"_"&amp;B81&amp;"_"&amp;D81&amp;"_"&amp;A81&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-730924.02649516624</v>
-      </c>
-      <c r="F81">
+        <v>#REF!</v>
+      </c>
+      <c r="F81" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C81&amp;"_"&amp;B81&amp;"_"&amp;D81&amp;"_"&amp;A81&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C81&amp;"_"&amp;B81&amp;"_"&amp;D81&amp;"_"&amp;A81&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C81&amp;"_"&amp;B81&amp;"_"&amp;D81&amp;"_"&amp;A81&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C81&amp;"_"&amp;B81&amp;"_"&amp;D81&amp;"_"&amp;A81&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39209.763780033019</v>
+        <v>#REF!</v>
       </c>
       <c r="G81" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C81&amp;"_"&amp;B81&amp;"_"&amp;D81&amp;"_"&amp;A81&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C81&amp;"_"&amp;B81&amp;"_"&amp;D81&amp;"_"&amp;A81&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -6830,7 +7235,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B82">
         <v>2</v>
@@ -6841,21 +7246,21 @@
       <c r="D82">
         <v>5</v>
       </c>
-      <c r="E82">
+      <c r="E82" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-709157.97949753318</v>
-      </c>
-      <c r="F82">
+        <v>#REF!</v>
+      </c>
+      <c r="F82" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40181.20530302744</v>
-      </c>
-      <c r="G82">
+        <v>#REF!</v>
+      </c>
+      <c r="G82" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-156737.51325576653</v>
-      </c>
-      <c r="H82">
+        <v>#REF!</v>
+      </c>
+      <c r="H82" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>2680.4551703949764</v>
+        <v>#REF!</v>
       </c>
       <c r="I82" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -6884,7 +7289,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B83">
         <v>5</v>
@@ -6895,21 +7300,21 @@
       <c r="D83">
         <v>5</v>
       </c>
-      <c r="E83">
+      <c r="E83" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-727351.6761023663</v>
-      </c>
-      <c r="F83">
+        <v>#REF!</v>
+      </c>
+      <c r="F83" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>41394.909182628151</v>
-      </c>
-      <c r="G83">
+        <v>#REF!</v>
+      </c>
+      <c r="G83" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-154312.21924903331</v>
-      </c>
-      <c r="H83">
+        <v>#REF!</v>
+      </c>
+      <c r="H83" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1234.9304239512678</v>
+        <v>#REF!</v>
       </c>
       <c r="I83" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -6938,7 +7343,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B84">
         <v>10</v>
@@ -6949,13 +7354,13 @@
       <c r="D84">
         <v>5</v>
       </c>
-      <c r="E84">
+      <c r="E84" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C84&amp;"_"&amp;B84&amp;"_"&amp;D84&amp;"_"&amp;A84&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C84&amp;"_"&amp;B84&amp;"_"&amp;D84&amp;"_"&amp;A84&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-732076.38258149964</v>
-      </c>
-      <c r="F84">
+        <v>#REF!</v>
+      </c>
+      <c r="F84" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C84&amp;"_"&amp;B84&amp;"_"&amp;D84&amp;"_"&amp;A84&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C84&amp;"_"&amp;B84&amp;"_"&amp;D84&amp;"_"&amp;A84&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C84&amp;"_"&amp;B84&amp;"_"&amp;D84&amp;"_"&amp;A84&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C84&amp;"_"&amp;B84&amp;"_"&amp;D84&amp;"_"&amp;A84&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>38984.21192237299</v>
+        <v>#REF!</v>
       </c>
       <c r="G84" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C84&amp;"_"&amp;B84&amp;"_"&amp;D84&amp;"_"&amp;A84&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C84&amp;"_"&amp;B84&amp;"_"&amp;D84&amp;"_"&amp;A84&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -6992,7 +7397,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -7003,13 +7408,13 @@
       <c r="D85">
         <v>5</v>
       </c>
-      <c r="E85">
+      <c r="E85" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-710054.40741833299</v>
-      </c>
-      <c r="F85">
+        <v>#REF!</v>
+      </c>
+      <c r="F85" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39128.405501370355</v>
+        <v>#REF!</v>
       </c>
       <c r="G85" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7046,7 +7451,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B86">
         <v>5</v>
@@ -7057,13 +7462,13 @@
       <c r="D86">
         <v>5</v>
       </c>
-      <c r="E86">
+      <c r="E86" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-724117.3597442999</v>
-      </c>
-      <c r="F86">
+        <v>#REF!</v>
+      </c>
+      <c r="F86" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40379.410599353003</v>
+        <v>#REF!</v>
       </c>
       <c r="G86" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7100,7 +7505,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B87">
         <v>10</v>
@@ -7111,13 +7516,13 @@
       <c r="D87">
         <v>5</v>
       </c>
-      <c r="E87">
+      <c r="E87" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C87&amp;"_"&amp;B87&amp;"_"&amp;D87&amp;"_"&amp;A87&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C87&amp;"_"&amp;B87&amp;"_"&amp;D87&amp;"_"&amp;A87&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-730924.02649516624</v>
-      </c>
-      <c r="F87">
+        <v>#REF!</v>
+      </c>
+      <c r="F87" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C87&amp;"_"&amp;B87&amp;"_"&amp;D87&amp;"_"&amp;A87&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C87&amp;"_"&amp;B87&amp;"_"&amp;D87&amp;"_"&amp;A87&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C87&amp;"_"&amp;B87&amp;"_"&amp;D87&amp;"_"&amp;A87&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C87&amp;"_"&amp;B87&amp;"_"&amp;D87&amp;"_"&amp;A87&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39209.763780033019</v>
+        <v>#REF!</v>
       </c>
       <c r="G87" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C87&amp;"_"&amp;B87&amp;"_"&amp;D87&amp;"_"&amp;A87&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C87&amp;"_"&amp;B87&amp;"_"&amp;D87&amp;"_"&amp;A87&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7154,7 +7559,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B88">
         <v>2</v>
@@ -7165,21 +7570,21 @@
       <c r="D88">
         <v>10</v>
       </c>
-      <c r="E88">
+      <c r="E88" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-709669.41458749969</v>
-      </c>
-      <c r="F88">
+        <v>#REF!</v>
+      </c>
+      <c r="F88" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39924.11515192809</v>
-      </c>
-      <c r="G88">
+        <v>#REF!</v>
+      </c>
+      <c r="G88" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-162995.41419913329</v>
-      </c>
-      <c r="H88">
+        <v>#REF!</v>
+      </c>
+      <c r="H88" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>3231.8922740069734</v>
+        <v>#REF!</v>
       </c>
       <c r="I88" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7208,7 +7613,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -7227,13 +7632,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C89&amp;"_"&amp;B89&amp;"_"&amp;D89&amp;"_"&amp;A89&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C89&amp;"_"&amp;B89&amp;"_"&amp;D89&amp;"_"&amp;A89&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C89&amp;"_"&amp;B89&amp;"_"&amp;D89&amp;"_"&amp;A89&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C89&amp;"_"&amp;B89&amp;"_"&amp;D89&amp;"_"&amp;A89&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="G89">
+      <c r="G89" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C89&amp;"_"&amp;B89&amp;"_"&amp;D89&amp;"_"&amp;A89&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C89&amp;"_"&amp;B89&amp;"_"&amp;D89&amp;"_"&amp;A89&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-390144.14513739973</v>
-      </c>
-      <c r="H89">
+        <v>#REF!</v>
+      </c>
+      <c r="H89" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C89&amp;"_"&amp;B89&amp;"_"&amp;D89&amp;"_"&amp;A89&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C89&amp;"_"&amp;B89&amp;"_"&amp;D89&amp;"_"&amp;A89&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C89&amp;"_"&amp;B89&amp;"_"&amp;D89&amp;"_"&amp;A89&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C89&amp;"_"&amp;B89&amp;"_"&amp;D89&amp;"_"&amp;A89&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>20704.04225358053</v>
+        <v>#REF!</v>
       </c>
       <c r="I89" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C89&amp;"_"&amp;B89&amp;"_"&amp;D89&amp;"_"&amp;A89&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C89&amp;"_"&amp;B89&amp;"_"&amp;D89&amp;"_"&amp;A89&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7262,7 +7667,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B90">
         <v>10</v>
@@ -7316,7 +7721,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -7327,21 +7732,21 @@
       <c r="D91">
         <v>10</v>
       </c>
-      <c r="E91">
+      <c r="E91" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-708324.7575454663</v>
-      </c>
-      <c r="F91">
+        <v>#REF!</v>
+      </c>
+      <c r="F91" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39769.163534704305</v>
-      </c>
-      <c r="G91">
+        <v>#REF!</v>
+      </c>
+      <c r="G91" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-160193.17802643316</v>
-      </c>
-      <c r="H91">
+        <v>#REF!</v>
+      </c>
+      <c r="H91" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>2561.2947647709575</v>
+        <v>#REF!</v>
       </c>
       <c r="I91" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7370,7 +7775,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B92">
         <v>5</v>
@@ -7381,21 +7786,21 @@
       <c r="D92">
         <v>10</v>
       </c>
-      <c r="E92">
+      <c r="E92" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-746107.15572356642</v>
-      </c>
-      <c r="F92">
+        <v>#REF!</v>
+      </c>
+      <c r="F92" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>38447.550808583808</v>
-      </c>
-      <c r="G92">
+        <v>#REF!</v>
+      </c>
+      <c r="G92" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-369409.4054292998</v>
-      </c>
-      <c r="H92">
+        <v>#REF!</v>
+      </c>
+      <c r="H92" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>29646.0043297636</v>
+        <v>#REF!</v>
       </c>
       <c r="I92" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7424,7 +7829,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B93">
         <v>10</v>
@@ -7435,13 +7840,13 @@
       <c r="D93">
         <v>10</v>
       </c>
-      <c r="E93">
+      <c r="E93" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C93&amp;"_"&amp;B93&amp;"_"&amp;D93&amp;"_"&amp;A93&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C93&amp;"_"&amp;B93&amp;"_"&amp;D93&amp;"_"&amp;A93&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-730924.02649516624</v>
-      </c>
-      <c r="F93">
+        <v>#REF!</v>
+      </c>
+      <c r="F93" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C93&amp;"_"&amp;B93&amp;"_"&amp;D93&amp;"_"&amp;A93&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C93&amp;"_"&amp;B93&amp;"_"&amp;D93&amp;"_"&amp;A93&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C93&amp;"_"&amp;B93&amp;"_"&amp;D93&amp;"_"&amp;A93&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C93&amp;"_"&amp;B93&amp;"_"&amp;D93&amp;"_"&amp;A93&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39209.763780033019</v>
+        <v>#REF!</v>
       </c>
       <c r="G93" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C93&amp;"_"&amp;B93&amp;"_"&amp;D93&amp;"_"&amp;A93&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C93&amp;"_"&amp;B93&amp;"_"&amp;D93&amp;"_"&amp;A93&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7478,7 +7883,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -7489,21 +7894,21 @@
       <c r="D94">
         <v>10</v>
       </c>
-      <c r="E94">
+      <c r="E94" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-708098.77254469949</v>
-      </c>
-      <c r="F94">
+        <v>#REF!</v>
+      </c>
+      <c r="F94" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40369.202032304427</v>
-      </c>
-      <c r="G94">
+        <v>#REF!</v>
+      </c>
+      <c r="G94" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-160261.29143339986</v>
-      </c>
-      <c r="H94">
+        <v>#REF!</v>
+      </c>
+      <c r="H94" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>2259.0022422676998</v>
+        <v>#REF!</v>
       </c>
       <c r="I94" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7532,7 +7937,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B95">
         <v>5</v>
@@ -7553,11 +7958,11 @@
       </c>
       <c r="G95" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C95&amp;"_"&amp;B95&amp;"_"&amp;D95&amp;"_"&amp;A95&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C95&amp;"_"&amp;B95&amp;"_"&amp;D95&amp;"_"&amp;A95&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="H95" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C95&amp;"_"&amp;B95&amp;"_"&amp;D95&amp;"_"&amp;A95&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C95&amp;"_"&amp;B95&amp;"_"&amp;D95&amp;"_"&amp;A95&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C95&amp;"_"&amp;B95&amp;"_"&amp;D95&amp;"_"&amp;A95&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C95&amp;"_"&amp;B95&amp;"_"&amp;D95&amp;"_"&amp;A95&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="I95" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C95&amp;"_"&amp;B95&amp;"_"&amp;D95&amp;"_"&amp;A95&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C95&amp;"_"&amp;B95&amp;"_"&amp;D95&amp;"_"&amp;A95&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7586,7 +7991,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B96">
         <v>10</v>
@@ -7597,13 +8002,13 @@
       <c r="D96">
         <v>10</v>
       </c>
-      <c r="E96">
+      <c r="E96" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C96&amp;"_"&amp;B96&amp;"_"&amp;D96&amp;"_"&amp;A96&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C96&amp;"_"&amp;B96&amp;"_"&amp;D96&amp;"_"&amp;A96&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-730924.02649516624</v>
-      </c>
-      <c r="F96">
+        <v>#REF!</v>
+      </c>
+      <c r="F96" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C96&amp;"_"&amp;B96&amp;"_"&amp;D96&amp;"_"&amp;A96&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C96&amp;"_"&amp;B96&amp;"_"&amp;D96&amp;"_"&amp;A96&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C96&amp;"_"&amp;B96&amp;"_"&amp;D96&amp;"_"&amp;A96&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C96&amp;"_"&amp;B96&amp;"_"&amp;D96&amp;"_"&amp;A96&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39209.763780033019</v>
+        <v>#REF!</v>
       </c>
       <c r="G96" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C96&amp;"_"&amp;B96&amp;"_"&amp;D96&amp;"_"&amp;A96&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C96&amp;"_"&amp;B96&amp;"_"&amp;D96&amp;"_"&amp;A96&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7640,7 +8045,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B97">
         <v>2</v>
@@ -7651,13 +8056,13 @@
       <c r="D97">
         <v>10</v>
       </c>
-      <c r="E97">
+      <c r="E97" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C97&amp;"_"&amp;B97&amp;"_"&amp;D97&amp;"_"&amp;A97&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C97&amp;"_"&amp;B97&amp;"_"&amp;D97&amp;"_"&amp;A97&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-706549.62999373302</v>
-      </c>
-      <c r="F97">
+        <v>#REF!</v>
+      </c>
+      <c r="F97" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C97&amp;"_"&amp;B97&amp;"_"&amp;D97&amp;"_"&amp;A97&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C97&amp;"_"&amp;B97&amp;"_"&amp;D97&amp;"_"&amp;A97&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C97&amp;"_"&amp;B97&amp;"_"&amp;D97&amp;"_"&amp;A97&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C97&amp;"_"&amp;B97&amp;"_"&amp;D97&amp;"_"&amp;A97&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40189.103171348601</v>
+        <v>#REF!</v>
       </c>
       <c r="G97" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C97&amp;"_"&amp;B97&amp;"_"&amp;D97&amp;"_"&amp;A97&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C97&amp;"_"&amp;B97&amp;"_"&amp;D97&amp;"_"&amp;A97&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7694,7 +8099,7 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -7705,13 +8110,13 @@
       <c r="D98">
         <v>10</v>
       </c>
-      <c r="E98">
+      <c r="E98" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C98&amp;"_"&amp;B98&amp;"_"&amp;D98&amp;"_"&amp;A98&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C98&amp;"_"&amp;B98&amp;"_"&amp;D98&amp;"_"&amp;A98&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-732499.96061569988</v>
-      </c>
-      <c r="F98">
+        <v>#REF!</v>
+      </c>
+      <c r="F98" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C98&amp;"_"&amp;B98&amp;"_"&amp;D98&amp;"_"&amp;A98&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C98&amp;"_"&amp;B98&amp;"_"&amp;D98&amp;"_"&amp;A98&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C98&amp;"_"&amp;B98&amp;"_"&amp;D98&amp;"_"&amp;A98&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C98&amp;"_"&amp;B98&amp;"_"&amp;D98&amp;"_"&amp;A98&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40664.699340411731</v>
+        <v>#REF!</v>
       </c>
       <c r="G98" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C98&amp;"_"&amp;B98&amp;"_"&amp;D98&amp;"_"&amp;A98&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C98&amp;"_"&amp;B98&amp;"_"&amp;D98&amp;"_"&amp;A98&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7748,7 +8153,7 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B99">
         <v>10</v>
@@ -7759,13 +8164,13 @@
       <c r="D99">
         <v>10</v>
       </c>
-      <c r="E99">
+      <c r="E99" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C99&amp;"_"&amp;B99&amp;"_"&amp;D99&amp;"_"&amp;A99&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C99&amp;"_"&amp;B99&amp;"_"&amp;D99&amp;"_"&amp;A99&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-730924.02649516624</v>
-      </c>
-      <c r="F99">
+        <v>#REF!</v>
+      </c>
+      <c r="F99" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C99&amp;"_"&amp;B99&amp;"_"&amp;D99&amp;"_"&amp;A99&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C99&amp;"_"&amp;B99&amp;"_"&amp;D99&amp;"_"&amp;A99&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C99&amp;"_"&amp;B99&amp;"_"&amp;D99&amp;"_"&amp;A99&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C99&amp;"_"&amp;B99&amp;"_"&amp;D99&amp;"_"&amp;A99&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39209.763780033019</v>
+        <v>#REF!</v>
       </c>
       <c r="G99" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C99&amp;"_"&amp;B99&amp;"_"&amp;D99&amp;"_"&amp;A99&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C99&amp;"_"&amp;B99&amp;"_"&amp;D99&amp;"_"&amp;A99&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7802,7 +8207,7 @@
     </row>
     <row r="100" spans="1:14">
       <c r="A100" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B100">
         <v>2</v>
@@ -7856,7 +8261,7 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B101">
         <v>5</v>
@@ -7867,13 +8272,13 @@
       <c r="D101">
         <v>15</v>
       </c>
-      <c r="E101">
+      <c r="E101" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C101&amp;"_"&amp;B101&amp;"_"&amp;D101&amp;"_"&amp;A101&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C101&amp;"_"&amp;B101&amp;"_"&amp;D101&amp;"_"&amp;A101&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-807860.49984823295</v>
-      </c>
-      <c r="F101">
+        <v>#REF!</v>
+      </c>
+      <c r="F101" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C101&amp;"_"&amp;B101&amp;"_"&amp;D101&amp;"_"&amp;A101&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C101&amp;"_"&amp;B101&amp;"_"&amp;D101&amp;"_"&amp;A101&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C101&amp;"_"&amp;B101&amp;"_"&amp;D101&amp;"_"&amp;A101&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C101&amp;"_"&amp;B101&amp;"_"&amp;D101&amp;"_"&amp;A101&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>52748.596064635123</v>
+        <v>#REF!</v>
       </c>
       <c r="G101" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C101&amp;"_"&amp;B101&amp;"_"&amp;D101&amp;"_"&amp;A101&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C101&amp;"_"&amp;B101&amp;"_"&amp;D101&amp;"_"&amp;A101&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7910,7 +8315,7 @@
     </row>
     <row r="102" spans="1:14">
       <c r="A102" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B102">
         <v>10</v>
@@ -7921,13 +8326,13 @@
       <c r="D102">
         <v>15</v>
       </c>
-      <c r="E102">
+      <c r="E102" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C102&amp;"_"&amp;B102&amp;"_"&amp;D102&amp;"_"&amp;A102&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C102&amp;"_"&amp;B102&amp;"_"&amp;D102&amp;"_"&amp;A102&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-730924.02649516624</v>
-      </c>
-      <c r="F102">
+        <v>#REF!</v>
+      </c>
+      <c r="F102" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C102&amp;"_"&amp;B102&amp;"_"&amp;D102&amp;"_"&amp;A102&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C102&amp;"_"&amp;B102&amp;"_"&amp;D102&amp;"_"&amp;A102&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C102&amp;"_"&amp;B102&amp;"_"&amp;D102&amp;"_"&amp;A102&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C102&amp;"_"&amp;B102&amp;"_"&amp;D102&amp;"_"&amp;A102&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39209.763780033019</v>
+        <v>#REF!</v>
       </c>
       <c r="G102" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C102&amp;"_"&amp;B102&amp;"_"&amp;D102&amp;"_"&amp;A102&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C102&amp;"_"&amp;B102&amp;"_"&amp;D102&amp;"_"&amp;A102&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7964,7 +8369,7 @@
     </row>
     <row r="103" spans="1:14">
       <c r="A103" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B103">
         <v>2</v>
@@ -7975,13 +8380,13 @@
       <c r="D103">
         <v>15</v>
       </c>
-      <c r="E103">
+      <c r="E103" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C103&amp;"_"&amp;B103&amp;"_"&amp;D103&amp;"_"&amp;A103&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C103&amp;"_"&amp;B103&amp;"_"&amp;D103&amp;"_"&amp;A103&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-707505.43711016641</v>
-      </c>
-      <c r="F103">
+        <v>#REF!</v>
+      </c>
+      <c r="F103" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C103&amp;"_"&amp;B103&amp;"_"&amp;D103&amp;"_"&amp;A103&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C103&amp;"_"&amp;B103&amp;"_"&amp;D103&amp;"_"&amp;A103&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C103&amp;"_"&amp;B103&amp;"_"&amp;D103&amp;"_"&amp;A103&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C103&amp;"_"&amp;B103&amp;"_"&amp;D103&amp;"_"&amp;A103&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39913.890441837088</v>
+        <v>#REF!</v>
       </c>
       <c r="G103" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C103&amp;"_"&amp;B103&amp;"_"&amp;D103&amp;"_"&amp;A103&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C103&amp;"_"&amp;B103&amp;"_"&amp;D103&amp;"_"&amp;A103&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -8018,7 +8423,7 @@
     </row>
     <row r="104" spans="1:14">
       <c r="A104" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B104">
         <v>5</v>
@@ -8029,13 +8434,13 @@
       <c r="D104">
         <v>15</v>
       </c>
-      <c r="E104">
+      <c r="E104" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C104&amp;"_"&amp;B104&amp;"_"&amp;D104&amp;"_"&amp;A104&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C104&amp;"_"&amp;B104&amp;"_"&amp;D104&amp;"_"&amp;A104&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-790026.68128093251</v>
-      </c>
-      <c r="F104">
+        <v>#REF!</v>
+      </c>
+      <c r="F104" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C104&amp;"_"&amp;B104&amp;"_"&amp;D104&amp;"_"&amp;A104&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C104&amp;"_"&amp;B104&amp;"_"&amp;D104&amp;"_"&amp;A104&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C104&amp;"_"&amp;B104&amp;"_"&amp;D104&amp;"_"&amp;A104&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C104&amp;"_"&amp;B104&amp;"_"&amp;D104&amp;"_"&amp;A104&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>43928.294066663962</v>
+        <v>#REF!</v>
       </c>
       <c r="G104" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C104&amp;"_"&amp;B104&amp;"_"&amp;D104&amp;"_"&amp;A104&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C104&amp;"_"&amp;B104&amp;"_"&amp;D104&amp;"_"&amp;A104&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -8072,7 +8477,7 @@
     </row>
     <row r="105" spans="1:14">
       <c r="A105" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B105">
         <v>10</v>
@@ -8083,13 +8488,13 @@
       <c r="D105">
         <v>15</v>
       </c>
-      <c r="E105">
+      <c r="E105" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C105&amp;"_"&amp;B105&amp;"_"&amp;D105&amp;"_"&amp;A105&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C105&amp;"_"&amp;B105&amp;"_"&amp;D105&amp;"_"&amp;A105&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-730924.02649516624</v>
-      </c>
-      <c r="F105">
+        <v>#REF!</v>
+      </c>
+      <c r="F105" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C105&amp;"_"&amp;B105&amp;"_"&amp;D105&amp;"_"&amp;A105&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C105&amp;"_"&amp;B105&amp;"_"&amp;D105&amp;"_"&amp;A105&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C105&amp;"_"&amp;B105&amp;"_"&amp;D105&amp;"_"&amp;A105&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C105&amp;"_"&amp;B105&amp;"_"&amp;D105&amp;"_"&amp;A105&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39209.763780033019</v>
+        <v>#REF!</v>
       </c>
       <c r="G105" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C105&amp;"_"&amp;B105&amp;"_"&amp;D105&amp;"_"&amp;A105&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C105&amp;"_"&amp;B105&amp;"_"&amp;D105&amp;"_"&amp;A105&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -8126,7 +8531,7 @@
     </row>
     <row r="106" spans="1:14">
       <c r="A106" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -8137,13 +8542,13 @@
       <c r="D106">
         <v>15</v>
       </c>
-      <c r="E106">
+      <c r="E106" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C106&amp;"_"&amp;B106&amp;"_"&amp;D106&amp;"_"&amp;A106&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C106&amp;"_"&amp;B106&amp;"_"&amp;D106&amp;"_"&amp;A106&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-706827.69584709988</v>
-      </c>
-      <c r="F106">
+        <v>#REF!</v>
+      </c>
+      <c r="F106" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C106&amp;"_"&amp;B106&amp;"_"&amp;D106&amp;"_"&amp;A106&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C106&amp;"_"&amp;B106&amp;"_"&amp;D106&amp;"_"&amp;A106&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C106&amp;"_"&amp;B106&amp;"_"&amp;D106&amp;"_"&amp;A106&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C106&amp;"_"&amp;B106&amp;"_"&amp;D106&amp;"_"&amp;A106&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40226.864704484498</v>
+        <v>#REF!</v>
       </c>
       <c r="G106" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C106&amp;"_"&amp;B106&amp;"_"&amp;D106&amp;"_"&amp;A106&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C106&amp;"_"&amp;B106&amp;"_"&amp;D106&amp;"_"&amp;A106&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -8180,7 +8585,7 @@
     </row>
     <row r="107" spans="1:14">
       <c r="A107" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B107">
         <v>5</v>
@@ -8191,13 +8596,13 @@
       <c r="D107">
         <v>15</v>
       </c>
-      <c r="E107">
+      <c r="E107" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C107&amp;"_"&amp;B107&amp;"_"&amp;D107&amp;"_"&amp;A107&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C107&amp;"_"&amp;B107&amp;"_"&amp;D107&amp;"_"&amp;A107&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-739942.03326276643</v>
-      </c>
-      <c r="F107">
+        <v>#REF!</v>
+      </c>
+      <c r="F107" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C107&amp;"_"&amp;B107&amp;"_"&amp;D107&amp;"_"&amp;A107&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C107&amp;"_"&amp;B107&amp;"_"&amp;D107&amp;"_"&amp;A107&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C107&amp;"_"&amp;B107&amp;"_"&amp;D107&amp;"_"&amp;A107&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C107&amp;"_"&amp;B107&amp;"_"&amp;D107&amp;"_"&amp;A107&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39793.802778238052</v>
+        <v>#REF!</v>
       </c>
       <c r="G107" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C107&amp;"_"&amp;B107&amp;"_"&amp;D107&amp;"_"&amp;A107&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C107&amp;"_"&amp;B107&amp;"_"&amp;D107&amp;"_"&amp;A107&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -8234,7 +8639,7 @@
     </row>
     <row r="108" spans="1:14">
       <c r="A108" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B108">
         <v>10</v>
@@ -8245,13 +8650,13 @@
       <c r="D108">
         <v>15</v>
       </c>
-      <c r="E108">
+      <c r="E108" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C108&amp;"_"&amp;B108&amp;"_"&amp;D108&amp;"_"&amp;A108&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C108&amp;"_"&amp;B108&amp;"_"&amp;D108&amp;"_"&amp;A108&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-730924.02649516624</v>
-      </c>
-      <c r="F108">
+        <v>#REF!</v>
+      </c>
+      <c r="F108" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C108&amp;"_"&amp;B108&amp;"_"&amp;D108&amp;"_"&amp;A108&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C108&amp;"_"&amp;B108&amp;"_"&amp;D108&amp;"_"&amp;A108&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C108&amp;"_"&amp;B108&amp;"_"&amp;D108&amp;"_"&amp;A108&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C108&amp;"_"&amp;B108&amp;"_"&amp;D108&amp;"_"&amp;A108&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39209.763780033019</v>
+        <v>#REF!</v>
       </c>
       <c r="G108" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C108&amp;"_"&amp;B108&amp;"_"&amp;D108&amp;"_"&amp;A108&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C108&amp;"_"&amp;B108&amp;"_"&amp;D108&amp;"_"&amp;A108&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -8288,7 +8693,7 @@
     </row>
     <row r="109" spans="1:14">
       <c r="A109" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B109">
         <v>2</v>
@@ -8299,13 +8704,13 @@
       <c r="D109">
         <v>15</v>
       </c>
-      <c r="E109">
+      <c r="E109" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C109&amp;"_"&amp;B109&amp;"_"&amp;D109&amp;"_"&amp;A109&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C109&amp;"_"&amp;B109&amp;"_"&amp;D109&amp;"_"&amp;A109&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-707188.78812913294</v>
-      </c>
-      <c r="F109">
+        <v>#REF!</v>
+      </c>
+      <c r="F109" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C109&amp;"_"&amp;B109&amp;"_"&amp;D109&amp;"_"&amp;A109&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C109&amp;"_"&amp;B109&amp;"_"&amp;D109&amp;"_"&amp;A109&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C109&amp;"_"&amp;B109&amp;"_"&amp;D109&amp;"_"&amp;A109&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C109&amp;"_"&amp;B109&amp;"_"&amp;D109&amp;"_"&amp;A109&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40485.049910290261</v>
+        <v>#REF!</v>
       </c>
       <c r="G109" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C109&amp;"_"&amp;B109&amp;"_"&amp;D109&amp;"_"&amp;A109&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C109&amp;"_"&amp;B109&amp;"_"&amp;D109&amp;"_"&amp;A109&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -8342,7 +8747,7 @@
     </row>
     <row r="110" spans="1:14">
       <c r="A110" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B110">
         <v>5</v>
@@ -8353,13 +8758,13 @@
       <c r="D110">
         <v>15</v>
       </c>
-      <c r="E110">
+      <c r="E110" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C110&amp;"_"&amp;B110&amp;"_"&amp;D110&amp;"_"&amp;A110&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C110&amp;"_"&amp;B110&amp;"_"&amp;D110&amp;"_"&amp;A110&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-733059.41159813304</v>
-      </c>
-      <c r="F110">
+        <v>#REF!</v>
+      </c>
+      <c r="F110" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C110&amp;"_"&amp;B110&amp;"_"&amp;D110&amp;"_"&amp;A110&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C110&amp;"_"&amp;B110&amp;"_"&amp;D110&amp;"_"&amp;A110&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C110&amp;"_"&amp;B110&amp;"_"&amp;D110&amp;"_"&amp;A110&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C110&amp;"_"&amp;B110&amp;"_"&amp;D110&amp;"_"&amp;A110&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40115.200783175605</v>
+        <v>#REF!</v>
       </c>
       <c r="G110" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C110&amp;"_"&amp;B110&amp;"_"&amp;D110&amp;"_"&amp;A110&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C110&amp;"_"&amp;B110&amp;"_"&amp;D110&amp;"_"&amp;A110&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -8396,7 +8801,7 @@
     </row>
     <row r="111" spans="1:14">
       <c r="A111" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B111">
         <v>10</v>
@@ -8407,13 +8812,13 @@
       <c r="D111">
         <v>15</v>
       </c>
-      <c r="E111">
+      <c r="E111" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C111&amp;"_"&amp;B111&amp;"_"&amp;D111&amp;"_"&amp;A111&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C111&amp;"_"&amp;B111&amp;"_"&amp;D111&amp;"_"&amp;A111&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-730924.02649516624</v>
-      </c>
-      <c r="F111">
+        <v>#REF!</v>
+      </c>
+      <c r="F111" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C111&amp;"_"&amp;B111&amp;"_"&amp;D111&amp;"_"&amp;A111&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C111&amp;"_"&amp;B111&amp;"_"&amp;D111&amp;"_"&amp;A111&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C111&amp;"_"&amp;B111&amp;"_"&amp;D111&amp;"_"&amp;A111&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C111&amp;"_"&amp;B111&amp;"_"&amp;D111&amp;"_"&amp;A111&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39209.763780033019</v>
+        <v>#REF!</v>
       </c>
       <c r="G111" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C111&amp;"_"&amp;B111&amp;"_"&amp;D111&amp;"_"&amp;A111&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C111&amp;"_"&amp;B111&amp;"_"&amp;D111&amp;"_"&amp;A111&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -8450,7 +8855,7 @@
     </row>
     <row r="112" spans="1:14">
       <c r="A112" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B112">
         <v>2</v>
@@ -8504,7 +8909,7 @@
     </row>
     <row r="113" spans="1:14">
       <c r="A113" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B113">
         <v>5</v>
@@ -8558,7 +8963,7 @@
     </row>
     <row r="114" spans="1:14">
       <c r="A114" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B114">
         <v>10</v>
@@ -8612,7 +9017,7 @@
     </row>
     <row r="115" spans="1:14">
       <c r="A115" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B115">
         <v>2</v>
@@ -8666,7 +9071,7 @@
     </row>
     <row r="116" spans="1:14">
       <c r="A116" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B116">
         <v>5</v>
@@ -8720,7 +9125,7 @@
     </row>
     <row r="117" spans="1:14">
       <c r="A117" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B117">
         <v>10</v>
@@ -8774,7 +9179,7 @@
     </row>
     <row r="118" spans="1:14">
       <c r="A118" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B118">
         <v>2</v>
@@ -8828,7 +9233,7 @@
     </row>
     <row r="119" spans="1:14">
       <c r="A119" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B119">
         <v>5</v>
@@ -8882,7 +9287,7 @@
     </row>
     <row r="120" spans="1:14">
       <c r="A120" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B120">
         <v>10</v>
@@ -8936,7 +9341,7 @@
     </row>
     <row r="121" spans="1:14">
       <c r="A121" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B121">
         <v>2</v>
@@ -8990,7 +9395,7 @@
     </row>
     <row r="122" spans="1:14">
       <c r="A122" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B122">
         <v>5</v>
@@ -9044,7 +9449,7 @@
     </row>
     <row r="123" spans="1:14">
       <c r="A123" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B123">
         <v>10</v>
@@ -9098,7 +9503,7 @@
     </row>
     <row r="125" spans="1:14">
       <c r="A125" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B125">
         <v>2</v>
@@ -9109,21 +9514,21 @@
       <c r="D125">
         <v>5</v>
       </c>
-      <c r="E125">
+      <c r="E125" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-713944.47918773326</v>
-      </c>
-      <c r="F125">
+        <v>#REF!</v>
+      </c>
+      <c r="F125" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39614.889483749255</v>
-      </c>
-      <c r="G125">
+        <v>#REF!</v>
+      </c>
+      <c r="G125" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-156074.76198839993</v>
-      </c>
-      <c r="H125">
+        <v>#REF!</v>
+      </c>
+      <c r="H125" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1703.0393830940125</v>
+        <v>#REF!</v>
       </c>
       <c r="I125" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -9152,7 +9557,7 @@
     </row>
     <row r="126" spans="1:14">
       <c r="A126" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B126">
         <v>5</v>
@@ -9163,21 +9568,21 @@
       <c r="D126">
         <v>5</v>
       </c>
-      <c r="E126">
+      <c r="E126" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-752521.93103133305</v>
-      </c>
-      <c r="F126">
+        <v>#REF!</v>
+      </c>
+      <c r="F126" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40533.687895286581</v>
-      </c>
-      <c r="G126">
+        <v>#REF!</v>
+      </c>
+      <c r="G126" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-171609.2596825998</v>
-      </c>
-      <c r="H126">
+        <v>#REF!</v>
+      </c>
+      <c r="H126" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>3619.9193891680047</v>
+        <v>#REF!</v>
       </c>
       <c r="I126" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -9206,7 +9611,7 @@
     </row>
     <row r="127" spans="1:14">
       <c r="A127" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B127">
         <v>10</v>
@@ -9260,7 +9665,7 @@
     </row>
     <row r="128" spans="1:14">
       <c r="A128" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B128">
         <v>2</v>
@@ -9271,21 +9676,21 @@
       <c r="D128">
         <v>5</v>
       </c>
-      <c r="E128">
+      <c r="E128" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-714595.82531023282</v>
-      </c>
-      <c r="F128">
+        <v>#REF!</v>
+      </c>
+      <c r="F128" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39485.986872775167</v>
-      </c>
-      <c r="G128">
+        <v>#REF!</v>
+      </c>
+      <c r="G128" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-154721.32635806667</v>
-      </c>
-      <c r="H128">
+        <v>#REF!</v>
+      </c>
+      <c r="H128" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1085.546584317977</v>
+        <v>#REF!</v>
       </c>
       <c r="I128" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -9314,7 +9719,7 @@
     </row>
     <row r="129" spans="1:14">
       <c r="A129" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B129">
         <v>5</v>
@@ -9333,13 +9738,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C129&amp;"_"&amp;B129&amp;"_"&amp;D129&amp;"_"&amp;A129&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C129&amp;"_"&amp;B129&amp;"_"&amp;D129&amp;"_"&amp;A129&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C129&amp;"_"&amp;B129&amp;"_"&amp;D129&amp;"_"&amp;A129&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C129&amp;"_"&amp;B129&amp;"_"&amp;D129&amp;"_"&amp;A129&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="G129">
+      <c r="G129" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C129&amp;"_"&amp;B129&amp;"_"&amp;D129&amp;"_"&amp;A129&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C129&amp;"_"&amp;B129&amp;"_"&amp;D129&amp;"_"&amp;A129&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-174013.68153209984</v>
-      </c>
-      <c r="H129">
+        <v>#REF!</v>
+      </c>
+      <c r="H129" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C129&amp;"_"&amp;B129&amp;"_"&amp;D129&amp;"_"&amp;A129&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C129&amp;"_"&amp;B129&amp;"_"&amp;D129&amp;"_"&amp;A129&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C129&amp;"_"&amp;B129&amp;"_"&amp;D129&amp;"_"&amp;A129&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C129&amp;"_"&amp;B129&amp;"_"&amp;D129&amp;"_"&amp;A129&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>4197.2816335529096</v>
+        <v>#REF!</v>
       </c>
       <c r="I129" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C129&amp;"_"&amp;B129&amp;"_"&amp;D129&amp;"_"&amp;A129&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C129&amp;"_"&amp;B129&amp;"_"&amp;D129&amp;"_"&amp;A129&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -9368,7 +9773,7 @@
     </row>
     <row r="130" spans="1:14">
       <c r="A130" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B130">
         <v>10</v>
@@ -9379,13 +9784,13 @@
       <c r="D130">
         <v>5</v>
       </c>
-      <c r="E130">
+      <c r="E130" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C130&amp;"_"&amp;B130&amp;"_"&amp;D130&amp;"_"&amp;A130&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C130&amp;"_"&amp;B130&amp;"_"&amp;D130&amp;"_"&amp;A130&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-773556.11898486607</v>
-      </c>
-      <c r="F130">
+        <v>#REF!</v>
+      </c>
+      <c r="F130" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C130&amp;"_"&amp;B130&amp;"_"&amp;D130&amp;"_"&amp;A130&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C130&amp;"_"&amp;B130&amp;"_"&amp;D130&amp;"_"&amp;A130&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C130&amp;"_"&amp;B130&amp;"_"&amp;D130&amp;"_"&amp;A130&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C130&amp;"_"&amp;B130&amp;"_"&amp;D130&amp;"_"&amp;A130&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>48792.92047250054</v>
+        <v>#REF!</v>
       </c>
       <c r="G130" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C130&amp;"_"&amp;B130&amp;"_"&amp;D130&amp;"_"&amp;A130&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C130&amp;"_"&amp;B130&amp;"_"&amp;D130&amp;"_"&amp;A130&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -9422,7 +9827,7 @@
     </row>
     <row r="131" spans="1:14">
       <c r="A131" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B131">
         <v>2</v>
@@ -9433,21 +9838,21 @@
       <c r="D131">
         <v>5</v>
       </c>
-      <c r="E131">
+      <c r="E131" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-715213.57556976634</v>
-      </c>
-      <c r="F131">
+        <v>#REF!</v>
+      </c>
+      <c r="F131" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39550.200888157655</v>
-      </c>
-      <c r="G131">
+        <v>#REF!</v>
+      </c>
+      <c r="G131" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-156118.92606416642</v>
-      </c>
-      <c r="H131">
+        <v>#REF!</v>
+      </c>
+      <c r="H131" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1395.0541373879839</v>
+        <v>#REF!</v>
       </c>
       <c r="I131" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -9465,18 +9870,18 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="M131">
+      <c r="M131" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-385520.4935253333</v>
-      </c>
-      <c r="N131">
+        <v>#REF!</v>
+      </c>
+      <c r="N131" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>6491.5669504263406</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B132">
         <v>5</v>
@@ -9530,7 +9935,7 @@
     </row>
     <row r="133" spans="1:14">
       <c r="A133" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B133">
         <v>10</v>
@@ -9541,13 +9946,13 @@
       <c r="D133">
         <v>5</v>
       </c>
-      <c r="E133">
+      <c r="E133" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C133&amp;"_"&amp;B133&amp;"_"&amp;D133&amp;"_"&amp;A133&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C133&amp;"_"&amp;B133&amp;"_"&amp;D133&amp;"_"&amp;A133&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-837084.29739576601</v>
-      </c>
-      <c r="F133">
+        <v>#REF!</v>
+      </c>
+      <c r="F133" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C133&amp;"_"&amp;B133&amp;"_"&amp;D133&amp;"_"&amp;A133&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C133&amp;"_"&amp;B133&amp;"_"&amp;D133&amp;"_"&amp;A133&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C133&amp;"_"&amp;B133&amp;"_"&amp;D133&amp;"_"&amp;A133&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C133&amp;"_"&amp;B133&amp;"_"&amp;D133&amp;"_"&amp;A133&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>54107.183301082492</v>
+        <v>#REF!</v>
       </c>
       <c r="G133" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C133&amp;"_"&amp;B133&amp;"_"&amp;D133&amp;"_"&amp;A133&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C133&amp;"_"&amp;B133&amp;"_"&amp;D133&amp;"_"&amp;A133&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -9584,7 +9989,7 @@
     </row>
     <row r="134" spans="1:14">
       <c r="A134" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B134">
         <v>2</v>
@@ -9595,13 +10000,13 @@
       <c r="D134">
         <v>5</v>
       </c>
-      <c r="E134">
+      <c r="E134" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-714376.77399009967</v>
-      </c>
-      <c r="F134">
+        <v>#REF!</v>
+      </c>
+      <c r="F134" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40619.408553817993</v>
+        <v>#REF!</v>
       </c>
       <c r="G134" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -9638,7 +10043,7 @@
     </row>
     <row r="135" spans="1:14">
       <c r="A135" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B135">
         <v>5</v>
@@ -9649,13 +10054,13 @@
       <c r="D135">
         <v>5</v>
       </c>
-      <c r="E135">
+      <c r="E135" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-743403.19166289992</v>
-      </c>
-      <c r="F135">
+        <v>#REF!</v>
+      </c>
+      <c r="F135" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40471.010743909166</v>
+        <v>#REF!</v>
       </c>
       <c r="G135" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -9692,7 +10097,7 @@
     </row>
     <row r="136" spans="1:14">
       <c r="A136" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B136">
         <v>10</v>
@@ -9703,13 +10108,13 @@
       <c r="D136">
         <v>5</v>
       </c>
-      <c r="E136">
+      <c r="E136" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C136&amp;"_"&amp;B136&amp;"_"&amp;D136&amp;"_"&amp;A136&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C136&amp;"_"&amp;B136&amp;"_"&amp;D136&amp;"_"&amp;A136&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-826315.28215753217</v>
-      </c>
-      <c r="F136">
+        <v>#REF!</v>
+      </c>
+      <c r="F136" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C136&amp;"_"&amp;B136&amp;"_"&amp;D136&amp;"_"&amp;A136&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C136&amp;"_"&amp;B136&amp;"_"&amp;D136&amp;"_"&amp;A136&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C136&amp;"_"&amp;B136&amp;"_"&amp;D136&amp;"_"&amp;A136&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C136&amp;"_"&amp;B136&amp;"_"&amp;D136&amp;"_"&amp;A136&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>51876.741761108191</v>
+        <v>#REF!</v>
       </c>
       <c r="G136" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C136&amp;"_"&amp;B136&amp;"_"&amp;D136&amp;"_"&amp;A136&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C136&amp;"_"&amp;B136&amp;"_"&amp;D136&amp;"_"&amp;A136&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -9746,7 +10151,7 @@
     </row>
     <row r="137" spans="1:14">
       <c r="A137" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B137">
         <v>2</v>
@@ -9757,21 +10162,21 @@
       <c r="D137">
         <v>10</v>
       </c>
-      <c r="E137">
+      <c r="E137" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-715593.3978017664</v>
-      </c>
-      <c r="F137">
+        <v>#REF!</v>
+      </c>
+      <c r="F137" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39511.848051185632</v>
-      </c>
-      <c r="G137">
+        <v>#REF!</v>
+      </c>
+      <c r="G137" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-155552.82000676662</v>
-      </c>
-      <c r="H137">
+        <v>#REF!</v>
+      </c>
+      <c r="H137" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1490.3978125518413</v>
+        <v>#REF!</v>
       </c>
       <c r="I137" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -9800,7 +10205,7 @@
     </row>
     <row r="138" spans="1:14">
       <c r="A138" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B138">
         <v>5</v>
@@ -9819,13 +10224,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C138&amp;"_"&amp;B138&amp;"_"&amp;D138&amp;"_"&amp;A138&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C138&amp;"_"&amp;B138&amp;"_"&amp;D138&amp;"_"&amp;A138&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C138&amp;"_"&amp;B138&amp;"_"&amp;D138&amp;"_"&amp;A138&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C138&amp;"_"&amp;B138&amp;"_"&amp;D138&amp;"_"&amp;A138&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="G138">
+      <c r="G138" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C138&amp;"_"&amp;B138&amp;"_"&amp;D138&amp;"_"&amp;A138&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C138&amp;"_"&amp;B138&amp;"_"&amp;D138&amp;"_"&amp;A138&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-192150.02361796648</v>
-      </c>
-      <c r="H138">
+        <v>#REF!</v>
+      </c>
+      <c r="H138" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C138&amp;"_"&amp;B138&amp;"_"&amp;D138&amp;"_"&amp;A138&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C138&amp;"_"&amp;B138&amp;"_"&amp;D138&amp;"_"&amp;A138&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C138&amp;"_"&amp;B138&amp;"_"&amp;D138&amp;"_"&amp;A138&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C138&amp;"_"&amp;B138&amp;"_"&amp;D138&amp;"_"&amp;A138&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>11353.181699380386</v>
+        <v>#REF!</v>
       </c>
       <c r="I138" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C138&amp;"_"&amp;B138&amp;"_"&amp;D138&amp;"_"&amp;A138&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C138&amp;"_"&amp;B138&amp;"_"&amp;D138&amp;"_"&amp;A138&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -9854,7 +10259,7 @@
     </row>
     <row r="139" spans="1:14">
       <c r="A139" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B139">
         <v>10</v>
@@ -9865,13 +10270,13 @@
       <c r="D139">
         <v>10</v>
       </c>
-      <c r="E139">
+      <c r="E139" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C139&amp;"_"&amp;B139&amp;"_"&amp;D139&amp;"_"&amp;A139&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C139&amp;"_"&amp;B139&amp;"_"&amp;D139&amp;"_"&amp;A139&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-732188.39324366627</v>
-      </c>
-      <c r="F139">
+        <v>#REF!</v>
+      </c>
+      <c r="F139" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C139&amp;"_"&amp;B139&amp;"_"&amp;D139&amp;"_"&amp;A139&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C139&amp;"_"&amp;B139&amp;"_"&amp;D139&amp;"_"&amp;A139&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C139&amp;"_"&amp;B139&amp;"_"&amp;D139&amp;"_"&amp;A139&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C139&amp;"_"&amp;B139&amp;"_"&amp;D139&amp;"_"&amp;A139&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39788.119017081597</v>
+        <v>#REF!</v>
       </c>
       <c r="G139" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C139&amp;"_"&amp;B139&amp;"_"&amp;D139&amp;"_"&amp;A139&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C139&amp;"_"&amp;B139&amp;"_"&amp;D139&amp;"_"&amp;A139&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -9908,7 +10313,7 @@
     </row>
     <row r="140" spans="1:14">
       <c r="A140" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B140">
         <v>2</v>
@@ -9919,21 +10324,21 @@
       <c r="D140">
         <v>10</v>
       </c>
-      <c r="E140">
+      <c r="E140" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-713035.113067133</v>
-      </c>
-      <c r="F140">
+        <v>#REF!</v>
+      </c>
+      <c r="F140" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40414.684129262867</v>
-      </c>
-      <c r="G140">
+        <v>#REF!</v>
+      </c>
+      <c r="G140" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-155327.89006226652</v>
-      </c>
-      <c r="H140">
+        <v>#REF!</v>
+      </c>
+      <c r="H140" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1544.6049178201899</v>
+        <v>#REF!</v>
       </c>
       <c r="I140" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -9962,7 +10367,7 @@
     </row>
     <row r="141" spans="1:14">
       <c r="A141" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B141">
         <v>5</v>
@@ -9981,13 +10386,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C141&amp;"_"&amp;B141&amp;"_"&amp;D141&amp;"_"&amp;A141&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C141&amp;"_"&amp;B141&amp;"_"&amp;D141&amp;"_"&amp;A141&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C141&amp;"_"&amp;B141&amp;"_"&amp;D141&amp;"_"&amp;A141&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C141&amp;"_"&amp;B141&amp;"_"&amp;D141&amp;"_"&amp;A141&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="G141">
+      <c r="G141" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C141&amp;"_"&amp;B141&amp;"_"&amp;D141&amp;"_"&amp;A141&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C141&amp;"_"&amp;B141&amp;"_"&amp;D141&amp;"_"&amp;A141&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-173225.04977359984</v>
-      </c>
-      <c r="H141">
+        <v>#REF!</v>
+      </c>
+      <c r="H141" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C141&amp;"_"&amp;B141&amp;"_"&amp;D141&amp;"_"&amp;A141&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C141&amp;"_"&amp;B141&amp;"_"&amp;D141&amp;"_"&amp;A141&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C141&amp;"_"&amp;B141&amp;"_"&amp;D141&amp;"_"&amp;A141&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C141&amp;"_"&amp;B141&amp;"_"&amp;D141&amp;"_"&amp;A141&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>4013.4774223900235</v>
+        <v>#REF!</v>
       </c>
       <c r="I141" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C141&amp;"_"&amp;B141&amp;"_"&amp;D141&amp;"_"&amp;A141&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C141&amp;"_"&amp;B141&amp;"_"&amp;D141&amp;"_"&amp;A141&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10016,7 +10421,7 @@
     </row>
     <row r="142" spans="1:14">
       <c r="A142" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B142">
         <v>10</v>
@@ -10027,13 +10432,13 @@
       <c r="D142">
         <v>10</v>
       </c>
-      <c r="E142">
+      <c r="E142" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C142&amp;"_"&amp;B142&amp;"_"&amp;D142&amp;"_"&amp;A142&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C142&amp;"_"&amp;B142&amp;"_"&amp;D142&amp;"_"&amp;A142&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-732753.45328009943</v>
-      </c>
-      <c r="F142">
+        <v>#REF!</v>
+      </c>
+      <c r="F142" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C142&amp;"_"&amp;B142&amp;"_"&amp;D142&amp;"_"&amp;A142&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C142&amp;"_"&amp;B142&amp;"_"&amp;D142&amp;"_"&amp;A142&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C142&amp;"_"&amp;B142&amp;"_"&amp;D142&amp;"_"&amp;A142&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C142&amp;"_"&amp;B142&amp;"_"&amp;D142&amp;"_"&amp;A142&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39281.195102493504</v>
+        <v>#REF!</v>
       </c>
       <c r="G142" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C142&amp;"_"&amp;B142&amp;"_"&amp;D142&amp;"_"&amp;A142&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C142&amp;"_"&amp;B142&amp;"_"&amp;D142&amp;"_"&amp;A142&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10070,7 +10475,7 @@
     </row>
     <row r="143" spans="1:14">
       <c r="A143" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B143">
         <v>2</v>
@@ -10081,21 +10486,21 @@
       <c r="D143">
         <v>10</v>
       </c>
-      <c r="E143">
+      <c r="E143" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-716349.76971509994</v>
-      </c>
-      <c r="F143">
+        <v>#REF!</v>
+      </c>
+      <c r="F143" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40175.815756743534</v>
-      </c>
-      <c r="G143">
+        <v>#REF!</v>
+      </c>
+      <c r="G143" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-154479.67325916651</v>
-      </c>
-      <c r="H143">
+        <v>#REF!</v>
+      </c>
+      <c r="H143" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1011.4446417538953</v>
+        <v>#REF!</v>
       </c>
       <c r="I143" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10124,7 +10529,7 @@
     </row>
     <row r="144" spans="1:14">
       <c r="A144" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B144">
         <v>5</v>
@@ -10143,13 +10548,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C144&amp;"_"&amp;B144&amp;"_"&amp;D144&amp;"_"&amp;A144&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C144&amp;"_"&amp;B144&amp;"_"&amp;D144&amp;"_"&amp;A144&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C144&amp;"_"&amp;B144&amp;"_"&amp;D144&amp;"_"&amp;A144&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C144&amp;"_"&amp;B144&amp;"_"&amp;D144&amp;"_"&amp;A144&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="G144">
+      <c r="G144" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C144&amp;"_"&amp;B144&amp;"_"&amp;D144&amp;"_"&amp;A144&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C144&amp;"_"&amp;B144&amp;"_"&amp;D144&amp;"_"&amp;A144&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-176863.02179986643</v>
-      </c>
-      <c r="H144">
+        <v>#REF!</v>
+      </c>
+      <c r="H144" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C144&amp;"_"&amp;B144&amp;"_"&amp;D144&amp;"_"&amp;A144&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C144&amp;"_"&amp;B144&amp;"_"&amp;D144&amp;"_"&amp;A144&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C144&amp;"_"&amp;B144&amp;"_"&amp;D144&amp;"_"&amp;A144&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C144&amp;"_"&amp;B144&amp;"_"&amp;D144&amp;"_"&amp;A144&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>4373.0269164152496</v>
+        <v>#REF!</v>
       </c>
       <c r="I144" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C144&amp;"_"&amp;B144&amp;"_"&amp;D144&amp;"_"&amp;A144&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C144&amp;"_"&amp;B144&amp;"_"&amp;D144&amp;"_"&amp;A144&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10178,7 +10583,7 @@
     </row>
     <row r="145" spans="1:14">
       <c r="A145" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B145">
         <v>10</v>
@@ -10189,13 +10594,13 @@
       <c r="D145">
         <v>10</v>
       </c>
-      <c r="E145">
+      <c r="E145" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C145&amp;"_"&amp;B145&amp;"_"&amp;D145&amp;"_"&amp;A145&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C145&amp;"_"&amp;B145&amp;"_"&amp;D145&amp;"_"&amp;A145&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-739040.60820436629</v>
-      </c>
-      <c r="F145">
+        <v>#REF!</v>
+      </c>
+      <c r="F145" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C145&amp;"_"&amp;B145&amp;"_"&amp;D145&amp;"_"&amp;A145&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C145&amp;"_"&amp;B145&amp;"_"&amp;D145&amp;"_"&amp;A145&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C145&amp;"_"&amp;B145&amp;"_"&amp;D145&amp;"_"&amp;A145&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C145&amp;"_"&amp;B145&amp;"_"&amp;D145&amp;"_"&amp;A145&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39724.370474167001</v>
+        <v>#REF!</v>
       </c>
       <c r="G145" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C145&amp;"_"&amp;B145&amp;"_"&amp;D145&amp;"_"&amp;A145&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C145&amp;"_"&amp;B145&amp;"_"&amp;D145&amp;"_"&amp;A145&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10232,7 +10637,7 @@
     </row>
     <row r="146" spans="1:14">
       <c r="A146" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B146">
         <v>2</v>
@@ -10243,13 +10648,13 @@
       <c r="D146">
         <v>10</v>
       </c>
-      <c r="E146">
+      <c r="E146" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C146&amp;"_"&amp;B146&amp;"_"&amp;D146&amp;"_"&amp;A146&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C146&amp;"_"&amp;B146&amp;"_"&amp;D146&amp;"_"&amp;A146&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-715325.8811065997</v>
-      </c>
-      <c r="F146">
+        <v>#REF!</v>
+      </c>
+      <c r="F146" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C146&amp;"_"&amp;B146&amp;"_"&amp;D146&amp;"_"&amp;A146&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C146&amp;"_"&amp;B146&amp;"_"&amp;D146&amp;"_"&amp;A146&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C146&amp;"_"&amp;B146&amp;"_"&amp;D146&amp;"_"&amp;A146&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C146&amp;"_"&amp;B146&amp;"_"&amp;D146&amp;"_"&amp;A146&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39634.451264737043</v>
+        <v>#REF!</v>
       </c>
       <c r="G146" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C146&amp;"_"&amp;B146&amp;"_"&amp;D146&amp;"_"&amp;A146&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C146&amp;"_"&amp;B146&amp;"_"&amp;D146&amp;"_"&amp;A146&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10286,7 +10691,7 @@
     </row>
     <row r="147" spans="1:14">
       <c r="A147" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B147">
         <v>5</v>
@@ -10340,7 +10745,7 @@
     </row>
     <row r="148" spans="1:14">
       <c r="A148" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B148">
         <v>10</v>
@@ -10394,7 +10799,7 @@
     </row>
     <row r="149" spans="1:14">
       <c r="A149" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B149">
         <v>2</v>
@@ -10448,7 +10853,7 @@
     </row>
     <row r="150" spans="1:14">
       <c r="A150" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B150">
         <v>5</v>
@@ -10502,7 +10907,7 @@
     </row>
     <row r="151" spans="1:14">
       <c r="A151" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B151">
         <v>10</v>
@@ -10556,7 +10961,7 @@
     </row>
     <row r="152" spans="1:14">
       <c r="A152" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B152">
         <v>2</v>
@@ -10567,13 +10972,13 @@
       <c r="D152">
         <v>15</v>
       </c>
-      <c r="E152">
+      <c r="E152" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C152&amp;"_"&amp;B152&amp;"_"&amp;D152&amp;"_"&amp;A152&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C152&amp;"_"&amp;B152&amp;"_"&amp;D152&amp;"_"&amp;A152&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-716188.77303919976</v>
-      </c>
-      <c r="F152">
+        <v>#REF!</v>
+      </c>
+      <c r="F152" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C152&amp;"_"&amp;B152&amp;"_"&amp;D152&amp;"_"&amp;A152&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C152&amp;"_"&amp;B152&amp;"_"&amp;D152&amp;"_"&amp;A152&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C152&amp;"_"&amp;B152&amp;"_"&amp;D152&amp;"_"&amp;A152&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C152&amp;"_"&amp;B152&amp;"_"&amp;D152&amp;"_"&amp;A152&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39582.194171625961</v>
+        <v>#REF!</v>
       </c>
       <c r="G152" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C152&amp;"_"&amp;B152&amp;"_"&amp;D152&amp;"_"&amp;A152&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C152&amp;"_"&amp;B152&amp;"_"&amp;D152&amp;"_"&amp;A152&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10610,7 +11015,7 @@
     </row>
     <row r="153" spans="1:14">
       <c r="A153" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B153">
         <v>5</v>
@@ -10664,7 +11069,7 @@
     </row>
     <row r="154" spans="1:14">
       <c r="A154" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B154">
         <v>10</v>
@@ -10675,13 +11080,13 @@
       <c r="D154">
         <v>15</v>
       </c>
-      <c r="E154">
+      <c r="E154" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C154&amp;"_"&amp;B154&amp;"_"&amp;D154&amp;"_"&amp;A154&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C154&amp;"_"&amp;B154&amp;"_"&amp;D154&amp;"_"&amp;A154&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-730924.02649516624</v>
-      </c>
-      <c r="F154">
+        <v>#REF!</v>
+      </c>
+      <c r="F154" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C154&amp;"_"&amp;B154&amp;"_"&amp;D154&amp;"_"&amp;A154&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C154&amp;"_"&amp;B154&amp;"_"&amp;D154&amp;"_"&amp;A154&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C154&amp;"_"&amp;B154&amp;"_"&amp;D154&amp;"_"&amp;A154&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C154&amp;"_"&amp;B154&amp;"_"&amp;D154&amp;"_"&amp;A154&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39209.763780033019</v>
+        <v>#REF!</v>
       </c>
       <c r="G154" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C154&amp;"_"&amp;B154&amp;"_"&amp;D154&amp;"_"&amp;A154&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C154&amp;"_"&amp;B154&amp;"_"&amp;D154&amp;"_"&amp;A154&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10718,7 +11123,7 @@
     </row>
     <row r="155" spans="1:14">
       <c r="A155" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B155">
         <v>2</v>
@@ -10729,13 +11134,13 @@
       <c r="D155">
         <v>15</v>
       </c>
-      <c r="E155">
+      <c r="E155" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C155&amp;"_"&amp;B155&amp;"_"&amp;D155&amp;"_"&amp;A155&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C155&amp;"_"&amp;B155&amp;"_"&amp;D155&amp;"_"&amp;A155&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-715900.29055189982</v>
-      </c>
-      <c r="F155">
+        <v>#REF!</v>
+      </c>
+      <c r="F155" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C155&amp;"_"&amp;B155&amp;"_"&amp;D155&amp;"_"&amp;A155&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C155&amp;"_"&amp;B155&amp;"_"&amp;D155&amp;"_"&amp;A155&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C155&amp;"_"&amp;B155&amp;"_"&amp;D155&amp;"_"&amp;A155&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C155&amp;"_"&amp;B155&amp;"_"&amp;D155&amp;"_"&amp;A155&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>38289.92521914895</v>
+        <v>#REF!</v>
       </c>
       <c r="G155" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C155&amp;"_"&amp;B155&amp;"_"&amp;D155&amp;"_"&amp;A155&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C155&amp;"_"&amp;B155&amp;"_"&amp;D155&amp;"_"&amp;A155&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10772,7 +11177,7 @@
     </row>
     <row r="156" spans="1:14">
       <c r="A156" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B156">
         <v>5</v>
@@ -10783,13 +11188,13 @@
       <c r="D156">
         <v>15</v>
       </c>
-      <c r="E156">
+      <c r="E156" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C156&amp;"_"&amp;B156&amp;"_"&amp;D156&amp;"_"&amp;A156&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C156&amp;"_"&amp;B156&amp;"_"&amp;D156&amp;"_"&amp;A156&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-781973.40183826652</v>
-      </c>
-      <c r="F156">
+        <v>#REF!</v>
+      </c>
+      <c r="F156" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C156&amp;"_"&amp;B156&amp;"_"&amp;D156&amp;"_"&amp;A156&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C156&amp;"_"&amp;B156&amp;"_"&amp;D156&amp;"_"&amp;A156&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C156&amp;"_"&amp;B156&amp;"_"&amp;D156&amp;"_"&amp;A156&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C156&amp;"_"&amp;B156&amp;"_"&amp;D156&amp;"_"&amp;A156&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>44599.552743276377</v>
+        <v>#REF!</v>
       </c>
       <c r="G156" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C156&amp;"_"&amp;B156&amp;"_"&amp;D156&amp;"_"&amp;A156&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C156&amp;"_"&amp;B156&amp;"_"&amp;D156&amp;"_"&amp;A156&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10826,7 +11231,7 @@
     </row>
     <row r="157" spans="1:14">
       <c r="A157" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B157">
         <v>10</v>
@@ -10837,13 +11242,13 @@
       <c r="D157">
         <v>15</v>
       </c>
-      <c r="E157">
+      <c r="E157" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C157&amp;"_"&amp;B157&amp;"_"&amp;D157&amp;"_"&amp;A157&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C157&amp;"_"&amp;B157&amp;"_"&amp;D157&amp;"_"&amp;A157&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-730924.02649516624</v>
-      </c>
-      <c r="F157">
+        <v>#REF!</v>
+      </c>
+      <c r="F157" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C157&amp;"_"&amp;B157&amp;"_"&amp;D157&amp;"_"&amp;A157&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C157&amp;"_"&amp;B157&amp;"_"&amp;D157&amp;"_"&amp;A157&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C157&amp;"_"&amp;B157&amp;"_"&amp;D157&amp;"_"&amp;A157&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C157&amp;"_"&amp;B157&amp;"_"&amp;D157&amp;"_"&amp;A157&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39209.763780033019</v>
+        <v>#REF!</v>
       </c>
       <c r="G157" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C157&amp;"_"&amp;B157&amp;"_"&amp;D157&amp;"_"&amp;A157&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C157&amp;"_"&amp;B157&amp;"_"&amp;D157&amp;"_"&amp;A157&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10880,7 +11285,7 @@
     </row>
     <row r="158" spans="1:14">
       <c r="A158" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B158">
         <v>2</v>
@@ -10891,13 +11296,13 @@
       <c r="D158">
         <v>15</v>
       </c>
-      <c r="E158">
+      <c r="E158" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C158&amp;"_"&amp;B158&amp;"_"&amp;D158&amp;"_"&amp;A158&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C158&amp;"_"&amp;B158&amp;"_"&amp;D158&amp;"_"&amp;A158&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-716209.02677286649</v>
-      </c>
-      <c r="F158">
+        <v>#REF!</v>
+      </c>
+      <c r="F158" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C158&amp;"_"&amp;B158&amp;"_"&amp;D158&amp;"_"&amp;A158&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C158&amp;"_"&amp;B158&amp;"_"&amp;D158&amp;"_"&amp;A158&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C158&amp;"_"&amp;B158&amp;"_"&amp;D158&amp;"_"&amp;A158&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C158&amp;"_"&amp;B158&amp;"_"&amp;D158&amp;"_"&amp;A158&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>38995.753012943933</v>
+        <v>#REF!</v>
       </c>
       <c r="G158" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C158&amp;"_"&amp;B158&amp;"_"&amp;D158&amp;"_"&amp;A158&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C158&amp;"_"&amp;B158&amp;"_"&amp;D158&amp;"_"&amp;A158&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10934,7 +11339,7 @@
     </row>
     <row r="159" spans="1:14">
       <c r="A159" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B159">
         <v>5</v>
@@ -10945,13 +11350,13 @@
       <c r="D159">
         <v>15</v>
       </c>
-      <c r="E159">
+      <c r="E159" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C159&amp;"_"&amp;B159&amp;"_"&amp;D159&amp;"_"&amp;A159&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C159&amp;"_"&amp;B159&amp;"_"&amp;D159&amp;"_"&amp;A159&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-748935.00915383326</v>
-      </c>
-      <c r="F159">
+        <v>#REF!</v>
+      </c>
+      <c r="F159" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C159&amp;"_"&amp;B159&amp;"_"&amp;D159&amp;"_"&amp;A159&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C159&amp;"_"&amp;B159&amp;"_"&amp;D159&amp;"_"&amp;A159&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C159&amp;"_"&amp;B159&amp;"_"&amp;D159&amp;"_"&amp;A159&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C159&amp;"_"&amp;B159&amp;"_"&amp;D159&amp;"_"&amp;A159&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40632.864281399066</v>
+        <v>#REF!</v>
       </c>
       <c r="G159" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C159&amp;"_"&amp;B159&amp;"_"&amp;D159&amp;"_"&amp;A159&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C159&amp;"_"&amp;B159&amp;"_"&amp;D159&amp;"_"&amp;A159&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10988,7 +11393,7 @@
     </row>
     <row r="160" spans="1:14">
       <c r="A160" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B160">
         <v>10</v>
@@ -10999,13 +11404,13 @@
       <c r="D160">
         <v>15</v>
       </c>
-      <c r="E160">
+      <c r="E160" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C160&amp;"_"&amp;B160&amp;"_"&amp;D160&amp;"_"&amp;A160&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C160&amp;"_"&amp;B160&amp;"_"&amp;D160&amp;"_"&amp;A160&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-730924.02649516624</v>
-      </c>
-      <c r="F160">
+        <v>#REF!</v>
+      </c>
+      <c r="F160" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C160&amp;"_"&amp;B160&amp;"_"&amp;D160&amp;"_"&amp;A160&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C160&amp;"_"&amp;B160&amp;"_"&amp;D160&amp;"_"&amp;A160&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C160&amp;"_"&amp;B160&amp;"_"&amp;D160&amp;"_"&amp;A160&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C160&amp;"_"&amp;B160&amp;"_"&amp;D160&amp;"_"&amp;A160&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39209.763780033019</v>
+        <v>#REF!</v>
       </c>
       <c r="G160" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C160&amp;"_"&amp;B160&amp;"_"&amp;D160&amp;"_"&amp;A160&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C160&amp;"_"&amp;B160&amp;"_"&amp;D160&amp;"_"&amp;A160&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -11042,7 +11447,7 @@
     </row>
     <row r="161" spans="1:14">
       <c r="A161" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B161">
         <v>2</v>
@@ -11096,7 +11501,7 @@
     </row>
     <row r="162" spans="1:14">
       <c r="A162" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B162">
         <v>5</v>
@@ -11150,7 +11555,7 @@
     </row>
     <row r="163" spans="1:14">
       <c r="A163" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B163">
         <v>10</v>
@@ -11204,7 +11609,7 @@
     </row>
     <row r="164" spans="1:14">
       <c r="A164" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B164">
         <v>2</v>
@@ -11258,7 +11663,7 @@
     </row>
     <row r="165" spans="1:14">
       <c r="A165" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B165">
         <v>5</v>
@@ -11312,7 +11717,7 @@
     </row>
     <row r="166" spans="1:14">
       <c r="A166" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B166">
         <v>10</v>
@@ -11366,7 +11771,7 @@
     </row>
     <row r="167" spans="1:14">
       <c r="A167" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B167">
         <v>2</v>
@@ -11420,7 +11825,7 @@
     </row>
     <row r="168" spans="1:14">
       <c r="A168" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B168">
         <v>5</v>
@@ -11474,7 +11879,7 @@
     </row>
     <row r="169" spans="1:14">
       <c r="A169" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B169">
         <v>10</v>
@@ -11528,7 +11933,7 @@
     </row>
     <row r="170" spans="1:14">
       <c r="A170" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B170">
         <v>2</v>
@@ -11582,7 +11987,7 @@
     </row>
     <row r="171" spans="1:14">
       <c r="A171" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B171">
         <v>5</v>
@@ -11636,7 +12041,7 @@
     </row>
     <row r="172" spans="1:14">
       <c r="A172" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B172">
         <v>10</v>
@@ -11690,12 +12095,12 @@
     </row>
     <row r="174" spans="1:14">
       <c r="A174" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:14">
       <c r="A175" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B175">
         <v>2</v>
@@ -11706,21 +12111,21 @@
       <c r="D175">
         <v>1</v>
       </c>
-      <c r="E175">
+      <c r="E175" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-707176.27752059989</v>
-      </c>
-      <c r="F175">
+        <v>#REF!</v>
+      </c>
+      <c r="F175" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39855.890614731688</v>
-      </c>
-      <c r="G175">
+        <v>#REF!</v>
+      </c>
+      <c r="G175" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-155121.34840939988</v>
-      </c>
-      <c r="H175">
+        <v>#REF!</v>
+      </c>
+      <c r="H175" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1456.5715260852623</v>
+        <v>#REF!</v>
       </c>
       <c r="I175" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -11730,13 +12135,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="K175">
+      <c r="K175" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-306498.174091933</v>
-      </c>
-      <c r="L175">
+        <v>#REF!</v>
+      </c>
+      <c r="L175" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1255.0521047624875</v>
+        <v>#REF!</v>
       </c>
       <c r="M175" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -11749,7 +12154,7 @@
     </row>
     <row r="176" spans="1:14">
       <c r="A176" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B176">
         <v>5</v>
@@ -11760,13 +12165,13 @@
       <c r="D176">
         <v>1</v>
       </c>
-      <c r="E176">
+      <c r="E176" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-707976.29801479972</v>
-      </c>
-      <c r="F176">
+        <v>#REF!</v>
+      </c>
+      <c r="F176" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39738.507186243398</v>
+        <v>#REF!</v>
       </c>
       <c r="G176" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -11784,26 +12189,26 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="K176">
+      <c r="K176" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-304668.19096086634</v>
-      </c>
-      <c r="L176">
+        <v>#REF!</v>
+      </c>
+      <c r="L176" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1249.8824290964753</v>
-      </c>
-      <c r="M176">
+        <v>#REF!</v>
+      </c>
+      <c r="M176" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-381345.3049581995</v>
-      </c>
-      <c r="N176">
+        <v>#REF!</v>
+      </c>
+      <c r="N176" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1655.1433948237407</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="177" spans="1:15">
       <c r="A177" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B177">
         <v>10</v>
@@ -11814,50 +12219,50 @@
       <c r="D177">
         <v>1</v>
       </c>
-      <c r="E177">
+      <c r="E177" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-706103.40030039928</v>
-      </c>
-      <c r="F177">
+        <v>#REF!</v>
+      </c>
+      <c r="F177" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40125.131817608206</v>
-      </c>
-      <c r="G177">
+        <v>#REF!</v>
+      </c>
+      <c r="G177" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-154082.36758016652</v>
-      </c>
-      <c r="H177">
+        <v>#REF!</v>
+      </c>
+      <c r="H177" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1177.2073551443777</v>
-      </c>
-      <c r="I177">
+        <v>#REF!</v>
+      </c>
+      <c r="I177" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-235294.04376306655</v>
-      </c>
-      <c r="J177">
+        <v>#REF!</v>
+      </c>
+      <c r="J177" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>3158.6318952781353</v>
-      </c>
-      <c r="K177">
+        <v>#REF!</v>
+      </c>
+      <c r="K177" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-319334.26670403284</v>
-      </c>
-      <c r="L177">
+        <v>#REF!</v>
+      </c>
+      <c r="L177" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>9927.0192716546553</v>
-      </c>
-      <c r="M177">
+        <v>#REF!</v>
+      </c>
+      <c r="M177" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-405128.92717929941</v>
-      </c>
-      <c r="N177">
+        <v>#REF!</v>
+      </c>
+      <c r="N177" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>21877.569130300075</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="178" spans="1:15">
       <c r="A178" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B178">
         <v>2</v>
@@ -11868,50 +12273,50 @@
       <c r="D178">
         <v>1</v>
       </c>
-      <c r="E178">
+      <c r="E178" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-714143.28883299965</v>
-      </c>
-      <c r="F178">
+        <v>#REF!</v>
+      </c>
+      <c r="F178" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>38877.167416105498</v>
-      </c>
-      <c r="G178">
+        <v>#REF!</v>
+      </c>
+      <c r="G178" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-156512.00641349982</v>
-      </c>
-      <c r="H178">
+        <v>#REF!</v>
+      </c>
+      <c r="H178" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1422.4305356111629</v>
-      </c>
-      <c r="I178">
+        <v>#REF!</v>
+      </c>
+      <c r="I178" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-231559.13099383321</v>
-      </c>
-      <c r="J178">
+        <v>#REF!</v>
+      </c>
+      <c r="J178" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1203.0885711158926</v>
-      </c>
-      <c r="K178">
+        <v>#REF!</v>
+      </c>
+      <c r="K178" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-304522.55471549986</v>
-      </c>
-      <c r="L178">
+        <v>#REF!</v>
+      </c>
+      <c r="L178" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1186.679407033387</v>
-      </c>
-      <c r="M178">
+        <v>#REF!</v>
+      </c>
+      <c r="M178" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-381776.27758256649</v>
-      </c>
-      <c r="N178">
+        <v>#REF!</v>
+      </c>
+      <c r="N178" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1565.1670245883972</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="179" spans="1:15">
       <c r="A179" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B179">
         <v>5</v>
@@ -11922,29 +12327,29 @@
       <c r="D179">
         <v>1</v>
       </c>
-      <c r="E179">
+      <c r="E179" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-708566.26914166659</v>
-      </c>
-      <c r="F179">
+        <v>#REF!</v>
+      </c>
+      <c r="F179" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39820.842678963672</v>
-      </c>
-      <c r="G179">
+        <v>#REF!</v>
+      </c>
+      <c r="G179" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-156119.75830389981</v>
-      </c>
-      <c r="H179">
+        <v>#REF!</v>
+      </c>
+      <c r="H179" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1591.5309955257499</v>
-      </c>
-      <c r="I179">
+        <v>#REF!</v>
+      </c>
+      <c r="I179" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-232691.83142523331</v>
-      </c>
-      <c r="J179">
+        <v>#REF!</v>
+      </c>
+      <c r="J179" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1924.686525893464</v>
+        <v>#REF!</v>
       </c>
       <c r="K179" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -11954,18 +12359,18 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="M179">
+      <c r="M179" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-381631.11392139958</v>
-      </c>
-      <c r="N179">
+        <v>#REF!</v>
+      </c>
+      <c r="N179" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1459.3547047436343</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="180" spans="1:15">
       <c r="A180" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B180">
         <v>10</v>
@@ -11976,37 +12381,37 @@
       <c r="D180">
         <v>1</v>
       </c>
-      <c r="E180">
+      <c r="E180" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-705643.65988346632</v>
-      </c>
-      <c r="F180">
+        <v>#REF!</v>
+      </c>
+      <c r="F180" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40281.680381093189</v>
-      </c>
-      <c r="G180">
+        <v>#REF!</v>
+      </c>
+      <c r="G180" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-154990.3696792332</v>
-      </c>
-      <c r="H180">
+        <v>#REF!</v>
+      </c>
+      <c r="H180" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1127.1445578645835</v>
-      </c>
-      <c r="I180">
+        <v>#REF!</v>
+      </c>
+      <c r="I180" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-234169.83567736656</v>
-      </c>
-      <c r="J180">
+        <v>#REF!</v>
+      </c>
+      <c r="J180" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>2330.3084105465932</v>
-      </c>
-      <c r="K180">
+        <v>#REF!</v>
+      </c>
+      <c r="K180" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-309591.58502159955</v>
-      </c>
-      <c r="L180">
+        <v>#REF!</v>
+      </c>
+      <c r="L180" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>2831.3024900898117</v>
+        <v>#REF!</v>
       </c>
       <c r="M180" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -12019,7 +12424,7 @@
     </row>
     <row r="181" spans="1:15">
       <c r="A181" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B181">
         <v>2</v>
@@ -12030,21 +12435,21 @@
       <c r="D181">
         <v>1</v>
       </c>
-      <c r="E181">
+      <c r="E181" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-707989.0735569332</v>
-      </c>
-      <c r="F181">
+        <v>#REF!</v>
+      </c>
+      <c r="F181" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40475.706227699484</v>
-      </c>
-      <c r="G181">
+        <v>#REF!</v>
+      </c>
+      <c r="G181" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-157172.3165227999</v>
-      </c>
-      <c r="H181">
+        <v>#REF!</v>
+      </c>
+      <c r="H181" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1476.8600927089458</v>
+        <v>#REF!</v>
       </c>
       <c r="I181" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -12054,26 +12459,26 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="K181">
+      <c r="K181" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-305644.62943713303</v>
-      </c>
-      <c r="L181">
+        <v>#REF!</v>
+      </c>
+      <c r="L181" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1194.7146052286687</v>
-      </c>
-      <c r="M181">
+        <v>#REF!</v>
+      </c>
+      <c r="M181" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-382647.63756826619</v>
-      </c>
-      <c r="N181">
+        <v>#REF!</v>
+      </c>
+      <c r="N181" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>2227.2711662026813</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="182" spans="1:15">
       <c r="A182" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B182">
         <v>5</v>
@@ -12084,50 +12489,50 @@
       <c r="D182">
         <v>1</v>
       </c>
-      <c r="E182">
+      <c r="E182" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-708551.13385009975</v>
-      </c>
-      <c r="F182">
+        <v>#REF!</v>
+      </c>
+      <c r="F182" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40236.894173354267</v>
-      </c>
-      <c r="G182">
+        <v>#REF!</v>
+      </c>
+      <c r="G182" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-156124.84147639995</v>
-      </c>
-      <c r="H182">
+        <v>#REF!</v>
+      </c>
+      <c r="H182" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1626.4742080983451</v>
-      </c>
-      <c r="I182">
+        <v>#REF!</v>
+      </c>
+      <c r="I182" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-232696.00473556653</v>
-      </c>
-      <c r="J182">
+        <v>#REF!</v>
+      </c>
+      <c r="J182" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1677.8228923353715</v>
-      </c>
-      <c r="K182">
+        <v>#REF!</v>
+      </c>
+      <c r="K182" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-303580.59441856609</v>
-      </c>
-      <c r="L182">
+        <v>#REF!</v>
+      </c>
+      <c r="L182" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1124.0477006857859</v>
-      </c>
-      <c r="M182">
+        <v>#REF!</v>
+      </c>
+      <c r="M182" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-382889.62196043285</v>
-      </c>
-      <c r="N182">
+        <v>#REF!</v>
+      </c>
+      <c r="N182" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>2106.6192195777394</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="183" spans="1:15">
       <c r="A183" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B183">
         <v>10</v>
@@ -12138,29 +12543,29 @@
       <c r="D183">
         <v>1</v>
       </c>
-      <c r="E183">
+      <c r="E183" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-705558.74752460001</v>
-      </c>
-      <c r="F183">
+        <v>#REF!</v>
+      </c>
+      <c r="F183" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40139.800010333158</v>
-      </c>
-      <c r="G183">
+        <v>#REF!</v>
+      </c>
+      <c r="G183" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-153380.85815563324</v>
-      </c>
-      <c r="H183">
+        <v>#REF!</v>
+      </c>
+      <c r="H183" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1093.7278415012156</v>
-      </c>
-      <c r="I183">
+        <v>#REF!</v>
+      </c>
+      <c r="I183" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-234161.44414396663</v>
-      </c>
-      <c r="J183">
+        <v>#REF!</v>
+      </c>
+      <c r="J183" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>2535.8417624859931</v>
+        <v>#REF!</v>
       </c>
       <c r="K183" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -12170,18 +12575,18 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="M183">
+      <c r="M183" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-384358.30849809939</v>
-      </c>
-      <c r="N183">
+        <v>#REF!</v>
+      </c>
+      <c r="N183" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>2602.9255264928879</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="184" spans="1:15">
       <c r="A184" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B184">
         <v>2</v>
@@ -12192,50 +12597,50 @@
       <c r="D184">
         <v>1</v>
       </c>
-      <c r="E184">
+      <c r="E184" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-706300.03440493334</v>
-      </c>
-      <c r="F184">
+        <v>#REF!</v>
+      </c>
+      <c r="F184" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40803.957418211096</v>
-      </c>
-      <c r="G184">
+        <v>#REF!</v>
+      </c>
+      <c r="G184" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-158214.54124379982</v>
-      </c>
-      <c r="H184">
+        <v>#REF!</v>
+      </c>
+      <c r="H184" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1803.5727611976006</v>
-      </c>
-      <c r="I184">
+        <v>#REF!</v>
+      </c>
+      <c r="I184" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-232874.65566329969</v>
-      </c>
-      <c r="J184">
+        <v>#REF!</v>
+      </c>
+      <c r="J184" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1791.3972650362718</v>
-      </c>
-      <c r="K184">
+        <v>#REF!</v>
+      </c>
+      <c r="K184" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-306149.75874109974</v>
-      </c>
-      <c r="L184">
+        <v>#REF!</v>
+      </c>
+      <c r="L184" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1214.2441235958843</v>
-      </c>
-      <c r="M184">
+        <v>#REF!</v>
+      </c>
+      <c r="M184" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-382585.64683653292</v>
-      </c>
-      <c r="N184">
+        <v>#REF!</v>
+      </c>
+      <c r="N184" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1495.7481806413066</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="185" spans="1:15">
       <c r="A185" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B185">
         <v>5</v>
@@ -12246,53 +12651,53 @@
       <c r="D185">
         <v>1</v>
       </c>
-      <c r="E185">
+      <c r="E185" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-709560.32436303294</v>
-      </c>
-      <c r="F185">
+        <v>#REF!</v>
+      </c>
+      <c r="F185" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39782.183561187376</v>
-      </c>
-      <c r="G185">
+        <v>#REF!</v>
+      </c>
+      <c r="G185" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-157120.03041009995</v>
-      </c>
-      <c r="H185">
+        <v>#REF!</v>
+      </c>
+      <c r="H185" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1446.5655300872577</v>
-      </c>
-      <c r="I185">
+        <v>#REF!</v>
+      </c>
+      <c r="I185" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-231820.20982006646</v>
-      </c>
-      <c r="J185">
+        <v>#REF!</v>
+      </c>
+      <c r="J185" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>2096.0807463683077</v>
-      </c>
-      <c r="K185">
+        <v>#REF!</v>
+      </c>
+      <c r="K185" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-304675.48072336626</v>
-      </c>
-      <c r="L185">
+        <v>#REF!</v>
+      </c>
+      <c r="L185" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1616.6550729638523</v>
-      </c>
-      <c r="M185">
+        <v>#REF!</v>
+      </c>
+      <c r="M185" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-382543.71589863283</v>
-      </c>
-      <c r="N185">
+        <v>#REF!</v>
+      </c>
+      <c r="N185" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>2113.2504216093844</v>
+        <v>#REF!</v>
       </c>
       <c r="O185" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="186" spans="1:15">
       <c r="A186" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B186">
         <v>10</v>
@@ -12303,45 +12708,45 @@
       <c r="D186">
         <v>1</v>
       </c>
-      <c r="E186">
+      <c r="E186" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-706146.38933343301</v>
-      </c>
-      <c r="F186">
+        <v>#REF!</v>
+      </c>
+      <c r="F186" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40227.833965427875</v>
-      </c>
-      <c r="G186">
+        <v>#REF!</v>
+      </c>
+      <c r="G186" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-153204.55133199989</v>
-      </c>
-      <c r="H186">
+        <v>#REF!</v>
+      </c>
+      <c r="H186" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>805.80560200835032</v>
-      </c>
-      <c r="I186">
+        <v>#REF!</v>
+      </c>
+      <c r="I186" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-235875.23647013301</v>
-      </c>
-      <c r="J186">
+        <v>#REF!</v>
+      </c>
+      <c r="J186" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>3308.5650726480067</v>
-      </c>
-      <c r="K186">
+        <v>#REF!</v>
+      </c>
+      <c r="K186" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-308070.09497569932</v>
-      </c>
-      <c r="L186">
+        <v>#REF!</v>
+      </c>
+      <c r="L186" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>2542.9820515049364</v>
-      </c>
-      <c r="M186">
+        <v>#REF!</v>
+      </c>
+      <c r="M186" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-387783.60361573286</v>
-      </c>
-      <c r="N186">
+        <v>#REF!</v>
+      </c>
+      <c r="N186" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>3305.8787894986522</v>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -12373,7 +12778,7 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1">
         <v>30</v>
@@ -12473,7 +12878,7 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>30</v>

--- a/data/reservoir_summary.xlsx
+++ b/data/reservoir_summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19980" windowHeight="7815"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="19980" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -204,19 +204,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>40139.800010333158</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>331.22314261665247</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>424.82393808387724</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>713.01950408906214</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>742.03817087389518</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -228,19 +228,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>40139.800010333158</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>331.22314261665247</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>424.82393808387724</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>713.01950408906214</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>742.03817087389518</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -277,19 +277,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-705558.74752460001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-151004.78483646669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-226035.00308889986</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-302371.24586553272</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-376902.28740049922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -323,16 +323,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>40189.103171348601</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>1540.3828499440026</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>#N/A</c:v>
+                    <c:v>1068.8191264998266</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>#N/A</c:v>
+                    <c:v>1022.1855558978397</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>#N/A</c:v>
@@ -347,16 +347,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>40189.103171348601</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>1540.3828499440026</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>#N/A</c:v>
+                    <c:v>1068.8191264998266</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>#N/A</c:v>
+                    <c:v>1022.1855558978397</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>#N/A</c:v>
@@ -396,16 +396,16 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-706549.62999373302</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-153286.71304893334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-227932.24678416669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-303372.45221636642</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -442,19 +442,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>40414.684129262867</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>1011.4446417538953</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>#N/A</c:v>
+                    <c:v>1551.4989419702224</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>#N/A</c:v>
+                    <c:v>1450.4726333497763</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>6491.5669504263406</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -466,19 +466,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>40414.684129262867</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>1011.4446417538953</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>#N/A</c:v>
+                    <c:v>1551.4989419702224</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>#N/A</c:v>
+                    <c:v>1450.4726333497763</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>6491.5669504263406</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -515,19 +515,19 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-713035.113067133</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-154479.67325916651</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-231107.5087570998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-304924.71780873288</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-385520.4935253333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -561,19 +561,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>40139.800010333158</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>805.80560200835032</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>1203.0885711158926</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>1124.0477006857859</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>1655.1433948237407</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -585,19 +585,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>40139.800010333158</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>805.80560200835032</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>1203.0885711158926</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>1124.0477006857859</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>1655.1433948237407</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -634,19 +634,19 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-705558.74752460001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-153204.55133199989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-231559.13099383321</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-303580.59441856609</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-381345.3049581995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -680,19 +680,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>25840.822727708834</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>16500.131416962133</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>18638.401338375752</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>21874.728599622267</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>21094.660496211738</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -704,19 +704,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>25840.822727708834</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>16500.131416962133</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>18638.401338375752</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>21874.728599622267</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>21094.660496211738</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -753,19 +753,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>-1040694.4035340393</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-640683.5398220839</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-793622.46569497674</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-941814.03215179872</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-1087830.8501382796</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -799,19 +799,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>24616.534391881643</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>13498.908938073539</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>13293.925853681592</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>13000.107852977553</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>#N/A</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -823,19 +823,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>24616.534391881643</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>13498.908938073539</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>13293.925853681592</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>13000.107852977553</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>#N/A</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -872,30 +872,30 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="0.000">
-                  <c:v>0</c:v>
+                  <c:v>-730572.06487864989</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-371066.35316334968</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-437732.43098749971</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-525400.91213949979</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="52832512"/>
-        <c:axId val="52838400"/>
+        <c:axId val="68740992"/>
+        <c:axId val="68742528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="52832512"/>
+        <c:axId val="68740992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -903,14 +903,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52838400"/>
+        <c:crossAx val="68742528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52838400"/>
+        <c:axId val="68742528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -921,7 +921,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52832512"/>
+        <c:crossAx val="68740992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -934,7 +934,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1540,691 +1540,916 @@
         </row>
         <row r="223">
           <cell r="A223" t="str">
-            <v>reservoir_10_5_10_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_2_5_50_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="225">
           <cell r="A225" t="str">
-            <v>reservoir_10_5_10_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_2_5_50_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="227">
           <cell r="A227" t="str">
-            <v>reservoir_10_5_10_10_ROOT_SAMPLE</v>
+            <v>reservoir_10_5_10_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="229">
           <cell r="A229" t="str">
-            <v>reservoir_10_5_10_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_5_10_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="231">
           <cell r="A231" t="str">
-            <v>reservoir_10_5_10_15_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_5_10_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="233">
           <cell r="A233" t="str">
-            <v>reservoir_10_5_10_15_ROOT_SAMPLE</v>
+            <v>reservoir_10_5_10_15_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="235">
           <cell r="A235" t="str">
-            <v>reservoir_10_5_10_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_5_10_15_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="237">
           <cell r="A237" t="str">
-            <v>reservoir_10_5_10_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_5_10_15_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="239">
           <cell r="A239" t="str">
-            <v>reservoir_10_5_10_5_ROOT_SAMPLE</v>
+            <v>reservoir_10_5_10_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="241">
           <cell r="A241" t="str">
-            <v>reservoir_10_5_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_5_10_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="243">
           <cell r="A243" t="str">
-            <v>reservoir_10_5_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_5_10_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="245">
           <cell r="A245" t="str">
-            <v>reservoir_10_5_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_10_5_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="247">
           <cell r="A247" t="str">
-            <v>reservoir_10_5_2_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_5_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="249">
           <cell r="A249" t="str">
-            <v>reservoir_10_5_2_15_ROOT_SAMPLE</v>
+            <v>reservoir_10_5_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="251">
           <cell r="A251" t="str">
-            <v>reservoir_10_5_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_5_2_15_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="253">
           <cell r="A253" t="str">
-            <v>reservoir_10_5_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_5_2_15_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="255">
           <cell r="A255" t="str">
-            <v>reservoir_10_5_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_10_5_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="257">
           <cell r="A257" t="str">
-            <v>reservoir_10_5_2_50_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_5_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="259">
           <cell r="A259" t="str">
-            <v>reservoir_10_5_2_50_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_5_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="261">
           <cell r="A261" t="str">
-            <v>reservoir_10_5_2_50_ROOT_SAMPLE</v>
+            <v>reservoir_10_5_2_50_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="263">
           <cell r="A263" t="str">
-            <v>reservoir_10_5_5_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_5_2_50_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="265">
           <cell r="A265" t="str">
-            <v>reservoir_10_5_5_10_ROOT_SAMPLE</v>
+            <v>reservoir_10_5_2_50_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="267">
           <cell r="A267" t="str">
-            <v>reservoir_10_5_5_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_5_5_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="269">
           <cell r="A269" t="str">
-            <v>reservoir_10_5_5_15_ROOT_SAMPLE</v>
+            <v>reservoir_10_5_5_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="271">
           <cell r="A271" t="str">
-            <v>reservoir_10_5_5_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_5_5_15_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="273">
           <cell r="A273" t="str">
-            <v>reservoir_10_noop_noop</v>
+            <v>reservoir_10_5_5_15_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="275">
           <cell r="A275" t="str">
-            <v>reservoir_10_random_random</v>
+            <v>reservoir_10_5_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="277">
           <cell r="A277" t="str">
-            <v>reservoir_20_0.25_10_1_ROOT_MEAN</v>
+            <v>reservoir_10_5_5_50_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="279">
           <cell r="A279" t="str">
-            <v>reservoir_20_0.25_2_1_ROOT_MEAN</v>
+            <v>reservoir_10_5_5_50_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="281">
           <cell r="A281" t="str">
-            <v>reservoir_20_0.25_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_5_5_50_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="283">
           <cell r="A283" t="str">
-            <v>reservoir_20_0.25_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_noop_noop</v>
           </cell>
         </row>
         <row r="285">
           <cell r="A285" t="str">
-            <v>reservoir_20_0.25_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_10_random_random</v>
           </cell>
         </row>
         <row r="287">
           <cell r="A287" t="str">
-            <v>reservoir_20_0.25_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_0.25_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="289">
           <cell r="A289" t="str">
-            <v>reservoir_20_0.25_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.25_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="291">
           <cell r="A291" t="str">
-            <v>reservoir_20_0.25_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.25_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="293">
           <cell r="A293" t="str">
-            <v>reservoir_20_0.25_5_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_0.25_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="295">
           <cell r="A295" t="str">
-            <v>reservoir_20_0.25_5_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.25_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="297">
           <cell r="A297" t="str">
-            <v>reservoir_20_0.25_5_10_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.25_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="299">
           <cell r="A299" t="str">
-            <v>reservoir_20_0.25_5_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_0.25_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="301">
           <cell r="A301" t="str">
-            <v>reservoir_20_0.25_5_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.25_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="303">
           <cell r="A303" t="str">
-            <v>reservoir_20_0.25_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.25_5_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="305">
           <cell r="A305" t="str">
-            <v>reservoir_20_0.5_10_1_ROOT_MEAN</v>
+            <v>reservoir_20_0.25_5_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="307">
           <cell r="A307" t="str">
-            <v>reservoir_20_0.5_2_1_ROOT_MEAN</v>
+            <v>reservoir_20_0.25_5_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="309">
           <cell r="A309" t="str">
-            <v>reservoir_20_0.5_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_0.25_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="311">
           <cell r="A311" t="str">
-            <v>reservoir_20_0.5_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.25_5_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="313">
           <cell r="A313" t="str">
-            <v>reservoir_20_0.5_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.25_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="315">
           <cell r="A315" t="str">
-            <v>reservoir_20_0.5_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.5_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="317">
           <cell r="A317" t="str">
-            <v>reservoir_20_0.5_5_1_ROOT_MEAN</v>
+            <v>reservoir_20_0.5_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="319">
           <cell r="A319" t="str">
-            <v>reservoir_20_0.5_5_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_0.5_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="321">
           <cell r="A321" t="str">
-            <v>reservoir_20_0.5_5_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.5_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="323">
           <cell r="A323" t="str">
-            <v>reservoir_20_0.5_5_10_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.5_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="325">
           <cell r="A325" t="str">
-            <v>reservoir_20_0.5_5_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_0.5_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="327">
           <cell r="A327" t="str">
-            <v>reservoir_20_0.5_5_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.5_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="329">
           <cell r="A329" t="str">
-            <v>reservoir_20_0.5_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.5_5_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="331">
           <cell r="A331" t="str">
-            <v>reservoir_20_1_10_1_ROOT_MEAN</v>
+            <v>reservoir_20_0.5_5_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="333">
           <cell r="A333" t="str">
-            <v>reservoir_20_1_2_1_ROOT_MEAN</v>
+            <v>reservoir_20_0.5_5_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="335">
           <cell r="A335" t="str">
-            <v>reservoir_20_1_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_0.5_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="337">
           <cell r="A337" t="str">
-            <v>reservoir_20_1_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.5_5_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="339">
           <cell r="A339" t="str">
-            <v>reservoir_20_1_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.5_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="341">
           <cell r="A341" t="str">
-            <v>reservoir_20_1_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_1_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="343">
           <cell r="A343" t="str">
-            <v>reservoir_20_1_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_1_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="345">
           <cell r="A345" t="str">
-            <v>reservoir_20_1_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_20_1_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="347">
           <cell r="A347" t="str">
-            <v>reservoir_20_1_5_1_ROOT_MEAN</v>
+            <v>reservoir_20_1_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="349">
           <cell r="A349" t="str">
-            <v>reservoir_20_1_5_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_1_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="351">
           <cell r="A351" t="str">
-            <v>reservoir_20_1_5_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_1_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="353">
           <cell r="A353" t="str">
-            <v>reservoir_20_1_5_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_1_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="355">
           <cell r="A355" t="str">
-            <v>reservoir_20_1_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_20_1_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="357">
           <cell r="A357" t="str">
-            <v>reservoir_20_2_10_1_ROOT_MEAN</v>
+            <v>reservoir_20_1_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="359">
           <cell r="A359" t="str">
-            <v>reservoir_20_2_2_1_ROOT_MEAN</v>
+            <v>reservoir_20_1_5_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="361">
           <cell r="A361" t="str">
-            <v>reservoir_20_2_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_20_1_5_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="363">
           <cell r="A363" t="str">
-            <v>reservoir_20_2_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_20_1_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="365">
           <cell r="A365" t="str">
-            <v>reservoir_20_2_5_1_ROOT_MEAN</v>
+            <v>reservoir_20_1_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="367">
           <cell r="A367" t="str">
-            <v>reservoir_20_2_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_20_2_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="369">
           <cell r="A369" t="str">
-            <v>reservoir_20_noop_noop</v>
+            <v>reservoir_20_2_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="371">
           <cell r="A371" t="str">
-            <v>reservoir_20_random_random</v>
+            <v>reservoir_20_2_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="373">
           <cell r="A373" t="str">
-            <v>reservoir_30_0.25_10_1_ROOT_MEAN</v>
+            <v>reservoir_20_2_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="375">
           <cell r="A375" t="str">
-            <v>reservoir_30_0.25_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_20_2_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="377">
           <cell r="A377" t="str">
-            <v>reservoir_30_0.25_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_20_2_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="379">
           <cell r="A379" t="str">
-            <v>reservoir_30_0.5_10_1_ROOT_MEAN</v>
+            <v>reservoir_20_noop_noop</v>
           </cell>
         </row>
         <row r="381">
           <cell r="A381" t="str">
-            <v>reservoir_30_0.5_2_1_ROOT_MEAN</v>
+            <v>reservoir_20_random_random</v>
           </cell>
         </row>
         <row r="383">
           <cell r="A383" t="str">
-            <v>reservoir_30_0.5_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_30_0.25_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="385">
           <cell r="A385" t="str">
-            <v>reservoir_30_0.5_5_1_ROOT_MEAN</v>
+            <v>reservoir_30_0.25_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="387">
           <cell r="A387" t="str">
-            <v>reservoir_30_0.5_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_30_0.25_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="389">
           <cell r="A389" t="str">
-            <v>reservoir_30_1_10_1_ROOT_MEAN</v>
+            <v>reservoir_30_0.25_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="391">
           <cell r="A391" t="str">
-            <v>reservoir_30_1_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_30_0.25_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="393">
           <cell r="A393" t="str">
-            <v>reservoir_30_1_5_1_ROOT_MEAN</v>
+            <v>reservoir_30_0.25_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="395">
           <cell r="A395" t="str">
-            <v>reservoir_30_1_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_30_0.25_5_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="397">
           <cell r="A397" t="str">
-            <v>reservoir_30_2_10_1_ROOT_MEAN</v>
+            <v>reservoir_30_0.25_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="399">
           <cell r="A399" t="str">
-            <v>reservoir_30_2_2_1_ROOT_MEAN</v>
+            <v>reservoir_30_0.25_5_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="401">
           <cell r="A401" t="str">
-            <v>reservoir_30_2_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_30_0.25_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="403">
           <cell r="A403" t="str">
-            <v>reservoir_30_2_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_30_0.5_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="405">
           <cell r="A405" t="str">
-            <v>reservoir_30_2_5_1_ROOT_MEAN</v>
+            <v>reservoir_30_0.5_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="407">
           <cell r="A407" t="str">
-            <v>reservoir_30_2_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_30_0.5_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="409">
           <cell r="A409" t="str">
-            <v>reservoir_30_noop_noop</v>
+            <v>reservoir_30_0.5_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="411">
           <cell r="A411" t="str">
-            <v>reservoir_30_random_random</v>
+            <v>reservoir_30_0.5_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="413">
           <cell r="A413" t="str">
-            <v>reservoir_40_0.25_10_1_ROOT_MEAN</v>
+            <v>reservoir_30_0.5_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="415">
           <cell r="A415" t="str">
-            <v>reservoir_40_0.25_2_1_ROOT_MEAN</v>
+            <v>reservoir_30_0.5_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="417">
           <cell r="A417" t="str">
-            <v>reservoir_40_0.25_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_30_0.5_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="419">
           <cell r="A419" t="str">
-            <v>reservoir_40_0.25_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_30_0.5_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="421">
           <cell r="A421" t="str">
-            <v>reservoir_40_0.25_5_1_ROOT_MEAN</v>
+            <v>reservoir_30_0.5_5_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="423">
           <cell r="A423" t="str">
-            <v>reservoir_40_0.25_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_30_0.5_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="425">
           <cell r="A425" t="str">
-            <v>reservoir_40_0.5_10_1_ROOT_MEAN</v>
+            <v>reservoir_30_1_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="427">
           <cell r="A427" t="str">
-            <v>reservoir_40_0.5_2_1_ROOT_MEAN</v>
+            <v>reservoir_30_1_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="429">
           <cell r="A429" t="str">
-            <v>reservoir_40_0.5_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_30_1_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="431">
           <cell r="A431" t="str">
-            <v>reservoir_40_0.5_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_30_1_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="433">
           <cell r="A433" t="str">
-            <v>reservoir_40_0.5_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_30_1_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="435">
           <cell r="A435" t="str">
-            <v>reservoir_40_1_2_1_ROOT_MEAN</v>
+            <v>reservoir_30_1_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="437">
           <cell r="A437" t="str">
-            <v>reservoir_40_1_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_30_1_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="439">
           <cell r="A439" t="str">
-            <v>reservoir_40_1_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_30_1_5_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="441">
           <cell r="A441" t="str">
-            <v>reservoir_40_1_5_1_ROOT_MEAN</v>
+            <v>reservoir_30_1_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="443">
           <cell r="A443" t="str">
-            <v>reservoir_40_1_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_30_1_5_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="445">
           <cell r="A445" t="str">
-            <v>reservoir_40_2_10_1_ROOT_MEAN</v>
+            <v>reservoir_30_1_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="447">
           <cell r="A447" t="str">
-            <v>reservoir_40_2_2_1_ROOT_MEAN</v>
+            <v>reservoir_30_2_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="449">
           <cell r="A449" t="str">
-            <v>reservoir_40_2_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_30_2_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="451">
           <cell r="A451" t="str">
-            <v>reservoir_40_2_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_30_2_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="453">
           <cell r="A453" t="str">
-            <v>reservoir_40_2_5_1_ROOT_MEAN</v>
+            <v>reservoir_30_2_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="455">
           <cell r="A455" t="str">
-            <v>reservoir_40_noop_noop</v>
+            <v>reservoir_30_2_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="457">
           <cell r="A457" t="str">
-            <v>reservoir_40_random_random</v>
+            <v>reservoir_30_2_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="459">
           <cell r="A459" t="str">
-            <v>reservoir_50_0.25_10_1_ROOT_MEAN</v>
+            <v>reservoir_30_2_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="461">
           <cell r="A461" t="str">
-            <v>reservoir_50_0.25_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_30_2_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="463">
           <cell r="A463" t="str">
-            <v>reservoir_50_0.25_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_30_2_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="465">
           <cell r="A465" t="str">
-            <v>reservoir_50_0.25_5_1_ROOT_MEAN</v>
+            <v>reservoir_30_2_5_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="467">
           <cell r="A467" t="str">
-            <v>reservoir_50_0.5_2_1_ROOT_MEAN</v>
+            <v>reservoir_30_2_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="469">
           <cell r="A469" t="str">
-            <v>reservoir_50_0.5_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_30_2_5_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="471">
           <cell r="A471" t="str">
-            <v>reservoir_50_0.5_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_30_2_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="473">
           <cell r="A473" t="str">
-            <v>reservoir_50_0.5_5_1_ROOT_MEAN</v>
+            <v>reservoir_30_noop_noop</v>
           </cell>
         </row>
         <row r="475">
           <cell r="A475" t="str">
-            <v>reservoir_50_1_10_1_ROOT_MEAN</v>
+            <v>reservoir_30_random_random</v>
           </cell>
         </row>
         <row r="477">
           <cell r="A477" t="str">
-            <v>reservoir_50_1_2_1_ROOT_MEAN</v>
+            <v>reservoir_40_0.25_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="479">
           <cell r="A479" t="str">
-            <v>reservoir_50_1_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_40_0.25_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="481">
           <cell r="A481" t="str">
-            <v>reservoir_50_1_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_40_0.25_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="483">
           <cell r="A483" t="str">
-            <v>reservoir_50_1_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_40_0.25_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="485">
           <cell r="A485" t="str">
-            <v>reservoir_50_1_5_1_ROOT_MEAN</v>
+            <v>reservoir_40_0.25_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="487">
           <cell r="A487" t="str">
-            <v>reservoir_50_2_10_1_ROOT_MEAN</v>
+            <v>reservoir_40_0.25_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="489">
           <cell r="A489" t="str">
-            <v>reservoir_50_2_2_1_ROOT_MEAN</v>
+            <v>reservoir_40_0.25_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="491">
           <cell r="A491" t="str">
-            <v>reservoir_50_2_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_40_0.25_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="493">
           <cell r="A493" t="str">
-            <v>reservoir_50_2_5_1_ROOT_MEAN</v>
+            <v>reservoir_40_0.25_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="495">
           <cell r="A495" t="str">
-            <v>reservoir_50_noop_noop</v>
+            <v>reservoir_40_0.25_5_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="497">
           <cell r="A497" t="str">
+            <v>reservoir_40_0.25_5_5_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="499">
+          <cell r="A499" t="str">
+            <v>reservoir_40_0.5_10_1_ROOT_MEAN</v>
+          </cell>
+        </row>
+        <row r="501">
+          <cell r="A501" t="str">
+            <v>reservoir_40_0.5_2_1_ROOT_MEAN</v>
+          </cell>
+        </row>
+        <row r="503">
+          <cell r="A503" t="str">
+            <v>reservoir_40_0.5_2_10_ALL_ACTIONS_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="505">
+          <cell r="A505" t="str">
+            <v>reservoir_40_0.5_2_10_CONSENSUS_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="507">
+          <cell r="A507" t="str">
+            <v>reservoir_40_0.5_2_10_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="509">
+          <cell r="A509" t="str">
+            <v>reservoir_40_0.5_2_5_ALL_ACTIONS_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="511">
+          <cell r="A511" t="str">
+            <v>reservoir_40_0.5_2_5_CONSENSUS_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="513">
+          <cell r="A513" t="str">
+            <v>reservoir_40_0.5_2_5_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="515">
+          <cell r="A515" t="str">
+            <v>reservoir_40_0.5_5_5_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="517">
+          <cell r="A517" t="str">
+            <v>reservoir_40_1_2_1_ROOT_MEAN</v>
+          </cell>
+        </row>
+        <row r="519">
+          <cell r="A519" t="str">
+            <v>reservoir_40_1_2_10_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="521">
+          <cell r="A521" t="str">
+            <v>reservoir_40_1_2_5_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="523">
+          <cell r="A523" t="str">
+            <v>reservoir_40_1_5_1_ROOT_MEAN</v>
+          </cell>
+        </row>
+        <row r="525">
+          <cell r="A525" t="str">
+            <v>reservoir_40_1_5_5_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="527">
+          <cell r="A527" t="str">
+            <v>reservoir_40_2_10_1_ROOT_MEAN</v>
+          </cell>
+        </row>
+        <row r="529">
+          <cell r="A529" t="str">
+            <v>reservoir_40_2_2_1_ROOT_MEAN</v>
+          </cell>
+        </row>
+        <row r="531">
+          <cell r="A531" t="str">
+            <v>reservoir_40_2_2_10_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="533">
+          <cell r="A533" t="str">
+            <v>reservoir_40_2_2_5_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="535">
+          <cell r="A535" t="str">
+            <v>reservoir_40_2_5_1_ROOT_MEAN</v>
+          </cell>
+        </row>
+        <row r="537">
+          <cell r="A537" t="str">
+            <v>reservoir_40_2_5_5_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="539">
+          <cell r="A539" t="str">
+            <v>reservoir_40_noop_noop</v>
+          </cell>
+        </row>
+        <row r="541">
+          <cell r="A541" t="str">
+            <v>reservoir_40_random_random</v>
+          </cell>
+        </row>
+        <row r="543">
+          <cell r="A543" t="str">
+            <v>reservoir_50_0.25_10_1_ROOT_MEAN</v>
+          </cell>
+        </row>
+        <row r="545">
+          <cell r="A545" t="str">
+            <v>reservoir_50_0.25_2_10_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="547">
+          <cell r="A547" t="str">
+            <v>reservoir_50_0.25_2_5_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="549">
+          <cell r="A549" t="str">
+            <v>reservoir_50_0.25_5_1_ROOT_MEAN</v>
+          </cell>
+        </row>
+        <row r="551">
+          <cell r="A551" t="str">
+            <v>reservoir_50_0.25_5_5_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="553">
+          <cell r="A553" t="str">
+            <v>reservoir_50_0.5_2_1_ROOT_MEAN</v>
+          </cell>
+        </row>
+        <row r="555">
+          <cell r="A555" t="str">
+            <v>reservoir_50_0.5_2_10_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="557">
+          <cell r="A557" t="str">
+            <v>reservoir_50_0.5_2_5_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="559">
+          <cell r="A559" t="str">
+            <v>reservoir_50_0.5_5_1_ROOT_MEAN</v>
+          </cell>
+        </row>
+        <row r="561">
+          <cell r="A561" t="str">
+            <v>reservoir_50_0.5_5_5_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="563">
+          <cell r="A563" t="str">
+            <v>reservoir_50_1_10_1_ROOT_MEAN</v>
+          </cell>
+        </row>
+        <row r="565">
+          <cell r="A565" t="str">
+            <v>reservoir_50_1_2_1_ROOT_MEAN</v>
+          </cell>
+        </row>
+        <row r="567">
+          <cell r="A567" t="str">
+            <v>reservoir_50_1_2_10_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="569">
+          <cell r="A569" t="str">
+            <v>reservoir_50_1_2_5_CONSENSUS_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="571">
+          <cell r="A571" t="str">
+            <v>reservoir_50_1_2_5_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="573">
+          <cell r="A573" t="str">
+            <v>reservoir_50_1_5_1_ROOT_MEAN</v>
+          </cell>
+        </row>
+        <row r="575">
+          <cell r="A575" t="str">
+            <v>reservoir_50_2_10_1_ROOT_MEAN</v>
+          </cell>
+        </row>
+        <row r="577">
+          <cell r="A577" t="str">
+            <v>reservoir_50_2_2_1_ROOT_MEAN</v>
+          </cell>
+        </row>
+        <row r="579">
+          <cell r="A579" t="str">
+            <v>reservoir_50_2_2_10_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="581">
+          <cell r="A581" t="str">
+            <v>reservoir_50_2_2_5_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="583">
+          <cell r="A583" t="str">
+            <v>reservoir_50_2_5_1_ROOT_MEAN</v>
+          </cell>
+        </row>
+        <row r="585">
+          <cell r="A585" t="str">
+            <v>reservoir_50_2_5_5_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="587">
+          <cell r="A587" t="str">
             <v>reservoir_50_random_random</v>
           </cell>
         </row>
@@ -2521,8 +2746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2564,172 +2789,172 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="e">
+      <c r="B2">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;B1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;B1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C2" t="e">
+        <v>-1040694.4035340393</v>
+      </c>
+      <c r="C2">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;B1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;B1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;B1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;B1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D2" s="2" t="e">
+        <v>25840.822727708834</v>
+      </c>
+      <c r="D2" s="2">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;D1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;D1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E2" s="3" t="e">
+        <v>-640683.5398220839</v>
+      </c>
+      <c r="E2" s="3">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$D$1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$D$1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$D$1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$D$1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F2" s="2" t="e">
+        <v>16500.131416962133</v>
+      </c>
+      <c r="F2" s="2">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;F1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;F1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G2" s="3" t="e">
+        <v>-793622.46569497674</v>
+      </c>
+      <c r="G2" s="3">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$F$1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$F$1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$F$1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$F$1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H2" s="2" t="e">
+        <v>18638.401338375752</v>
+      </c>
+      <c r="H2" s="2">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;H1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;H1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I2" s="3" t="e">
+        <v>-941814.03215179872</v>
+      </c>
+      <c r="I2" s="3">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$H$1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$H$1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$H$1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$H$1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J2" s="2" t="e">
+        <v>21874.728599622267</v>
+      </c>
+      <c r="J2" s="2">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;J1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;J1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K2" s="3" t="e">
+        <v>-1087830.8501382796</v>
+      </c>
+      <c r="K2" s="3">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$J$1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$J$1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$J$1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$J$1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>21094.660496211738</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="e">
+      <c r="B3" s="1">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;B1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;B1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C3" t="e">
+        <v>-730572.06487864989</v>
+      </c>
+      <c r="C3">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;B1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;B1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;B1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;B1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D3" s="2" t="e">
+        <v>24616.534391881643</v>
+      </c>
+      <c r="D3" s="2">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;D1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;D1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E3" s="3" t="e">
+        <v>-371066.35316334968</v>
+      </c>
+      <c r="E3" s="3">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;D1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;D1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;D1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;D1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F3" s="2" t="e">
+        <v>13498.908938073539</v>
+      </c>
+      <c r="F3" s="2">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;F1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;F1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G3" s="3" t="e">
+        <v>-437732.43098749971</v>
+      </c>
+      <c r="G3" s="3">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;F1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;F1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;F1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;F1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H3" s="2" t="e">
+        <v>13293.925853681592</v>
+      </c>
+      <c r="H3" s="2">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;H1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;H1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I3" s="3" t="e">
+        <v>-525400.91213949979</v>
+      </c>
+      <c r="I3" s="3">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$H$1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$H$1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$H$1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$H$1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>13000.107852977553</v>
       </c>
       <c r="J3" s="2" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;J1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;J1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="K3" s="3" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$J$1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$J$1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$J$1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$J$1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="e">
+      <c r="B4">
         <f t="array" aca="1" ref="B4" ca="1">MAX( IF(  ISNA(raw!E2:E61), "", raw!E2:E61 ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C4" t="e">
+        <v>-705558.74752460001</v>
+      </c>
+      <c r="C4">
         <f t="array" aca="1" ref="C4" ca="1">INDIRECT( "raw!"&amp;"F"&amp;(1+MATCH(B4, raw!E2:E61, 0) ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D4" t="e">
+        <v>40139.800010333158</v>
+      </c>
+      <c r="D4">
         <f t="array" aca="1" ref="D4" ca="1">MAX( IF(  ISNA(raw!G2:G61), "", raw!G2:G61 ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E4" t="e">
+        <v>-151004.78483646669</v>
+      </c>
+      <c r="E4">
         <f ca="1" xml:space="preserve"> INDIRECT("raw!"&amp;"H"&amp;(1+MATCH(D4, raw!G2:G61, 0)))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F4" t="e">
+        <v>331.22314261665247</v>
+      </c>
+      <c r="F4">
         <f t="array" aca="1" ref="F4" ca="1">MAX( IF(  ISNA(raw!I2:I61), "", raw!I2:I61 ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G4" t="e">
+        <v>-226035.00308889986</v>
+      </c>
+      <c r="G4">
         <f ca="1" xml:space="preserve"> INDIRECT("raw!"&amp;"J"&amp;(1+MATCH(F4, raw!I2:I61, 0)))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H4" t="e">
+        <v>424.82393808387724</v>
+      </c>
+      <c r="H4">
         <f t="array" aca="1" ref="H4" ca="1">MAX( IF(  ISNA(raw!K2:K61), "", raw!K2:K61 ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I4" t="e">
+        <v>-302371.24586553272</v>
+      </c>
+      <c r="I4">
         <f ca="1" xml:space="preserve"> INDIRECT("raw!"&amp;"L"&amp;(1+MATCH(H4, raw!K2:K61, 0)))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J4" t="e">
+        <v>713.01950408906214</v>
+      </c>
+      <c r="J4">
         <f t="array" aca="1" ref="J4" ca="1">MAX( IF(  ISNA(raw!M2:M61), "", raw!M2:M61 ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K4" t="e">
+        <v>-376902.28740049922</v>
+      </c>
+      <c r="K4">
         <f ca="1" xml:space="preserve"> INDIRECT("raw!"&amp;"N"&amp;(1+MATCH(J4, raw!M2:M61, 0)))</f>
-        <v>#REF!</v>
+        <v>742.03817087389518</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="e">
+      <c r="B5" s="3">
         <f t="array" aca="1" ref="B5" ca="1">MAX( IF(  ISNA(raw!E64:E123), "", raw!E64:E123 ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C5" t="e">
+        <v>-706549.62999373302</v>
+      </c>
+      <c r="C5">
         <f t="array" aca="1" ref="C5" ca="1">INDIRECT( "raw!"&amp;"F"&amp;(63+MATCH(B5, raw!E64:E123, 0) ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D5" s="3" t="e">
+        <v>40189.103171348601</v>
+      </c>
+      <c r="D5" s="3">
         <f t="array" aca="1" ref="D5" ca="1">MAX( IF(  ISNA(raw!G64:G123), "", raw!G64:G123 ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E5" t="e">
+        <v>-153286.71304893334</v>
+      </c>
+      <c r="E5">
         <f ca="1">INDIRECT( "raw!"&amp;"H"&amp;(63+MATCH(D5, raw!G64:G123, 0) ) )</f>
-        <v>#REF!</v>
+        <v>1540.3828499440026</v>
       </c>
       <c r="F5" s="3">
         <f t="array" aca="1" ref="F5" ca="1">MAX( IF(  ISNA(raw!I64:I123), "", raw!I64:I123 ) )</f>
-        <v>0</v>
-      </c>
-      <c r="G5" t="e">
+        <v>-227932.24678416669</v>
+      </c>
+      <c r="G5">
         <f ca="1">INDIRECT( "raw!"&amp;"J"&amp;(63+MATCH(F5, raw!I64:I123, 0) ) )</f>
-        <v>#N/A</v>
+        <v>1068.8191264998266</v>
       </c>
       <c r="H5" s="3">
         <f t="array" aca="1" ref="H5" ca="1">MAX( IF(  ISNA(raw!K64:K123), "", raw!K64:K123 ) )</f>
-        <v>0</v>
-      </c>
-      <c r="I5" t="e">
+        <v>-303372.45221636642</v>
+      </c>
+      <c r="I5">
         <f t="array" aca="1" ref="I5" ca="1">INDIRECT( "raw!"&amp;"L"&amp;(63+MATCH(H5, raw!K64:K123, 0) ) )</f>
-        <v>#N/A</v>
+        <v>1022.1855558978397</v>
       </c>
       <c r="J5" s="3">
         <f t="array" aca="1" ref="J5" ca="1">MAX( IF(  ISNA(raw!M64:M123), "", raw!M64:M123 ) )</f>
@@ -2744,90 +2969,90 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="e">
+      <c r="B6" s="3">
         <f t="array" aca="1" ref="B6" ca="1">MAX( IF(  ISNA(raw!E125:E172), "", raw!E125:E172 ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C6" t="e">
+        <v>-713035.113067133</v>
+      </c>
+      <c r="C6">
         <f ca="1">INDIRECT( "raw!"&amp;"F"&amp;(124+MATCH(B6, raw!E125:E172, 0) ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D6" s="3" t="e">
+        <v>40414.684129262867</v>
+      </c>
+      <c r="D6" s="3">
         <f t="array" aca="1" ref="D6" ca="1">MAX( IF(  ISNA(raw!G125:G172), "", raw!G125:G172 ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E6" t="e">
+        <v>-154479.67325916651</v>
+      </c>
+      <c r="E6">
         <f ca="1">INDIRECT( "raw!"&amp;"H"&amp;(124+MATCH(D6, raw!G125:G172, 0) ) )</f>
-        <v>#REF!</v>
+        <v>1011.4446417538953</v>
       </c>
       <c r="F6" s="3">
         <f t="array" aca="1" ref="F6" ca="1">MAX( IF(  ISNA(raw!I125:I172), "", raw!I125:I172 ) )</f>
-        <v>0</v>
-      </c>
-      <c r="G6" t="e">
+        <v>-231107.5087570998</v>
+      </c>
+      <c r="G6">
         <f ca="1">INDIRECT( "raw!"&amp;"J"&amp;(124+MATCH(F6, raw!I125:I172, 0) ) )</f>
-        <v>#N/A</v>
+        <v>1551.4989419702224</v>
       </c>
       <c r="H6" s="3">
         <f t="array" aca="1" ref="H6" ca="1">MAX( IF(  ISNA(raw!K125:K172), "", raw!K125:K172 ) )</f>
-        <v>0</v>
-      </c>
-      <c r="I6" t="e">
+        <v>-304924.71780873288</v>
+      </c>
+      <c r="I6">
         <f ca="1">INDIRECT( "raw!"&amp;"L"&amp;(124+MATCH(H6, raw!K125:K172, 0) ) )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J6" s="3" t="e">
+        <v>1450.4726333497763</v>
+      </c>
+      <c r="J6" s="3">
         <f t="array" aca="1" ref="J6" ca="1">MAX( IF(  ISNA(raw!M125:M172), "", raw!M125:M172 ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K6" t="e">
+        <v>-385520.4935253333</v>
+      </c>
+      <c r="K6">
         <f ca="1">INDIRECT( "raw!"&amp;"N"&amp;(124+MATCH(J6, raw!M125:M172, 0) ) )</f>
-        <v>#REF!</v>
+        <v>6491.5669504263406</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="e">
+      <c r="B7" s="3">
         <f ca="1">MAX( IF(  ISNA(raw!E175:E186), "", raw!E175:E186 ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C7" t="e">
+        <v>-705558.74752460001</v>
+      </c>
+      <c r="C7">
         <f ca="1">INDIRECT( "raw!"&amp;"F"&amp;(174+MATCH(B7, raw!E175:E186, 0) ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D7" s="3" t="e">
+        <v>40139.800010333158</v>
+      </c>
+      <c r="D7" s="3">
         <f t="array" aca="1" ref="D7" ca="1">MAX( IF(  ISNA(raw!G175:G186), "", raw!G175:G186 ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E7" t="e">
+        <v>-153204.55133199989</v>
+      </c>
+      <c r="E7">
         <f ca="1">INDIRECT( "raw!"&amp;"H"&amp;(174+MATCH(D7, raw!G175:G186, 0) ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F7" s="3" t="e">
+        <v>805.80560200835032</v>
+      </c>
+      <c r="F7" s="3">
         <f t="array" aca="1" ref="F7" ca="1">MAX( IF(  ISNA(raw!I175:I186), "", raw!I175:I186 ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G7" t="e">
+        <v>-231559.13099383321</v>
+      </c>
+      <c r="G7">
         <f ca="1">INDIRECT( "raw!"&amp;"J"&amp;(174+MATCH(F7, raw!I175:I186, 0) ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H7" s="3" t="e">
+        <v>1203.0885711158926</v>
+      </c>
+      <c r="H7" s="3">
         <f t="array" aca="1" ref="H7" ca="1">MAX( IF(  ISNA(raw!K175:K186), "", raw!K175:K186 ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I7" t="e">
+        <v>-303580.59441856609</v>
+      </c>
+      <c r="I7">
         <f ca="1">INDIRECT( "raw!"&amp;"L"&amp;(174+MATCH(H7, raw!K175:K186, 0) ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J7" s="3" t="e">
+        <v>1124.0477006857859</v>
+      </c>
+      <c r="J7" s="3">
         <f t="array" aca="1" ref="J7" ca="1">MAX( IF(  ISNA(raw!M175:M186), "", raw!M175:M186 ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K7" t="e">
+        <v>-381345.3049581995</v>
+      </c>
+      <c r="K7">
         <f ca="1">INDIRECT( "raw!"&amp;"N"&amp;(174+MATCH(J7, raw!M175:M186, 0) ) )</f>
-        <v>#REF!</v>
+        <v>1655.1433948237407</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2969,8 +3194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O186"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="K183" sqref="K183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3029,21 +3254,21 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" t="e">
+      <c r="E2">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F2" t="e">
+        <v>-707176.27752059989</v>
+      </c>
+      <c r="F2">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G2" t="e">
+        <v>39855.890614731688</v>
+      </c>
+      <c r="G2">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H2" t="e">
+        <v>-155121.34840939988</v>
+      </c>
+      <c r="H2">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>1456.5715260852623</v>
       </c>
       <c r="I2" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -3053,13 +3278,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="K2" t="e">
+      <c r="K2">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L2" t="e">
+        <v>-306498.174091933</v>
+      </c>
+      <c r="L2">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>1255.0521047624875</v>
       </c>
       <c r="M2" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -3083,13 +3308,13 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" t="e">
+      <c r="E3">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F3" t="e">
+        <v>-707976.29801479972</v>
+      </c>
+      <c r="F3">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>39738.507186243398</v>
       </c>
       <c r="G3" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -3107,21 +3332,21 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="K3" t="e">
+      <c r="K3">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L3" t="e">
+        <v>-304668.19096086634</v>
+      </c>
+      <c r="L3">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M3" t="e">
+        <v>1249.8824290964753</v>
+      </c>
+      <c r="M3">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N3" t="e">
+        <v>-381345.3049581995</v>
+      </c>
+      <c r="N3">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>1655.1433948237407</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -3137,45 +3362,45 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" t="e">
+      <c r="E4">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F4" t="e">
+        <v>-706103.40030039928</v>
+      </c>
+      <c r="F4">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G4" t="e">
+        <v>40125.131817608206</v>
+      </c>
+      <c r="G4">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H4" t="e">
+        <v>-154082.36758016652</v>
+      </c>
+      <c r="H4">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I4" t="e">
+        <v>1177.2073551443777</v>
+      </c>
+      <c r="I4">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J4" t="e">
+        <v>-235294.04376306655</v>
+      </c>
+      <c r="J4">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K4" t="e">
+        <v>3158.6318952781353</v>
+      </c>
+      <c r="K4">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L4" t="e">
+        <v>-319334.26670403284</v>
+      </c>
+      <c r="L4">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M4" t="e">
+        <v>9927.0192716546553</v>
+      </c>
+      <c r="M4">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N4" t="e">
+        <v>-405128.92717929941</v>
+      </c>
+      <c r="N4">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>21877.569130300075</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -3191,45 +3416,45 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" t="e">
+      <c r="E5">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F5" t="e">
+        <v>-714143.28883299965</v>
+      </c>
+      <c r="F5">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G5" t="e">
+        <v>38877.167416105498</v>
+      </c>
+      <c r="G5">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H5" t="e">
+        <v>-156512.00641349982</v>
+      </c>
+      <c r="H5">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I5" t="e">
+        <v>1422.4305356111629</v>
+      </c>
+      <c r="I5">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J5" t="e">
+        <v>-231559.13099383321</v>
+      </c>
+      <c r="J5">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K5" t="e">
+        <v>1203.0885711158926</v>
+      </c>
+      <c r="K5">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L5" t="e">
+        <v>-304522.55471549986</v>
+      </c>
+      <c r="L5">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M5" t="e">
+        <v>1186.679407033387</v>
+      </c>
+      <c r="M5">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N5" t="e">
+        <v>-381776.27758256649</v>
+      </c>
+      <c r="N5">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>1565.1670245883972</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3245,29 +3470,29 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" t="e">
+      <c r="E6">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
+        <v>-708566.26914166659</v>
       </c>
       <c r="F6" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E4&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E4&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E4&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E4&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G6">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H6" t="e">
+        <v>-156119.75830389981</v>
+      </c>
+      <c r="H6">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I6" t="e">
+        <v>1591.5309955257499</v>
+      </c>
+      <c r="I6">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J6" t="e">
+        <v>-232691.83142523331</v>
+      </c>
+      <c r="J6">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>1924.686525893464</v>
       </c>
       <c r="K6" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -3277,13 +3502,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="M6" t="e">
+      <c r="M6">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N6" t="e">
+        <v>-381631.11392139958</v>
+      </c>
+      <c r="N6">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>1459.3547047436343</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -3299,37 +3524,37 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" t="e">
+      <c r="E7">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F7" t="e">
+        <v>-705643.65988346632</v>
+      </c>
+      <c r="F7">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G7" t="e">
+        <v>40281.680381093189</v>
+      </c>
+      <c r="G7">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H7" t="e">
+        <v>-154990.3696792332</v>
+      </c>
+      <c r="H7">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I7" t="e">
+        <v>1127.1445578645835</v>
+      </c>
+      <c r="I7">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J7" t="e">
+        <v>-234169.83567736656</v>
+      </c>
+      <c r="J7">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K7" t="e">
+        <v>2330.3084105465932</v>
+      </c>
+      <c r="K7">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L7" t="e">
+        <v>-309591.58502159955</v>
+      </c>
+      <c r="L7">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>2831.3024900898117</v>
       </c>
       <c r="M7" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -3353,21 +3578,21 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" t="e">
+      <c r="E8">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F8" t="e">
+        <v>-707989.0735569332</v>
+      </c>
+      <c r="F8">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G8" t="e">
+        <v>40475.706227699484</v>
+      </c>
+      <c r="G8">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H8" t="e">
+        <v>-157172.3165227999</v>
+      </c>
+      <c r="H8">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>1476.8600927089458</v>
       </c>
       <c r="I8" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -3377,21 +3602,21 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="K8" t="e">
+      <c r="K8">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L8" t="e">
+        <v>-305644.62943713303</v>
+      </c>
+      <c r="L8">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M8" t="e">
+        <v>1194.7146052286687</v>
+      </c>
+      <c r="M8">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N8" t="e">
+        <v>-382647.63756826619</v>
+      </c>
+      <c r="N8">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>2227.2711662026813</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -3407,45 +3632,45 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" t="e">
+      <c r="E9">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F9" t="e">
+        <v>-708551.13385009975</v>
+      </c>
+      <c r="F9">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G9" t="e">
+        <v>40236.894173354267</v>
+      </c>
+      <c r="G9">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H9" t="e">
+        <v>-156124.84147639995</v>
+      </c>
+      <c r="H9">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I9" t="e">
+        <v>1626.4742080983451</v>
+      </c>
+      <c r="I9">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J9" t="e">
+        <v>-232696.00473556653</v>
+      </c>
+      <c r="J9">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K9" t="e">
+        <v>1677.8228923353715</v>
+      </c>
+      <c r="K9">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L9" t="e">
+        <v>-303580.59441856609</v>
+      </c>
+      <c r="L9">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M9" t="e">
+        <v>1124.0477006857859</v>
+      </c>
+      <c r="M9">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N9" t="e">
+        <v>-382889.62196043285</v>
+      </c>
+      <c r="N9">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>2106.6192195777394</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -3461,29 +3686,29 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" t="e">
+      <c r="E10">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F10" t="e">
+        <v>-705558.74752460001</v>
+      </c>
+      <c r="F10">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G10" t="e">
+        <v>40139.800010333158</v>
+      </c>
+      <c r="G10">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H10" t="e">
+        <v>-153380.85815563324</v>
+      </c>
+      <c r="H10">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I10" t="e">
+        <v>1093.7278415012156</v>
+      </c>
+      <c r="I10">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J10" t="e">
+        <v>-234161.44414396663</v>
+      </c>
+      <c r="J10">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>2535.8417624859931</v>
       </c>
       <c r="K10" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -3493,13 +3718,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="M10" t="e">
+      <c r="M10">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N10" t="e">
+        <v>-384358.30849809939</v>
+      </c>
+      <c r="N10">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>2602.9255264928879</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -3515,45 +3740,45 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" t="e">
+      <c r="E11">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F11" t="e">
+        <v>-706300.03440493334</v>
+      </c>
+      <c r="F11">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G11" t="e">
+        <v>40803.957418211096</v>
+      </c>
+      <c r="G11">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H11" t="e">
+        <v>-158214.54124379982</v>
+      </c>
+      <c r="H11">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I11" t="e">
+        <v>1803.5727611976006</v>
+      </c>
+      <c r="I11">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J11" t="e">
+        <v>-232874.65566329969</v>
+      </c>
+      <c r="J11">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K11" t="e">
+        <v>1791.3972650362718</v>
+      </c>
+      <c r="K11">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L11" t="e">
+        <v>-306149.75874109974</v>
+      </c>
+      <c r="L11">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M11" t="e">
+        <v>1214.2441235958843</v>
+      </c>
+      <c r="M11">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N11" t="e">
+        <v>-382585.64683653292</v>
+      </c>
+      <c r="N11">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>1495.7481806413066</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -3569,45 +3794,45 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" t="e">
+      <c r="E12">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F12" t="e">
+        <v>-709560.32436303294</v>
+      </c>
+      <c r="F12">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G12" t="e">
+        <v>39782.183561187376</v>
+      </c>
+      <c r="G12">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H12" t="e">
+        <v>-157120.03041009995</v>
+      </c>
+      <c r="H12">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I12" t="e">
+        <v>1446.5655300872577</v>
+      </c>
+      <c r="I12">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J12" t="e">
+        <v>-231820.20982006646</v>
+      </c>
+      <c r="J12">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K12" t="e">
+        <v>2096.0807463683077</v>
+      </c>
+      <c r="K12">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L12" t="e">
+        <v>-304675.48072336626</v>
+      </c>
+      <c r="L12">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M12" t="e">
+        <v>1616.6550729638523</v>
+      </c>
+      <c r="M12">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N12" t="e">
+        <v>-382543.71589863283</v>
+      </c>
+      <c r="N12">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>2113.2504216093844</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -3623,45 +3848,45 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" t="e">
+      <c r="E13">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F13" t="e">
+        <v>-706146.38933343301</v>
+      </c>
+      <c r="F13">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G13" t="e">
+        <v>40227.833965427875</v>
+      </c>
+      <c r="G13">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H13" t="e">
+        <v>-153204.55133199989</v>
+      </c>
+      <c r="H13">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I13" t="e">
+        <v>805.80560200835032</v>
+      </c>
+      <c r="I13">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J13" t="e">
+        <v>-235875.23647013301</v>
+      </c>
+      <c r="J13">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K13" t="e">
+        <v>3308.5650726480067</v>
+      </c>
+      <c r="K13">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L13" t="e">
+        <v>-308070.09497569932</v>
+      </c>
+      <c r="L13">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M13" t="e">
+        <v>2542.9820515049364</v>
+      </c>
+      <c r="M13">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N13" t="e">
+        <v>-387783.60361573286</v>
+      </c>
+      <c r="N13">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>3305.8787894986522</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -3677,21 +3902,21 @@
       <c r="D14">
         <v>5</v>
       </c>
-      <c r="E14" t="e">
+      <c r="E14">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F14" t="e">
+        <v>-708354.66271083301</v>
+      </c>
+      <c r="F14">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G14" t="e">
+        <v>40348.617225192662</v>
+      </c>
+      <c r="G14">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H14" t="e">
+        <v>-154843.33727323316</v>
+      </c>
+      <c r="H14">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>1029.3425311819519</v>
       </c>
       <c r="I14" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -3701,21 +3926,21 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="K14" t="e">
+      <c r="K14">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L14" t="e">
+        <v>-304871.40265066648</v>
+      </c>
+      <c r="L14">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M14" t="e">
+        <v>971.77974559010818</v>
+      </c>
+      <c r="M14">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N14" t="e">
+        <v>-392535.69308073324</v>
+      </c>
+      <c r="N14">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>23642.67062391643</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -3731,45 +3956,45 @@
       <c r="D15">
         <v>5</v>
       </c>
-      <c r="E15" t="e">
+      <c r="E15">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F15" t="e">
+        <v>-712666.43021396652</v>
+      </c>
+      <c r="F15">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G15" t="e">
+        <v>39847.355988397991</v>
+      </c>
+      <c r="G15">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H15" t="e">
+        <v>-152523.14369376667</v>
+      </c>
+      <c r="H15">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I15" t="e">
+        <v>1567.5241494811539</v>
+      </c>
+      <c r="I15">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J15" t="e">
+        <v>-230154.6530391665</v>
+      </c>
+      <c r="J15">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K15" t="e">
+        <v>3180.8286936033937</v>
+      </c>
+      <c r="K15">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L15" t="e">
+        <v>-451095.4885820662</v>
+      </c>
+      <c r="L15">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M15" t="e">
+        <v>39668.57984069096</v>
+      </c>
+      <c r="M15">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N15" t="e">
+        <v>-556171.12188183283</v>
+      </c>
+      <c r="N15">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>32790.527279691174</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -3785,13 +4010,13 @@
       <c r="D16">
         <v>5</v>
       </c>
-      <c r="E16" t="e">
+      <c r="E16">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C16&amp;"_"&amp;B16&amp;"_"&amp;D16&amp;"_"&amp;A16&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C16&amp;"_"&amp;B16&amp;"_"&amp;D16&amp;"_"&amp;A16&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F16" t="e">
+        <v>-733045.43069279951</v>
+      </c>
+      <c r="F16">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C16&amp;"_"&amp;B16&amp;"_"&amp;D16&amp;"_"&amp;A16&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C16&amp;"_"&amp;B16&amp;"_"&amp;D16&amp;"_"&amp;A16&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C16&amp;"_"&amp;B16&amp;"_"&amp;D16&amp;"_"&amp;A16&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C16&amp;"_"&amp;B16&amp;"_"&amp;D16&amp;"_"&amp;A16&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>38394.629508467398</v>
       </c>
       <c r="G16" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C16&amp;"_"&amp;B16&amp;"_"&amp;D16&amp;"_"&amp;A16&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C16&amp;"_"&amp;B16&amp;"_"&amp;D16&amp;"_"&amp;A16&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -3863,21 +4088,21 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="K17" t="e">
+      <c r="K17">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L17" t="e">
+        <v>-306196.70714129967</v>
+      </c>
+      <c r="L17">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M17" t="e">
+        <v>1392.8996413635805</v>
+      </c>
+      <c r="M17">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N17" t="e">
+        <v>-381044.18098769989</v>
+      </c>
+      <c r="N17">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C17&amp;"_"&amp;B17&amp;"_"&amp;D17&amp;"_"&amp;A17&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>1367.7896869551089</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -3893,45 +4118,45 @@
       <c r="D18">
         <v>5</v>
       </c>
-      <c r="E18" t="e">
+      <c r="E18">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F18" t="e">
+        <v>-710729.47429503326</v>
+      </c>
+      <c r="F18">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G18" t="e">
+        <v>39957.880652231535</v>
+      </c>
+      <c r="G18">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H18" t="e">
+        <v>-154977.5600046333</v>
+      </c>
+      <c r="H18">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I18" t="e">
+        <v>7431.1136457822877</v>
+      </c>
+      <c r="I18">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J18" t="e">
+        <v>-227519.40325543334</v>
+      </c>
+      <c r="J18">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K18" t="e">
+        <v>759.84999822858526</v>
+      </c>
+      <c r="K18">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L18" t="e">
+        <v>-305206.44459386612</v>
+      </c>
+      <c r="L18">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M18" t="e">
+        <v>2716.889138867688</v>
+      </c>
+      <c r="M18">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N18" t="e">
+        <v>-393579.26934199937</v>
+      </c>
+      <c r="N18">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>14509.790877810581</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -3947,13 +4172,13 @@
       <c r="D19">
         <v>5</v>
       </c>
-      <c r="E19" t="e">
+      <c r="E19">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C19&amp;"_"&amp;B19&amp;"_"&amp;D19&amp;"_"&amp;A19&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C19&amp;"_"&amp;B19&amp;"_"&amp;D19&amp;"_"&amp;A19&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
+        <v>-750009.68659553293</v>
       </c>
       <c r="F19" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C19&amp;"_"&amp;B19&amp;"_"&amp;D19&amp;"_"&amp;A19&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C19&amp;"_"&amp;B19&amp;"_"&amp;D19&amp;"_"&amp;A19&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C19&amp;"_"&amp;B19&amp;"_"&amp;D19&amp;"_"&amp;A19&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C19&amp;"_"&amp;B19&amp;"_"&amp;D19&amp;"_"&amp;A19&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G19" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C19&amp;"_"&amp;B19&amp;"_"&amp;D19&amp;"_"&amp;A19&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C19&amp;"_"&amp;B19&amp;"_"&amp;D19&amp;"_"&amp;A19&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -4001,45 +4226,45 @@
       <c r="D20">
         <v>5</v>
       </c>
-      <c r="E20" t="e">
+      <c r="E20">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F20" t="e">
+        <v>-706746.04652696638</v>
+      </c>
+      <c r="F20">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G20" t="e">
+        <v>40098.766931812279</v>
+      </c>
+      <c r="G20">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H20" t="e">
+        <v>-155392.99714359985</v>
+      </c>
+      <c r="H20">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I20" t="e">
+        <v>1279.3291701854496</v>
+      </c>
+      <c r="I20">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J20" t="e">
+        <v>-231300.75912346659</v>
+      </c>
+      <c r="J20">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K20" t="e">
+        <v>1371.7301207557211</v>
+      </c>
+      <c r="K20">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L20" t="e">
+        <v>-304690.04398036649</v>
+      </c>
+      <c r="L20">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M20" t="e">
+        <v>1173.1834817198642</v>
+      </c>
+      <c r="M20">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N20" t="e">
+        <v>-381649.40912036638</v>
+      </c>
+      <c r="N20">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>1737.1878343554597</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -4055,37 +4280,37 @@
       <c r="D21">
         <v>5</v>
       </c>
-      <c r="E21" t="e">
+      <c r="E21">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F21" t="e">
+        <v>-709293.04800919991</v>
+      </c>
+      <c r="F21">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G21" t="e">
+        <v>40019.626090797821</v>
+      </c>
+      <c r="G21">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H21" t="e">
+        <v>-151140.33433659998</v>
+      </c>
+      <c r="H21">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I21" t="e">
+        <v>564.22042106520564</v>
+      </c>
+      <c r="I21">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J21" t="e">
+        <v>-228393.99913639991</v>
+      </c>
+      <c r="J21">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K21" t="e">
+        <v>1337.4811028063486</v>
+      </c>
+      <c r="K21">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L21" t="e">
+        <v>-303006.62451453262</v>
+      </c>
+      <c r="L21">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>941.11619276960528</v>
       </c>
       <c r="M21" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -4109,13 +4334,13 @@
       <c r="D22">
         <v>5</v>
       </c>
-      <c r="E22" t="e">
+      <c r="E22">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C22&amp;"_"&amp;B22&amp;"_"&amp;D22&amp;"_"&amp;A22&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C22&amp;"_"&amp;B22&amp;"_"&amp;D22&amp;"_"&amp;A22&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F22" t="e">
+        <v>-773535.59881746641</v>
+      </c>
+      <c r="F22">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C22&amp;"_"&amp;B22&amp;"_"&amp;D22&amp;"_"&amp;A22&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C22&amp;"_"&amp;B22&amp;"_"&amp;D22&amp;"_"&amp;A22&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C22&amp;"_"&amp;B22&amp;"_"&amp;D22&amp;"_"&amp;A22&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C22&amp;"_"&amp;B22&amp;"_"&amp;D22&amp;"_"&amp;A22&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>37424.006452447087</v>
       </c>
       <c r="G22" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C22&amp;"_"&amp;B22&amp;"_"&amp;D22&amp;"_"&amp;A22&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C22&amp;"_"&amp;B22&amp;"_"&amp;D22&amp;"_"&amp;A22&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -4163,45 +4388,45 @@
       <c r="D23">
         <v>5</v>
       </c>
-      <c r="E23" t="e">
+      <c r="E23">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F23" t="e">
+        <v>-707811.19175023271</v>
+      </c>
+      <c r="F23">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G23" t="e">
+        <v>40208.437091762557</v>
+      </c>
+      <c r="G23">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H23" t="e">
+        <v>-154634.03764569978</v>
+      </c>
+      <c r="H23">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I23" t="e">
+        <v>1347.5115957793255</v>
+      </c>
+      <c r="I23">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J23" t="e">
+        <v>-232403.21034536647</v>
+      </c>
+      <c r="J23">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K23" t="e">
+        <v>1737.1676754480518</v>
+      </c>
+      <c r="K23">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L23" t="e">
+        <v>-305331.83041136654</v>
+      </c>
+      <c r="L23">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M23" t="e">
+        <v>1344.8895128164982</v>
+      </c>
+      <c r="M23">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N23" t="e">
+        <v>-380435.87396523316</v>
+      </c>
+      <c r="N23">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>1035.7199735960439</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -4217,45 +4442,45 @@
       <c r="D24">
         <v>5</v>
       </c>
-      <c r="E24" t="e">
+      <c r="E24">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F24" t="e">
+        <v>-708426.35977360001</v>
+      </c>
+      <c r="F24">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G24" t="e">
+        <v>40181.329055406415</v>
+      </c>
+      <c r="G24">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H24" t="e">
+        <v>-151004.78483646669</v>
+      </c>
+      <c r="H24">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I24" t="e">
+        <v>331.22314261665247</v>
+      </c>
+      <c r="I24">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J24" t="e">
+        <v>-227135.92624956652</v>
+      </c>
+      <c r="J24">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K24" t="e">
+        <v>838.67820589256996</v>
+      </c>
+      <c r="K24">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L24" t="e">
+        <v>-302371.24586553272</v>
+      </c>
+      <c r="L24">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M24" t="e">
+        <v>713.01950408906214</v>
+      </c>
+      <c r="M24">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N24" t="e">
+        <v>-376902.28740049922</v>
+      </c>
+      <c r="N24">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>742.03817087389518</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -4271,13 +4496,13 @@
       <c r="D25">
         <v>5</v>
       </c>
-      <c r="E25" t="e">
+      <c r="E25">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C25&amp;"_"&amp;B25&amp;"_"&amp;D25&amp;"_"&amp;A25&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C25&amp;"_"&amp;B25&amp;"_"&amp;D25&amp;"_"&amp;A25&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F25" t="e">
+        <v>-740969.70362759952</v>
+      </c>
+      <c r="F25">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C25&amp;"_"&amp;B25&amp;"_"&amp;D25&amp;"_"&amp;A25&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C25&amp;"_"&amp;B25&amp;"_"&amp;D25&amp;"_"&amp;A25&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C25&amp;"_"&amp;B25&amp;"_"&amp;D25&amp;"_"&amp;A25&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C25&amp;"_"&amp;B25&amp;"_"&amp;D25&amp;"_"&amp;A25&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>40993.554614234432</v>
       </c>
       <c r="G25" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C25&amp;"_"&amp;B25&amp;"_"&amp;D25&amp;"_"&amp;A25&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C25&amp;"_"&amp;B25&amp;"_"&amp;D25&amp;"_"&amp;A25&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -4325,45 +4550,45 @@
       <c r="D26">
         <v>10</v>
       </c>
-      <c r="E26" t="e">
+      <c r="E26">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F26" t="e">
+        <v>-710017.80558049981</v>
+      </c>
+      <c r="F26">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G26" t="e">
+        <v>40360.92961446158</v>
+      </c>
+      <c r="G26">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H26" t="e">
+        <v>-155334.55564659979</v>
+      </c>
+      <c r="H26">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I26" t="e">
+        <v>1364.0753475778208</v>
+      </c>
+      <c r="I26">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J26" t="e">
+        <v>-294374.43877483328</v>
+      </c>
+      <c r="J26">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K26" t="e">
+        <v>37230.456842516811</v>
+      </c>
+      <c r="K26">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L26" t="e">
+        <v>-313684.48887339974</v>
+      </c>
+      <c r="L26">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M26" t="e">
+        <v>15253.388665133776</v>
+      </c>
+      <c r="M26">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N26" t="e">
+        <v>-402095.36499576655</v>
+      </c>
+      <c r="N26">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>22996.849606411368</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -4385,31 +4610,31 @@
       </c>
       <c r="F27" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C27&amp;"_"&amp;B27&amp;"_"&amp;D27&amp;"_"&amp;A27&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C27&amp;"_"&amp;B27&amp;"_"&amp;D27&amp;"_"&amp;A27&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C27&amp;"_"&amp;B27&amp;"_"&amp;D27&amp;"_"&amp;A27&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C27&amp;"_"&amp;B27&amp;"_"&amp;D27&amp;"_"&amp;A27&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G27">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C27&amp;"_"&amp;B27&amp;"_"&amp;D27&amp;"_"&amp;A27&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C27&amp;"_"&amp;B27&amp;"_"&amp;D27&amp;"_"&amp;A27&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H27" t="e">
+        <v>-385263.72531576641</v>
+      </c>
+      <c r="H27">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C27&amp;"_"&amp;B27&amp;"_"&amp;D27&amp;"_"&amp;A27&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C27&amp;"_"&amp;B27&amp;"_"&amp;D27&amp;"_"&amp;A27&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C27&amp;"_"&amp;B27&amp;"_"&amp;D27&amp;"_"&amp;A27&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C27&amp;"_"&amp;B27&amp;"_"&amp;D27&amp;"_"&amp;A27&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I27" t="e">
+        <v>17300.867445495416</v>
+      </c>
+      <c r="I27">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C27&amp;"_"&amp;B27&amp;"_"&amp;D27&amp;"_"&amp;A27&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C27&amp;"_"&amp;B27&amp;"_"&amp;D27&amp;"_"&amp;A27&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J27" t="e">
+        <v>-425633.72468666639</v>
+      </c>
+      <c r="J27">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C27&amp;"_"&amp;B27&amp;"_"&amp;D27&amp;"_"&amp;A27&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C27&amp;"_"&amp;B27&amp;"_"&amp;D27&amp;"_"&amp;A27&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C27&amp;"_"&amp;B27&amp;"_"&amp;D27&amp;"_"&amp;A27&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C27&amp;"_"&amp;B27&amp;"_"&amp;D27&amp;"_"&amp;A27&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K27" t="e">
+        <v>25458.157330063961</v>
+      </c>
+      <c r="K27">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C27&amp;"_"&amp;B27&amp;"_"&amp;D27&amp;"_"&amp;A27&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C27&amp;"_"&amp;B27&amp;"_"&amp;D27&amp;"_"&amp;A27&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L27" t="e">
+        <v>-520657.03197099961</v>
+      </c>
+      <c r="L27">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C27&amp;"_"&amp;B27&amp;"_"&amp;D27&amp;"_"&amp;A27&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C27&amp;"_"&amp;B27&amp;"_"&amp;D27&amp;"_"&amp;A27&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C27&amp;"_"&amp;B27&amp;"_"&amp;D27&amp;"_"&amp;A27&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C27&amp;"_"&amp;B27&amp;"_"&amp;D27&amp;"_"&amp;A27&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>25300.434520518993</v>
       </c>
       <c r="M27" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C27&amp;"_"&amp;B27&amp;"_"&amp;D27&amp;"_"&amp;A27&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C27&amp;"_"&amp;B27&amp;"_"&amp;D27&amp;"_"&amp;A27&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -4433,13 +4658,13 @@
       <c r="D28">
         <v>10</v>
       </c>
-      <c r="E28" t="e">
+      <c r="E28">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C28&amp;"_"&amp;B28&amp;"_"&amp;D28&amp;"_"&amp;A28&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C28&amp;"_"&amp;B28&amp;"_"&amp;D28&amp;"_"&amp;A28&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
+        <v>-730924.02649516624</v>
       </c>
       <c r="F28" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C28&amp;"_"&amp;B28&amp;"_"&amp;D28&amp;"_"&amp;A28&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C28&amp;"_"&amp;B28&amp;"_"&amp;D28&amp;"_"&amp;A28&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C28&amp;"_"&amp;B28&amp;"_"&amp;D28&amp;"_"&amp;A28&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C28&amp;"_"&amp;B28&amp;"_"&amp;D28&amp;"_"&amp;A28&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G28" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C28&amp;"_"&amp;B28&amp;"_"&amp;D28&amp;"_"&amp;A28&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C28&amp;"_"&amp;B28&amp;"_"&amp;D28&amp;"_"&amp;A28&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -4487,45 +4712,45 @@
       <c r="D29">
         <v>10</v>
       </c>
-      <c r="E29" t="e">
+      <c r="E29">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F29" t="e">
+        <v>-707681.55103869957</v>
+      </c>
+      <c r="F29">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G29" t="e">
+        <v>40639.020483363041</v>
+      </c>
+      <c r="G29">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H29" t="e">
+        <v>-153930.90511303328</v>
+      </c>
+      <c r="H29">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I29" t="e">
+        <v>805.02794287099903</v>
+      </c>
+      <c r="I29">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J29" t="e">
+        <v>-230778.29135099991</v>
+      </c>
+      <c r="J29">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K29" t="e">
+        <v>1247.4499697070132</v>
+      </c>
+      <c r="K29">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L29" t="e">
+        <v>-304813.72248853318</v>
+      </c>
+      <c r="L29">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M29" t="e">
+        <v>1172.3272650141967</v>
+      </c>
+      <c r="M29">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N29" t="e">
+        <v>-383662.84039856656</v>
+      </c>
+      <c r="N29">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>5806.0202321658307</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -4547,15 +4772,15 @@
       </c>
       <c r="F30" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C30&amp;"_"&amp;B30&amp;"_"&amp;D30&amp;"_"&amp;A30&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C30&amp;"_"&amp;B30&amp;"_"&amp;D30&amp;"_"&amp;A30&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C30&amp;"_"&amp;B30&amp;"_"&amp;D30&amp;"_"&amp;A30&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C30&amp;"_"&amp;B30&amp;"_"&amp;D30&amp;"_"&amp;A30&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G30">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C30&amp;"_"&amp;B30&amp;"_"&amp;D30&amp;"_"&amp;A30&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C30&amp;"_"&amp;B30&amp;"_"&amp;D30&amp;"_"&amp;A30&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H30" t="e">
+        <v>-154533.34929799987</v>
+      </c>
+      <c r="H30">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C30&amp;"_"&amp;B30&amp;"_"&amp;D30&amp;"_"&amp;A30&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C30&amp;"_"&amp;B30&amp;"_"&amp;D30&amp;"_"&amp;A30&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C30&amp;"_"&amp;B30&amp;"_"&amp;D30&amp;"_"&amp;A30&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C30&amp;"_"&amp;B30&amp;"_"&amp;D30&amp;"_"&amp;A30&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>3085.2781540686315</v>
       </c>
       <c r="I30" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C30&amp;"_"&amp;B30&amp;"_"&amp;D30&amp;"_"&amp;A30&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C30&amp;"_"&amp;B30&amp;"_"&amp;D30&amp;"_"&amp;A30&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -4595,13 +4820,13 @@
       <c r="D31">
         <v>10</v>
       </c>
-      <c r="E31" t="e">
+      <c r="E31">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C31&amp;"_"&amp;B31&amp;"_"&amp;D31&amp;"_"&amp;A31&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C31&amp;"_"&amp;B31&amp;"_"&amp;D31&amp;"_"&amp;A31&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
+        <v>-730991.83668766613</v>
       </c>
       <c r="F31" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C31&amp;"_"&amp;B31&amp;"_"&amp;D31&amp;"_"&amp;A31&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C31&amp;"_"&amp;B31&amp;"_"&amp;D31&amp;"_"&amp;A31&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C31&amp;"_"&amp;B31&amp;"_"&amp;D31&amp;"_"&amp;A31&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C31&amp;"_"&amp;B31&amp;"_"&amp;D31&amp;"_"&amp;A31&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G31" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C31&amp;"_"&amp;B31&amp;"_"&amp;D31&amp;"_"&amp;A31&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C31&amp;"_"&amp;B31&amp;"_"&amp;D31&amp;"_"&amp;A31&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -4649,21 +4874,21 @@
       <c r="D32">
         <v>10</v>
       </c>
-      <c r="E32" t="e">
+      <c r="E32">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F32" t="e">
+        <v>-707955.80275453313</v>
+      </c>
+      <c r="F32">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G32" t="e">
+        <v>39337.24707605705</v>
+      </c>
+      <c r="G32">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H32" t="e">
+        <v>-154378.51402019986</v>
+      </c>
+      <c r="H32">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>1338.9881336939552</v>
       </c>
       <c r="I32" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -4673,21 +4898,21 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="K32" t="e">
+      <c r="K32">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L32" t="e">
+        <v>-305393.32058683311</v>
+      </c>
+      <c r="L32">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M32" t="e">
+        <v>1520.1685962827185</v>
+      </c>
+      <c r="M32">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N32" t="e">
+        <v>-380230.20815063309</v>
+      </c>
+      <c r="N32">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>1248.4025961132386</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -4703,13 +4928,13 @@
       <c r="D33">
         <v>10</v>
       </c>
-      <c r="E33" t="e">
+      <c r="E33">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F33" t="e">
+        <v>-709461.00719539984</v>
+      </c>
+      <c r="F33">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>39759.085613775074</v>
       </c>
       <c r="G33" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -4719,13 +4944,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="I33" t="e">
+      <c r="I33">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J33" t="e">
+        <v>-238583.89131246659</v>
+      </c>
+      <c r="J33">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>7742.9838334786546</v>
       </c>
       <c r="K33" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -4757,13 +4982,13 @@
       <c r="D34">
         <v>10</v>
       </c>
-      <c r="E34" t="e">
+      <c r="E34">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C34&amp;"_"&amp;B34&amp;"_"&amp;D34&amp;"_"&amp;A34&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C34&amp;"_"&amp;B34&amp;"_"&amp;D34&amp;"_"&amp;A34&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F34" t="e">
+        <v>-730924.02649516624</v>
+      </c>
+      <c r="F34">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C34&amp;"_"&amp;B34&amp;"_"&amp;D34&amp;"_"&amp;A34&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C34&amp;"_"&amp;B34&amp;"_"&amp;D34&amp;"_"&amp;A34&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C34&amp;"_"&amp;B34&amp;"_"&amp;D34&amp;"_"&amp;A34&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C34&amp;"_"&amp;B34&amp;"_"&amp;D34&amp;"_"&amp;A34&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>39209.763780033019</v>
       </c>
       <c r="G34" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C34&amp;"_"&amp;B34&amp;"_"&amp;D34&amp;"_"&amp;A34&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C34&amp;"_"&amp;B34&amp;"_"&amp;D34&amp;"_"&amp;A34&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -4811,45 +5036,45 @@
       <c r="D35">
         <v>10</v>
       </c>
-      <c r="E35" t="e">
+      <c r="E35">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F35" t="e">
+        <v>-706648.56090229948</v>
+      </c>
+      <c r="F35">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G35" t="e">
+        <v>40159.741416499659</v>
+      </c>
+      <c r="G35">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H35" t="e">
+        <v>-153833.97406919996</v>
+      </c>
+      <c r="H35">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I35" t="e">
+        <v>1045.4007821595526</v>
+      </c>
+      <c r="I35">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J35" t="e">
+        <v>-230208.6270922331</v>
+      </c>
+      <c r="J35">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K35" t="e">
+        <v>1074.3805587772806</v>
+      </c>
+      <c r="K35">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L35" t="e">
+        <v>-305594.8805512999</v>
+      </c>
+      <c r="L35">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M35" t="e">
+        <v>1353.7619531072282</v>
+      </c>
+      <c r="M35">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N35" t="e">
+        <v>-379948.37739483331</v>
+      </c>
+      <c r="N35">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>1398.8332875735894</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -4865,13 +5090,13 @@
       <c r="D36">
         <v>10</v>
       </c>
-      <c r="E36" t="e">
+      <c r="E36">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C36&amp;"_"&amp;B36&amp;"_"&amp;D36&amp;"_"&amp;A36&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C36&amp;"_"&amp;B36&amp;"_"&amp;D36&amp;"_"&amp;A36&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F36" t="e">
+        <v>-706559.657350066</v>
+      </c>
+      <c r="F36">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C36&amp;"_"&amp;B36&amp;"_"&amp;D36&amp;"_"&amp;A36&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C36&amp;"_"&amp;B36&amp;"_"&amp;D36&amp;"_"&amp;A36&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C36&amp;"_"&amp;B36&amp;"_"&amp;D36&amp;"_"&amp;A36&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C36&amp;"_"&amp;B36&amp;"_"&amp;D36&amp;"_"&amp;A36&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>40048.241726450608</v>
       </c>
       <c r="G36" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C36&amp;"_"&amp;B36&amp;"_"&amp;D36&amp;"_"&amp;A36&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C36&amp;"_"&amp;B36&amp;"_"&amp;D36&amp;"_"&amp;A36&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -4881,13 +5106,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C36&amp;"_"&amp;B36&amp;"_"&amp;D36&amp;"_"&amp;A36&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C36&amp;"_"&amp;B36&amp;"_"&amp;D36&amp;"_"&amp;A36&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C36&amp;"_"&amp;B36&amp;"_"&amp;D36&amp;"_"&amp;A36&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C36&amp;"_"&amp;B36&amp;"_"&amp;D36&amp;"_"&amp;A36&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="I36" t="e">
+      <c r="I36">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C36&amp;"_"&amp;B36&amp;"_"&amp;D36&amp;"_"&amp;A36&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C36&amp;"_"&amp;B36&amp;"_"&amp;D36&amp;"_"&amp;A36&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J36" t="e">
+        <v>-226035.00308889986</v>
+      </c>
+      <c r="J36">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C36&amp;"_"&amp;B36&amp;"_"&amp;D36&amp;"_"&amp;A36&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C36&amp;"_"&amp;B36&amp;"_"&amp;D36&amp;"_"&amp;A36&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C36&amp;"_"&amp;B36&amp;"_"&amp;D36&amp;"_"&amp;A36&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C36&amp;"_"&amp;B36&amp;"_"&amp;D36&amp;"_"&amp;A36&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>424.82393808387724</v>
       </c>
       <c r="K36" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C36&amp;"_"&amp;B36&amp;"_"&amp;D36&amp;"_"&amp;A36&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C36&amp;"_"&amp;B36&amp;"_"&amp;D36&amp;"_"&amp;A36&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -4919,13 +5144,13 @@
       <c r="D37">
         <v>10</v>
       </c>
-      <c r="E37" t="e">
+      <c r="E37">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C37&amp;"_"&amp;B37&amp;"_"&amp;D37&amp;"_"&amp;A37&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C37&amp;"_"&amp;B37&amp;"_"&amp;D37&amp;"_"&amp;A37&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F37" t="e">
+        <v>-731507.23811789963</v>
+      </c>
+      <c r="F37">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C37&amp;"_"&amp;B37&amp;"_"&amp;D37&amp;"_"&amp;A37&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C37&amp;"_"&amp;B37&amp;"_"&amp;D37&amp;"_"&amp;A37&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C37&amp;"_"&amp;B37&amp;"_"&amp;D37&amp;"_"&amp;A37&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C37&amp;"_"&amp;B37&amp;"_"&amp;D37&amp;"_"&amp;A37&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>39531.263700325624</v>
       </c>
       <c r="G37" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C37&amp;"_"&amp;B37&amp;"_"&amp;D37&amp;"_"&amp;A37&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C37&amp;"_"&amp;B37&amp;"_"&amp;D37&amp;"_"&amp;A37&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -4973,13 +5198,13 @@
       <c r="D38">
         <v>15</v>
       </c>
-      <c r="E38" t="e">
+      <c r="E38">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C38&amp;"_"&amp;B38&amp;"_"&amp;D38&amp;"_"&amp;A38&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C38&amp;"_"&amp;B38&amp;"_"&amp;D38&amp;"_"&amp;A38&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F38" t="e">
+        <v>-709021.09014419978</v>
+      </c>
+      <c r="F38">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C38&amp;"_"&amp;B38&amp;"_"&amp;D38&amp;"_"&amp;A38&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C38&amp;"_"&amp;B38&amp;"_"&amp;D38&amp;"_"&amp;A38&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C38&amp;"_"&amp;B38&amp;"_"&amp;D38&amp;"_"&amp;A38&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C38&amp;"_"&amp;B38&amp;"_"&amp;D38&amp;"_"&amp;A38&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>40113.59854833554</v>
       </c>
       <c r="G38" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C38&amp;"_"&amp;B38&amp;"_"&amp;D38&amp;"_"&amp;A38&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C38&amp;"_"&amp;B38&amp;"_"&amp;D38&amp;"_"&amp;A38&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -5027,13 +5252,13 @@
       <c r="D39">
         <v>15</v>
       </c>
-      <c r="E39" t="e">
+      <c r="E39">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C39&amp;"_"&amp;B39&amp;"_"&amp;D39&amp;"_"&amp;A39&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C39&amp;"_"&amp;B39&amp;"_"&amp;D39&amp;"_"&amp;A39&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
+        <v>-835883.99848549964</v>
       </c>
       <c r="F39" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C39&amp;"_"&amp;B39&amp;"_"&amp;D39&amp;"_"&amp;A39&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C39&amp;"_"&amp;B39&amp;"_"&amp;D39&amp;"_"&amp;A39&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C39&amp;"_"&amp;B39&amp;"_"&amp;D39&amp;"_"&amp;A39&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C39&amp;"_"&amp;B39&amp;"_"&amp;D39&amp;"_"&amp;A39&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G39" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C39&amp;"_"&amp;B39&amp;"_"&amp;D39&amp;"_"&amp;A39&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C39&amp;"_"&amp;B39&amp;"_"&amp;D39&amp;"_"&amp;A39&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -5081,13 +5306,13 @@
       <c r="D40">
         <v>15</v>
       </c>
-      <c r="E40" t="e">
+      <c r="E40">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C40&amp;"_"&amp;B40&amp;"_"&amp;D40&amp;"_"&amp;A40&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C40&amp;"_"&amp;B40&amp;"_"&amp;D40&amp;"_"&amp;A40&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
+        <v>-730924.02649516624</v>
       </c>
       <c r="F40" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C40&amp;"_"&amp;B40&amp;"_"&amp;D40&amp;"_"&amp;A40&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C40&amp;"_"&amp;B40&amp;"_"&amp;D40&amp;"_"&amp;A40&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C40&amp;"_"&amp;B40&amp;"_"&amp;D40&amp;"_"&amp;A40&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C40&amp;"_"&amp;B40&amp;"_"&amp;D40&amp;"_"&amp;A40&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G40" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C40&amp;"_"&amp;B40&amp;"_"&amp;D40&amp;"_"&amp;A40&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C40&amp;"_"&amp;B40&amp;"_"&amp;D40&amp;"_"&amp;A40&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -5135,13 +5360,13 @@
       <c r="D41">
         <v>15</v>
       </c>
-      <c r="E41" t="e">
+      <c r="E41">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C41&amp;"_"&amp;B41&amp;"_"&amp;D41&amp;"_"&amp;A41&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C41&amp;"_"&amp;B41&amp;"_"&amp;D41&amp;"_"&amp;A41&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F41" t="e">
+        <v>-708492.99496816634</v>
+      </c>
+      <c r="F41">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C41&amp;"_"&amp;B41&amp;"_"&amp;D41&amp;"_"&amp;A41&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C41&amp;"_"&amp;B41&amp;"_"&amp;D41&amp;"_"&amp;A41&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C41&amp;"_"&amp;B41&amp;"_"&amp;D41&amp;"_"&amp;A41&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C41&amp;"_"&amp;B41&amp;"_"&amp;D41&amp;"_"&amp;A41&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>40027.392959266581</v>
       </c>
       <c r="G41" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C41&amp;"_"&amp;B41&amp;"_"&amp;D41&amp;"_"&amp;A41&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C41&amp;"_"&amp;B41&amp;"_"&amp;D41&amp;"_"&amp;A41&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -5195,7 +5420,7 @@
       </c>
       <c r="F42" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C42&amp;"_"&amp;B42&amp;"_"&amp;D42&amp;"_"&amp;A42&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C42&amp;"_"&amp;B42&amp;"_"&amp;D42&amp;"_"&amp;A42&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C42&amp;"_"&amp;B42&amp;"_"&amp;D42&amp;"_"&amp;A42&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C42&amp;"_"&amp;B42&amp;"_"&amp;D42&amp;"_"&amp;A42&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G42" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C42&amp;"_"&amp;B42&amp;"_"&amp;D42&amp;"_"&amp;A42&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C42&amp;"_"&amp;B42&amp;"_"&amp;D42&amp;"_"&amp;A42&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -5297,13 +5522,13 @@
       <c r="D44">
         <v>15</v>
       </c>
-      <c r="E44" t="e">
+      <c r="E44">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C44&amp;"_"&amp;B44&amp;"_"&amp;D44&amp;"_"&amp;A44&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C44&amp;"_"&amp;B44&amp;"_"&amp;D44&amp;"_"&amp;A44&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F44" t="e">
+        <v>-710976.60654949979</v>
+      </c>
+      <c r="F44">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C44&amp;"_"&amp;B44&amp;"_"&amp;D44&amp;"_"&amp;A44&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C44&amp;"_"&amp;B44&amp;"_"&amp;D44&amp;"_"&amp;A44&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C44&amp;"_"&amp;B44&amp;"_"&amp;D44&amp;"_"&amp;A44&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C44&amp;"_"&amp;B44&amp;"_"&amp;D44&amp;"_"&amp;A44&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>40337.642309405266</v>
       </c>
       <c r="G44" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C44&amp;"_"&amp;B44&amp;"_"&amp;D44&amp;"_"&amp;A44&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C44&amp;"_"&amp;B44&amp;"_"&amp;D44&amp;"_"&amp;A44&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -5351,13 +5576,13 @@
       <c r="D45">
         <v>15</v>
       </c>
-      <c r="E45" t="e">
+      <c r="E45">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C45&amp;"_"&amp;B45&amp;"_"&amp;D45&amp;"_"&amp;A45&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C45&amp;"_"&amp;B45&amp;"_"&amp;D45&amp;"_"&amp;A45&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F45" t="e">
+        <v>-714960.4189565666</v>
+      </c>
+      <c r="F45">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C45&amp;"_"&amp;B45&amp;"_"&amp;D45&amp;"_"&amp;A45&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C45&amp;"_"&amp;B45&amp;"_"&amp;D45&amp;"_"&amp;A45&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C45&amp;"_"&amp;B45&amp;"_"&amp;D45&amp;"_"&amp;A45&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C45&amp;"_"&amp;B45&amp;"_"&amp;D45&amp;"_"&amp;A45&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>40366.434513595312</v>
       </c>
       <c r="G45" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C45&amp;"_"&amp;B45&amp;"_"&amp;D45&amp;"_"&amp;A45&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C45&amp;"_"&amp;B45&amp;"_"&amp;D45&amp;"_"&amp;A45&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -5405,13 +5630,13 @@
       <c r="D46">
         <v>15</v>
       </c>
-      <c r="E46" t="e">
+      <c r="E46">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F46" t="e">
+        <v>-730924.02649516624</v>
+      </c>
+      <c r="F46">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>39209.763780033019</v>
       </c>
       <c r="G46" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -5459,13 +5684,13 @@
       <c r="D47">
         <v>15</v>
       </c>
-      <c r="E47" t="e">
+      <c r="E47">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C47&amp;"_"&amp;B47&amp;"_"&amp;D47&amp;"_"&amp;A47&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C47&amp;"_"&amp;B47&amp;"_"&amp;D47&amp;"_"&amp;A47&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F47" t="e">
+        <v>-708497.52910989977</v>
+      </c>
+      <c r="F47">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C47&amp;"_"&amp;B47&amp;"_"&amp;D47&amp;"_"&amp;A47&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C47&amp;"_"&amp;B47&amp;"_"&amp;D47&amp;"_"&amp;A47&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C47&amp;"_"&amp;B47&amp;"_"&amp;D47&amp;"_"&amp;A47&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C47&amp;"_"&amp;B47&amp;"_"&amp;D47&amp;"_"&amp;A47&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>39716.755846609776</v>
       </c>
       <c r="G47" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C47&amp;"_"&amp;B47&amp;"_"&amp;D47&amp;"_"&amp;A47&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C47&amp;"_"&amp;B47&amp;"_"&amp;D47&amp;"_"&amp;A47&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -5513,13 +5738,13 @@
       <c r="D48">
         <v>15</v>
       </c>
-      <c r="E48" t="e">
+      <c r="E48">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C48&amp;"_"&amp;B48&amp;"_"&amp;D48&amp;"_"&amp;A48&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C48&amp;"_"&amp;B48&amp;"_"&amp;D48&amp;"_"&amp;A48&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F48" t="e">
+        <v>-711384.42396793317</v>
+      </c>
+      <c r="F48">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C48&amp;"_"&amp;B48&amp;"_"&amp;D48&amp;"_"&amp;A48&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C48&amp;"_"&amp;B48&amp;"_"&amp;D48&amp;"_"&amp;A48&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C48&amp;"_"&amp;B48&amp;"_"&amp;D48&amp;"_"&amp;A48&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C48&amp;"_"&amp;B48&amp;"_"&amp;D48&amp;"_"&amp;A48&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>39701.410599280047</v>
       </c>
       <c r="G48" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C48&amp;"_"&amp;B48&amp;"_"&amp;D48&amp;"_"&amp;A48&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C48&amp;"_"&amp;B48&amp;"_"&amp;D48&amp;"_"&amp;A48&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -5567,13 +5792,13 @@
       <c r="D49">
         <v>15</v>
       </c>
-      <c r="E49" t="e">
+      <c r="E49">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C49&amp;"_"&amp;B49&amp;"_"&amp;D49&amp;"_"&amp;A49&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C49&amp;"_"&amp;B49&amp;"_"&amp;D49&amp;"_"&amp;A49&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F49" t="e">
+        <v>-730924.02649516624</v>
+      </c>
+      <c r="F49">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C49&amp;"_"&amp;B49&amp;"_"&amp;D49&amp;"_"&amp;A49&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C49&amp;"_"&amp;B49&amp;"_"&amp;D49&amp;"_"&amp;A49&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C49&amp;"_"&amp;B49&amp;"_"&amp;D49&amp;"_"&amp;A49&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C49&amp;"_"&amp;B49&amp;"_"&amp;D49&amp;"_"&amp;A49&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>39209.763780033019</v>
       </c>
       <c r="G49" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C49&amp;"_"&amp;B49&amp;"_"&amp;D49&amp;"_"&amp;A49&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C49&amp;"_"&amp;B49&amp;"_"&amp;D49&amp;"_"&amp;A49&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -5627,7 +5852,7 @@
       </c>
       <c r="F50" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E5&amp;"_"&amp;C50&amp;"_"&amp;B50&amp;"_"&amp;D50&amp;"_"&amp;A50&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E5&amp;"_"&amp;C50&amp;"_"&amp;B50&amp;"_"&amp;D50&amp;"_"&amp;A50&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E5&amp;"_"&amp;C50&amp;"_"&amp;B50&amp;"_"&amp;D50&amp;"_"&amp;A50&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E5&amp;"_"&amp;C50&amp;"_"&amp;B50&amp;"_"&amp;D50&amp;"_"&amp;A50&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G50" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C50&amp;"_"&amp;B50&amp;"_"&amp;D50&amp;"_"&amp;A50&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C50&amp;"_"&amp;B50&amp;"_"&amp;D50&amp;"_"&amp;A50&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -5681,7 +5906,7 @@
       </c>
       <c r="F51" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E6&amp;"_"&amp;C51&amp;"_"&amp;B51&amp;"_"&amp;D51&amp;"_"&amp;A51&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E6&amp;"_"&amp;C51&amp;"_"&amp;B51&amp;"_"&amp;D51&amp;"_"&amp;A51&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E6&amp;"_"&amp;C51&amp;"_"&amp;B51&amp;"_"&amp;D51&amp;"_"&amp;A51&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E6&amp;"_"&amp;C51&amp;"_"&amp;B51&amp;"_"&amp;D51&amp;"_"&amp;A51&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G51" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C51&amp;"_"&amp;B51&amp;"_"&amp;D51&amp;"_"&amp;A51&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C51&amp;"_"&amp;B51&amp;"_"&amp;D51&amp;"_"&amp;A51&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -5735,7 +5960,7 @@
       </c>
       <c r="F52" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E7&amp;"_"&amp;C52&amp;"_"&amp;B52&amp;"_"&amp;D52&amp;"_"&amp;A52&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E7&amp;"_"&amp;C52&amp;"_"&amp;B52&amp;"_"&amp;D52&amp;"_"&amp;A52&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E7&amp;"_"&amp;C52&amp;"_"&amp;B52&amp;"_"&amp;D52&amp;"_"&amp;A52&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E7&amp;"_"&amp;C52&amp;"_"&amp;B52&amp;"_"&amp;D52&amp;"_"&amp;A52&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G52" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C52&amp;"_"&amp;B52&amp;"_"&amp;D52&amp;"_"&amp;A52&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C52&amp;"_"&amp;B52&amp;"_"&amp;D52&amp;"_"&amp;A52&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -5843,7 +6068,7 @@
       </c>
       <c r="F54" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E14&amp;"_"&amp;C54&amp;"_"&amp;B54&amp;"_"&amp;D54&amp;"_"&amp;A54&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E14&amp;"_"&amp;C54&amp;"_"&amp;B54&amp;"_"&amp;D54&amp;"_"&amp;A54&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E14&amp;"_"&amp;C54&amp;"_"&amp;B54&amp;"_"&amp;D54&amp;"_"&amp;A54&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E14&amp;"_"&amp;C54&amp;"_"&amp;B54&amp;"_"&amp;D54&amp;"_"&amp;A54&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G54" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C54&amp;"_"&amp;B54&amp;"_"&amp;D54&amp;"_"&amp;A54&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C54&amp;"_"&amp;B54&amp;"_"&amp;D54&amp;"_"&amp;A54&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -5897,7 +6122,7 @@
       </c>
       <c r="F55" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E15&amp;"_"&amp;C55&amp;"_"&amp;B55&amp;"_"&amp;D55&amp;"_"&amp;A55&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E15&amp;"_"&amp;C55&amp;"_"&amp;B55&amp;"_"&amp;D55&amp;"_"&amp;A55&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E15&amp;"_"&amp;C55&amp;"_"&amp;B55&amp;"_"&amp;D55&amp;"_"&amp;A55&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E15&amp;"_"&amp;C55&amp;"_"&amp;B55&amp;"_"&amp;D55&amp;"_"&amp;A55&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G55" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C55&amp;"_"&amp;B55&amp;"_"&amp;D55&amp;"_"&amp;A55&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C55&amp;"_"&amp;B55&amp;"_"&amp;D55&amp;"_"&amp;A55&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -6922,37 +7147,37 @@
       <c r="D76">
         <v>5</v>
       </c>
-      <c r="E76" t="e">
+      <c r="E76">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F76" t="e">
+        <v>-708425.19139766623</v>
+      </c>
+      <c r="F76">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G76" t="e">
+        <v>40312.000744603567</v>
+      </c>
+      <c r="G76">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H76" t="e">
+        <v>-154313.18616666651</v>
+      </c>
+      <c r="H76">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I76" t="e">
+        <v>1299.1948805218929</v>
+      </c>
+      <c r="I76">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J76" t="e">
+        <v>-231705.38877646643</v>
+      </c>
+      <c r="J76">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K76" t="e">
+        <v>1459.2465328196447</v>
+      </c>
+      <c r="K76">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L76" t="e">
+        <v>-305201.92762286647</v>
+      </c>
+      <c r="L76">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>1114.17006810868</v>
       </c>
       <c r="M76" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -6976,29 +7201,29 @@
       <c r="D77">
         <v>5</v>
       </c>
-      <c r="E77" t="e">
+      <c r="E77">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F77" t="e">
+        <v>-737097.21774646663</v>
+      </c>
+      <c r="F77">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G77" t="e">
+        <v>42615.027854960223</v>
+      </c>
+      <c r="G77">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H77" t="e">
+        <v>-153286.71304893334</v>
+      </c>
+      <c r="H77">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I77" t="e">
+        <v>1540.3828499440026</v>
+      </c>
+      <c r="I77">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J77" t="e">
+        <v>-248578.38459613323</v>
+      </c>
+      <c r="J77">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>8762.1169691681571</v>
       </c>
       <c r="K77" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7084,13 +7309,13 @@
       <c r="D79">
         <v>5</v>
       </c>
-      <c r="E79" t="e">
+      <c r="E79">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F79" t="e">
+        <v>-708559.80412906618</v>
+      </c>
+      <c r="F79">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>40142.715762711923</v>
       </c>
       <c r="G79" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7100,21 +7325,21 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="I79" t="e">
+      <c r="I79">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J79" t="e">
+        <v>-231354.5909056665</v>
+      </c>
+      <c r="J79">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K79" t="e">
+        <v>1247.7247325418145</v>
+      </c>
+      <c r="K79">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L79" t="e">
+        <v>-305121.90868793312</v>
+      </c>
+      <c r="L79">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>858.22248140842589</v>
       </c>
       <c r="M79" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7138,29 +7363,29 @@
       <c r="D80">
         <v>5</v>
       </c>
-      <c r="E80" t="e">
+      <c r="E80">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F80" t="e">
+        <v>-731254.21310143324</v>
+      </c>
+      <c r="F80">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G80" t="e">
+        <v>41652.037453250021</v>
+      </c>
+      <c r="G80">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H80" t="e">
+        <v>-178276.49227536659</v>
+      </c>
+      <c r="H80">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I80" t="e">
+        <v>9098.9808762518533</v>
+      </c>
+      <c r="I80">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J80" t="e">
+        <v>-227932.24678416669</v>
+      </c>
+      <c r="J80">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>1068.8191264998266</v>
       </c>
       <c r="K80" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7192,13 +7417,13 @@
       <c r="D81">
         <v>5</v>
       </c>
-      <c r="E81" t="e">
+      <c r="E81">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C81&amp;"_"&amp;B81&amp;"_"&amp;D81&amp;"_"&amp;A81&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C81&amp;"_"&amp;B81&amp;"_"&amp;D81&amp;"_"&amp;A81&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F81" t="e">
+        <v>-730924.02649516624</v>
+      </c>
+      <c r="F81">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C81&amp;"_"&amp;B81&amp;"_"&amp;D81&amp;"_"&amp;A81&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C81&amp;"_"&amp;B81&amp;"_"&amp;D81&amp;"_"&amp;A81&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C81&amp;"_"&amp;B81&amp;"_"&amp;D81&amp;"_"&amp;A81&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C81&amp;"_"&amp;B81&amp;"_"&amp;D81&amp;"_"&amp;A81&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>39209.763780033019</v>
       </c>
       <c r="G81" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C81&amp;"_"&amp;B81&amp;"_"&amp;D81&amp;"_"&amp;A81&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C81&amp;"_"&amp;B81&amp;"_"&amp;D81&amp;"_"&amp;A81&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7246,29 +7471,29 @@
       <c r="D82">
         <v>5</v>
       </c>
-      <c r="E82" t="e">
+      <c r="E82">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F82" t="e">
+        <v>-709157.97949753318</v>
+      </c>
+      <c r="F82">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G82" t="e">
+        <v>40181.20530302744</v>
+      </c>
+      <c r="G82">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H82" t="e">
+        <v>-156737.51325576653</v>
+      </c>
+      <c r="H82">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I82" t="e">
+        <v>2680.4551703949764</v>
+      </c>
+      <c r="I82">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J82" t="e">
+        <v>-231194.47167633314</v>
+      </c>
+      <c r="J82">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>1097.1575475586515</v>
       </c>
       <c r="K82" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7300,29 +7525,29 @@
       <c r="D83">
         <v>5</v>
       </c>
-      <c r="E83" t="e">
+      <c r="E83">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F83" t="e">
+        <v>-727351.6761023663</v>
+      </c>
+      <c r="F83">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G83" t="e">
+        <v>41394.909182628151</v>
+      </c>
+      <c r="G83">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H83" t="e">
+        <v>-154312.21924903331</v>
+      </c>
+      <c r="H83">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I83" t="e">
+        <v>1234.9304239512678</v>
+      </c>
+      <c r="I83">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J83" t="e">
+        <v>-228999.90454336655</v>
+      </c>
+      <c r="J83">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>1259.4270507130636</v>
       </c>
       <c r="K83" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7354,13 +7579,13 @@
       <c r="D84">
         <v>5</v>
       </c>
-      <c r="E84" t="e">
+      <c r="E84">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C84&amp;"_"&amp;B84&amp;"_"&amp;D84&amp;"_"&amp;A84&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C84&amp;"_"&amp;B84&amp;"_"&amp;D84&amp;"_"&amp;A84&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F84" t="e">
+        <v>-732076.38258149964</v>
+      </c>
+      <c r="F84">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C84&amp;"_"&amp;B84&amp;"_"&amp;D84&amp;"_"&amp;A84&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C84&amp;"_"&amp;B84&amp;"_"&amp;D84&amp;"_"&amp;A84&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C84&amp;"_"&amp;B84&amp;"_"&amp;D84&amp;"_"&amp;A84&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C84&amp;"_"&amp;B84&amp;"_"&amp;D84&amp;"_"&amp;A84&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>38984.21192237299</v>
       </c>
       <c r="G84" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C84&amp;"_"&amp;B84&amp;"_"&amp;D84&amp;"_"&amp;A84&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C84&amp;"_"&amp;B84&amp;"_"&amp;D84&amp;"_"&amp;A84&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7408,13 +7633,13 @@
       <c r="D85">
         <v>5</v>
       </c>
-      <c r="E85" t="e">
+      <c r="E85">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F85" t="e">
+        <v>-710054.40741833299</v>
+      </c>
+      <c r="F85">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>39128.405501370355</v>
       </c>
       <c r="G85" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7424,13 +7649,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="I85" t="e">
+      <c r="I85">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J85" t="e">
+        <v>-231149.70072646654</v>
+      </c>
+      <c r="J85">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>1397.4312302362637</v>
       </c>
       <c r="K85" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7462,13 +7687,13 @@
       <c r="D86">
         <v>5</v>
       </c>
-      <c r="E86" t="e">
+      <c r="E86">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F86" t="e">
+        <v>-724117.3597442999</v>
+      </c>
+      <c r="F86">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>40379.410599353003</v>
       </c>
       <c r="G86" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7478,13 +7703,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="I86" t="e">
+      <c r="I86">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J86" t="e">
+        <v>-229348.97434053311</v>
+      </c>
+      <c r="J86">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>1339.2904010675832</v>
       </c>
       <c r="K86" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7516,13 +7741,13 @@
       <c r="D87">
         <v>5</v>
       </c>
-      <c r="E87" t="e">
+      <c r="E87">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C87&amp;"_"&amp;B87&amp;"_"&amp;D87&amp;"_"&amp;A87&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C87&amp;"_"&amp;B87&amp;"_"&amp;D87&amp;"_"&amp;A87&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F87" t="e">
+        <v>-730924.02649516624</v>
+      </c>
+      <c r="F87">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C87&amp;"_"&amp;B87&amp;"_"&amp;D87&amp;"_"&amp;A87&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C87&amp;"_"&amp;B87&amp;"_"&amp;D87&amp;"_"&amp;A87&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C87&amp;"_"&amp;B87&amp;"_"&amp;D87&amp;"_"&amp;A87&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C87&amp;"_"&amp;B87&amp;"_"&amp;D87&amp;"_"&amp;A87&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>39209.763780033019</v>
       </c>
       <c r="G87" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C87&amp;"_"&amp;B87&amp;"_"&amp;D87&amp;"_"&amp;A87&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C87&amp;"_"&amp;B87&amp;"_"&amp;D87&amp;"_"&amp;A87&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7570,37 +7795,37 @@
       <c r="D88">
         <v>10</v>
       </c>
-      <c r="E88" t="e">
+      <c r="E88">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F88" t="e">
+        <v>-709669.41458749969</v>
+      </c>
+      <c r="F88">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G88" t="e">
+        <v>39924.11515192809</v>
+      </c>
+      <c r="G88">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H88" t="e">
+        <v>-162995.41419913329</v>
+      </c>
+      <c r="H88">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I88" t="e">
+        <v>3231.8922740069734</v>
+      </c>
+      <c r="I88">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J88" t="e">
+        <v>-230788.09260183328</v>
+      </c>
+      <c r="J88">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K88" t="e">
+        <v>1607.2345643090068</v>
+      </c>
+      <c r="K88">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L88" t="e">
+        <v>-307652.91504996631</v>
+      </c>
+      <c r="L88">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>4330.8412765987941</v>
       </c>
       <c r="M88" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7632,13 +7857,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C89&amp;"_"&amp;B89&amp;"_"&amp;D89&amp;"_"&amp;A89&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C89&amp;"_"&amp;B89&amp;"_"&amp;D89&amp;"_"&amp;A89&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C89&amp;"_"&amp;B89&amp;"_"&amp;D89&amp;"_"&amp;A89&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C89&amp;"_"&amp;B89&amp;"_"&amp;D89&amp;"_"&amp;A89&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="G89" t="e">
+      <c r="G89">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C89&amp;"_"&amp;B89&amp;"_"&amp;D89&amp;"_"&amp;A89&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C89&amp;"_"&amp;B89&amp;"_"&amp;D89&amp;"_"&amp;A89&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H89" t="e">
+        <v>-390144.14513739973</v>
+      </c>
+      <c r="H89">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C89&amp;"_"&amp;B89&amp;"_"&amp;D89&amp;"_"&amp;A89&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C89&amp;"_"&amp;B89&amp;"_"&amp;D89&amp;"_"&amp;A89&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C89&amp;"_"&amp;B89&amp;"_"&amp;D89&amp;"_"&amp;A89&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C89&amp;"_"&amp;B89&amp;"_"&amp;D89&amp;"_"&amp;A89&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>20704.04225358053</v>
       </c>
       <c r="I89" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C89&amp;"_"&amp;B89&amp;"_"&amp;D89&amp;"_"&amp;A89&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C89&amp;"_"&amp;B89&amp;"_"&amp;D89&amp;"_"&amp;A89&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7732,37 +7957,37 @@
       <c r="D91">
         <v>10</v>
       </c>
-      <c r="E91" t="e">
+      <c r="E91">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F91" t="e">
+        <v>-708324.7575454663</v>
+      </c>
+      <c r="F91">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G91" t="e">
+        <v>39769.163534704305</v>
+      </c>
+      <c r="G91">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H91" t="e">
+        <v>-160193.17802643316</v>
+      </c>
+      <c r="H91">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I91" t="e">
+        <v>2561.2947647709575</v>
+      </c>
+      <c r="I91">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J91" t="e">
+        <v>-230227.9139978</v>
+      </c>
+      <c r="J91">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K91" t="e">
+        <v>1471.635800162845</v>
+      </c>
+      <c r="K91">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L91" t="e">
+        <v>-303372.45221636642</v>
+      </c>
+      <c r="L91">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>1022.1855558978397</v>
       </c>
       <c r="M91" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7786,21 +8011,21 @@
       <c r="D92">
         <v>10</v>
       </c>
-      <c r="E92" t="e">
+      <c r="E92">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F92" t="e">
+        <v>-746107.15572356642</v>
+      </c>
+      <c r="F92">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G92" t="e">
+        <v>38447.550808583808</v>
+      </c>
+      <c r="G92">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H92" t="e">
+        <v>-369409.4054292998</v>
+      </c>
+      <c r="H92">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>29646.0043297636</v>
       </c>
       <c r="I92" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7840,13 +8065,13 @@
       <c r="D93">
         <v>10</v>
       </c>
-      <c r="E93" t="e">
+      <c r="E93">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C93&amp;"_"&amp;B93&amp;"_"&amp;D93&amp;"_"&amp;A93&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C93&amp;"_"&amp;B93&amp;"_"&amp;D93&amp;"_"&amp;A93&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F93" t="e">
+        <v>-730924.02649516624</v>
+      </c>
+      <c r="F93">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C93&amp;"_"&amp;B93&amp;"_"&amp;D93&amp;"_"&amp;A93&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C93&amp;"_"&amp;B93&amp;"_"&amp;D93&amp;"_"&amp;A93&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C93&amp;"_"&amp;B93&amp;"_"&amp;D93&amp;"_"&amp;A93&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C93&amp;"_"&amp;B93&amp;"_"&amp;D93&amp;"_"&amp;A93&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>39209.763780033019</v>
       </c>
       <c r="G93" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C93&amp;"_"&amp;B93&amp;"_"&amp;D93&amp;"_"&amp;A93&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C93&amp;"_"&amp;B93&amp;"_"&amp;D93&amp;"_"&amp;A93&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7894,29 +8119,29 @@
       <c r="D94">
         <v>10</v>
       </c>
-      <c r="E94" t="e">
+      <c r="E94">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F94" t="e">
+        <v>-708098.77254469949</v>
+      </c>
+      <c r="F94">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G94" t="e">
+        <v>40369.202032304427</v>
+      </c>
+      <c r="G94">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H94" t="e">
+        <v>-160261.29143339986</v>
+      </c>
+      <c r="H94">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I94" t="e">
+        <v>2259.0022422676998</v>
+      </c>
+      <c r="I94">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J94" t="e">
+        <v>-231300.0624746331</v>
+      </c>
+      <c r="J94">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>1228.8872873723976</v>
       </c>
       <c r="K94" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7956,13 +8181,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C95&amp;"_"&amp;B95&amp;"_"&amp;D95&amp;"_"&amp;A95&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C95&amp;"_"&amp;B95&amp;"_"&amp;D95&amp;"_"&amp;A95&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C95&amp;"_"&amp;B95&amp;"_"&amp;D95&amp;"_"&amp;A95&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C95&amp;"_"&amp;B95&amp;"_"&amp;D95&amp;"_"&amp;A95&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="G95" t="e">
+      <c r="G95">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C95&amp;"_"&amp;B95&amp;"_"&amp;D95&amp;"_"&amp;A95&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C95&amp;"_"&amp;B95&amp;"_"&amp;D95&amp;"_"&amp;A95&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H95" t="e">
+        <v>-159085.48196853319</v>
+      </c>
+      <c r="H95">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C95&amp;"_"&amp;B95&amp;"_"&amp;D95&amp;"_"&amp;A95&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C95&amp;"_"&amp;B95&amp;"_"&amp;D95&amp;"_"&amp;A95&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C95&amp;"_"&amp;B95&amp;"_"&amp;D95&amp;"_"&amp;A95&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C95&amp;"_"&amp;B95&amp;"_"&amp;D95&amp;"_"&amp;A95&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>9313.7958028251742</v>
       </c>
       <c r="I95" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C95&amp;"_"&amp;B95&amp;"_"&amp;D95&amp;"_"&amp;A95&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C95&amp;"_"&amp;B95&amp;"_"&amp;D95&amp;"_"&amp;A95&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -8002,13 +8227,13 @@
       <c r="D96">
         <v>10</v>
       </c>
-      <c r="E96" t="e">
+      <c r="E96">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C96&amp;"_"&amp;B96&amp;"_"&amp;D96&amp;"_"&amp;A96&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C96&amp;"_"&amp;B96&amp;"_"&amp;D96&amp;"_"&amp;A96&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F96" t="e">
+        <v>-730924.02649516624</v>
+      </c>
+      <c r="F96">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C96&amp;"_"&amp;B96&amp;"_"&amp;D96&amp;"_"&amp;A96&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C96&amp;"_"&amp;B96&amp;"_"&amp;D96&amp;"_"&amp;A96&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C96&amp;"_"&amp;B96&amp;"_"&amp;D96&amp;"_"&amp;A96&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C96&amp;"_"&amp;B96&amp;"_"&amp;D96&amp;"_"&amp;A96&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>39209.763780033019</v>
       </c>
       <c r="G96" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C96&amp;"_"&amp;B96&amp;"_"&amp;D96&amp;"_"&amp;A96&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C96&amp;"_"&amp;B96&amp;"_"&amp;D96&amp;"_"&amp;A96&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -8056,13 +8281,13 @@
       <c r="D97">
         <v>10</v>
       </c>
-      <c r="E97" t="e">
+      <c r="E97">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C97&amp;"_"&amp;B97&amp;"_"&amp;D97&amp;"_"&amp;A97&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C97&amp;"_"&amp;B97&amp;"_"&amp;D97&amp;"_"&amp;A97&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F97" t="e">
+        <v>-706549.62999373302</v>
+      </c>
+      <c r="F97">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C97&amp;"_"&amp;B97&amp;"_"&amp;D97&amp;"_"&amp;A97&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C97&amp;"_"&amp;B97&amp;"_"&amp;D97&amp;"_"&amp;A97&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C97&amp;"_"&amp;B97&amp;"_"&amp;D97&amp;"_"&amp;A97&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C97&amp;"_"&amp;B97&amp;"_"&amp;D97&amp;"_"&amp;A97&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>40189.103171348601</v>
       </c>
       <c r="G97" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C97&amp;"_"&amp;B97&amp;"_"&amp;D97&amp;"_"&amp;A97&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C97&amp;"_"&amp;B97&amp;"_"&amp;D97&amp;"_"&amp;A97&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -8072,13 +8297,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C97&amp;"_"&amp;B97&amp;"_"&amp;D97&amp;"_"&amp;A97&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C97&amp;"_"&amp;B97&amp;"_"&amp;D97&amp;"_"&amp;A97&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C97&amp;"_"&amp;B97&amp;"_"&amp;D97&amp;"_"&amp;A97&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C97&amp;"_"&amp;B97&amp;"_"&amp;D97&amp;"_"&amp;A97&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="I97" t="e">
+      <c r="I97">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C97&amp;"_"&amp;B97&amp;"_"&amp;D97&amp;"_"&amp;A97&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C97&amp;"_"&amp;B97&amp;"_"&amp;D97&amp;"_"&amp;A97&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J97" t="e">
+        <v>-230372.27729133313</v>
+      </c>
+      <c r="J97">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C97&amp;"_"&amp;B97&amp;"_"&amp;D97&amp;"_"&amp;A97&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C97&amp;"_"&amp;B97&amp;"_"&amp;D97&amp;"_"&amp;A97&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C97&amp;"_"&amp;B97&amp;"_"&amp;D97&amp;"_"&amp;A97&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C97&amp;"_"&amp;B97&amp;"_"&amp;D97&amp;"_"&amp;A97&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>1324.9714976911034</v>
       </c>
       <c r="K97" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C97&amp;"_"&amp;B97&amp;"_"&amp;D97&amp;"_"&amp;A97&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C97&amp;"_"&amp;B97&amp;"_"&amp;D97&amp;"_"&amp;A97&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -8110,13 +8335,13 @@
       <c r="D98">
         <v>10</v>
       </c>
-      <c r="E98" t="e">
+      <c r="E98">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C98&amp;"_"&amp;B98&amp;"_"&amp;D98&amp;"_"&amp;A98&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C98&amp;"_"&amp;B98&amp;"_"&amp;D98&amp;"_"&amp;A98&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F98" t="e">
+        <v>-732499.96061569988</v>
+      </c>
+      <c r="F98">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C98&amp;"_"&amp;B98&amp;"_"&amp;D98&amp;"_"&amp;A98&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C98&amp;"_"&amp;B98&amp;"_"&amp;D98&amp;"_"&amp;A98&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C98&amp;"_"&amp;B98&amp;"_"&amp;D98&amp;"_"&amp;A98&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C98&amp;"_"&amp;B98&amp;"_"&amp;D98&amp;"_"&amp;A98&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>40664.699340411731</v>
       </c>
       <c r="G98" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C98&amp;"_"&amp;B98&amp;"_"&amp;D98&amp;"_"&amp;A98&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C98&amp;"_"&amp;B98&amp;"_"&amp;D98&amp;"_"&amp;A98&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -8164,13 +8389,13 @@
       <c r="D99">
         <v>10</v>
       </c>
-      <c r="E99" t="e">
+      <c r="E99">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C99&amp;"_"&amp;B99&amp;"_"&amp;D99&amp;"_"&amp;A99&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C99&amp;"_"&amp;B99&amp;"_"&amp;D99&amp;"_"&amp;A99&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F99" t="e">
+        <v>-730924.02649516624</v>
+      </c>
+      <c r="F99">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C99&amp;"_"&amp;B99&amp;"_"&amp;D99&amp;"_"&amp;A99&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C99&amp;"_"&amp;B99&amp;"_"&amp;D99&amp;"_"&amp;A99&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C99&amp;"_"&amp;B99&amp;"_"&amp;D99&amp;"_"&amp;A99&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C99&amp;"_"&amp;B99&amp;"_"&amp;D99&amp;"_"&amp;A99&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>39209.763780033019</v>
       </c>
       <c r="G99" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C99&amp;"_"&amp;B99&amp;"_"&amp;D99&amp;"_"&amp;A99&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C99&amp;"_"&amp;B99&amp;"_"&amp;D99&amp;"_"&amp;A99&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -8272,13 +8497,13 @@
       <c r="D101">
         <v>15</v>
       </c>
-      <c r="E101" t="e">
+      <c r="E101">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C101&amp;"_"&amp;B101&amp;"_"&amp;D101&amp;"_"&amp;A101&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C101&amp;"_"&amp;B101&amp;"_"&amp;D101&amp;"_"&amp;A101&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F101" t="e">
+        <v>-807860.49984823295</v>
+      </c>
+      <c r="F101">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C101&amp;"_"&amp;B101&amp;"_"&amp;D101&amp;"_"&amp;A101&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C101&amp;"_"&amp;B101&amp;"_"&amp;D101&amp;"_"&amp;A101&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C101&amp;"_"&amp;B101&amp;"_"&amp;D101&amp;"_"&amp;A101&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C101&amp;"_"&amp;B101&amp;"_"&amp;D101&amp;"_"&amp;A101&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>52748.596064635123</v>
       </c>
       <c r="G101" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C101&amp;"_"&amp;B101&amp;"_"&amp;D101&amp;"_"&amp;A101&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C101&amp;"_"&amp;B101&amp;"_"&amp;D101&amp;"_"&amp;A101&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -8326,13 +8551,13 @@
       <c r="D102">
         <v>15</v>
       </c>
-      <c r="E102" t="e">
+      <c r="E102">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C102&amp;"_"&amp;B102&amp;"_"&amp;D102&amp;"_"&amp;A102&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C102&amp;"_"&amp;B102&amp;"_"&amp;D102&amp;"_"&amp;A102&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F102" t="e">
+        <v>-730924.02649516624</v>
+      </c>
+      <c r="F102">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C102&amp;"_"&amp;B102&amp;"_"&amp;D102&amp;"_"&amp;A102&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C102&amp;"_"&amp;B102&amp;"_"&amp;D102&amp;"_"&amp;A102&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C102&amp;"_"&amp;B102&amp;"_"&amp;D102&amp;"_"&amp;A102&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C102&amp;"_"&amp;B102&amp;"_"&amp;D102&amp;"_"&amp;A102&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>39209.763780033019</v>
       </c>
       <c r="G102" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C102&amp;"_"&amp;B102&amp;"_"&amp;D102&amp;"_"&amp;A102&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C102&amp;"_"&amp;B102&amp;"_"&amp;D102&amp;"_"&amp;A102&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -8380,13 +8605,13 @@
       <c r="D103">
         <v>15</v>
       </c>
-      <c r="E103" t="e">
+      <c r="E103">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C103&amp;"_"&amp;B103&amp;"_"&amp;D103&amp;"_"&amp;A103&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C103&amp;"_"&amp;B103&amp;"_"&amp;D103&amp;"_"&amp;A103&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F103" t="e">
+        <v>-707505.43711016641</v>
+      </c>
+      <c r="F103">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C103&amp;"_"&amp;B103&amp;"_"&amp;D103&amp;"_"&amp;A103&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C103&amp;"_"&amp;B103&amp;"_"&amp;D103&amp;"_"&amp;A103&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C103&amp;"_"&amp;B103&amp;"_"&amp;D103&amp;"_"&amp;A103&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C103&amp;"_"&amp;B103&amp;"_"&amp;D103&amp;"_"&amp;A103&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>39913.890441837088</v>
       </c>
       <c r="G103" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C103&amp;"_"&amp;B103&amp;"_"&amp;D103&amp;"_"&amp;A103&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C103&amp;"_"&amp;B103&amp;"_"&amp;D103&amp;"_"&amp;A103&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -8434,13 +8659,13 @@
       <c r="D104">
         <v>15</v>
       </c>
-      <c r="E104" t="e">
+      <c r="E104">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C104&amp;"_"&amp;B104&amp;"_"&amp;D104&amp;"_"&amp;A104&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C104&amp;"_"&amp;B104&amp;"_"&amp;D104&amp;"_"&amp;A104&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F104" t="e">
+        <v>-790026.68128093251</v>
+      </c>
+      <c r="F104">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C104&amp;"_"&amp;B104&amp;"_"&amp;D104&amp;"_"&amp;A104&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C104&amp;"_"&amp;B104&amp;"_"&amp;D104&amp;"_"&amp;A104&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C104&amp;"_"&amp;B104&amp;"_"&amp;D104&amp;"_"&amp;A104&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C104&amp;"_"&amp;B104&amp;"_"&amp;D104&amp;"_"&amp;A104&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>43928.294066663962</v>
       </c>
       <c r="G104" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C104&amp;"_"&amp;B104&amp;"_"&amp;D104&amp;"_"&amp;A104&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C104&amp;"_"&amp;B104&amp;"_"&amp;D104&amp;"_"&amp;A104&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -8488,13 +8713,13 @@
       <c r="D105">
         <v>15</v>
       </c>
-      <c r="E105" t="e">
+      <c r="E105">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C105&amp;"_"&amp;B105&amp;"_"&amp;D105&amp;"_"&amp;A105&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C105&amp;"_"&amp;B105&amp;"_"&amp;D105&amp;"_"&amp;A105&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F105" t="e">
+        <v>-730924.02649516624</v>
+      </c>
+      <c r="F105">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C105&amp;"_"&amp;B105&amp;"_"&amp;D105&amp;"_"&amp;A105&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C105&amp;"_"&amp;B105&amp;"_"&amp;D105&amp;"_"&amp;A105&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C105&amp;"_"&amp;B105&amp;"_"&amp;D105&amp;"_"&amp;A105&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C105&amp;"_"&amp;B105&amp;"_"&amp;D105&amp;"_"&amp;A105&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>39209.763780033019</v>
       </c>
       <c r="G105" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C105&amp;"_"&amp;B105&amp;"_"&amp;D105&amp;"_"&amp;A105&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C105&amp;"_"&amp;B105&amp;"_"&amp;D105&amp;"_"&amp;A105&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -8542,13 +8767,13 @@
       <c r="D106">
         <v>15</v>
       </c>
-      <c r="E106" t="e">
+      <c r="E106">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C106&amp;"_"&amp;B106&amp;"_"&amp;D106&amp;"_"&amp;A106&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C106&amp;"_"&amp;B106&amp;"_"&amp;D106&amp;"_"&amp;A106&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F106" t="e">
+        <v>-706827.69584709988</v>
+      </c>
+      <c r="F106">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C106&amp;"_"&amp;B106&amp;"_"&amp;D106&amp;"_"&amp;A106&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C106&amp;"_"&amp;B106&amp;"_"&amp;D106&amp;"_"&amp;A106&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C106&amp;"_"&amp;B106&amp;"_"&amp;D106&amp;"_"&amp;A106&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C106&amp;"_"&amp;B106&amp;"_"&amp;D106&amp;"_"&amp;A106&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>40226.864704484498</v>
       </c>
       <c r="G106" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C106&amp;"_"&amp;B106&amp;"_"&amp;D106&amp;"_"&amp;A106&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C106&amp;"_"&amp;B106&amp;"_"&amp;D106&amp;"_"&amp;A106&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -8596,13 +8821,13 @@
       <c r="D107">
         <v>15</v>
       </c>
-      <c r="E107" t="e">
+      <c r="E107">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C107&amp;"_"&amp;B107&amp;"_"&amp;D107&amp;"_"&amp;A107&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C107&amp;"_"&amp;B107&amp;"_"&amp;D107&amp;"_"&amp;A107&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F107" t="e">
+        <v>-739942.03326276643</v>
+      </c>
+      <c r="F107">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C107&amp;"_"&amp;B107&amp;"_"&amp;D107&amp;"_"&amp;A107&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C107&amp;"_"&amp;B107&amp;"_"&amp;D107&amp;"_"&amp;A107&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C107&amp;"_"&amp;B107&amp;"_"&amp;D107&amp;"_"&amp;A107&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C107&amp;"_"&amp;B107&amp;"_"&amp;D107&amp;"_"&amp;A107&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>39793.802778238052</v>
       </c>
       <c r="G107" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C107&amp;"_"&amp;B107&amp;"_"&amp;D107&amp;"_"&amp;A107&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C107&amp;"_"&amp;B107&amp;"_"&amp;D107&amp;"_"&amp;A107&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -8650,13 +8875,13 @@
       <c r="D108">
         <v>15</v>
       </c>
-      <c r="E108" t="e">
+      <c r="E108">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C108&amp;"_"&amp;B108&amp;"_"&amp;D108&amp;"_"&amp;A108&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C108&amp;"_"&amp;B108&amp;"_"&amp;D108&amp;"_"&amp;A108&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F108" t="e">
+        <v>-730924.02649516624</v>
+      </c>
+      <c r="F108">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C108&amp;"_"&amp;B108&amp;"_"&amp;D108&amp;"_"&amp;A108&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C108&amp;"_"&amp;B108&amp;"_"&amp;D108&amp;"_"&amp;A108&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C108&amp;"_"&amp;B108&amp;"_"&amp;D108&amp;"_"&amp;A108&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C108&amp;"_"&amp;B108&amp;"_"&amp;D108&amp;"_"&amp;A108&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>39209.763780033019</v>
       </c>
       <c r="G108" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C108&amp;"_"&amp;B108&amp;"_"&amp;D108&amp;"_"&amp;A108&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C108&amp;"_"&amp;B108&amp;"_"&amp;D108&amp;"_"&amp;A108&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -8704,13 +8929,13 @@
       <c r="D109">
         <v>15</v>
       </c>
-      <c r="E109" t="e">
+      <c r="E109">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C109&amp;"_"&amp;B109&amp;"_"&amp;D109&amp;"_"&amp;A109&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C109&amp;"_"&amp;B109&amp;"_"&amp;D109&amp;"_"&amp;A109&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F109" t="e">
+        <v>-707188.78812913294</v>
+      </c>
+      <c r="F109">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C109&amp;"_"&amp;B109&amp;"_"&amp;D109&amp;"_"&amp;A109&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C109&amp;"_"&amp;B109&amp;"_"&amp;D109&amp;"_"&amp;A109&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C109&amp;"_"&amp;B109&amp;"_"&amp;D109&amp;"_"&amp;A109&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C109&amp;"_"&amp;B109&amp;"_"&amp;D109&amp;"_"&amp;A109&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>40485.049910290261</v>
       </c>
       <c r="G109" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C109&amp;"_"&amp;B109&amp;"_"&amp;D109&amp;"_"&amp;A109&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C109&amp;"_"&amp;B109&amp;"_"&amp;D109&amp;"_"&amp;A109&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -8758,13 +8983,13 @@
       <c r="D110">
         <v>15</v>
       </c>
-      <c r="E110" t="e">
+      <c r="E110">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C110&amp;"_"&amp;B110&amp;"_"&amp;D110&amp;"_"&amp;A110&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C110&amp;"_"&amp;B110&amp;"_"&amp;D110&amp;"_"&amp;A110&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F110" t="e">
+        <v>-733059.41159813304</v>
+      </c>
+      <c r="F110">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C110&amp;"_"&amp;B110&amp;"_"&amp;D110&amp;"_"&amp;A110&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C110&amp;"_"&amp;B110&amp;"_"&amp;D110&amp;"_"&amp;A110&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C110&amp;"_"&amp;B110&amp;"_"&amp;D110&amp;"_"&amp;A110&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C110&amp;"_"&amp;B110&amp;"_"&amp;D110&amp;"_"&amp;A110&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>40115.200783175605</v>
       </c>
       <c r="G110" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C110&amp;"_"&amp;B110&amp;"_"&amp;D110&amp;"_"&amp;A110&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C110&amp;"_"&amp;B110&amp;"_"&amp;D110&amp;"_"&amp;A110&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -8812,13 +9037,13 @@
       <c r="D111">
         <v>15</v>
       </c>
-      <c r="E111" t="e">
+      <c r="E111">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C111&amp;"_"&amp;B111&amp;"_"&amp;D111&amp;"_"&amp;A111&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C111&amp;"_"&amp;B111&amp;"_"&amp;D111&amp;"_"&amp;A111&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F111" t="e">
+        <v>-730924.02649516624</v>
+      </c>
+      <c r="F111">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C111&amp;"_"&amp;B111&amp;"_"&amp;D111&amp;"_"&amp;A111&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C111&amp;"_"&amp;B111&amp;"_"&amp;D111&amp;"_"&amp;A111&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C111&amp;"_"&amp;B111&amp;"_"&amp;D111&amp;"_"&amp;A111&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C111&amp;"_"&amp;B111&amp;"_"&amp;D111&amp;"_"&amp;A111&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>39209.763780033019</v>
       </c>
       <c r="G111" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C111&amp;"_"&amp;B111&amp;"_"&amp;D111&amp;"_"&amp;A111&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C111&amp;"_"&amp;B111&amp;"_"&amp;D111&amp;"_"&amp;A111&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -9514,37 +9739,37 @@
       <c r="D125">
         <v>5</v>
       </c>
-      <c r="E125" t="e">
+      <c r="E125">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F125" t="e">
+        <v>-713944.47918773326</v>
+      </c>
+      <c r="F125">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G125" t="e">
+        <v>39614.889483749255</v>
+      </c>
+      <c r="G125">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H125" t="e">
+        <v>-156074.76198839993</v>
+      </c>
+      <c r="H125">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I125" t="e">
+        <v>1703.0393830940125</v>
+      </c>
+      <c r="I125">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J125" t="e">
+        <v>-232054.48974343317</v>
+      </c>
+      <c r="J125">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K125" t="e">
+        <v>1607.4480014685298</v>
+      </c>
+      <c r="K125">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L125" t="e">
+        <v>-319270.8396045331</v>
+      </c>
+      <c r="L125">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>21931.57508665475</v>
       </c>
       <c r="M125" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -9568,29 +9793,29 @@
       <c r="D126">
         <v>5</v>
       </c>
-      <c r="E126" t="e">
+      <c r="E126">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F126" t="e">
+        <v>-752521.93103133305</v>
+      </c>
+      <c r="F126">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G126" t="e">
+        <v>40533.687895286581</v>
+      </c>
+      <c r="G126">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H126" t="e">
+        <v>-171609.2596825998</v>
+      </c>
+      <c r="H126">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I126" t="e">
+        <v>3619.9193891680047</v>
+      </c>
+      <c r="I126">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J126" t="e">
+        <v>-361806.71113403304</v>
+      </c>
+      <c r="J126">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>27225.509558386151</v>
       </c>
       <c r="K126" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -9676,37 +9901,37 @@
       <c r="D128">
         <v>5</v>
       </c>
-      <c r="E128" t="e">
+      <c r="E128">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F128" t="e">
+        <v>-714595.82531023282</v>
+      </c>
+      <c r="F128">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G128" t="e">
+        <v>39485.986872775167</v>
+      </c>
+      <c r="G128">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H128" t="e">
+        <v>-154721.32635806667</v>
+      </c>
+      <c r="H128">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I128" t="e">
+        <v>1085.546584317977</v>
+      </c>
+      <c r="I128">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J128" t="e">
+        <v>-232299.34782523316</v>
+      </c>
+      <c r="J128">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K128" t="e">
+        <v>1581.0771363359722</v>
+      </c>
+      <c r="K128">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L128" t="e">
+        <v>-305314.83855319978</v>
+      </c>
+      <c r="L128">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>1481.5761569767599</v>
       </c>
       <c r="M128" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -9738,21 +9963,21 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C129&amp;"_"&amp;B129&amp;"_"&amp;D129&amp;"_"&amp;A129&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C129&amp;"_"&amp;B129&amp;"_"&amp;D129&amp;"_"&amp;A129&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C129&amp;"_"&amp;B129&amp;"_"&amp;D129&amp;"_"&amp;A129&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C129&amp;"_"&amp;B129&amp;"_"&amp;D129&amp;"_"&amp;A129&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="G129" t="e">
+      <c r="G129">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C129&amp;"_"&amp;B129&amp;"_"&amp;D129&amp;"_"&amp;A129&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C129&amp;"_"&amp;B129&amp;"_"&amp;D129&amp;"_"&amp;A129&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H129" t="e">
+        <v>-174013.68153209984</v>
+      </c>
+      <c r="H129">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C129&amp;"_"&amp;B129&amp;"_"&amp;D129&amp;"_"&amp;A129&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C129&amp;"_"&amp;B129&amp;"_"&amp;D129&amp;"_"&amp;A129&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C129&amp;"_"&amp;B129&amp;"_"&amp;D129&amp;"_"&amp;A129&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C129&amp;"_"&amp;B129&amp;"_"&amp;D129&amp;"_"&amp;A129&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I129" t="e">
+        <v>4197.2816335529096</v>
+      </c>
+      <c r="I129">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C129&amp;"_"&amp;B129&amp;"_"&amp;D129&amp;"_"&amp;A129&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C129&amp;"_"&amp;B129&amp;"_"&amp;D129&amp;"_"&amp;A129&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J129" t="e">
+        <v>-254656.97350683311</v>
+      </c>
+      <c r="J129">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C129&amp;"_"&amp;B129&amp;"_"&amp;D129&amp;"_"&amp;A129&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C129&amp;"_"&amp;B129&amp;"_"&amp;D129&amp;"_"&amp;A129&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C129&amp;"_"&amp;B129&amp;"_"&amp;D129&amp;"_"&amp;A129&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C129&amp;"_"&amp;B129&amp;"_"&amp;D129&amp;"_"&amp;A129&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>3946.8852257948747</v>
       </c>
       <c r="K129" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C129&amp;"_"&amp;B129&amp;"_"&amp;D129&amp;"_"&amp;A129&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C129&amp;"_"&amp;B129&amp;"_"&amp;D129&amp;"_"&amp;A129&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -9784,13 +10009,13 @@
       <c r="D130">
         <v>5</v>
       </c>
-      <c r="E130" t="e">
+      <c r="E130">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C130&amp;"_"&amp;B130&amp;"_"&amp;D130&amp;"_"&amp;A130&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C130&amp;"_"&amp;B130&amp;"_"&amp;D130&amp;"_"&amp;A130&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F130" t="e">
+        <v>-773556.11898486607</v>
+      </c>
+      <c r="F130">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C130&amp;"_"&amp;B130&amp;"_"&amp;D130&amp;"_"&amp;A130&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C130&amp;"_"&amp;B130&amp;"_"&amp;D130&amp;"_"&amp;A130&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C130&amp;"_"&amp;B130&amp;"_"&amp;D130&amp;"_"&amp;A130&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C130&amp;"_"&amp;B130&amp;"_"&amp;D130&amp;"_"&amp;A130&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>48792.92047250054</v>
       </c>
       <c r="G130" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C130&amp;"_"&amp;B130&amp;"_"&amp;D130&amp;"_"&amp;A130&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C130&amp;"_"&amp;B130&amp;"_"&amp;D130&amp;"_"&amp;A130&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -9838,29 +10063,29 @@
       <c r="D131">
         <v>5</v>
       </c>
-      <c r="E131" t="e">
+      <c r="E131">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F131" t="e">
+        <v>-715213.57556976634</v>
+      </c>
+      <c r="F131">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G131" t="e">
+        <v>39550.200888157655</v>
+      </c>
+      <c r="G131">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H131" t="e">
+        <v>-156118.92606416642</v>
+      </c>
+      <c r="H131">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I131" t="e">
+        <v>1395.0541373879839</v>
+      </c>
+      <c r="I131">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J131" t="e">
+        <v>-232173.58360686651</v>
+      </c>
+      <c r="J131">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>1678.3398914961697</v>
       </c>
       <c r="K131" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -9870,13 +10095,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="M131" t="e">
+      <c r="M131">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N131" t="e">
+        <v>-385520.4935253333</v>
+      </c>
+      <c r="N131">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>6491.5669504263406</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -9908,13 +10133,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C132&amp;"_"&amp;B132&amp;"_"&amp;D132&amp;"_"&amp;A132&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C132&amp;"_"&amp;B132&amp;"_"&amp;D132&amp;"_"&amp;A132&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C132&amp;"_"&amp;B132&amp;"_"&amp;D132&amp;"_"&amp;A132&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C132&amp;"_"&amp;B132&amp;"_"&amp;D132&amp;"_"&amp;A132&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="I132" t="e">
+      <c r="I132">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C132&amp;"_"&amp;B132&amp;"_"&amp;D132&amp;"_"&amp;A132&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C132&amp;"_"&amp;B132&amp;"_"&amp;D132&amp;"_"&amp;A132&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J132" t="e">
+        <v>-263155.86540399987</v>
+      </c>
+      <c r="J132">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C132&amp;"_"&amp;B132&amp;"_"&amp;D132&amp;"_"&amp;A132&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C132&amp;"_"&amp;B132&amp;"_"&amp;D132&amp;"_"&amp;A132&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C132&amp;"_"&amp;B132&amp;"_"&amp;D132&amp;"_"&amp;A132&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C132&amp;"_"&amp;B132&amp;"_"&amp;D132&amp;"_"&amp;A132&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>5827.026014495581</v>
       </c>
       <c r="K132" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C132&amp;"_"&amp;B132&amp;"_"&amp;D132&amp;"_"&amp;A132&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C132&amp;"_"&amp;B132&amp;"_"&amp;D132&amp;"_"&amp;A132&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -9946,13 +10171,13 @@
       <c r="D133">
         <v>5</v>
       </c>
-      <c r="E133" t="e">
+      <c r="E133">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C133&amp;"_"&amp;B133&amp;"_"&amp;D133&amp;"_"&amp;A133&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C133&amp;"_"&amp;B133&amp;"_"&amp;D133&amp;"_"&amp;A133&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F133" t="e">
+        <v>-837084.29739576601</v>
+      </c>
+      <c r="F133">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C133&amp;"_"&amp;B133&amp;"_"&amp;D133&amp;"_"&amp;A133&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C133&amp;"_"&amp;B133&amp;"_"&amp;D133&amp;"_"&amp;A133&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C133&amp;"_"&amp;B133&amp;"_"&amp;D133&amp;"_"&amp;A133&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C133&amp;"_"&amp;B133&amp;"_"&amp;D133&amp;"_"&amp;A133&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>54107.183301082492</v>
       </c>
       <c r="G133" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C133&amp;"_"&amp;B133&amp;"_"&amp;D133&amp;"_"&amp;A133&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C133&amp;"_"&amp;B133&amp;"_"&amp;D133&amp;"_"&amp;A133&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10000,13 +10225,13 @@
       <c r="D134">
         <v>5</v>
       </c>
-      <c r="E134" t="e">
+      <c r="E134">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F134" t="e">
+        <v>-714376.77399009967</v>
+      </c>
+      <c r="F134">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>40619.408553817993</v>
       </c>
       <c r="G134" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10016,13 +10241,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="I134" t="e">
+      <c r="I134">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J134" t="e">
+        <v>-231875.1708684332</v>
+      </c>
+      <c r="J134">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>1679.3155677335126</v>
       </c>
       <c r="K134" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10054,13 +10279,13 @@
       <c r="D135">
         <v>5</v>
       </c>
-      <c r="E135" t="e">
+      <c r="E135">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F135" t="e">
+        <v>-743403.19166289992</v>
+      </c>
+      <c r="F135">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>40471.010743909166</v>
       </c>
       <c r="G135" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10070,13 +10295,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="I135" t="e">
+      <c r="I135">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J135" t="e">
+        <v>-260734.40222013328</v>
+      </c>
+      <c r="J135">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>4775.8070975939499</v>
       </c>
       <c r="K135" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10108,13 +10333,13 @@
       <c r="D136">
         <v>5</v>
       </c>
-      <c r="E136" t="e">
+      <c r="E136">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C136&amp;"_"&amp;B136&amp;"_"&amp;D136&amp;"_"&amp;A136&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C136&amp;"_"&amp;B136&amp;"_"&amp;D136&amp;"_"&amp;A136&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F136" t="e">
+        <v>-826315.28215753217</v>
+      </c>
+      <c r="F136">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C136&amp;"_"&amp;B136&amp;"_"&amp;D136&amp;"_"&amp;A136&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C136&amp;"_"&amp;B136&amp;"_"&amp;D136&amp;"_"&amp;A136&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C136&amp;"_"&amp;B136&amp;"_"&amp;D136&amp;"_"&amp;A136&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C136&amp;"_"&amp;B136&amp;"_"&amp;D136&amp;"_"&amp;A136&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>51876.741761108191</v>
       </c>
       <c r="G136" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C136&amp;"_"&amp;B136&amp;"_"&amp;D136&amp;"_"&amp;A136&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C136&amp;"_"&amp;B136&amp;"_"&amp;D136&amp;"_"&amp;A136&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10162,37 +10387,37 @@
       <c r="D137">
         <v>10</v>
       </c>
-      <c r="E137" t="e">
+      <c r="E137">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F137" t="e">
+        <v>-715593.3978017664</v>
+      </c>
+      <c r="F137">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G137" t="e">
+        <v>39511.848051185632</v>
+      </c>
+      <c r="G137">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H137" t="e">
+        <v>-155552.82000676662</v>
+      </c>
+      <c r="H137">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I137" t="e">
+        <v>1490.3978125518413</v>
+      </c>
+      <c r="I137">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J137" t="e">
+        <v>-231879.28245706638</v>
+      </c>
+      <c r="J137">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K137" t="e">
+        <v>1628.469186788496</v>
+      </c>
+      <c r="K137">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L137" t="e">
+        <v>-313339.24903753313</v>
+      </c>
+      <c r="L137">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>17405.435877625139</v>
       </c>
       <c r="M137" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10224,13 +10449,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C138&amp;"_"&amp;B138&amp;"_"&amp;D138&amp;"_"&amp;A138&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C138&amp;"_"&amp;B138&amp;"_"&amp;D138&amp;"_"&amp;A138&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C138&amp;"_"&amp;B138&amp;"_"&amp;D138&amp;"_"&amp;A138&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C138&amp;"_"&amp;B138&amp;"_"&amp;D138&amp;"_"&amp;A138&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="G138" t="e">
+      <c r="G138">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C138&amp;"_"&amp;B138&amp;"_"&amp;D138&amp;"_"&amp;A138&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C138&amp;"_"&amp;B138&amp;"_"&amp;D138&amp;"_"&amp;A138&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H138" t="e">
+        <v>-192150.02361796648</v>
+      </c>
+      <c r="H138">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C138&amp;"_"&amp;B138&amp;"_"&amp;D138&amp;"_"&amp;A138&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C138&amp;"_"&amp;B138&amp;"_"&amp;D138&amp;"_"&amp;A138&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C138&amp;"_"&amp;B138&amp;"_"&amp;D138&amp;"_"&amp;A138&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C138&amp;"_"&amp;B138&amp;"_"&amp;D138&amp;"_"&amp;A138&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>11353.181699380386</v>
       </c>
       <c r="I138" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C138&amp;"_"&amp;B138&amp;"_"&amp;D138&amp;"_"&amp;A138&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C138&amp;"_"&amp;B138&amp;"_"&amp;D138&amp;"_"&amp;A138&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10270,13 +10495,13 @@
       <c r="D139">
         <v>10</v>
       </c>
-      <c r="E139" t="e">
+      <c r="E139">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C139&amp;"_"&amp;B139&amp;"_"&amp;D139&amp;"_"&amp;A139&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C139&amp;"_"&amp;B139&amp;"_"&amp;D139&amp;"_"&amp;A139&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F139" t="e">
+        <v>-732188.39324366627</v>
+      </c>
+      <c r="F139">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C139&amp;"_"&amp;B139&amp;"_"&amp;D139&amp;"_"&amp;A139&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C139&amp;"_"&amp;B139&amp;"_"&amp;D139&amp;"_"&amp;A139&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C139&amp;"_"&amp;B139&amp;"_"&amp;D139&amp;"_"&amp;A139&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C139&amp;"_"&amp;B139&amp;"_"&amp;D139&amp;"_"&amp;A139&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>39788.119017081597</v>
       </c>
       <c r="G139" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C139&amp;"_"&amp;B139&amp;"_"&amp;D139&amp;"_"&amp;A139&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C139&amp;"_"&amp;B139&amp;"_"&amp;D139&amp;"_"&amp;A139&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10324,37 +10549,37 @@
       <c r="D140">
         <v>10</v>
       </c>
-      <c r="E140" t="e">
+      <c r="E140">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F140" t="e">
+        <v>-713035.113067133</v>
+      </c>
+      <c r="F140">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G140" t="e">
+        <v>40414.684129262867</v>
+      </c>
+      <c r="G140">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H140" t="e">
+        <v>-155327.89006226652</v>
+      </c>
+      <c r="H140">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I140" t="e">
+        <v>1544.6049178201899</v>
+      </c>
+      <c r="I140">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J140" t="e">
+        <v>-231107.5087570998</v>
+      </c>
+      <c r="J140">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K140" t="e">
+        <v>1551.4989419702224</v>
+      </c>
+      <c r="K140">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L140" t="e">
+        <v>-304924.71780873288</v>
+      </c>
+      <c r="L140">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>1450.4726333497763</v>
       </c>
       <c r="M140" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10386,13 +10611,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C141&amp;"_"&amp;B141&amp;"_"&amp;D141&amp;"_"&amp;A141&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C141&amp;"_"&amp;B141&amp;"_"&amp;D141&amp;"_"&amp;A141&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C141&amp;"_"&amp;B141&amp;"_"&amp;D141&amp;"_"&amp;A141&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C141&amp;"_"&amp;B141&amp;"_"&amp;D141&amp;"_"&amp;A141&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="G141" t="e">
+      <c r="G141">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C141&amp;"_"&amp;B141&amp;"_"&amp;D141&amp;"_"&amp;A141&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C141&amp;"_"&amp;B141&amp;"_"&amp;D141&amp;"_"&amp;A141&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H141" t="e">
+        <v>-173225.04977359984</v>
+      </c>
+      <c r="H141">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C141&amp;"_"&amp;B141&amp;"_"&amp;D141&amp;"_"&amp;A141&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C141&amp;"_"&amp;B141&amp;"_"&amp;D141&amp;"_"&amp;A141&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C141&amp;"_"&amp;B141&amp;"_"&amp;D141&amp;"_"&amp;A141&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C141&amp;"_"&amp;B141&amp;"_"&amp;D141&amp;"_"&amp;A141&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>4013.4774223900235</v>
       </c>
       <c r="I141" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C141&amp;"_"&amp;B141&amp;"_"&amp;D141&amp;"_"&amp;A141&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C141&amp;"_"&amp;B141&amp;"_"&amp;D141&amp;"_"&amp;A141&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10432,13 +10657,13 @@
       <c r="D142">
         <v>10</v>
       </c>
-      <c r="E142" t="e">
+      <c r="E142">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C142&amp;"_"&amp;B142&amp;"_"&amp;D142&amp;"_"&amp;A142&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C142&amp;"_"&amp;B142&amp;"_"&amp;D142&amp;"_"&amp;A142&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F142" t="e">
+        <v>-732753.45328009943</v>
+      </c>
+      <c r="F142">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C142&amp;"_"&amp;B142&amp;"_"&amp;D142&amp;"_"&amp;A142&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C142&amp;"_"&amp;B142&amp;"_"&amp;D142&amp;"_"&amp;A142&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C142&amp;"_"&amp;B142&amp;"_"&amp;D142&amp;"_"&amp;A142&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C142&amp;"_"&amp;B142&amp;"_"&amp;D142&amp;"_"&amp;A142&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>39281.195102493504</v>
       </c>
       <c r="G142" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C142&amp;"_"&amp;B142&amp;"_"&amp;D142&amp;"_"&amp;A142&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C142&amp;"_"&amp;B142&amp;"_"&amp;D142&amp;"_"&amp;A142&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10486,29 +10711,29 @@
       <c r="D143">
         <v>10</v>
       </c>
-      <c r="E143" t="e">
+      <c r="E143">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F143" t="e">
+        <v>-716349.76971509994</v>
+      </c>
+      <c r="F143">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G143" t="e">
+        <v>40175.815756743534</v>
+      </c>
+      <c r="G143">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H143" t="e">
+        <v>-154479.67325916651</v>
+      </c>
+      <c r="H143">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I143" t="e">
+        <v>1011.4446417538953</v>
+      </c>
+      <c r="I143">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J143" t="e">
+        <v>-232425.92453119979</v>
+      </c>
+      <c r="J143">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>1657.8964596480491</v>
       </c>
       <c r="K143" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10548,13 +10773,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C144&amp;"_"&amp;B144&amp;"_"&amp;D144&amp;"_"&amp;A144&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C144&amp;"_"&amp;B144&amp;"_"&amp;D144&amp;"_"&amp;A144&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C144&amp;"_"&amp;B144&amp;"_"&amp;D144&amp;"_"&amp;A144&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C144&amp;"_"&amp;B144&amp;"_"&amp;D144&amp;"_"&amp;A144&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="G144" t="e">
+      <c r="G144">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C144&amp;"_"&amp;B144&amp;"_"&amp;D144&amp;"_"&amp;A144&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C144&amp;"_"&amp;B144&amp;"_"&amp;D144&amp;"_"&amp;A144&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H144" t="e">
+        <v>-176863.02179986643</v>
+      </c>
+      <c r="H144">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C144&amp;"_"&amp;B144&amp;"_"&amp;D144&amp;"_"&amp;A144&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C144&amp;"_"&amp;B144&amp;"_"&amp;D144&amp;"_"&amp;A144&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C144&amp;"_"&amp;B144&amp;"_"&amp;D144&amp;"_"&amp;A144&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C144&amp;"_"&amp;B144&amp;"_"&amp;D144&amp;"_"&amp;A144&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>4373.0269164152496</v>
       </c>
       <c r="I144" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C144&amp;"_"&amp;B144&amp;"_"&amp;D144&amp;"_"&amp;A144&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C144&amp;"_"&amp;B144&amp;"_"&amp;D144&amp;"_"&amp;A144&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10594,13 +10819,13 @@
       <c r="D145">
         <v>10</v>
       </c>
-      <c r="E145" t="e">
+      <c r="E145">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C145&amp;"_"&amp;B145&amp;"_"&amp;D145&amp;"_"&amp;A145&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C145&amp;"_"&amp;B145&amp;"_"&amp;D145&amp;"_"&amp;A145&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F145" t="e">
+        <v>-739040.60820436629</v>
+      </c>
+      <c r="F145">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C145&amp;"_"&amp;B145&amp;"_"&amp;D145&amp;"_"&amp;A145&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C145&amp;"_"&amp;B145&amp;"_"&amp;D145&amp;"_"&amp;A145&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C145&amp;"_"&amp;B145&amp;"_"&amp;D145&amp;"_"&amp;A145&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C145&amp;"_"&amp;B145&amp;"_"&amp;D145&amp;"_"&amp;A145&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>39724.370474167001</v>
       </c>
       <c r="G145" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C145&amp;"_"&amp;B145&amp;"_"&amp;D145&amp;"_"&amp;A145&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C145&amp;"_"&amp;B145&amp;"_"&amp;D145&amp;"_"&amp;A145&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10648,13 +10873,13 @@
       <c r="D146">
         <v>10</v>
       </c>
-      <c r="E146" t="e">
+      <c r="E146">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C146&amp;"_"&amp;B146&amp;"_"&amp;D146&amp;"_"&amp;A146&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C146&amp;"_"&amp;B146&amp;"_"&amp;D146&amp;"_"&amp;A146&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F146" t="e">
+        <v>-715325.8811065997</v>
+      </c>
+      <c r="F146">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C146&amp;"_"&amp;B146&amp;"_"&amp;D146&amp;"_"&amp;A146&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C146&amp;"_"&amp;B146&amp;"_"&amp;D146&amp;"_"&amp;A146&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C146&amp;"_"&amp;B146&amp;"_"&amp;D146&amp;"_"&amp;A146&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C146&amp;"_"&amp;B146&amp;"_"&amp;D146&amp;"_"&amp;A146&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>39634.451264737043</v>
       </c>
       <c r="G146" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C146&amp;"_"&amp;B146&amp;"_"&amp;D146&amp;"_"&amp;A146&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C146&amp;"_"&amp;B146&amp;"_"&amp;D146&amp;"_"&amp;A146&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10664,13 +10889,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C146&amp;"_"&amp;B146&amp;"_"&amp;D146&amp;"_"&amp;A146&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C146&amp;"_"&amp;B146&amp;"_"&amp;D146&amp;"_"&amp;A146&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C146&amp;"_"&amp;B146&amp;"_"&amp;D146&amp;"_"&amp;A146&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C146&amp;"_"&amp;B146&amp;"_"&amp;D146&amp;"_"&amp;A146&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="I146" t="e">
+      <c r="I146">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C146&amp;"_"&amp;B146&amp;"_"&amp;D146&amp;"_"&amp;A146&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C146&amp;"_"&amp;B146&amp;"_"&amp;D146&amp;"_"&amp;A146&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J146" t="e">
+        <v>-231624.96902769987</v>
+      </c>
+      <c r="J146">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C146&amp;"_"&amp;B146&amp;"_"&amp;D146&amp;"_"&amp;A146&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C146&amp;"_"&amp;B146&amp;"_"&amp;D146&amp;"_"&amp;A146&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C146&amp;"_"&amp;B146&amp;"_"&amp;D146&amp;"_"&amp;A146&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C146&amp;"_"&amp;B146&amp;"_"&amp;D146&amp;"_"&amp;A146&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>1440.5335030242766</v>
       </c>
       <c r="K146" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C146&amp;"_"&amp;B146&amp;"_"&amp;D146&amp;"_"&amp;A146&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C146&amp;"_"&amp;B146&amp;"_"&amp;D146&amp;"_"&amp;A146&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10972,13 +11197,13 @@
       <c r="D152">
         <v>15</v>
       </c>
-      <c r="E152" t="e">
+      <c r="E152">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C152&amp;"_"&amp;B152&amp;"_"&amp;D152&amp;"_"&amp;A152&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C152&amp;"_"&amp;B152&amp;"_"&amp;D152&amp;"_"&amp;A152&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F152" t="e">
+        <v>-716188.77303919976</v>
+      </c>
+      <c r="F152">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C152&amp;"_"&amp;B152&amp;"_"&amp;D152&amp;"_"&amp;A152&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C152&amp;"_"&amp;B152&amp;"_"&amp;D152&amp;"_"&amp;A152&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C152&amp;"_"&amp;B152&amp;"_"&amp;D152&amp;"_"&amp;A152&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C152&amp;"_"&amp;B152&amp;"_"&amp;D152&amp;"_"&amp;A152&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>39582.194171625961</v>
       </c>
       <c r="G152" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C152&amp;"_"&amp;B152&amp;"_"&amp;D152&amp;"_"&amp;A152&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C152&amp;"_"&amp;B152&amp;"_"&amp;D152&amp;"_"&amp;A152&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -11080,13 +11305,13 @@
       <c r="D154">
         <v>15</v>
       </c>
-      <c r="E154" t="e">
+      <c r="E154">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C154&amp;"_"&amp;B154&amp;"_"&amp;D154&amp;"_"&amp;A154&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C154&amp;"_"&amp;B154&amp;"_"&amp;D154&amp;"_"&amp;A154&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F154" t="e">
+        <v>-730924.02649516624</v>
+      </c>
+      <c r="F154">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C154&amp;"_"&amp;B154&amp;"_"&amp;D154&amp;"_"&amp;A154&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C154&amp;"_"&amp;B154&amp;"_"&amp;D154&amp;"_"&amp;A154&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C154&amp;"_"&amp;B154&amp;"_"&amp;D154&amp;"_"&amp;A154&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C154&amp;"_"&amp;B154&amp;"_"&amp;D154&amp;"_"&amp;A154&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>39209.763780033019</v>
       </c>
       <c r="G154" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C154&amp;"_"&amp;B154&amp;"_"&amp;D154&amp;"_"&amp;A154&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C154&amp;"_"&amp;B154&amp;"_"&amp;D154&amp;"_"&amp;A154&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -11134,13 +11359,13 @@
       <c r="D155">
         <v>15</v>
       </c>
-      <c r="E155" t="e">
+      <c r="E155">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C155&amp;"_"&amp;B155&amp;"_"&amp;D155&amp;"_"&amp;A155&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C155&amp;"_"&amp;B155&amp;"_"&amp;D155&amp;"_"&amp;A155&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F155" t="e">
+        <v>-715900.29055189982</v>
+      </c>
+      <c r="F155">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C155&amp;"_"&amp;B155&amp;"_"&amp;D155&amp;"_"&amp;A155&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C155&amp;"_"&amp;B155&amp;"_"&amp;D155&amp;"_"&amp;A155&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C155&amp;"_"&amp;B155&amp;"_"&amp;D155&amp;"_"&amp;A155&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C155&amp;"_"&amp;B155&amp;"_"&amp;D155&amp;"_"&amp;A155&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>38289.92521914895</v>
       </c>
       <c r="G155" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C155&amp;"_"&amp;B155&amp;"_"&amp;D155&amp;"_"&amp;A155&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C155&amp;"_"&amp;B155&amp;"_"&amp;D155&amp;"_"&amp;A155&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -11188,13 +11413,13 @@
       <c r="D156">
         <v>15</v>
       </c>
-      <c r="E156" t="e">
+      <c r="E156">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C156&amp;"_"&amp;B156&amp;"_"&amp;D156&amp;"_"&amp;A156&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C156&amp;"_"&amp;B156&amp;"_"&amp;D156&amp;"_"&amp;A156&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F156" t="e">
+        <v>-781973.40183826652</v>
+      </c>
+      <c r="F156">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C156&amp;"_"&amp;B156&amp;"_"&amp;D156&amp;"_"&amp;A156&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C156&amp;"_"&amp;B156&amp;"_"&amp;D156&amp;"_"&amp;A156&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C156&amp;"_"&amp;B156&amp;"_"&amp;D156&amp;"_"&amp;A156&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C156&amp;"_"&amp;B156&amp;"_"&amp;D156&amp;"_"&amp;A156&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>44599.552743276377</v>
       </c>
       <c r="G156" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C156&amp;"_"&amp;B156&amp;"_"&amp;D156&amp;"_"&amp;A156&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C156&amp;"_"&amp;B156&amp;"_"&amp;D156&amp;"_"&amp;A156&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -11242,13 +11467,13 @@
       <c r="D157">
         <v>15</v>
       </c>
-      <c r="E157" t="e">
+      <c r="E157">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C157&amp;"_"&amp;B157&amp;"_"&amp;D157&amp;"_"&amp;A157&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C157&amp;"_"&amp;B157&amp;"_"&amp;D157&amp;"_"&amp;A157&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F157" t="e">
+        <v>-730924.02649516624</v>
+      </c>
+      <c r="F157">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C157&amp;"_"&amp;B157&amp;"_"&amp;D157&amp;"_"&amp;A157&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C157&amp;"_"&amp;B157&amp;"_"&amp;D157&amp;"_"&amp;A157&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C157&amp;"_"&amp;B157&amp;"_"&amp;D157&amp;"_"&amp;A157&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C157&amp;"_"&amp;B157&amp;"_"&amp;D157&amp;"_"&amp;A157&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>39209.763780033019</v>
       </c>
       <c r="G157" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C157&amp;"_"&amp;B157&amp;"_"&amp;D157&amp;"_"&amp;A157&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C157&amp;"_"&amp;B157&amp;"_"&amp;D157&amp;"_"&amp;A157&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -11296,13 +11521,13 @@
       <c r="D158">
         <v>15</v>
       </c>
-      <c r="E158" t="e">
+      <c r="E158">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C158&amp;"_"&amp;B158&amp;"_"&amp;D158&amp;"_"&amp;A158&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C158&amp;"_"&amp;B158&amp;"_"&amp;D158&amp;"_"&amp;A158&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F158" t="e">
+        <v>-716209.02677286649</v>
+      </c>
+      <c r="F158">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C158&amp;"_"&amp;B158&amp;"_"&amp;D158&amp;"_"&amp;A158&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C158&amp;"_"&amp;B158&amp;"_"&amp;D158&amp;"_"&amp;A158&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C158&amp;"_"&amp;B158&amp;"_"&amp;D158&amp;"_"&amp;A158&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C158&amp;"_"&amp;B158&amp;"_"&amp;D158&amp;"_"&amp;A158&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>38995.753012943933</v>
       </c>
       <c r="G158" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C158&amp;"_"&amp;B158&amp;"_"&amp;D158&amp;"_"&amp;A158&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C158&amp;"_"&amp;B158&amp;"_"&amp;D158&amp;"_"&amp;A158&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -11350,13 +11575,13 @@
       <c r="D159">
         <v>15</v>
       </c>
-      <c r="E159" t="e">
+      <c r="E159">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C159&amp;"_"&amp;B159&amp;"_"&amp;D159&amp;"_"&amp;A159&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C159&amp;"_"&amp;B159&amp;"_"&amp;D159&amp;"_"&amp;A159&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F159" t="e">
+        <v>-748935.00915383326</v>
+      </c>
+      <c r="F159">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C159&amp;"_"&amp;B159&amp;"_"&amp;D159&amp;"_"&amp;A159&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C159&amp;"_"&amp;B159&amp;"_"&amp;D159&amp;"_"&amp;A159&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C159&amp;"_"&amp;B159&amp;"_"&amp;D159&amp;"_"&amp;A159&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C159&amp;"_"&amp;B159&amp;"_"&amp;D159&amp;"_"&amp;A159&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>40632.864281399066</v>
       </c>
       <c r="G159" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C159&amp;"_"&amp;B159&amp;"_"&amp;D159&amp;"_"&amp;A159&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C159&amp;"_"&amp;B159&amp;"_"&amp;D159&amp;"_"&amp;A159&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -11404,13 +11629,13 @@
       <c r="D160">
         <v>15</v>
       </c>
-      <c r="E160" t="e">
+      <c r="E160">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C160&amp;"_"&amp;B160&amp;"_"&amp;D160&amp;"_"&amp;A160&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C160&amp;"_"&amp;B160&amp;"_"&amp;D160&amp;"_"&amp;A160&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F160" t="e">
+        <v>-730924.02649516624</v>
+      </c>
+      <c r="F160">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C160&amp;"_"&amp;B160&amp;"_"&amp;D160&amp;"_"&amp;A160&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C160&amp;"_"&amp;B160&amp;"_"&amp;D160&amp;"_"&amp;A160&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C160&amp;"_"&amp;B160&amp;"_"&amp;D160&amp;"_"&amp;A160&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C160&amp;"_"&amp;B160&amp;"_"&amp;D160&amp;"_"&amp;A160&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>39209.763780033019</v>
       </c>
       <c r="G160" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C160&amp;"_"&amp;B160&amp;"_"&amp;D160&amp;"_"&amp;A160&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C160&amp;"_"&amp;B160&amp;"_"&amp;D160&amp;"_"&amp;A160&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -12111,21 +12336,21 @@
       <c r="D175">
         <v>1</v>
       </c>
-      <c r="E175" t="e">
+      <c r="E175">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F175" t="e">
+        <v>-707176.27752059989</v>
+      </c>
+      <c r="F175">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G175" t="e">
+        <v>39855.890614731688</v>
+      </c>
+      <c r="G175">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H175" t="e">
+        <v>-155121.34840939988</v>
+      </c>
+      <c r="H175">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>1456.5715260852623</v>
       </c>
       <c r="I175" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -12135,13 +12360,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="K175" t="e">
+      <c r="K175">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L175" t="e">
+        <v>-306498.174091933</v>
+      </c>
+      <c r="L175">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>1255.0521047624875</v>
       </c>
       <c r="M175" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -12165,13 +12390,13 @@
       <c r="D176">
         <v>1</v>
       </c>
-      <c r="E176" t="e">
+      <c r="E176">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F176" t="e">
+        <v>-707976.29801479972</v>
+      </c>
+      <c r="F176">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>39738.507186243398</v>
       </c>
       <c r="G176" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -12189,21 +12414,21 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="K176" t="e">
+      <c r="K176">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L176" t="e">
+        <v>-304668.19096086634</v>
+      </c>
+      <c r="L176">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M176" t="e">
+        <v>1249.8824290964753</v>
+      </c>
+      <c r="M176">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N176" t="e">
+        <v>-381345.3049581995</v>
+      </c>
+      <c r="N176">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>1655.1433948237407</v>
       </c>
     </row>
     <row r="177" spans="1:15">
@@ -12219,45 +12444,45 @@
       <c r="D177">
         <v>1</v>
       </c>
-      <c r="E177" t="e">
+      <c r="E177">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F177" t="e">
+        <v>-706103.40030039928</v>
+      </c>
+      <c r="F177">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G177" t="e">
+        <v>40125.131817608206</v>
+      </c>
+      <c r="G177">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H177" t="e">
+        <v>-154082.36758016652</v>
+      </c>
+      <c r="H177">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I177" t="e">
+        <v>1177.2073551443777</v>
+      </c>
+      <c r="I177">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J177" t="e">
+        <v>-235294.04376306655</v>
+      </c>
+      <c r="J177">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K177" t="e">
+        <v>3158.6318952781353</v>
+      </c>
+      <c r="K177">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L177" t="e">
+        <v>-319334.26670403284</v>
+      </c>
+      <c r="L177">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M177" t="e">
+        <v>9927.0192716546553</v>
+      </c>
+      <c r="M177">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N177" t="e">
+        <v>-405128.92717929941</v>
+      </c>
+      <c r="N177">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>21877.569130300075</v>
       </c>
     </row>
     <row r="178" spans="1:15">
@@ -12273,45 +12498,45 @@
       <c r="D178">
         <v>1</v>
       </c>
-      <c r="E178" t="e">
+      <c r="E178">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F178" t="e">
+        <v>-714143.28883299965</v>
+      </c>
+      <c r="F178">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G178" t="e">
+        <v>38877.167416105498</v>
+      </c>
+      <c r="G178">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H178" t="e">
+        <v>-156512.00641349982</v>
+      </c>
+      <c r="H178">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I178" t="e">
+        <v>1422.4305356111629</v>
+      </c>
+      <c r="I178">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J178" t="e">
+        <v>-231559.13099383321</v>
+      </c>
+      <c r="J178">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K178" t="e">
+        <v>1203.0885711158926</v>
+      </c>
+      <c r="K178">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L178" t="e">
+        <v>-304522.55471549986</v>
+      </c>
+      <c r="L178">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M178" t="e">
+        <v>1186.679407033387</v>
+      </c>
+      <c r="M178">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N178" t="e">
+        <v>-381776.27758256649</v>
+      </c>
+      <c r="N178">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>1565.1670245883972</v>
       </c>
     </row>
     <row r="179" spans="1:15">
@@ -12327,29 +12552,29 @@
       <c r="D179">
         <v>1</v>
       </c>
-      <c r="E179" t="e">
+      <c r="E179">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F179" t="e">
+        <v>-708566.26914166659</v>
+      </c>
+      <c r="F179">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G179" t="e">
+        <v>39820.842678963672</v>
+      </c>
+      <c r="G179">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H179" t="e">
+        <v>-156119.75830389981</v>
+      </c>
+      <c r="H179">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I179" t="e">
+        <v>1591.5309955257499</v>
+      </c>
+      <c r="I179">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J179" t="e">
+        <v>-232691.83142523331</v>
+      </c>
+      <c r="J179">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>1924.686525893464</v>
       </c>
       <c r="K179" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -12359,13 +12584,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="M179" t="e">
+      <c r="M179">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N179" t="e">
+        <v>-381631.11392139958</v>
+      </c>
+      <c r="N179">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>1459.3547047436343</v>
       </c>
     </row>
     <row r="180" spans="1:15">
@@ -12381,37 +12606,37 @@
       <c r="D180">
         <v>1</v>
       </c>
-      <c r="E180" t="e">
+      <c r="E180">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F180" t="e">
+        <v>-705643.65988346632</v>
+      </c>
+      <c r="F180">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G180" t="e">
+        <v>40281.680381093189</v>
+      </c>
+      <c r="G180">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H180" t="e">
+        <v>-154990.3696792332</v>
+      </c>
+      <c r="H180">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I180" t="e">
+        <v>1127.1445578645835</v>
+      </c>
+      <c r="I180">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J180" t="e">
+        <v>-234169.83567736656</v>
+      </c>
+      <c r="J180">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K180" t="e">
+        <v>2330.3084105465932</v>
+      </c>
+      <c r="K180">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L180" t="e">
+        <v>-309591.58502159955</v>
+      </c>
+      <c r="L180">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>2831.3024900898117</v>
       </c>
       <c r="M180" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -12435,21 +12660,21 @@
       <c r="D181">
         <v>1</v>
       </c>
-      <c r="E181" t="e">
+      <c r="E181">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F181" t="e">
+        <v>-707989.0735569332</v>
+      </c>
+      <c r="F181">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G181" t="e">
+        <v>40475.706227699484</v>
+      </c>
+      <c r="G181">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H181" t="e">
+        <v>-157172.3165227999</v>
+      </c>
+      <c r="H181">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>1476.8600927089458</v>
       </c>
       <c r="I181" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -12459,21 +12684,21 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="K181" t="e">
+      <c r="K181">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L181" t="e">
+        <v>-305644.62943713303</v>
+      </c>
+      <c r="L181">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M181" t="e">
+        <v>1194.7146052286687</v>
+      </c>
+      <c r="M181">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N181" t="e">
+        <v>-382647.63756826619</v>
+      </c>
+      <c r="N181">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>2227.2711662026813</v>
       </c>
     </row>
     <row r="182" spans="1:15">
@@ -12489,45 +12714,45 @@
       <c r="D182">
         <v>1</v>
       </c>
-      <c r="E182" t="e">
+      <c r="E182">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F182" t="e">
+        <v>-708551.13385009975</v>
+      </c>
+      <c r="F182">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G182" t="e">
+        <v>40236.894173354267</v>
+      </c>
+      <c r="G182">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H182" t="e">
+        <v>-156124.84147639995</v>
+      </c>
+      <c r="H182">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I182" t="e">
+        <v>1626.4742080983451</v>
+      </c>
+      <c r="I182">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J182" t="e">
+        <v>-232696.00473556653</v>
+      </c>
+      <c r="J182">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K182" t="e">
+        <v>1677.8228923353715</v>
+      </c>
+      <c r="K182">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L182" t="e">
+        <v>-303580.59441856609</v>
+      </c>
+      <c r="L182">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M182" t="e">
+        <v>1124.0477006857859</v>
+      </c>
+      <c r="M182">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N182" t="e">
+        <v>-382889.62196043285</v>
+      </c>
+      <c r="N182">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>2106.6192195777394</v>
       </c>
     </row>
     <row r="183" spans="1:15">
@@ -12543,29 +12768,29 @@
       <c r="D183">
         <v>1</v>
       </c>
-      <c r="E183" t="e">
+      <c r="E183">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F183" t="e">
+        <v>-705558.74752460001</v>
+      </c>
+      <c r="F183">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G183" t="e">
+        <v>40139.800010333158</v>
+      </c>
+      <c r="G183">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H183" t="e">
+        <v>-153380.85815563324</v>
+      </c>
+      <c r="H183">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I183" t="e">
+        <v>1093.7278415012156</v>
+      </c>
+      <c r="I183">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J183" t="e">
+        <v>-234161.44414396663</v>
+      </c>
+      <c r="J183">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>2535.8417624859931</v>
       </c>
       <c r="K183" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -12575,13 +12800,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="M183" t="e">
+      <c r="M183">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N183" t="e">
+        <v>-384358.30849809939</v>
+      </c>
+      <c r="N183">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>2602.9255264928879</v>
       </c>
     </row>
     <row r="184" spans="1:15">
@@ -12597,45 +12822,45 @@
       <c r="D184">
         <v>1</v>
       </c>
-      <c r="E184" t="e">
+      <c r="E184">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F184" t="e">
+        <v>-706300.03440493334</v>
+      </c>
+      <c r="F184">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G184" t="e">
+        <v>40803.957418211096</v>
+      </c>
+      <c r="G184">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H184" t="e">
+        <v>-158214.54124379982</v>
+      </c>
+      <c r="H184">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I184" t="e">
+        <v>1803.5727611976006</v>
+      </c>
+      <c r="I184">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J184" t="e">
+        <v>-232874.65566329969</v>
+      </c>
+      <c r="J184">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K184" t="e">
+        <v>1791.3972650362718</v>
+      </c>
+      <c r="K184">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L184" t="e">
+        <v>-306149.75874109974</v>
+      </c>
+      <c r="L184">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M184" t="e">
+        <v>1214.2441235958843</v>
+      </c>
+      <c r="M184">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N184" t="e">
+        <v>-382585.64683653292</v>
+      </c>
+      <c r="N184">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>1495.7481806413066</v>
       </c>
     </row>
     <row r="185" spans="1:15">
@@ -12651,45 +12876,45 @@
       <c r="D185">
         <v>1</v>
       </c>
-      <c r="E185" t="e">
+      <c r="E185">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F185" t="e">
+        <v>-709560.32436303294</v>
+      </c>
+      <c r="F185">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G185" t="e">
+        <v>39782.183561187376</v>
+      </c>
+      <c r="G185">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H185" t="e">
+        <v>-157120.03041009995</v>
+      </c>
+      <c r="H185">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I185" t="e">
+        <v>1446.5655300872577</v>
+      </c>
+      <c r="I185">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J185" t="e">
+        <v>-231820.20982006646</v>
+      </c>
+      <c r="J185">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K185" t="e">
+        <v>2096.0807463683077</v>
+      </c>
+      <c r="K185">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L185" t="e">
+        <v>-304675.48072336626</v>
+      </c>
+      <c r="L185">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M185" t="e">
+        <v>1616.6550729638523</v>
+      </c>
+      <c r="M185">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N185" t="e">
+        <v>-382543.71589863283</v>
+      </c>
+      <c r="N185">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>2113.2504216093844</v>
       </c>
       <c r="O185" t="s">
         <v>19</v>
@@ -12708,54 +12933,63 @@
       <c r="D186">
         <v>1</v>
       </c>
-      <c r="E186" t="e">
+      <c r="E186">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F186" t="e">
+        <v>-706146.38933343301</v>
+      </c>
+      <c r="F186">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G186" t="e">
+        <v>40227.833965427875</v>
+      </c>
+      <c r="G186">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H186" t="e">
+        <v>-153204.55133199989</v>
+      </c>
+      <c r="H186">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I186" t="e">
+        <v>805.80560200835032</v>
+      </c>
+      <c r="I186">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J186" t="e">
+        <v>-235875.23647013301</v>
+      </c>
+      <c r="J186">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K186" t="e">
+        <v>3308.5650726480067</v>
+      </c>
+      <c r="K186">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L186" t="e">
+        <v>-308070.09497569932</v>
+      </c>
+      <c r="L186">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M186" t="e">
+        <v>2542.9820515049364</v>
+      </c>
+      <c r="M186">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N186" t="e">
+        <v>-387783.60361573286</v>
+      </c>
+      <c r="N186">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#REF!</v>
+        <v>3305.8787894986522</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="M175:M186">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:N61">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
-        <color rgb="FF638EC6"/>
+        <color rgb="FF63C384"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>

--- a/data/reservoir_summary.xlsx
+++ b/data/reservoir_summary.xlsx
@@ -170,7 +170,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -335,7 +334,7 @@
                     <c:v>1022.1855558978397</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>#N/A</c:v>
+                    <c:v>1572.7339981233702</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -359,7 +358,7 @@
                     <c:v>1022.1855558978397</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>#N/A</c:v>
+                    <c:v>1572.7339981233702</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -408,7 +407,7 @@
                   <c:v>-303372.45221636642</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-383207.67715169961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -567,7 +566,7 @@
                     <c:v>805.80560200835032</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1203.0885711158926</c:v>
+                    <c:v>1353.5005305469224</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>1124.0477006857859</c:v>
@@ -591,7 +590,7 @@
                     <c:v>805.80560200835032</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1203.0885711158926</c:v>
+                    <c:v>1353.5005305469224</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>1124.0477006857859</c:v>
@@ -640,7 +639,7 @@
                   <c:v>-153204.55133199989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-231559.13099383321</c:v>
+                  <c:v>-231125.47136529975</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-303580.59441856609</c:v>
@@ -891,11 +890,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="68740992"/>
-        <c:axId val="68742528"/>
+        <c:axId val="100394880"/>
+        <c:axId val="100396416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68740992"/>
+        <c:axId val="100394880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -903,38 +902,35 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68742528"/>
+        <c:crossAx val="100396416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68742528"/>
+        <c:axId val="100396416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:title>
-          <c:layout/>
-        </c:title>
+        <c:title/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68740992"/>
+        <c:crossAx val="100394880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1010,1446 +1006,1566 @@
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>reservoir_10_0.25_10_5_ROOT_SAMPLE</v>
+            <v>reservoir_10_0.25_10_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>reservoir_10_0.25_2_1_ROOT_MEAN</v>
+            <v>reservoir_10_0.25_10_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>reservoir_10_0.25_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.25_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>reservoir_10_0.25_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_0.25_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>reservoir_10_0.25_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_10_0.25_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>reservoir_10_0.25_2_15_ROOT_SAMPLE</v>
+            <v>reservoir_10_0.25_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>reservoir_10_0.25_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.25_2_15_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>reservoir_10_0.25_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_0.25_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>reservoir_10_0.25_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_10_0.25_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>reservoir_10_0.25_2_50_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.25_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>reservoir_10_0.25_2_50_ROOT_SAMPLE</v>
+            <v>reservoir_10_0.25_2_50_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>reservoir_10_0.25_5_1_ROOT_MEAN</v>
+            <v>reservoir_10_0.25_2_50_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>reservoir_10_0.25_5_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.25_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>reservoir_10_0.25_5_15_ROOT_SAMPLE</v>
+            <v>reservoir_10_0.25_5_15_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>reservoir_10_0.25_5_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.25_5_15_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>reservoir_10_0.25_5_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_0.25_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>reservoir_10_0.25_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_10_0.25_5_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>reservoir_10_0.25_5_50_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.25_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>reservoir_10_0.25_5_50_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_0.25_5_50_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>reservoir_10_0.25_5_50_ROOT_SAMPLE</v>
+            <v>reservoir_10_0.25_5_50_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>reservoir_10_0.5_10_1_ROOT_MEAN</v>
+            <v>reservoir_10_0.25_5_50_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>reservoir_10_0.5_10_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.5_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>reservoir_10_0.5_10_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_0.5_10_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>reservoir_10_0.5_10_10_ROOT_SAMPLE</v>
+            <v>reservoir_10_0.5_10_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>reservoir_10_0.5_10_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.5_10_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>reservoir_10_0.5_10_15_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_0.5_10_15_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>reservoir_10_0.5_10_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.5_10_15_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>reservoir_10_0.5_10_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_0.5_10_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>reservoir_10_0.5_10_5_ROOT_SAMPLE</v>
+            <v>reservoir_10_0.5_10_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>reservoir_10_0.5_2_1_ROOT_MEAN</v>
+            <v>reservoir_10_0.5_10_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>reservoir_10_0.5_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.5_2_1_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>reservoir_10_0.5_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_0.5_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>reservoir_10_0.5_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_10_0.5_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>reservoir_10_0.5_2_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.5_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>reservoir_10_0.5_2_15_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_0.5_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>reservoir_10_0.5_2_15_ROOT_SAMPLE</v>
+            <v>reservoir_10_0.5_2_15_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>reservoir_10_0.5_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.5_2_15_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>reservoir_10_0.5_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_0.5_2_15_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87" t="str">
-            <v>reservoir_10_0.5_2_50_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.5_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v>reservoir_10_0.5_2_50_ROOT_SAMPLE</v>
+            <v>reservoir_10_0.5_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91" t="str">
-            <v>reservoir_10_0.5_5_1_ROOT_MEAN</v>
+            <v>reservoir_10_0.5_2_50_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93" t="str">
-            <v>reservoir_10_0.5_5_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.5_2_50_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95" t="str">
-            <v>reservoir_10_0.5_5_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.5_5_1_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97" t="str">
-            <v>reservoir_10_0.5_5_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.5_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99" t="str">
-            <v>reservoir_10_0.5_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_10_0.5_5_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101" t="str">
-            <v>reservoir_10_0.5_5_50_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.5_5_15_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103" t="str">
-            <v>reservoir_10_0.5_5_50_ROOT_SAMPLE</v>
+            <v>reservoir_10_0.5_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105" t="str">
-            <v>reservoir_10_1_10_1_ROOT_MEAN</v>
+            <v>reservoir_10_0.5_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107" t="str">
-            <v>reservoir_10_1_10_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_0.5_5_50_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109" t="str">
-            <v>reservoir_10_1_10_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_0.5_5_50_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111" t="str">
-            <v>reservoir_10_1_10_10_ROOT_SAMPLE</v>
+            <v>reservoir_10_1_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113" t="str">
-            <v>reservoir_10_1_10_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_1_10_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115" t="str">
-            <v>reservoir_10_1_10_15_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_1_10_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117" t="str">
-            <v>reservoir_10_1_10_15_ROOT_SAMPLE</v>
+            <v>reservoir_10_1_10_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="119">
           <cell r="A119" t="str">
-            <v>reservoir_10_1_10_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_1_10_15_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="121">
           <cell r="A121" t="str">
-            <v>reservoir_10_1_10_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_1_10_15_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="123">
           <cell r="A123" t="str">
-            <v>reservoir_10_1_10_5_ROOT_SAMPLE</v>
+            <v>reservoir_10_1_10_15_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="125">
           <cell r="A125" t="str">
-            <v>reservoir_10_1_2_1_ROOT_MEAN</v>
+            <v>reservoir_10_1_10_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="127">
           <cell r="A127" t="str">
-            <v>reservoir_10_1_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_1_10_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="129">
           <cell r="A129" t="str">
-            <v>reservoir_10_1_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_1_10_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="131">
           <cell r="A131" t="str">
-            <v>reservoir_10_1_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_10_1_2_1_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="133">
           <cell r="A133" t="str">
-            <v>reservoir_10_1_2_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_1_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="135">
           <cell r="A135" t="str">
-            <v>reservoir_10_1_2_15_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_1_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="137">
           <cell r="A137" t="str">
-            <v>reservoir_10_1_2_15_ROOT_SAMPLE</v>
+            <v>reservoir_10_1_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="139">
           <cell r="A139" t="str">
-            <v>reservoir_10_1_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_1_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="141">
           <cell r="A141" t="str">
-            <v>reservoir_10_1_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_1_2_15_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="143">
           <cell r="A143" t="str">
-            <v>reservoir_10_1_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_10_1_2_15_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="145">
           <cell r="A145" t="str">
-            <v>reservoir_10_1_2_50_ROOT_SAMPLE</v>
+            <v>reservoir_10_1_2_15_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="147">
           <cell r="A147" t="str">
-            <v>reservoir_10_1_5_1_ROOT_MEAN</v>
+            <v>reservoir_10_1_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="149">
           <cell r="A149" t="str">
-            <v>reservoir_10_1_5_10_ROOT_SAMPLE</v>
+            <v>reservoir_10_1_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="151">
           <cell r="A151" t="str">
-            <v>reservoir_10_1_5_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_1_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="153">
           <cell r="A153" t="str">
-            <v>reservoir_10_1_5_15_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_1_2_50_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="155">
           <cell r="A155" t="str">
-            <v>reservoir_10_1_5_15_ROOT_SAMPLE</v>
+            <v>reservoir_10_1_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="157">
           <cell r="A157" t="str">
-            <v>reservoir_10_1_5_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_1_5_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="159">
           <cell r="A159" t="str">
-            <v>reservoir_10_1_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_10_1_5_15_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="161">
           <cell r="A161" t="str">
-            <v>reservoir_10_1_5_50_ROOT_SAMPLE</v>
+            <v>reservoir_10_1_5_15_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="163">
           <cell r="A163" t="str">
-            <v>reservoir_10_2_10_1_ROOT_MEAN</v>
+            <v>reservoir_10_1_5_15_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="165">
           <cell r="A165" t="str">
-            <v>reservoir_10_2_10_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_1_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="167">
           <cell r="A167" t="str">
-            <v>reservoir_10_2_10_10_ROOT_SAMPLE</v>
+            <v>reservoir_10_1_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="169">
           <cell r="A169" t="str">
-            <v>reservoir_10_2_10_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_1_5_50_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="171">
           <cell r="A171" t="str">
-            <v>reservoir_10_2_10_15_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_2_10_1_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="173">
           <cell r="A173" t="str">
-            <v>reservoir_10_2_10_15_ROOT_SAMPLE</v>
+            <v>reservoir_10_2_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="175">
           <cell r="A175" t="str">
-            <v>reservoir_10_2_10_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_2_10_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="177">
           <cell r="A177" t="str">
-            <v>reservoir_10_2_10_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_2_10_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="179">
           <cell r="A179" t="str">
-            <v>reservoir_10_2_10_5_ROOT_SAMPLE</v>
+            <v>reservoir_10_2_10_15_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="181">
           <cell r="A181" t="str">
-            <v>reservoir_10_2_2_1_ROOT_MEAN</v>
+            <v>reservoir_10_2_10_15_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="183">
           <cell r="A183" t="str">
-            <v>reservoir_10_2_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_2_10_15_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="185">
           <cell r="A185" t="str">
-            <v>reservoir_10_2_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_2_10_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="187">
           <cell r="A187" t="str">
-            <v>reservoir_10_2_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_10_2_10_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="189">
           <cell r="A189" t="str">
-            <v>reservoir_10_2_2_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_2_10_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="191">
           <cell r="A191" t="str">
-            <v>reservoir_10_2_2_15_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_2_2_1_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="193">
           <cell r="A193" t="str">
-            <v>reservoir_10_2_2_15_ROOT_SAMPLE</v>
+            <v>reservoir_10_2_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="195">
           <cell r="A195" t="str">
-            <v>reservoir_10_2_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_2_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="197">
           <cell r="A197" t="str">
-            <v>reservoir_10_2_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_2_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="199">
           <cell r="A199" t="str">
-            <v>reservoir_10_2_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_10_2_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="201">
           <cell r="A201" t="str">
-            <v>reservoir_10_2_2_50_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_2_2_15_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="203">
           <cell r="A203" t="str">
-            <v>reservoir_10_2_2_50_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_2_2_15_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="205">
           <cell r="A205" t="str">
-            <v>reservoir_10_2_5_1_ROOT_MEAN</v>
+            <v>reservoir_10_2_2_15_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="207">
           <cell r="A207" t="str">
-            <v>reservoir_10_2_5_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_2_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="209">
           <cell r="A209" t="str">
-            <v>reservoir_10_2_5_10_ROOT_SAMPLE</v>
+            <v>reservoir_10_2_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="211">
           <cell r="A211" t="str">
-            <v>reservoir_10_2_5_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_2_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="213">
           <cell r="A213" t="str">
-            <v>reservoir_10_2_5_15_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_2_2_50_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="215">
           <cell r="A215" t="str">
-            <v>reservoir_10_2_5_15_ROOT_SAMPLE</v>
+            <v>reservoir_10_2_2_50_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="217">
           <cell r="A217" t="str">
-            <v>reservoir_10_2_5_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_2_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="219">
           <cell r="A219" t="str">
-            <v>reservoir_10_2_5_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_2_5_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="221">
           <cell r="A221" t="str">
-            <v>reservoir_10_2_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_10_2_5_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="223">
           <cell r="A223" t="str">
-            <v>reservoir_10_2_5_50_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_2_5_15_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="225">
           <cell r="A225" t="str">
-            <v>reservoir_10_2_5_50_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_2_5_15_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="227">
           <cell r="A227" t="str">
-            <v>reservoir_10_5_10_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_2_5_15_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="229">
           <cell r="A229" t="str">
-            <v>reservoir_10_5_10_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_2_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="231">
           <cell r="A231" t="str">
-            <v>reservoir_10_5_10_10_ROOT_SAMPLE</v>
+            <v>reservoir_10_2_5_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="233">
           <cell r="A233" t="str">
-            <v>reservoir_10_5_10_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_2_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="235">
           <cell r="A235" t="str">
-            <v>reservoir_10_5_10_15_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_2_5_50_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="237">
           <cell r="A237" t="str">
-            <v>reservoir_10_5_10_15_ROOT_SAMPLE</v>
+            <v>reservoir_10_2_5_50_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="239">
           <cell r="A239" t="str">
-            <v>reservoir_10_5_10_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_5_10_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="241">
           <cell r="A241" t="str">
-            <v>reservoir_10_5_10_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_5_10_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="243">
           <cell r="A243" t="str">
-            <v>reservoir_10_5_10_5_ROOT_SAMPLE</v>
+            <v>reservoir_10_5_10_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="245">
           <cell r="A245" t="str">
-            <v>reservoir_10_5_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_5_10_15_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="247">
           <cell r="A247" t="str">
-            <v>reservoir_10_5_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_5_10_15_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="249">
           <cell r="A249" t="str">
-            <v>reservoir_10_5_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_10_5_10_15_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="251">
           <cell r="A251" t="str">
-            <v>reservoir_10_5_2_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_5_10_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="253">
           <cell r="A253" t="str">
-            <v>reservoir_10_5_2_15_ROOT_SAMPLE</v>
+            <v>reservoir_10_5_10_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="255">
           <cell r="A255" t="str">
-            <v>reservoir_10_5_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_5_10_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="257">
           <cell r="A257" t="str">
-            <v>reservoir_10_5_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_5_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="259">
           <cell r="A259" t="str">
-            <v>reservoir_10_5_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_10_5_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="261">
           <cell r="A261" t="str">
-            <v>reservoir_10_5_2_50_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_5_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="263">
           <cell r="A263" t="str">
-            <v>reservoir_10_5_2_50_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_5_2_15_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="265">
           <cell r="A265" t="str">
-            <v>reservoir_10_5_2_50_ROOT_SAMPLE</v>
+            <v>reservoir_10_5_2_15_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="267">
           <cell r="A267" t="str">
-            <v>reservoir_10_5_5_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_5_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="269">
           <cell r="A269" t="str">
-            <v>reservoir_10_5_5_10_ROOT_SAMPLE</v>
+            <v>reservoir_10_5_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="271">
           <cell r="A271" t="str">
-            <v>reservoir_10_5_5_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_5_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="273">
           <cell r="A273" t="str">
-            <v>reservoir_10_5_5_15_ROOT_SAMPLE</v>
+            <v>reservoir_10_5_2_50_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="275">
           <cell r="A275" t="str">
-            <v>reservoir_10_5_5_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_5_2_50_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="277">
           <cell r="A277" t="str">
-            <v>reservoir_10_5_5_50_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_5_2_50_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="279">
           <cell r="A279" t="str">
-            <v>reservoir_10_5_5_50_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_5_5_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="281">
           <cell r="A281" t="str">
-            <v>reservoir_10_5_5_50_ROOT_SAMPLE</v>
+            <v>reservoir_10_5_5_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="283">
           <cell r="A283" t="str">
-            <v>reservoir_10_noop_noop</v>
+            <v>reservoir_10_5_5_15_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="285">
           <cell r="A285" t="str">
-            <v>reservoir_10_random_random</v>
+            <v>reservoir_10_5_5_15_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="287">
           <cell r="A287" t="str">
-            <v>reservoir_20_0.25_10_1_ROOT_MEAN</v>
+            <v>reservoir_10_5_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="289">
           <cell r="A289" t="str">
-            <v>reservoir_20_0.25_2_1_ROOT_MEAN</v>
+            <v>reservoir_10_5_5_50_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="291">
           <cell r="A291" t="str">
-            <v>reservoir_20_0.25_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_5_5_50_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="293">
           <cell r="A293" t="str">
-            <v>reservoir_20_0.25_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_10_5_5_50_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="295">
           <cell r="A295" t="str">
-            <v>reservoir_20_0.25_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_10_noop_noop</v>
           </cell>
         </row>
         <row r="297">
           <cell r="A297" t="str">
-            <v>reservoir_20_0.25_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_10_random_random</v>
           </cell>
         </row>
         <row r="299">
           <cell r="A299" t="str">
-            <v>reservoir_20_0.25_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.25_10_1_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="301">
           <cell r="A301" t="str">
-            <v>reservoir_20_0.25_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.25_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="303">
           <cell r="A303" t="str">
-            <v>reservoir_20_0.25_5_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_0.25_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="305">
           <cell r="A305" t="str">
-            <v>reservoir_20_0.25_5_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.25_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="307">
           <cell r="A307" t="str">
-            <v>reservoir_20_0.25_5_10_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.25_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="309">
           <cell r="A309" t="str">
-            <v>reservoir_20_0.25_5_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_0.25_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="311">
           <cell r="A311" t="str">
-            <v>reservoir_20_0.25_5_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.25_2_15_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="313">
           <cell r="A313" t="str">
-            <v>reservoir_20_0.25_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.25_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="315">
           <cell r="A315" t="str">
-            <v>reservoir_20_0.5_10_1_ROOT_MEAN</v>
+            <v>reservoir_20_0.25_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="317">
           <cell r="A317" t="str">
-            <v>reservoir_20_0.5_2_1_ROOT_MEAN</v>
+            <v>reservoir_20_0.25_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="319">
           <cell r="A319" t="str">
-            <v>reservoir_20_0.5_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_0.25_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="321">
           <cell r="A321" t="str">
-            <v>reservoir_20_0.5_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.25_5_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="323">
           <cell r="A323" t="str">
-            <v>reservoir_20_0.5_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.25_5_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="325">
           <cell r="A325" t="str">
-            <v>reservoir_20_0.5_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.25_5_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="327">
           <cell r="A327" t="str">
-            <v>reservoir_20_0.5_5_1_ROOT_MEAN</v>
+            <v>reservoir_20_0.25_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="329">
           <cell r="A329" t="str">
-            <v>reservoir_20_0.5_5_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_0.25_5_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="331">
           <cell r="A331" t="str">
-            <v>reservoir_20_0.5_5_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.25_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="333">
           <cell r="A333" t="str">
-            <v>reservoir_20_0.5_5_10_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.5_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="335">
           <cell r="A335" t="str">
-            <v>reservoir_20_0.5_5_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_0.5_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="337">
           <cell r="A337" t="str">
-            <v>reservoir_20_0.5_5_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.5_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="339">
           <cell r="A339" t="str">
-            <v>reservoir_20_0.5_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.5_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="341">
           <cell r="A341" t="str">
-            <v>reservoir_20_1_10_1_ROOT_MEAN</v>
+            <v>reservoir_20_0.5_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="343">
           <cell r="A343" t="str">
-            <v>reservoir_20_1_2_1_ROOT_MEAN</v>
+            <v>reservoir_20_0.5_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="345">
           <cell r="A345" t="str">
-            <v>reservoir_20_1_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_0.5_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="347">
           <cell r="A347" t="str">
-            <v>reservoir_20_1_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.5_5_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="349">
           <cell r="A349" t="str">
-            <v>reservoir_20_1_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.5_5_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="351">
           <cell r="A351" t="str">
-            <v>reservoir_20_1_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_0.5_5_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="353">
           <cell r="A353" t="str">
-            <v>reservoir_20_1_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.5_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="355">
           <cell r="A355" t="str">
-            <v>reservoir_20_1_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.5_5_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="357">
           <cell r="A357" t="str">
-            <v>reservoir_20_1_5_1_ROOT_MEAN</v>
+            <v>reservoir_20_0.5_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="359">
           <cell r="A359" t="str">
-            <v>reservoir_20_1_5_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_1_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="361">
           <cell r="A361" t="str">
-            <v>reservoir_20_1_5_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_1_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="363">
           <cell r="A363" t="str">
-            <v>reservoir_20_1_5_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_1_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="365">
           <cell r="A365" t="str">
-            <v>reservoir_20_1_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_20_1_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="367">
           <cell r="A367" t="str">
-            <v>reservoir_20_2_10_1_ROOT_MEAN</v>
+            <v>reservoir_20_1_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="369">
           <cell r="A369" t="str">
-            <v>reservoir_20_2_2_1_ROOT_MEAN</v>
+            <v>reservoir_20_1_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="371">
           <cell r="A371" t="str">
-            <v>reservoir_20_2_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_20_1_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="373">
           <cell r="A373" t="str">
-            <v>reservoir_20_2_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_20_1_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="375">
           <cell r="A375" t="str">
-            <v>reservoir_20_2_5_1_ROOT_MEAN</v>
+            <v>reservoir_20_1_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="377">
           <cell r="A377" t="str">
-            <v>reservoir_20_2_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_20_1_5_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="379">
           <cell r="A379" t="str">
-            <v>reservoir_20_noop_noop</v>
+            <v>reservoir_20_1_5_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="381">
           <cell r="A381" t="str">
-            <v>reservoir_20_random_random</v>
+            <v>reservoir_20_1_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="383">
           <cell r="A383" t="str">
-            <v>reservoir_30_0.25_10_1_ROOT_MEAN</v>
+            <v>reservoir_20_1_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="385">
           <cell r="A385" t="str">
-            <v>reservoir_30_0.25_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_2_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="387">
           <cell r="A387" t="str">
-            <v>reservoir_30_0.25_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_2_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="389">
           <cell r="A389" t="str">
-            <v>reservoir_30_0.25_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_20_2_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="391">
           <cell r="A391" t="str">
-            <v>reservoir_30_0.25_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_2_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="393">
           <cell r="A393" t="str">
-            <v>reservoir_30_0.25_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_2_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="395">
           <cell r="A395" t="str">
-            <v>reservoir_30_0.25_5_10_ROOT_SAMPLE</v>
+            <v>reservoir_20_2_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="397">
           <cell r="A397" t="str">
-            <v>reservoir_30_0.25_5_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_noop_noop</v>
           </cell>
         </row>
         <row r="399">
           <cell r="A399" t="str">
-            <v>reservoir_30_0.25_5_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_random_random</v>
           </cell>
         </row>
         <row r="401">
           <cell r="A401" t="str">
-            <v>reservoir_30_0.25_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_30_0.25_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="403">
           <cell r="A403" t="str">
-            <v>reservoir_30_0.5_10_1_ROOT_MEAN</v>
+            <v>reservoir_30_0.25_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="405">
           <cell r="A405" t="str">
-            <v>reservoir_30_0.5_2_1_ROOT_MEAN</v>
+            <v>reservoir_30_0.25_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="407">
           <cell r="A407" t="str">
-            <v>reservoir_30_0.5_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_0.25_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="409">
           <cell r="A409" t="str">
-            <v>reservoir_30_0.5_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_0.25_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="411">
           <cell r="A411" t="str">
-            <v>reservoir_30_0.5_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_30_0.25_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="413">
           <cell r="A413" t="str">
-            <v>reservoir_30_0.5_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_0.25_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="415">
           <cell r="A415" t="str">
-            <v>reservoir_30_0.5_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_0.25_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="417">
           <cell r="A417" t="str">
-            <v>reservoir_30_0.5_5_1_ROOT_MEAN</v>
+            <v>reservoir_30_0.25_5_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="419">
           <cell r="A419" t="str">
-            <v>reservoir_30_0.5_5_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_0.25_5_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="421">
           <cell r="A421" t="str">
-            <v>reservoir_30_0.5_5_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_0.25_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="423">
           <cell r="A423" t="str">
-            <v>reservoir_30_0.5_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_30_0.25_5_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="425">
           <cell r="A425" t="str">
-            <v>reservoir_30_1_10_1_ROOT_MEAN</v>
+            <v>reservoir_30_0.25_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="427">
           <cell r="A427" t="str">
-            <v>reservoir_30_1_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_0.5_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="429">
           <cell r="A429" t="str">
-            <v>reservoir_30_1_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_0.5_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="431">
           <cell r="A431" t="str">
-            <v>reservoir_30_1_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_0.5_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="433">
           <cell r="A433" t="str">
-            <v>reservoir_30_1_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_0.5_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="435">
           <cell r="A435" t="str">
-            <v>reservoir_30_1_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_30_0.5_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="437">
           <cell r="A437" t="str">
-            <v>reservoir_30_1_5_1_ROOT_MEAN</v>
+            <v>reservoir_30_0.5_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="439">
           <cell r="A439" t="str">
-            <v>reservoir_30_1_5_10_ROOT_SAMPLE</v>
+            <v>reservoir_30_0.5_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="441">
           <cell r="A441" t="str">
-            <v>reservoir_30_1_5_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_0.5_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="443">
           <cell r="A443" t="str">
-            <v>reservoir_30_1_5_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_0.5_5_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="445">
           <cell r="A445" t="str">
-            <v>reservoir_30_1_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_30_0.5_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="447">
           <cell r="A447" t="str">
-            <v>reservoir_30_2_10_1_ROOT_MEAN</v>
+            <v>reservoir_30_0.5_5_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="449">
           <cell r="A449" t="str">
-            <v>reservoir_30_2_2_1_ROOT_MEAN</v>
+            <v>reservoir_30_0.5_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="451">
           <cell r="A451" t="str">
-            <v>reservoir_30_2_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_1_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="453">
           <cell r="A453" t="str">
-            <v>reservoir_30_2_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_1_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="455">
           <cell r="A455" t="str">
-            <v>reservoir_30_2_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_30_1_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="457">
           <cell r="A457" t="str">
-            <v>reservoir_30_2_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_1_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="459">
           <cell r="A459" t="str">
-            <v>reservoir_30_2_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_1_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="461">
           <cell r="A461" t="str">
-            <v>reservoir_30_2_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_30_1_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="463">
           <cell r="A463" t="str">
-            <v>reservoir_30_2_5_1_ROOT_MEAN</v>
+            <v>reservoir_30_1_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="465">
           <cell r="A465" t="str">
-            <v>reservoir_30_2_5_10_ROOT_SAMPLE</v>
+            <v>reservoir_30_1_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="467">
           <cell r="A467" t="str">
-            <v>reservoir_30_2_5_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_1_5_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="469">
           <cell r="A469" t="str">
-            <v>reservoir_30_2_5_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_1_5_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="471">
           <cell r="A471" t="str">
-            <v>reservoir_30_2_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_30_1_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="473">
           <cell r="A473" t="str">
-            <v>reservoir_30_noop_noop</v>
+            <v>reservoir_30_1_5_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="475">
           <cell r="A475" t="str">
-            <v>reservoir_30_random_random</v>
+            <v>reservoir_30_1_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="477">
           <cell r="A477" t="str">
-            <v>reservoir_40_0.25_10_1_ROOT_MEAN</v>
+            <v>reservoir_30_2_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="479">
           <cell r="A479" t="str">
-            <v>reservoir_40_0.25_2_1_ROOT_MEAN</v>
+            <v>reservoir_30_2_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="481">
           <cell r="A481" t="str">
-            <v>reservoir_40_0.25_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_2_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="483">
           <cell r="A483" t="str">
-            <v>reservoir_40_0.25_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_2_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="485">
           <cell r="A485" t="str">
-            <v>reservoir_40_0.25_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_30_2_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="487">
           <cell r="A487" t="str">
-            <v>reservoir_40_0.25_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_2_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="489">
           <cell r="A489" t="str">
-            <v>reservoir_40_0.25_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_2_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="491">
           <cell r="A491" t="str">
-            <v>reservoir_40_0.25_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_30_2_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="493">
           <cell r="A493" t="str">
-            <v>reservoir_40_0.25_5_1_ROOT_MEAN</v>
+            <v>reservoir_30_2_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="495">
           <cell r="A495" t="str">
-            <v>reservoir_40_0.25_5_10_ROOT_SAMPLE</v>
+            <v>reservoir_30_2_5_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="497">
           <cell r="A497" t="str">
-            <v>reservoir_40_0.25_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_30_2_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="499">
           <cell r="A499" t="str">
-            <v>reservoir_40_0.5_10_1_ROOT_MEAN</v>
+            <v>reservoir_30_2_5_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="501">
           <cell r="A501" t="str">
-            <v>reservoir_40_0.5_2_1_ROOT_MEAN</v>
+            <v>reservoir_30_2_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="503">
           <cell r="A503" t="str">
-            <v>reservoir_40_0.5_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_noop_noop</v>
           </cell>
         </row>
         <row r="505">
           <cell r="A505" t="str">
-            <v>reservoir_40_0.5_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_random_random</v>
           </cell>
         </row>
         <row r="507">
           <cell r="A507" t="str">
-            <v>reservoir_40_0.5_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_40_0.25_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="509">
           <cell r="A509" t="str">
-            <v>reservoir_40_0.5_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_40_0.25_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="511">
           <cell r="A511" t="str">
-            <v>reservoir_40_0.5_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_40_0.25_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="513">
           <cell r="A513" t="str">
-            <v>reservoir_40_0.5_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_40_0.25_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="515">
           <cell r="A515" t="str">
-            <v>reservoir_40_0.5_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_40_0.25_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="517">
           <cell r="A517" t="str">
-            <v>reservoir_40_1_2_1_ROOT_MEAN</v>
+            <v>reservoir_40_0.25_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="519">
           <cell r="A519" t="str">
-            <v>reservoir_40_1_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_40_0.25_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="521">
           <cell r="A521" t="str">
-            <v>reservoir_40_1_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_40_0.25_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="523">
           <cell r="A523" t="str">
-            <v>reservoir_40_1_5_1_ROOT_MEAN</v>
+            <v>reservoir_40_0.25_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="525">
           <cell r="A525" t="str">
-            <v>reservoir_40_1_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_40_0.25_5_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="527">
           <cell r="A527" t="str">
-            <v>reservoir_40_2_10_1_ROOT_MEAN</v>
+            <v>reservoir_40_0.25_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="529">
           <cell r="A529" t="str">
-            <v>reservoir_40_2_2_1_ROOT_MEAN</v>
+            <v>reservoir_40_0.5_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="531">
           <cell r="A531" t="str">
-            <v>reservoir_40_2_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_40_0.5_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="533">
           <cell r="A533" t="str">
-            <v>reservoir_40_2_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_40_0.5_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="535">
           <cell r="A535" t="str">
-            <v>reservoir_40_2_5_1_ROOT_MEAN</v>
+            <v>reservoir_40_0.5_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="537">
           <cell r="A537" t="str">
-            <v>reservoir_40_2_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_40_0.5_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="539">
           <cell r="A539" t="str">
-            <v>reservoir_40_noop_noop</v>
+            <v>reservoir_40_0.5_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="541">
           <cell r="A541" t="str">
-            <v>reservoir_40_random_random</v>
+            <v>reservoir_40_0.5_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="543">
           <cell r="A543" t="str">
-            <v>reservoir_50_0.25_10_1_ROOT_MEAN</v>
+            <v>reservoir_40_0.5_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="545">
           <cell r="A545" t="str">
-            <v>reservoir_50_0.25_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_40_0.5_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="547">
           <cell r="A547" t="str">
-            <v>reservoir_50_0.25_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_40_0.5_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="549">
           <cell r="A549" t="str">
-            <v>reservoir_50_0.25_5_1_ROOT_MEAN</v>
+            <v>reservoir_40_1_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="551">
           <cell r="A551" t="str">
-            <v>reservoir_50_0.25_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_40_1_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="553">
           <cell r="A553" t="str">
-            <v>reservoir_50_0.5_2_1_ROOT_MEAN</v>
+            <v>reservoir_40_1_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="555">
           <cell r="A555" t="str">
-            <v>reservoir_50_0.5_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_40_1_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="557">
           <cell r="A557" t="str">
-            <v>reservoir_50_0.5_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_40_1_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="559">
           <cell r="A559" t="str">
-            <v>reservoir_50_0.5_5_1_ROOT_MEAN</v>
+            <v>reservoir_40_1_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="561">
           <cell r="A561" t="str">
-            <v>reservoir_50_0.5_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_40_1_5_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="563">
           <cell r="A563" t="str">
-            <v>reservoir_50_1_10_1_ROOT_MEAN</v>
+            <v>reservoir_40_1_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="565">
           <cell r="A565" t="str">
-            <v>reservoir_50_1_2_1_ROOT_MEAN</v>
+            <v>reservoir_40_2_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="567">
           <cell r="A567" t="str">
-            <v>reservoir_50_1_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_40_2_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="569">
           <cell r="A569" t="str">
-            <v>reservoir_50_1_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_40_2_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="571">
           <cell r="A571" t="str">
-            <v>reservoir_50_1_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_40_2_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="573">
           <cell r="A573" t="str">
-            <v>reservoir_50_1_5_1_ROOT_MEAN</v>
+            <v>reservoir_40_2_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="575">
           <cell r="A575" t="str">
-            <v>reservoir_50_2_10_1_ROOT_MEAN</v>
+            <v>reservoir_40_2_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="577">
           <cell r="A577" t="str">
-            <v>reservoir_50_2_2_1_ROOT_MEAN</v>
+            <v>reservoir_40_noop_noop</v>
           </cell>
         </row>
         <row r="579">
           <cell r="A579" t="str">
-            <v>reservoir_50_2_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_40_random_random</v>
           </cell>
         </row>
         <row r="581">
           <cell r="A581" t="str">
-            <v>reservoir_50_2_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_50_0.25_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="583">
           <cell r="A583" t="str">
-            <v>reservoir_50_2_5_1_ROOT_MEAN</v>
+            <v>reservoir_50_0.25_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="585">
           <cell r="A585" t="str">
-            <v>reservoir_50_2_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_50_0.25_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="587">
           <cell r="A587" t="str">
+            <v>reservoir_50_0.25_2_5_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="589">
+          <cell r="A589" t="str">
+            <v>reservoir_50_0.25_5_1_ALL_ACTIONS_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="591">
+          <cell r="A591" t="str">
+            <v>reservoir_50_0.25_5_1_ROOT_MEAN</v>
+          </cell>
+        </row>
+        <row r="593">
+          <cell r="A593" t="str">
+            <v>reservoir_50_0.25_5_5_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="595">
+          <cell r="A595" t="str">
+            <v>reservoir_50_0.5_10_1_ROOT_MEAN</v>
+          </cell>
+        </row>
+        <row r="597">
+          <cell r="A597" t="str">
+            <v>reservoir_50_0.5_2_1_ALL_ACTIONS_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="599">
+          <cell r="A599" t="str">
+            <v>reservoir_50_0.5_2_1_ROOT_MEAN</v>
+          </cell>
+        </row>
+        <row r="601">
+          <cell r="A601" t="str">
+            <v>reservoir_50_0.5_2_10_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="603">
+          <cell r="A603" t="str">
+            <v>reservoir_50_0.5_2_5_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="605">
+          <cell r="A605" t="str">
+            <v>reservoir_50_0.5_5_1_ALL_ACTIONS_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="607">
+          <cell r="A607" t="str">
+            <v>reservoir_50_0.5_5_1_ROOT_MEAN</v>
+          </cell>
+        </row>
+        <row r="609">
+          <cell r="A609" t="str">
+            <v>reservoir_50_0.5_5_5_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="611">
+          <cell r="A611" t="str">
+            <v>reservoir_50_1_10_1_ROOT_MEAN</v>
+          </cell>
+        </row>
+        <row r="613">
+          <cell r="A613" t="str">
+            <v>reservoir_50_1_2_1_ROOT_MEAN</v>
+          </cell>
+        </row>
+        <row r="615">
+          <cell r="A615" t="str">
+            <v>reservoir_50_1_2_10_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="617">
+          <cell r="A617" t="str">
+            <v>reservoir_50_1_2_5_CONSENSUS_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="619">
+          <cell r="A619" t="str">
+            <v>reservoir_50_1_2_5_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="621">
+          <cell r="A621" t="str">
+            <v>reservoir_50_1_5_1_ROOT_MEAN</v>
+          </cell>
+        </row>
+        <row r="623">
+          <cell r="A623" t="str">
+            <v>reservoir_50_2_10_1_ROOT_MEAN</v>
+          </cell>
+        </row>
+        <row r="625">
+          <cell r="A625" t="str">
+            <v>reservoir_50_2_2_1_ROOT_MEAN</v>
+          </cell>
+        </row>
+        <row r="627">
+          <cell r="A627" t="str">
+            <v>reservoir_50_2_2_10_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="629">
+          <cell r="A629" t="str">
+            <v>reservoir_50_2_2_5_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="631">
+          <cell r="A631" t="str">
+            <v>reservoir_50_2_5_1_ROOT_MEAN</v>
+          </cell>
+        </row>
+        <row r="633">
+          <cell r="A633" t="str">
+            <v>reservoir_50_2_5_5_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="635">
+          <cell r="A635" t="str">
             <v>reservoir_50_random_random</v>
           </cell>
         </row>
@@ -2958,11 +3074,11 @@
       </c>
       <c r="J5" s="3">
         <f t="array" aca="1" ref="J5" ca="1">MAX( IF(  ISNA(raw!M64:M123), "", raw!M64:M123 ) )</f>
-        <v>0</v>
-      </c>
-      <c r="K5" t="e">
+        <v>-383207.67715169961</v>
+      </c>
+      <c r="K5">
         <f t="array" aca="1" ref="K5" ca="1">INDIRECT( "raw!"&amp;"N"&amp;(63+MATCH(J5, raw!M64:M123, 0) ) )</f>
-        <v>#N/A</v>
+        <v>1572.7339981233702</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3032,11 +3148,11 @@
       </c>
       <c r="F7" s="3">
         <f t="array" aca="1" ref="F7" ca="1">MAX( IF(  ISNA(raw!I175:I186), "", raw!I175:I186 ) )</f>
-        <v>-231559.13099383321</v>
+        <v>-231125.47136529975</v>
       </c>
       <c r="G7">
         <f ca="1">INDIRECT( "raw!"&amp;"J"&amp;(174+MATCH(F7, raw!I175:I186, 0) ) )</f>
-        <v>1203.0885711158926</v>
+        <v>1353.5005305469224</v>
       </c>
       <c r="H7" s="3">
         <f t="array" aca="1" ref="H7" ca="1">MAX( IF(  ISNA(raw!K175:K186), "", raw!K175:K186 ) )</f>
@@ -3195,7 +3311,7 @@
   <dimension ref="A1:O186"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="K183" sqref="K183"/>
+      <selection activeCell="M188" sqref="M188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3270,13 +3386,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>1456.5715260852623</v>
       </c>
-      <c r="I2" t="e">
+      <c r="I2">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J2" t="e">
+        <v>-232340.58643026644</v>
+      </c>
+      <c r="J2">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>1293.082232498544</v>
       </c>
       <c r="K2">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -3286,13 +3402,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>1255.0521047624875</v>
       </c>
-      <c r="M2" t="e">
+      <c r="M2">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N2" t="e">
+        <v>-382013.48443266639</v>
+      </c>
+      <c r="N2">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>1476.1752912523698</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -3316,21 +3432,21 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>39738.507186243398</v>
       </c>
-      <c r="G3" t="e">
+      <c r="G3">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H3" t="e">
+        <v>-156631.27061319977</v>
+      </c>
+      <c r="H3">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I3" t="e">
+        <v>1572.6255158939507</v>
+      </c>
+      <c r="I3">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J3" t="e">
+        <v>-231125.47136529975</v>
+      </c>
+      <c r="J3">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>1353.5005305469224</v>
       </c>
       <c r="K3">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -3494,13 +3610,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>1924.686525893464</v>
       </c>
-      <c r="K6" t="e">
+      <c r="K6">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L6" t="e">
+        <v>-305134.48699306621</v>
+      </c>
+      <c r="L6">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>1534.7040752195137</v>
       </c>
       <c r="M6">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -3556,13 +3672,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>2831.3024900898117</v>
       </c>
-      <c r="M7" t="e">
+      <c r="M7">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N7" t="e">
+        <v>-385942.97391763289</v>
+      </c>
+      <c r="N7">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>3415.1501890354825</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -3594,13 +3710,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>1476.8600927089458</v>
       </c>
-      <c r="I8" t="e">
+      <c r="I8">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J8" t="e">
+        <v>-232417.72539776668</v>
+      </c>
+      <c r="J8">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>1621.6639799388181</v>
       </c>
       <c r="K8">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -4952,13 +5068,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>7742.9838334786546</v>
       </c>
-      <c r="K33" t="e">
+      <c r="K33">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L33" t="e">
+        <v>-338563.58099463279</v>
+      </c>
+      <c r="L33">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>16615.924954033249</v>
       </c>
       <c r="M33" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -6585,13 +6701,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C65&amp;"_"&amp;B65&amp;"_"&amp;D65&amp;"_"&amp;A65&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C65&amp;"_"&amp;B65&amp;"_"&amp;D65&amp;"_"&amp;A65&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C65&amp;"_"&amp;B65&amp;"_"&amp;D65&amp;"_"&amp;A65&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C65&amp;"_"&amp;B65&amp;"_"&amp;D65&amp;"_"&amp;A65&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="M65" t="e">
+      <c r="M65">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C65&amp;"_"&amp;B65&amp;"_"&amp;D65&amp;"_"&amp;A65&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C65&amp;"_"&amp;B65&amp;"_"&amp;D65&amp;"_"&amp;A65&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N65" t="e">
+        <v>-408219.14806299965</v>
+      </c>
+      <c r="N65">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C65&amp;"_"&amp;B65&amp;"_"&amp;D65&amp;"_"&amp;A65&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C65&amp;"_"&amp;B65&amp;"_"&amp;D65&amp;"_"&amp;A65&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C65&amp;"_"&amp;B65&amp;"_"&amp;D65&amp;"_"&amp;A65&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C65&amp;"_"&amp;B65&amp;"_"&amp;D65&amp;"_"&amp;A65&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>5643.5125826048024</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -6615,13 +6731,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C66&amp;"_"&amp;B66&amp;"_"&amp;D66&amp;"_"&amp;A66&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C66&amp;"_"&amp;B66&amp;"_"&amp;D66&amp;"_"&amp;A66&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C66&amp;"_"&amp;B66&amp;"_"&amp;D66&amp;"_"&amp;A66&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C66&amp;"_"&amp;B66&amp;"_"&amp;D66&amp;"_"&amp;A66&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="G66" t="e">
+      <c r="G66">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C66&amp;"_"&amp;B66&amp;"_"&amp;D66&amp;"_"&amp;A66&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C66&amp;"_"&amp;B66&amp;"_"&amp;D66&amp;"_"&amp;A66&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H66" t="e">
+        <v>-185723.44686293308</v>
+      </c>
+      <c r="H66">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C66&amp;"_"&amp;B66&amp;"_"&amp;D66&amp;"_"&amp;A66&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C66&amp;"_"&amp;B66&amp;"_"&amp;D66&amp;"_"&amp;A66&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C66&amp;"_"&amp;B66&amp;"_"&amp;D66&amp;"_"&amp;A66&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C66&amp;"_"&amp;B66&amp;"_"&amp;D66&amp;"_"&amp;A66&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>4239.4296377278952</v>
       </c>
       <c r="I66" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C66&amp;"_"&amp;B66&amp;"_"&amp;D66&amp;"_"&amp;A66&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C66&amp;"_"&amp;B66&amp;"_"&amp;D66&amp;"_"&amp;A66&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -6661,13 +6777,13 @@
       <c r="D67">
         <v>1</v>
       </c>
-      <c r="E67" t="e">
+      <c r="E67">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C67&amp;"_"&amp;B67&amp;"_"&amp;D67&amp;"_"&amp;A67&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C67&amp;"_"&amp;B67&amp;"_"&amp;D67&amp;"_"&amp;A67&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F67" t="e">
+        <v>-715714.54157559981</v>
+      </c>
+      <c r="F67">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C67&amp;"_"&amp;B67&amp;"_"&amp;D67&amp;"_"&amp;A67&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C67&amp;"_"&amp;B67&amp;"_"&amp;D67&amp;"_"&amp;A67&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C67&amp;"_"&amp;B67&amp;"_"&amp;D67&amp;"_"&amp;A67&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C67&amp;"_"&amp;B67&amp;"_"&amp;D67&amp;"_"&amp;A67&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>42841.401748626144</v>
       </c>
       <c r="G67" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C67&amp;"_"&amp;B67&amp;"_"&amp;D67&amp;"_"&amp;A67&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C67&amp;"_"&amp;B67&amp;"_"&amp;D67&amp;"_"&amp;A67&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -6693,13 +6809,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C67&amp;"_"&amp;B67&amp;"_"&amp;D67&amp;"_"&amp;A67&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C67&amp;"_"&amp;B67&amp;"_"&amp;D67&amp;"_"&amp;A67&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C67&amp;"_"&amp;B67&amp;"_"&amp;D67&amp;"_"&amp;A67&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C67&amp;"_"&amp;B67&amp;"_"&amp;D67&amp;"_"&amp;A67&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="M67" t="e">
+      <c r="M67">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C67&amp;"_"&amp;B67&amp;"_"&amp;D67&amp;"_"&amp;A67&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C67&amp;"_"&amp;B67&amp;"_"&amp;D67&amp;"_"&amp;A67&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N67" t="e">
+        <v>-383207.67715169961</v>
+      </c>
+      <c r="N67">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C67&amp;"_"&amp;B67&amp;"_"&amp;D67&amp;"_"&amp;A67&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C67&amp;"_"&amp;B67&amp;"_"&amp;D67&amp;"_"&amp;A67&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C67&amp;"_"&amp;B67&amp;"_"&amp;D67&amp;"_"&amp;A67&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C67&amp;"_"&amp;B67&amp;"_"&amp;D67&amp;"_"&amp;A67&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>1572.7339981233702</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -6715,13 +6831,13 @@
       <c r="D68">
         <v>1</v>
       </c>
-      <c r="E68" t="e">
+      <c r="E68">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C68&amp;"_"&amp;B68&amp;"_"&amp;D68&amp;"_"&amp;A68&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C68&amp;"_"&amp;B68&amp;"_"&amp;D68&amp;"_"&amp;A68&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F68" t="e">
+        <v>-745195.93566803297</v>
+      </c>
+      <c r="F68">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C68&amp;"_"&amp;B68&amp;"_"&amp;D68&amp;"_"&amp;A68&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C68&amp;"_"&amp;B68&amp;"_"&amp;D68&amp;"_"&amp;A68&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C68&amp;"_"&amp;B68&amp;"_"&amp;D68&amp;"_"&amp;A68&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C68&amp;"_"&amp;B68&amp;"_"&amp;D68&amp;"_"&amp;A68&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>39852.365122028015</v>
       </c>
       <c r="G68" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C68&amp;"_"&amp;B68&amp;"_"&amp;D68&amp;"_"&amp;A68&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C68&amp;"_"&amp;B68&amp;"_"&amp;D68&amp;"_"&amp;A68&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -6747,13 +6863,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C68&amp;"_"&amp;B68&amp;"_"&amp;D68&amp;"_"&amp;A68&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C68&amp;"_"&amp;B68&amp;"_"&amp;D68&amp;"_"&amp;A68&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C68&amp;"_"&amp;B68&amp;"_"&amp;D68&amp;"_"&amp;A68&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C68&amp;"_"&amp;B68&amp;"_"&amp;D68&amp;"_"&amp;A68&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="M68" t="e">
+      <c r="M68">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C68&amp;"_"&amp;B68&amp;"_"&amp;D68&amp;"_"&amp;A68&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C68&amp;"_"&amp;B68&amp;"_"&amp;D68&amp;"_"&amp;A68&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N68" t="e">
+        <v>-408508.43287583289</v>
+      </c>
+      <c r="N68">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C68&amp;"_"&amp;B68&amp;"_"&amp;D68&amp;"_"&amp;A68&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C68&amp;"_"&amp;B68&amp;"_"&amp;D68&amp;"_"&amp;A68&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C68&amp;"_"&amp;B68&amp;"_"&amp;D68&amp;"_"&amp;A68&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C68&amp;"_"&amp;B68&amp;"_"&amp;D68&amp;"_"&amp;A68&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>4527.4416758934176</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -6823,13 +6939,13 @@
       <c r="D70">
         <v>1</v>
       </c>
-      <c r="E70" t="e">
+      <c r="E70">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C70&amp;"_"&amp;B70&amp;"_"&amp;D70&amp;"_"&amp;A70&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C70&amp;"_"&amp;B70&amp;"_"&amp;D70&amp;"_"&amp;A70&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F70" t="e">
+        <v>-717509.22320536652</v>
+      </c>
+      <c r="F70">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C70&amp;"_"&amp;B70&amp;"_"&amp;D70&amp;"_"&amp;A70&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C70&amp;"_"&amp;B70&amp;"_"&amp;D70&amp;"_"&amp;A70&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C70&amp;"_"&amp;B70&amp;"_"&amp;D70&amp;"_"&amp;A70&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C70&amp;"_"&amp;B70&amp;"_"&amp;D70&amp;"_"&amp;A70&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>42786.449335531317</v>
       </c>
       <c r="G70" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C70&amp;"_"&amp;B70&amp;"_"&amp;D70&amp;"_"&amp;A70&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C70&amp;"_"&amp;B70&amp;"_"&amp;D70&amp;"_"&amp;A70&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -6985,13 +7101,13 @@
       <c r="D73">
         <v>1</v>
       </c>
-      <c r="E73" t="e">
+      <c r="E73">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C73&amp;"_"&amp;B73&amp;"_"&amp;D73&amp;"_"&amp;A73&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C73&amp;"_"&amp;B73&amp;"_"&amp;D73&amp;"_"&amp;A73&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F73" t="e">
+        <v>-715540.12051133299</v>
+      </c>
+      <c r="F73">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C73&amp;"_"&amp;B73&amp;"_"&amp;D73&amp;"_"&amp;A73&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C73&amp;"_"&amp;B73&amp;"_"&amp;D73&amp;"_"&amp;A73&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C73&amp;"_"&amp;B73&amp;"_"&amp;D73&amp;"_"&amp;A73&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C73&amp;"_"&amp;B73&amp;"_"&amp;D73&amp;"_"&amp;A73&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>40275.952943073862</v>
       </c>
       <c r="G73" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C73&amp;"_"&amp;B73&amp;"_"&amp;D73&amp;"_"&amp;A73&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C73&amp;"_"&amp;B73&amp;"_"&amp;D73&amp;"_"&amp;A73&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7093,13 +7209,13 @@
       <c r="D75">
         <v>1</v>
       </c>
-      <c r="E75" t="e">
+      <c r="E75">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C75&amp;"_"&amp;B75&amp;"_"&amp;D75&amp;"_"&amp;A75&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C75&amp;"_"&amp;B75&amp;"_"&amp;D75&amp;"_"&amp;A75&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F75" t="e">
+        <v>-753126.90474219969</v>
+      </c>
+      <c r="F75">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C75&amp;"_"&amp;B75&amp;"_"&amp;D75&amp;"_"&amp;A75&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C75&amp;"_"&amp;B75&amp;"_"&amp;D75&amp;"_"&amp;A75&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C75&amp;"_"&amp;B75&amp;"_"&amp;D75&amp;"_"&amp;A75&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C75&amp;"_"&amp;B75&amp;"_"&amp;D75&amp;"_"&amp;A75&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>40264.607432085737</v>
       </c>
       <c r="G75" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C75&amp;"_"&amp;B75&amp;"_"&amp;D75&amp;"_"&amp;A75&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C75&amp;"_"&amp;B75&amp;"_"&amp;D75&amp;"_"&amp;A75&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -8143,13 +8259,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>1228.8872873723976</v>
       </c>
-      <c r="K94" t="e">
+      <c r="K94">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L94" t="e">
+        <v>-304046.19375686644</v>
+      </c>
+      <c r="L94">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>783.02595306924695</v>
       </c>
       <c r="M94" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -9741,19 +9857,19 @@
       </c>
       <c r="E125">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-713944.47918773326</v>
+        <v>-714124.91394350003</v>
       </c>
       <c r="F125">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39614.889483749255</v>
+        <v>27851.870407653449</v>
       </c>
       <c r="G125">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-156074.76198839993</v>
+        <v>-155881.61457154999</v>
       </c>
       <c r="H125">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1703.0393830940125</v>
+        <v>1112.3501216732043</v>
       </c>
       <c r="I125">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -9803,11 +9919,11 @@
       </c>
       <c r="G126">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-171609.2596825998</v>
+        <v>-173028.10904461652</v>
       </c>
       <c r="H126">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>3619.9193891680047</v>
+        <v>2417.4083556544601</v>
       </c>
       <c r="I126">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -9847,13 +9963,13 @@
       <c r="D127">
         <v>5</v>
       </c>
-      <c r="E127" t="e">
+      <c r="E127">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C127&amp;"_"&amp;B127&amp;"_"&amp;D127&amp;"_"&amp;A127&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C127&amp;"_"&amp;B127&amp;"_"&amp;D127&amp;"_"&amp;A127&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F127" t="e">
+        <v>-746163.16622353287</v>
+      </c>
+      <c r="F127">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C127&amp;"_"&amp;B127&amp;"_"&amp;D127&amp;"_"&amp;A127&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C127&amp;"_"&amp;B127&amp;"_"&amp;D127&amp;"_"&amp;A127&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C127&amp;"_"&amp;B127&amp;"_"&amp;D127&amp;"_"&amp;A127&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C127&amp;"_"&amp;B127&amp;"_"&amp;D127&amp;"_"&amp;A127&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>37321.169100987958</v>
       </c>
       <c r="G127" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C127&amp;"_"&amp;B127&amp;"_"&amp;D127&amp;"_"&amp;A127&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C127&amp;"_"&amp;B127&amp;"_"&amp;D127&amp;"_"&amp;A127&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10389,19 +10505,19 @@
       </c>
       <c r="E137">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-715593.3978017664</v>
+        <v>-715546.92807864991</v>
       </c>
       <c r="F137">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39511.848051185632</v>
+        <v>27788.203454202918</v>
       </c>
       <c r="G137">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-155552.82000676662</v>
+        <v>-155520.53932508323</v>
       </c>
       <c r="H137">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1490.3978125518413</v>
+        <v>1040.0944327700829</v>
       </c>
       <c r="I137">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10457,13 +10573,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C138&amp;"_"&amp;B138&amp;"_"&amp;D138&amp;"_"&amp;A138&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C138&amp;"_"&amp;B138&amp;"_"&amp;D138&amp;"_"&amp;A138&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C138&amp;"_"&amp;B138&amp;"_"&amp;D138&amp;"_"&amp;A138&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C138&amp;"_"&amp;B138&amp;"_"&amp;D138&amp;"_"&amp;A138&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>11353.181699380386</v>
       </c>
-      <c r="I138" t="e">
+      <c r="I138">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C138&amp;"_"&amp;B138&amp;"_"&amp;D138&amp;"_"&amp;A138&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C138&amp;"_"&amp;B138&amp;"_"&amp;D138&amp;"_"&amp;A138&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J138" t="e">
+        <v>-296939.6292328331</v>
+      </c>
+      <c r="J138">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C138&amp;"_"&amp;B138&amp;"_"&amp;D138&amp;"_"&amp;A138&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C138&amp;"_"&amp;B138&amp;"_"&amp;D138&amp;"_"&amp;A138&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C138&amp;"_"&amp;B138&amp;"_"&amp;D138&amp;"_"&amp;A138&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C138&amp;"_"&amp;B138&amp;"_"&amp;D138&amp;"_"&amp;A138&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>23607.255902415247</v>
       </c>
       <c r="K138" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C138&amp;"_"&amp;B138&amp;"_"&amp;D138&amp;"_"&amp;A138&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C138&amp;"_"&amp;B138&amp;"_"&amp;D138&amp;"_"&amp;A138&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10497,11 +10613,11 @@
       </c>
       <c r="E139">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C139&amp;"_"&amp;B139&amp;"_"&amp;D139&amp;"_"&amp;A139&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C139&amp;"_"&amp;B139&amp;"_"&amp;D139&amp;"_"&amp;A139&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-732188.39324366627</v>
+        <v>-732849.63164091646</v>
       </c>
       <c r="F139">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C139&amp;"_"&amp;B139&amp;"_"&amp;D139&amp;"_"&amp;A139&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C139&amp;"_"&amp;B139&amp;"_"&amp;D139&amp;"_"&amp;A139&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C139&amp;"_"&amp;B139&amp;"_"&amp;D139&amp;"_"&amp;A139&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C139&amp;"_"&amp;B139&amp;"_"&amp;D139&amp;"_"&amp;A139&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39788.119017081597</v>
+        <v>28335.319444239016</v>
       </c>
       <c r="G139" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C139&amp;"_"&amp;B139&amp;"_"&amp;D139&amp;"_"&amp;A139&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C139&amp;"_"&amp;B139&amp;"_"&amp;D139&amp;"_"&amp;A139&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10619,13 +10735,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C141&amp;"_"&amp;B141&amp;"_"&amp;D141&amp;"_"&amp;A141&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C141&amp;"_"&amp;B141&amp;"_"&amp;D141&amp;"_"&amp;A141&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C141&amp;"_"&amp;B141&amp;"_"&amp;D141&amp;"_"&amp;A141&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C141&amp;"_"&amp;B141&amp;"_"&amp;D141&amp;"_"&amp;A141&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>4013.4774223900235</v>
       </c>
-      <c r="I141" t="e">
+      <c r="I141">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C141&amp;"_"&amp;B141&amp;"_"&amp;D141&amp;"_"&amp;A141&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C141&amp;"_"&amp;B141&amp;"_"&amp;D141&amp;"_"&amp;A141&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J141" t="e">
+        <v>-260442.98820466641</v>
+      </c>
+      <c r="J141">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C141&amp;"_"&amp;B141&amp;"_"&amp;D141&amp;"_"&amp;A141&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C141&amp;"_"&amp;B141&amp;"_"&amp;D141&amp;"_"&amp;A141&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C141&amp;"_"&amp;B141&amp;"_"&amp;D141&amp;"_"&amp;A141&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C141&amp;"_"&amp;B141&amp;"_"&amp;D141&amp;"_"&amp;A141&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>6664.1375034756938</v>
       </c>
       <c r="K141" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C141&amp;"_"&amp;B141&amp;"_"&amp;D141&amp;"_"&amp;A141&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C141&amp;"_"&amp;B141&amp;"_"&amp;D141&amp;"_"&amp;A141&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10735,13 +10851,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>1657.8964596480491</v>
       </c>
-      <c r="K143" t="e">
+      <c r="K143">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L143" t="e">
+        <v>-305319.88570649998</v>
+      </c>
+      <c r="L143">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>1378.5541839655018</v>
       </c>
       <c r="M143" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10781,13 +10897,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C144&amp;"_"&amp;B144&amp;"_"&amp;D144&amp;"_"&amp;A144&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C144&amp;"_"&amp;B144&amp;"_"&amp;D144&amp;"_"&amp;A144&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C144&amp;"_"&amp;B144&amp;"_"&amp;D144&amp;"_"&amp;A144&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C144&amp;"_"&amp;B144&amp;"_"&amp;D144&amp;"_"&amp;A144&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>4373.0269164152496</v>
       </c>
-      <c r="I144" t="e">
+      <c r="I144">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C144&amp;"_"&amp;B144&amp;"_"&amp;D144&amp;"_"&amp;A144&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C144&amp;"_"&amp;B144&amp;"_"&amp;D144&amp;"_"&amp;A144&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J144" t="e">
+        <v>-250824.86078866644</v>
+      </c>
+      <c r="J144">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C144&amp;"_"&amp;B144&amp;"_"&amp;D144&amp;"_"&amp;A144&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C144&amp;"_"&amp;B144&amp;"_"&amp;D144&amp;"_"&amp;A144&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C144&amp;"_"&amp;B144&amp;"_"&amp;D144&amp;"_"&amp;A144&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C144&amp;"_"&amp;B144&amp;"_"&amp;D144&amp;"_"&amp;A144&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>4251.619479553382</v>
       </c>
       <c r="K144" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C144&amp;"_"&amp;B144&amp;"_"&amp;D144&amp;"_"&amp;A144&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C144&amp;"_"&amp;B144&amp;"_"&amp;D144&amp;"_"&amp;A144&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -11043,13 +11159,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C149&amp;"_"&amp;B149&amp;"_"&amp;D149&amp;"_"&amp;A149&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C149&amp;"_"&amp;B149&amp;"_"&amp;D149&amp;"_"&amp;A149&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C149&amp;"_"&amp;B149&amp;"_"&amp;D149&amp;"_"&amp;A149&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C149&amp;"_"&amp;B149&amp;"_"&amp;D149&amp;"_"&amp;A149&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="G149" t="e">
+      <c r="G149">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C149&amp;"_"&amp;B149&amp;"_"&amp;D149&amp;"_"&amp;A149&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C149&amp;"_"&amp;B149&amp;"_"&amp;D149&amp;"_"&amp;A149&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H149" t="e">
+        <v>-154594.42285579981</v>
+      </c>
+      <c r="H149">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C149&amp;"_"&amp;B149&amp;"_"&amp;D149&amp;"_"&amp;A149&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C149&amp;"_"&amp;B149&amp;"_"&amp;D149&amp;"_"&amp;A149&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C149&amp;"_"&amp;B149&amp;"_"&amp;D149&amp;"_"&amp;A149&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C149&amp;"_"&amp;B149&amp;"_"&amp;D149&amp;"_"&amp;A149&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>1059.5772936966619</v>
       </c>
       <c r="I149" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C149&amp;"_"&amp;B149&amp;"_"&amp;D149&amp;"_"&amp;A149&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C149&amp;"_"&amp;B149&amp;"_"&amp;D149&amp;"_"&amp;A149&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -12352,13 +12468,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>1456.5715260852623</v>
       </c>
-      <c r="I175" t="e">
+      <c r="I175">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J175" t="e">
+        <v>-232340.58643026644</v>
+      </c>
+      <c r="J175">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>1293.082232498544</v>
       </c>
       <c r="K175">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -12368,13 +12484,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>1255.0521047624875</v>
       </c>
-      <c r="M175" t="e">
+      <c r="M175">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N175" t="e">
+        <v>-382013.48443266639</v>
+      </c>
+      <c r="N175">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>1476.1752912523698</v>
       </c>
     </row>
     <row r="176" spans="1:14">
@@ -12398,21 +12514,21 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>39738.507186243398</v>
       </c>
-      <c r="G176" t="e">
+      <c r="G176">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H176" t="e">
+        <v>-156631.27061319977</v>
+      </c>
+      <c r="H176">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I176" t="e">
+        <v>1572.6255158939507</v>
+      </c>
+      <c r="I176">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J176" t="e">
+        <v>-231125.47136529975</v>
+      </c>
+      <c r="J176">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>1353.5005305469224</v>
       </c>
       <c r="K176">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -12576,13 +12692,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>1924.686525893464</v>
       </c>
-      <c r="K179" t="e">
+      <c r="K179">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L179" t="e">
+        <v>-305134.48699306621</v>
+      </c>
+      <c r="L179">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>1534.7040752195137</v>
       </c>
       <c r="M179">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -12638,13 +12754,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>2831.3024900898117</v>
       </c>
-      <c r="M180" t="e">
+      <c r="M180">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N180" t="e">
+        <v>-385942.97391763289</v>
+      </c>
+      <c r="N180">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>3415.1501890354825</v>
       </c>
     </row>
     <row r="181" spans="1:15">
@@ -12676,13 +12792,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>1476.8600927089458</v>
       </c>
-      <c r="I181" t="e">
+      <c r="I181">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J181" t="e">
+        <v>-232417.72539776668</v>
+      </c>
+      <c r="J181">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>1621.6639799388181</v>
       </c>
       <c r="K181">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -12976,7 +13092,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M175:M186">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:N61">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E175:E186">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -12984,12 +13118,30 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:N61">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="G175:G186">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
         <color rgb="FF63C384"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I175:I186">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K175:K186">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFB628"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>

--- a/data/reservoir_summary.xlsx
+++ b/data/reservoir_summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19980" windowHeight="7815" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="19980" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -170,6 +170,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -890,11 +891,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="100394880"/>
-        <c:axId val="100396416"/>
+        <c:axId val="101086720"/>
+        <c:axId val="101088256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100394880"/>
+        <c:axId val="101086720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -902,35 +903,38 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100396416"/>
+        <c:crossAx val="101088256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100396416"/>
+        <c:axId val="101088256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:title/>
+        <c:title>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100394880"/>
+        <c:crossAx val="101086720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1736,836 +1740,851 @@
         </row>
         <row r="303">
           <cell r="A303" t="str">
-            <v>reservoir_20_0.25_2_1_ROOT_MEAN</v>
+            <v>reservoir_20_0.25_10_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="305">
           <cell r="A305" t="str">
-            <v>reservoir_20_0.25_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_0.25_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="307">
           <cell r="A307" t="str">
-            <v>reservoir_20_0.25_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.25_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="309">
           <cell r="A309" t="str">
-            <v>reservoir_20_0.25_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.25_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="311">
           <cell r="A311" t="str">
-            <v>reservoir_20_0.25_2_15_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.25_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="313">
           <cell r="A313" t="str">
-            <v>reservoir_20_0.25_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_0.25_2_15_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="315">
           <cell r="A315" t="str">
-            <v>reservoir_20_0.25_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.25_2_30_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="317">
           <cell r="A317" t="str">
-            <v>reservoir_20_0.25_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.25_2_30_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="319">
           <cell r="A319" t="str">
-            <v>reservoir_20_0.25_5_1_ROOT_MEAN</v>
+            <v>reservoir_20_0.25_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="321">
           <cell r="A321" t="str">
-            <v>reservoir_20_0.25_5_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_0.25_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="323">
           <cell r="A323" t="str">
-            <v>reservoir_20_0.25_5_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.25_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="325">
           <cell r="A325" t="str">
-            <v>reservoir_20_0.25_5_10_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.25_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="327">
           <cell r="A327" t="str">
-            <v>reservoir_20_0.25_5_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_0.25_5_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="329">
           <cell r="A329" t="str">
-            <v>reservoir_20_0.25_5_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.25_5_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="331">
           <cell r="A331" t="str">
-            <v>reservoir_20_0.25_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.25_5_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="333">
           <cell r="A333" t="str">
-            <v>reservoir_20_0.5_10_1_ROOT_MEAN</v>
+            <v>reservoir_20_0.25_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="335">
           <cell r="A335" t="str">
-            <v>reservoir_20_0.5_2_1_ROOT_MEAN</v>
+            <v>reservoir_20_0.25_5_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="337">
           <cell r="A337" t="str">
-            <v>reservoir_20_0.5_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_0.25_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="339">
           <cell r="A339" t="str">
-            <v>reservoir_20_0.5_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.5_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="341">
           <cell r="A341" t="str">
-            <v>reservoir_20_0.5_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.5_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="343">
           <cell r="A343" t="str">
-            <v>reservoir_20_0.5_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.5_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="345">
           <cell r="A345" t="str">
-            <v>reservoir_20_0.5_5_1_ROOT_MEAN</v>
+            <v>reservoir_20_0.5_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="347">
           <cell r="A347" t="str">
-            <v>reservoir_20_0.5_5_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_0.5_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="349">
           <cell r="A349" t="str">
-            <v>reservoir_20_0.5_5_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.5_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="351">
           <cell r="A351" t="str">
-            <v>reservoir_20_0.5_5_10_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.5_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="353">
           <cell r="A353" t="str">
-            <v>reservoir_20_0.5_5_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_0.5_5_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="355">
           <cell r="A355" t="str">
-            <v>reservoir_20_0.5_5_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.5_5_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="357">
           <cell r="A357" t="str">
-            <v>reservoir_20_0.5_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.5_5_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="359">
           <cell r="A359" t="str">
-            <v>reservoir_20_1_10_1_ROOT_MEAN</v>
+            <v>reservoir_20_0.5_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="361">
           <cell r="A361" t="str">
-            <v>reservoir_20_1_2_1_ROOT_MEAN</v>
+            <v>reservoir_20_0.5_5_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="363">
           <cell r="A363" t="str">
-            <v>reservoir_20_1_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_0.5_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="365">
           <cell r="A365" t="str">
-            <v>reservoir_20_1_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_1_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="367">
           <cell r="A367" t="str">
-            <v>reservoir_20_1_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_20_1_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="369">
           <cell r="A369" t="str">
-            <v>reservoir_20_1_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_1_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="371">
           <cell r="A371" t="str">
-            <v>reservoir_20_1_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_1_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="373">
           <cell r="A373" t="str">
-            <v>reservoir_20_1_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_20_1_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="375">
           <cell r="A375" t="str">
-            <v>reservoir_20_1_5_1_ROOT_MEAN</v>
+            <v>reservoir_20_1_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="377">
           <cell r="A377" t="str">
-            <v>reservoir_20_1_5_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_1_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="379">
           <cell r="A379" t="str">
-            <v>reservoir_20_1_5_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_1_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="381">
           <cell r="A381" t="str">
-            <v>reservoir_20_1_5_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_1_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="383">
           <cell r="A383" t="str">
-            <v>reservoir_20_1_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_20_1_5_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="385">
           <cell r="A385" t="str">
-            <v>reservoir_20_2_10_1_ROOT_MEAN</v>
+            <v>reservoir_20_1_5_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="387">
           <cell r="A387" t="str">
-            <v>reservoir_20_2_2_1_ROOT_MEAN</v>
+            <v>reservoir_20_1_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="389">
           <cell r="A389" t="str">
-            <v>reservoir_20_2_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_20_1_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="391">
           <cell r="A391" t="str">
-            <v>reservoir_20_2_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_20_2_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="393">
           <cell r="A393" t="str">
-            <v>reservoir_20_2_5_1_ROOT_MEAN</v>
+            <v>reservoir_20_2_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="395">
           <cell r="A395" t="str">
-            <v>reservoir_20_2_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_20_2_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="397">
           <cell r="A397" t="str">
-            <v>reservoir_20_noop_noop</v>
+            <v>reservoir_20_2_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="399">
           <cell r="A399" t="str">
-            <v>reservoir_20_random_random</v>
+            <v>reservoir_20_2_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="401">
           <cell r="A401" t="str">
-            <v>reservoir_30_0.25_10_1_ROOT_MEAN</v>
+            <v>reservoir_20_2_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="403">
           <cell r="A403" t="str">
-            <v>reservoir_30_0.25_2_1_ROOT_MEAN</v>
+            <v>reservoir_20_noop_noop</v>
           </cell>
         </row>
         <row r="405">
           <cell r="A405" t="str">
-            <v>reservoir_30_0.25_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_random_random</v>
           </cell>
         </row>
         <row r="407">
           <cell r="A407" t="str">
-            <v>reservoir_30_0.25_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_0.25_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="409">
           <cell r="A409" t="str">
-            <v>reservoir_30_0.25_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_30_0.25_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="411">
           <cell r="A411" t="str">
-            <v>reservoir_30_0.25_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_0.25_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="413">
           <cell r="A413" t="str">
-            <v>reservoir_30_0.25_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_0.25_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="415">
           <cell r="A415" t="str">
-            <v>reservoir_30_0.25_5_1_ROOT_MEAN</v>
+            <v>reservoir_30_0.25_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="417">
           <cell r="A417" t="str">
-            <v>reservoir_30_0.25_5_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_0.25_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="419">
           <cell r="A419" t="str">
-            <v>reservoir_30_0.25_5_10_ROOT_SAMPLE</v>
+            <v>reservoir_30_0.25_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="421">
           <cell r="A421" t="str">
-            <v>reservoir_30_0.25_5_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_0.25_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="423">
           <cell r="A423" t="str">
-            <v>reservoir_30_0.25_5_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_0.25_5_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="425">
           <cell r="A425" t="str">
-            <v>reservoir_30_0.25_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_30_0.25_5_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="427">
           <cell r="A427" t="str">
-            <v>reservoir_30_0.5_10_1_ROOT_MEAN</v>
+            <v>reservoir_30_0.25_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="429">
           <cell r="A429" t="str">
-            <v>reservoir_30_0.5_2_1_ROOT_MEAN</v>
+            <v>reservoir_30_0.25_5_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="431">
           <cell r="A431" t="str">
-            <v>reservoir_30_0.5_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_0.25_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="433">
           <cell r="A433" t="str">
-            <v>reservoir_30_0.5_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_0.5_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="435">
           <cell r="A435" t="str">
-            <v>reservoir_30_0.5_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_30_0.5_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="437">
           <cell r="A437" t="str">
-            <v>reservoir_30_0.5_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_0.5_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="439">
           <cell r="A439" t="str">
-            <v>reservoir_30_0.5_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_0.5_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="441">
           <cell r="A441" t="str">
-            <v>reservoir_30_0.5_5_1_ROOT_MEAN</v>
+            <v>reservoir_30_0.5_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="443">
           <cell r="A443" t="str">
-            <v>reservoir_30_0.5_5_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_0.5_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="445">
           <cell r="A445" t="str">
-            <v>reservoir_30_0.5_5_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_0.5_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="447">
           <cell r="A447" t="str">
-            <v>reservoir_30_0.5_5_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_0.5_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="449">
           <cell r="A449" t="str">
-            <v>reservoir_30_0.5_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_30_0.5_5_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="451">
           <cell r="A451" t="str">
-            <v>reservoir_30_1_10_1_ROOT_MEAN</v>
+            <v>reservoir_30_0.5_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="453">
           <cell r="A453" t="str">
-            <v>reservoir_30_1_2_1_ROOT_MEAN</v>
+            <v>reservoir_30_0.5_5_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="455">
           <cell r="A455" t="str">
-            <v>reservoir_30_1_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_0.5_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="457">
           <cell r="A457" t="str">
-            <v>reservoir_30_1_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_1_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="459">
           <cell r="A459" t="str">
-            <v>reservoir_30_1_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_1_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="461">
           <cell r="A461" t="str">
-            <v>reservoir_30_1_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_1_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="463">
           <cell r="A463" t="str">
-            <v>reservoir_30_1_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_30_1_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="465">
           <cell r="A465" t="str">
-            <v>reservoir_30_1_5_1_ROOT_MEAN</v>
+            <v>reservoir_30_1_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="467">
           <cell r="A467" t="str">
-            <v>reservoir_30_1_5_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_1_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="469">
           <cell r="A469" t="str">
-            <v>reservoir_30_1_5_10_ROOT_SAMPLE</v>
+            <v>reservoir_30_1_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="471">
           <cell r="A471" t="str">
-            <v>reservoir_30_1_5_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_1_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="473">
           <cell r="A473" t="str">
-            <v>reservoir_30_1_5_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_1_5_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="475">
           <cell r="A475" t="str">
-            <v>reservoir_30_1_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_30_1_5_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="477">
           <cell r="A477" t="str">
-            <v>reservoir_30_2_10_1_ROOT_MEAN</v>
+            <v>reservoir_30_1_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="479">
           <cell r="A479" t="str">
-            <v>reservoir_30_2_2_1_ROOT_MEAN</v>
+            <v>reservoir_30_1_5_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="481">
           <cell r="A481" t="str">
-            <v>reservoir_30_2_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_1_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="483">
           <cell r="A483" t="str">
-            <v>reservoir_30_2_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_2_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="485">
           <cell r="A485" t="str">
-            <v>reservoir_30_2_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_30_2_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="487">
           <cell r="A487" t="str">
-            <v>reservoir_30_2_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_2_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="489">
           <cell r="A489" t="str">
-            <v>reservoir_30_2_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_2_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="491">
           <cell r="A491" t="str">
-            <v>reservoir_30_2_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_30_2_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="493">
           <cell r="A493" t="str">
-            <v>reservoir_30_2_5_1_ROOT_MEAN</v>
+            <v>reservoir_30_2_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="495">
           <cell r="A495" t="str">
-            <v>reservoir_30_2_5_10_ROOT_SAMPLE</v>
+            <v>reservoir_30_2_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="497">
           <cell r="A497" t="str">
-            <v>reservoir_30_2_5_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_2_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="499">
           <cell r="A499" t="str">
-            <v>reservoir_30_2_5_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_2_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="501">
           <cell r="A501" t="str">
-            <v>reservoir_30_2_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_30_2_5_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="503">
           <cell r="A503" t="str">
-            <v>reservoir_30_noop_noop</v>
+            <v>reservoir_30_2_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="505">
           <cell r="A505" t="str">
-            <v>reservoir_30_random_random</v>
+            <v>reservoir_30_2_5_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="507">
           <cell r="A507" t="str">
-            <v>reservoir_40_0.25_10_1_ROOT_MEAN</v>
+            <v>reservoir_30_2_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="509">
           <cell r="A509" t="str">
-            <v>reservoir_40_0.25_2_1_ROOT_MEAN</v>
+            <v>reservoir_30_noop_noop</v>
           </cell>
         </row>
         <row r="511">
           <cell r="A511" t="str">
-            <v>reservoir_40_0.25_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_random_random</v>
           </cell>
         </row>
         <row r="513">
           <cell r="A513" t="str">
-            <v>reservoir_40_0.25_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_40_0.25_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="515">
           <cell r="A515" t="str">
-            <v>reservoir_40_0.25_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_40_0.25_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="517">
           <cell r="A517" t="str">
-            <v>reservoir_40_0.25_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_40_0.25_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="519">
           <cell r="A519" t="str">
-            <v>reservoir_40_0.25_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_40_0.25_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="521">
           <cell r="A521" t="str">
-            <v>reservoir_40_0.25_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_40_0.25_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="523">
           <cell r="A523" t="str">
-            <v>reservoir_40_0.25_5_1_ROOT_MEAN</v>
+            <v>reservoir_40_0.25_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="525">
           <cell r="A525" t="str">
-            <v>reservoir_40_0.25_5_10_ROOT_SAMPLE</v>
+            <v>reservoir_40_0.25_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="527">
           <cell r="A527" t="str">
-            <v>reservoir_40_0.25_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_40_0.25_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="529">
           <cell r="A529" t="str">
-            <v>reservoir_40_0.5_10_1_ROOT_MEAN</v>
+            <v>reservoir_40_0.25_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="531">
           <cell r="A531" t="str">
-            <v>reservoir_40_0.5_2_1_ROOT_MEAN</v>
+            <v>reservoir_40_0.25_5_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="533">
           <cell r="A533" t="str">
-            <v>reservoir_40_0.5_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_40_0.25_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="535">
           <cell r="A535" t="str">
-            <v>reservoir_40_0.5_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_40_0.5_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="537">
           <cell r="A537" t="str">
-            <v>reservoir_40_0.5_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_40_0.5_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="539">
           <cell r="A539" t="str">
-            <v>reservoir_40_0.5_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_40_0.5_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="541">
           <cell r="A541" t="str">
-            <v>reservoir_40_0.5_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_40_0.5_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="543">
           <cell r="A543" t="str">
-            <v>reservoir_40_0.5_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_40_0.5_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="545">
           <cell r="A545" t="str">
-            <v>reservoir_40_0.5_5_1_ROOT_MEAN</v>
+            <v>reservoir_40_0.5_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="547">
           <cell r="A547" t="str">
-            <v>reservoir_40_0.5_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_40_0.5_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="549">
           <cell r="A549" t="str">
-            <v>reservoir_40_1_2_1_ROOT_MEAN</v>
+            <v>reservoir_40_0.5_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="551">
           <cell r="A551" t="str">
-            <v>reservoir_40_1_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_40_0.5_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="553">
           <cell r="A553" t="str">
-            <v>reservoir_40_1_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_40_0.5_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="555">
           <cell r="A555" t="str">
-            <v>reservoir_40_1_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_40_1_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="557">
           <cell r="A557" t="str">
-            <v>reservoir_40_1_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_40_1_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="559">
           <cell r="A559" t="str">
-            <v>reservoir_40_1_5_1_ROOT_MEAN</v>
+            <v>reservoir_40_1_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="561">
           <cell r="A561" t="str">
-            <v>reservoir_40_1_5_10_ROOT_SAMPLE</v>
+            <v>reservoir_40_1_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="563">
           <cell r="A563" t="str">
-            <v>reservoir_40_1_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_40_1_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="565">
           <cell r="A565" t="str">
-            <v>reservoir_40_2_10_1_ROOT_MEAN</v>
+            <v>reservoir_40_1_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="567">
           <cell r="A567" t="str">
-            <v>reservoir_40_2_2_1_ROOT_MEAN</v>
+            <v>reservoir_40_1_5_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="569">
           <cell r="A569" t="str">
-            <v>reservoir_40_2_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_40_1_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="571">
           <cell r="A571" t="str">
-            <v>reservoir_40_2_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_40_2_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="573">
           <cell r="A573" t="str">
-            <v>reservoir_40_2_5_1_ROOT_MEAN</v>
+            <v>reservoir_40_2_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="575">
           <cell r="A575" t="str">
-            <v>reservoir_40_2_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_40_2_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="577">
           <cell r="A577" t="str">
-            <v>reservoir_40_noop_noop</v>
+            <v>reservoir_40_2_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="579">
           <cell r="A579" t="str">
-            <v>reservoir_40_random_random</v>
+            <v>reservoir_40_2_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="581">
           <cell r="A581" t="str">
-            <v>reservoir_50_0.25_10_1_ROOT_MEAN</v>
+            <v>reservoir_40_2_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="583">
           <cell r="A583" t="str">
-            <v>reservoir_50_0.25_2_1_ROOT_MEAN</v>
+            <v>reservoir_40_noop_noop</v>
           </cell>
         </row>
         <row r="585">
           <cell r="A585" t="str">
-            <v>reservoir_50_0.25_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_40_random_random</v>
           </cell>
         </row>
         <row r="587">
           <cell r="A587" t="str">
-            <v>reservoir_50_0.25_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_50_0.25_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="589">
           <cell r="A589" t="str">
-            <v>reservoir_50_0.25_5_1_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_50_0.25_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="591">
           <cell r="A591" t="str">
-            <v>reservoir_50_0.25_5_1_ROOT_MEAN</v>
+            <v>reservoir_50_0.25_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="593">
           <cell r="A593" t="str">
-            <v>reservoir_50_0.25_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_50_0.25_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="595">
           <cell r="A595" t="str">
-            <v>reservoir_50_0.5_10_1_ROOT_MEAN</v>
+            <v>reservoir_50_0.25_5_1_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="597">
           <cell r="A597" t="str">
-            <v>reservoir_50_0.5_2_1_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_50_0.25_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="599">
           <cell r="A599" t="str">
-            <v>reservoir_50_0.5_2_1_ROOT_MEAN</v>
+            <v>reservoir_50_0.25_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="601">
           <cell r="A601" t="str">
-            <v>reservoir_50_0.5_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_50_0.5_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="603">
           <cell r="A603" t="str">
-            <v>reservoir_50_0.5_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_50_0.5_2_1_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="605">
           <cell r="A605" t="str">
-            <v>reservoir_50_0.5_5_1_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_50_0.5_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="607">
           <cell r="A607" t="str">
-            <v>reservoir_50_0.5_5_1_ROOT_MEAN</v>
+            <v>reservoir_50_0.5_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="609">
           <cell r="A609" t="str">
-            <v>reservoir_50_0.5_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_50_0.5_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="611">
           <cell r="A611" t="str">
-            <v>reservoir_50_1_10_1_ROOT_MEAN</v>
+            <v>reservoir_50_0.5_5_1_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="613">
           <cell r="A613" t="str">
-            <v>reservoir_50_1_2_1_ROOT_MEAN</v>
+            <v>reservoir_50_0.5_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="615">
           <cell r="A615" t="str">
-            <v>reservoir_50_1_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_50_0.5_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="617">
           <cell r="A617" t="str">
-            <v>reservoir_50_1_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_50_1_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="619">
           <cell r="A619" t="str">
-            <v>reservoir_50_1_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_50_1_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="621">
           <cell r="A621" t="str">
-            <v>reservoir_50_1_5_1_ROOT_MEAN</v>
+            <v>reservoir_50_1_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="623">
           <cell r="A623" t="str">
-            <v>reservoir_50_2_10_1_ROOT_MEAN</v>
+            <v>reservoir_50_1_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="625">
           <cell r="A625" t="str">
-            <v>reservoir_50_2_2_1_ROOT_MEAN</v>
+            <v>reservoir_50_1_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="627">
           <cell r="A627" t="str">
-            <v>reservoir_50_2_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_50_1_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="629">
           <cell r="A629" t="str">
-            <v>reservoir_50_2_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_50_2_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="631">
           <cell r="A631" t="str">
-            <v>reservoir_50_2_5_1_ROOT_MEAN</v>
+            <v>reservoir_50_2_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="633">
           <cell r="A633" t="str">
-            <v>reservoir_50_2_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_50_2_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="635">
           <cell r="A635" t="str">
+            <v>reservoir_50_2_2_5_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="637">
+          <cell r="A637" t="str">
+            <v>reservoir_50_2_5_1_ROOT_MEAN</v>
+          </cell>
+        </row>
+        <row r="639">
+          <cell r="A639" t="str">
+            <v>reservoir_50_2_5_5_ROOT_SAMPLE</v>
+          </cell>
+        </row>
+        <row r="641">
+          <cell r="A641" t="str">
             <v>reservoir_50_random_random</v>
           </cell>
         </row>
@@ -2862,8 +2881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3310,8 +3329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="M188" sqref="M188"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K183" sqref="K183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9215,13 +9234,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C112&amp;"_"&amp;B112&amp;"_"&amp;D112&amp;"_"&amp;A112&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C112&amp;"_"&amp;B112&amp;"_"&amp;D112&amp;"_"&amp;A112&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C112&amp;"_"&amp;B112&amp;"_"&amp;D112&amp;"_"&amp;A112&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C112&amp;"_"&amp;B112&amp;"_"&amp;D112&amp;"_"&amp;A112&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="G112" t="e">
+      <c r="G112">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C112&amp;"_"&amp;B112&amp;"_"&amp;D112&amp;"_"&amp;A112&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C112&amp;"_"&amp;B112&amp;"_"&amp;D112&amp;"_"&amp;A112&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H112" t="e">
+        <v>-242737.92175103314</v>
+      </c>
+      <c r="H112">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C112&amp;"_"&amp;B112&amp;"_"&amp;D112&amp;"_"&amp;A112&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C112&amp;"_"&amp;B112&amp;"_"&amp;D112&amp;"_"&amp;A112&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C112&amp;"_"&amp;B112&amp;"_"&amp;D112&amp;"_"&amp;A112&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C112&amp;"_"&amp;B112&amp;"_"&amp;D112&amp;"_"&amp;A112&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>35520.1367930083</v>
       </c>
       <c r="I112" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C112&amp;"_"&amp;B112&amp;"_"&amp;D112&amp;"_"&amp;A112&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C112&amp;"_"&amp;B112&amp;"_"&amp;D112&amp;"_"&amp;A112&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -9971,13 +9990,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C127&amp;"_"&amp;B127&amp;"_"&amp;D127&amp;"_"&amp;A127&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C127&amp;"_"&amp;B127&amp;"_"&amp;D127&amp;"_"&amp;A127&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C127&amp;"_"&amp;B127&amp;"_"&amp;D127&amp;"_"&amp;A127&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C127&amp;"_"&amp;B127&amp;"_"&amp;D127&amp;"_"&amp;A127&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>37321.169100987958</v>
       </c>
-      <c r="G127" t="e">
+      <c r="G127">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C127&amp;"_"&amp;B127&amp;"_"&amp;D127&amp;"_"&amp;A127&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C127&amp;"_"&amp;B127&amp;"_"&amp;D127&amp;"_"&amp;A127&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H127" t="e">
+        <v>-330860.22046573297</v>
+      </c>
+      <c r="H127">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C127&amp;"_"&amp;B127&amp;"_"&amp;D127&amp;"_"&amp;A127&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C127&amp;"_"&amp;B127&amp;"_"&amp;D127&amp;"_"&amp;A127&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C127&amp;"_"&amp;B127&amp;"_"&amp;D127&amp;"_"&amp;A127&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C127&amp;"_"&amp;B127&amp;"_"&amp;D127&amp;"_"&amp;A127&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>30751.307870616423</v>
       </c>
       <c r="I127" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C127&amp;"_"&amp;B127&amp;"_"&amp;D127&amp;"_"&amp;A127&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C127&amp;"_"&amp;B127&amp;"_"&amp;D127&amp;"_"&amp;A127&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -11807,13 +11826,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C161&amp;"_"&amp;B161&amp;"_"&amp;D161&amp;"_"&amp;A161&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C161&amp;"_"&amp;B161&amp;"_"&amp;D161&amp;"_"&amp;A161&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C161&amp;"_"&amp;B161&amp;"_"&amp;D161&amp;"_"&amp;A161&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C161&amp;"_"&amp;B161&amp;"_"&amp;D161&amp;"_"&amp;A161&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="G161" t="e">
+      <c r="G161">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C161&amp;"_"&amp;B161&amp;"_"&amp;D161&amp;"_"&amp;A161&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C161&amp;"_"&amp;B161&amp;"_"&amp;D161&amp;"_"&amp;A161&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H161" t="e">
+        <v>-158714.76798193314</v>
+      </c>
+      <c r="H161">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C161&amp;"_"&amp;B161&amp;"_"&amp;D161&amp;"_"&amp;A161&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C161&amp;"_"&amp;B161&amp;"_"&amp;D161&amp;"_"&amp;A161&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C161&amp;"_"&amp;B161&amp;"_"&amp;D161&amp;"_"&amp;A161&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C161&amp;"_"&amp;B161&amp;"_"&amp;D161&amp;"_"&amp;A161&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>9168.5709585592049</v>
       </c>
       <c r="I161" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C161&amp;"_"&amp;B161&amp;"_"&amp;D161&amp;"_"&amp;A161&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C161&amp;"_"&amp;B161&amp;"_"&amp;D161&amp;"_"&amp;A161&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>

--- a/data/reservoir_summary.xlsx
+++ b/data/reservoir_summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19980" windowHeight="7815" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="19980" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -282,6 +282,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -317,10 +318,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>40139.800010333143</c:v>
+                    <c:v>#N/A</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>242.20959197173391</c:v>
+                    <c:v>331.22314261694709</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>424.82393808654552</c:v>
@@ -341,10 +342,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>40139.800010333143</c:v>
+                    <c:v>#N/A</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>242.20959197173391</c:v>
+                    <c:v>331.22314261694709</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>424.82393808654552</c:v>
@@ -390,10 +391,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-705558.74752460001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-150967.35654949996</c:v>
+                  <c:v>-151004.78483646669</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-226035.00308889986</c:v>
@@ -434,7 +435,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>40189.103171348594</c:v>
+                    <c:v>#N/A</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>1540.3828499442234</c:v>
@@ -443,10 +444,10 @@
                     <c:v>1068.8191265013593</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>900.88642947188555</c:v>
+                    <c:v>1022.1855558961531</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1465.5982741006972</c:v>
+                    <c:v>1572.7339981239572</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -458,7 +459,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>40189.103171348594</c:v>
+                    <c:v>#N/A</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>1540.3828499442234</c:v>
@@ -467,10 +468,10 @@
                     <c:v>1068.8191265013593</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>900.88642947188555</c:v>
+                    <c:v>1022.1855558961531</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1465.5982741006972</c:v>
+                    <c:v>1572.7339981239572</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -507,7 +508,7 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-706549.62999373302</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-153286.71304893334</c:v>
@@ -516,10 +517,10 @@
                   <c:v>-227932.24678416669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-303046.13746199937</c:v>
+                  <c:v>-303372.45221636642</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-379795.4045771996</c:v>
+                  <c:v>-383207.67715169961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -551,7 +552,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>40414.68412926286</c:v>
+                    <c:v>#N/A</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>1011.4446417536426</c:v>
@@ -563,7 +564,7 @@
                     <c:v>1450.4726333482045</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1225.158580193593</c:v>
+                    <c:v>6491.5669504265343</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -575,7 +576,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>40414.68412926286</c:v>
+                    <c:v>#N/A</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>1011.4446417536426</c:v>
@@ -587,7 +588,7 @@
                     <c:v>1450.4726333482045</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1225.158580193593</c:v>
+                    <c:v>6491.5669504265343</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -624,7 +625,7 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-713035.113067133</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-154479.67325916651</c:v>
@@ -636,7 +637,7 @@
                   <c:v>-304924.71780873288</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-380280.0739385999</c:v>
+                  <c:v>-385520.4935253333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -668,13 +669,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>40139.800010333143</c:v>
+                    <c:v>#N/A</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>805.80560200807531</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1353.5005305448028</c:v>
+                    <c:v>1071.7638702089453</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>1124.0477006826211</c:v>
@@ -692,13 +693,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>40139.800010333143</c:v>
+                    <c:v>#N/A</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>805.80560200807531</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1353.5005305448028</c:v>
+                    <c:v>1071.7638702089453</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>1124.0477006826211</c:v>
@@ -741,13 +742,13 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-705558.74752460001</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-153204.55133199989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-231125.47136529975</c:v>
+                  <c:v>-231317.32739898053</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-303580.59441856609</c:v>
@@ -785,7 +786,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>24616.53439188164</c:v>
+                    <c:v>#N/A</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>13498.908938073535</c:v>
@@ -809,7 +810,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>24616.53439188164</c:v>
+                    <c:v>#N/A</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>13498.908938073535</c:v>
@@ -858,7 +859,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="0.000">
-                  <c:v>-730572.06487864989</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-371066.35316334968</c:v>
@@ -902,7 +903,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>25840.82272770883</c:v>
+                    <c:v>#N/A</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>16500.131416962129</c:v>
@@ -926,7 +927,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>25840.82272770883</c:v>
+                    <c:v>#N/A</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>16500.131416962129</c:v>
@@ -975,7 +976,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>-1040694.4035340393</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-640683.5398220839</c:v>
@@ -1002,11 +1003,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="310410248"/>
-        <c:axId val="310415344"/>
+        <c:axId val="466299272"/>
+        <c:axId val="466303584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="310410248"/>
+        <c:axId val="466299272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1028,13 +1029,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="high"/>
-        <c:crossAx val="310415344"/>
+        <c:crossAx val="466303584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1042,7 +1044,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="310415344"/>
+        <c:axId val="466303584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1064,19 +1066,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="310410248"/>
+        <c:crossAx val="466299272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1132,6 +1136,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1195,13 +1200,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>40181.329055406401</c:v>
+                    <c:v>#N/A</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>242.20959197173391</c:v>
+                    <c:v>331.22314261694709</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>553.97474083882776</c:v>
+                    <c:v>838.67820589280166</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>713.01950409074811</c:v>
@@ -1219,13 +1224,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>40181.329055406401</c:v>
+                    <c:v>#N/A</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>242.20959197173391</c:v>
+                    <c:v>331.22314261694709</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>553.97474083882776</c:v>
+                    <c:v>838.67820589280166</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>713.01950409074811</c:v>
@@ -1278,13 +1283,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-708426.35977360001</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-150967.35654949996</c:v>
+                  <c:v>-151004.78483646669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-227011.61531899983</c:v>
+                  <c:v>-227135.92624956652</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-302371.24586553272</c:v>
@@ -1331,19 +1336,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>28328.559456726012</c:v>
+                    <c:v>#N/A</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1159.7819921319451</c:v>
+                    <c:v>#N/A</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>878.55996756240802</c:v>
+                    <c:v>1339.2904010681068</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1131.1377381057916</c:v>
+                    <c:v>#N/A</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1465.5982741006972</c:v>
+                    <c:v>#N/A</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1355,19 +1360,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>28328.559456726012</c:v>
+                    <c:v>#N/A</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1159.7819921319451</c:v>
+                    <c:v>#N/A</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>878.55996756240802</c:v>
+                    <c:v>1339.2904010681068</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1131.1377381057916</c:v>
+                    <c:v>#N/A</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1465.5982741006972</c:v>
+                    <c:v>#N/A</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1390,19 +1395,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-724079.68476471654</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-155600.90736036652</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-229289.89469091655</c:v>
+                  <c:v>-229348.97434053311</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-304498.7101304995</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-379795.4045771996</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1443,19 +1448,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>40471.010743909159</c:v>
+                    <c:v>#N/A</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4522.5545957991026</c:v>
+                    <c:v>#N/A</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3646.188371918282</c:v>
+                    <c:v>4775.8070975943856</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3869.5567684325961</c:v>
+                    <c:v>#N/A</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>4701.0365684485732</c:v>
+                    <c:v>#N/A</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1467,19 +1472,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>40471.010743909159</c:v>
+                    <c:v>#N/A</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4522.5545957991026</c:v>
+                    <c:v>#N/A</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3646.188371918282</c:v>
+                    <c:v>4775.8070975943856</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3869.5567684325961</c:v>
+                    <c:v>#N/A</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>4701.0365684485732</c:v>
+                    <c:v>#N/A</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1502,19 +1507,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-743403.19166289992</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-178291.13138956661</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-260555.24446754984</c:v>
+                  <c:v>-260734.40222013328</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-324786.42054246593</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-401736.7755404326</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1555,7 +1560,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>39782.183561187368</c:v>
+                    <c:v>#N/A</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>1446.5655300878138</c:v>
@@ -1579,7 +1584,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>39782.183561187368</c:v>
+                    <c:v>#N/A</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>1446.5655300878138</c:v>
@@ -1614,7 +1619,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-709560.32436303294</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-157120.03041009995</c:v>
@@ -1667,7 +1672,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>24616.53439188164</c:v>
+                    <c:v>#N/A</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>13498.908938073535</c:v>
@@ -1691,7 +1696,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>24616.53439188164</c:v>
+                    <c:v>#N/A</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>13498.908938073535</c:v>
@@ -1750,7 +1755,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="0.000">
-                  <c:v>-730572.06487864989</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-371066.35316334968</c:v>
@@ -1803,7 +1808,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>25840.82272770883</c:v>
+                    <c:v>#N/A</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>16500.131416962129</c:v>
@@ -1827,7 +1832,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>25840.82272770883</c:v>
+                    <c:v>#N/A</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>16500.131416962129</c:v>
@@ -1886,7 +1891,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>-1040694.4035340393</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-640683.5398220839</c:v>
@@ -1914,11 +1919,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="310413776"/>
-        <c:axId val="310420048"/>
+        <c:axId val="466298880"/>
+        <c:axId val="466299664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="310413776"/>
+        <c:axId val="466298880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1955,6 +1960,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2021,7 +2027,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310420048"/>
+        <c:crossAx val="466299664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2029,7 +2035,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="310420048"/>
+        <c:axId val="466299664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2061,6 +2067,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2121,7 +2128,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310413776"/>
+        <c:crossAx val="466298880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2135,6 +2142,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2728,11 +2736,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="335516768"/>
-        <c:axId val="335517160"/>
+        <c:axId val="474405688"/>
+        <c:axId val="474397456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="335516768"/>
+        <c:axId val="474405688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2775,7 +2783,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="335517160"/>
+        <c:crossAx val="474397456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2783,7 +2791,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="335517160"/>
+        <c:axId val="474397456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2890,7 +2898,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="335516768"/>
+        <c:crossAx val="474405688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4172,1716 +4180,916 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="A1" t="str">
-            <v>reservoir_10_0.25_10_1_ROOT_MEAN</v>
+            <v>reservoir_10</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>reservoir_10_0.25_10_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.25_10_1_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>reservoir_10_0.25_10_10_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.25_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>reservoir_10_0.25_10_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_0.25_10_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>reservoir_10_0.25_10_15_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.25_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>reservoir_10_0.25_10_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.25_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>reservoir_10_0.25_10_5_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.25_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>reservoir_10_0.25_2_1_ROOT_MEAN</v>
+            <v>reservoir_20_0.25_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>reservoir_10_0.25_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_0.25_2_15_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>reservoir_10_0.25_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.25_2_30_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>reservoir_10_0.25_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.25_2_30_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>reservoir_10_0.25_2_15_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.25_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>reservoir_10_0.25_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_0.25_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>reservoir_10_0.25_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.25_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>reservoir_10_0.25_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.25_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>reservoir_10_0.25_2_50_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_0.25_5_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>reservoir_10_0.25_2_50_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.25_5_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>reservoir_10_0.25_5_1_ROOT_MEAN</v>
+            <v>reservoir_20_0.25_5_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>reservoir_10_0.25_5_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_0.25_5_15_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>reservoir_10_0.25_5_15_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.25_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>reservoir_10_0.25_5_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_0.25_5_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>reservoir_10_0.25_5_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.25_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>reservoir_10_0.25_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.5_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>reservoir_10_0.25_5_50_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_0.5_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>reservoir_10_0.25_5_50_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.5_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>reservoir_10_0.25_5_50_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.5_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>reservoir_10_0.5_10_1_ROOT_MEAN</v>
+            <v>reservoir_20_0.5_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>reservoir_10_0.5_10_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_0.5_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>reservoir_10_0.5_10_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.5_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>reservoir_10_0.5_10_10_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.5_5_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>reservoir_10_0.5_10_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_0.5_5_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>reservoir_10_0.5_10_15_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.5_5_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>reservoir_10_0.5_10_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_0.5_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>reservoir_10_0.5_10_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_0.5_5_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>reservoir_10_0.5_10_5_ROOT_SAMPLE</v>
+            <v>reservoir_20_0.5_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>reservoir_10_0.5_2_1_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_1_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>reservoir_10_0.5_2_1_ROOT_MEAN</v>
+            <v>reservoir_20_1_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>reservoir_10_0.5_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_1_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>reservoir_10_0.5_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_1_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>reservoir_10_0.5_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_20_1_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>reservoir_10_0.5_2_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_1_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>reservoir_10_0.5_2_15_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_1_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>reservoir_10_0.5_2_15_ROOT_SAMPLE</v>
+            <v>reservoir_20_1_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87" t="str">
-            <v>reservoir_10_0.5_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_1_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v>reservoir_10_0.5_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_20_1_5_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91" t="str">
-            <v>reservoir_10_0.5_2_50_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_1_5_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93" t="str">
-            <v>reservoir_10_0.5_2_50_ROOT_SAMPLE</v>
+            <v>reservoir_20_1_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95" t="str">
-            <v>reservoir_10_0.5_5_1_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_1_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97" t="str">
-            <v>reservoir_10_0.5_5_1_ROOT_MEAN</v>
+            <v>reservoir_20_2_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99" t="str">
-            <v>reservoir_10_0.5_5_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_2_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101" t="str">
-            <v>reservoir_10_0.5_5_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_2_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103" t="str">
-            <v>reservoir_10_0.5_5_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_2_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105" t="str">
-            <v>reservoir_10_0.5_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_20_2_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107" t="str">
-            <v>reservoir_10_0.5_5_50_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_20_2_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109" t="str">
-            <v>reservoir_10_0.5_5_50_ROOT_SAMPLE</v>
+            <v>reservoir_20_noop_noop</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111" t="str">
-            <v>reservoir_10_1_10_1_ROOT_MEAN</v>
+            <v>reservoir_20_random_random</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113" t="str">
-            <v>reservoir_10_1_10_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_0.25_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115" t="str">
-            <v>reservoir_10_1_10_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_0.25_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117" t="str">
-            <v>reservoir_10_1_10_10_ROOT_SAMPLE</v>
+            <v>reservoir_30_0.25_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="119">
           <cell r="A119" t="str">
-            <v>reservoir_10_1_10_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_0.25_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="121">
           <cell r="A121" t="str">
-            <v>reservoir_10_1_10_15_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_0.25_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="123">
           <cell r="A123" t="str">
-            <v>reservoir_10_1_10_15_ROOT_SAMPLE</v>
+            <v>reservoir_30_0.25_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="125">
           <cell r="A125" t="str">
-            <v>reservoir_10_1_10_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_0.25_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="127">
           <cell r="A127" t="str">
-            <v>reservoir_10_1_10_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_0.25_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="129">
           <cell r="A129" t="str">
-            <v>reservoir_10_1_10_5_ROOT_SAMPLE</v>
+            <v>reservoir_30_0.25_5_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="131">
           <cell r="A131" t="str">
-            <v>reservoir_10_1_2_1_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_0.25_5_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="133">
           <cell r="A133" t="str">
-            <v>reservoir_10_1_2_1_ROOT_MEAN</v>
+            <v>reservoir_30_0.25_5_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="135">
           <cell r="A135" t="str">
-            <v>reservoir_10_1_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_0.25_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="137">
           <cell r="A137" t="str">
-            <v>reservoir_10_1_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_0.25_5_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="139">
           <cell r="A139" t="str">
-            <v>reservoir_10_1_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_30_0.25_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="141">
           <cell r="A141" t="str">
-            <v>reservoir_10_1_2_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_0.5_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="143">
           <cell r="A143" t="str">
-            <v>reservoir_10_1_2_15_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_0.5_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="145">
           <cell r="A145" t="str">
-            <v>reservoir_10_1_2_15_ROOT_SAMPLE</v>
+            <v>reservoir_30_0.5_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="147">
           <cell r="A147" t="str">
-            <v>reservoir_10_1_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_0.5_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="149">
           <cell r="A149" t="str">
-            <v>reservoir_10_1_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_0.5_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="151">
           <cell r="A151" t="str">
-            <v>reservoir_10_1_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_30_0.5_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="153">
           <cell r="A153" t="str">
-            <v>reservoir_10_1_2_50_ROOT_SAMPLE</v>
+            <v>reservoir_30_0.5_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="155">
           <cell r="A155" t="str">
-            <v>reservoir_10_1_5_1_ROOT_MEAN</v>
+            <v>reservoir_30_0.5_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="157">
           <cell r="A157" t="str">
-            <v>reservoir_10_1_5_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_0.5_5_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="159">
           <cell r="A159" t="str">
-            <v>reservoir_10_1_5_10_ROOT_SAMPLE</v>
+            <v>reservoir_30_0.5_5_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="161">
           <cell r="A161" t="str">
-            <v>reservoir_10_1_5_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_0.5_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="163">
           <cell r="A163" t="str">
-            <v>reservoir_10_1_5_15_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_0.5_5_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="165">
           <cell r="A165" t="str">
-            <v>reservoir_10_1_5_15_ROOT_SAMPLE</v>
+            <v>reservoir_30_0.5_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="167">
           <cell r="A167" t="str">
-            <v>reservoir_10_1_5_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_1_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="169">
           <cell r="A169" t="str">
-            <v>reservoir_10_1_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_30_1_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="171">
           <cell r="A171" t="str">
-            <v>reservoir_10_1_5_50_ROOT_SAMPLE</v>
+            <v>reservoir_30_1_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="173">
           <cell r="A173" t="str">
-            <v>reservoir_10_2_10_1_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_1_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="175">
           <cell r="A175" t="str">
-            <v>reservoir_10_2_10_1_ROOT_MEAN</v>
+            <v>reservoir_30_1_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="177">
           <cell r="A177" t="str">
-            <v>reservoir_10_2_10_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_1_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="179">
           <cell r="A179" t="str">
-            <v>reservoir_10_2_10_10_ROOT_SAMPLE</v>
+            <v>reservoir_30_1_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="181">
           <cell r="A181" t="str">
-            <v>reservoir_10_2_10_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_1_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="183">
           <cell r="A183" t="str">
-            <v>reservoir_10_2_10_15_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_1_5_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="185">
           <cell r="A185" t="str">
-            <v>reservoir_10_2_10_15_ROOT_SAMPLE</v>
+            <v>reservoir_30_1_5_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="187">
           <cell r="A187" t="str">
-            <v>reservoir_10_2_10_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_1_5_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="189">
           <cell r="A189" t="str">
-            <v>reservoir_10_2_10_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_1_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="191">
           <cell r="A191" t="str">
-            <v>reservoir_10_2_10_5_ROOT_SAMPLE</v>
+            <v>reservoir_30_1_5_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="193">
           <cell r="A193" t="str">
-            <v>reservoir_10_2_2_1_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_1_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="195">
           <cell r="A195" t="str">
-            <v>reservoir_10_2_2_1_ROOT_MEAN</v>
+            <v>reservoir_30_2_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="197">
           <cell r="A197" t="str">
-            <v>reservoir_10_2_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_2_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="199">
           <cell r="A199" t="str">
-            <v>reservoir_10_2_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_2_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="201">
           <cell r="A201" t="str">
-            <v>reservoir_10_2_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_30_2_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="203">
           <cell r="A203" t="str">
-            <v>reservoir_10_2_2_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_2_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="205">
           <cell r="A205" t="str">
-            <v>reservoir_10_2_2_15_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_2_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="207">
           <cell r="A207" t="str">
-            <v>reservoir_10_2_2_15_ROOT_SAMPLE</v>
+            <v>reservoir_30_2_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="209">
           <cell r="A209" t="str">
-            <v>reservoir_10_2_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_2_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="211">
           <cell r="A211" t="str">
-            <v>reservoir_10_2_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_2_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="213">
           <cell r="A213" t="str">
-            <v>reservoir_10_2_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_30_2_5_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="215">
           <cell r="A215" t="str">
-            <v>reservoir_10_2_2_50_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_2_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="217">
           <cell r="A217" t="str">
-            <v>reservoir_10_2_2_50_CONSENSUS_SAMPLE</v>
+            <v>reservoir_30_2_5_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="219">
           <cell r="A219" t="str">
-            <v>reservoir_10_2_5_1_ROOT_MEAN</v>
+            <v>reservoir_30_2_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="221">
           <cell r="A221" t="str">
-            <v>reservoir_10_2_5_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_30_noop_noop</v>
           </cell>
         </row>
         <row r="223">
           <cell r="A223" t="str">
-            <v>reservoir_10_2_5_10_ROOT_SAMPLE</v>
+            <v>reservoir_30_random_random</v>
           </cell>
         </row>
         <row r="225">
           <cell r="A225" t="str">
-            <v>reservoir_10_2_5_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_40_0.25_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="227">
           <cell r="A227" t="str">
-            <v>reservoir_10_2_5_15_CONSENSUS_SAMPLE</v>
+            <v>reservoir_40_0.25_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="229">
           <cell r="A229" t="str">
-            <v>reservoir_10_2_5_15_ROOT_SAMPLE</v>
+            <v>reservoir_40_0.25_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="231">
           <cell r="A231" t="str">
-            <v>reservoir_10_2_5_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_40_0.25_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="233">
           <cell r="A233" t="str">
-            <v>reservoir_10_2_5_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_40_0.25_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="235">
           <cell r="A235" t="str">
-            <v>reservoir_10_2_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_40_0.25_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="237">
           <cell r="A237" t="str">
-            <v>reservoir_10_2_5_50_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_40_0.25_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="239">
           <cell r="A239" t="str">
-            <v>reservoir_10_2_5_50_CONSENSUS_SAMPLE</v>
+            <v>reservoir_40_0.25_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="241">
           <cell r="A241" t="str">
-            <v>reservoir_10_5_10_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_40_0.25_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="243">
           <cell r="A243" t="str">
-            <v>reservoir_10_5_10_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_40_0.25_5_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="245">
           <cell r="A245" t="str">
-            <v>reservoir_10_5_10_10_ROOT_SAMPLE</v>
+            <v>reservoir_40_0.25_5_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="247">
           <cell r="A247" t="str">
-            <v>reservoir_10_5_10_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_40_0.25_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="249">
           <cell r="A249" t="str">
-            <v>reservoir_10_5_10_15_CONSENSUS_SAMPLE</v>
+            <v>reservoir_40_0.5_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="251">
           <cell r="A251" t="str">
-            <v>reservoir_10_5_10_15_ROOT_SAMPLE</v>
+            <v>reservoir_40_0.5_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="253">
           <cell r="A253" t="str">
-            <v>reservoir_10_5_10_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_40_0.5_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="255">
           <cell r="A255" t="str">
-            <v>reservoir_10_5_10_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_40_0.5_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="257">
           <cell r="A257" t="str">
-            <v>reservoir_10_5_10_5_ROOT_SAMPLE</v>
+            <v>reservoir_40_0.5_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="259">
           <cell r="A259" t="str">
-            <v>reservoir_10_5_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_40_0.5_2_5_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="261">
           <cell r="A261" t="str">
-            <v>reservoir_10_5_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_40_0.5_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="263">
           <cell r="A263" t="str">
-            <v>reservoir_10_5_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_40_0.5_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="265">
           <cell r="A265" t="str">
-            <v>reservoir_10_5_2_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_40_0.5_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="267">
           <cell r="A267" t="str">
-            <v>reservoir_10_5_2_15_ROOT_SAMPLE</v>
+            <v>reservoir_40_0.5_5_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="269">
           <cell r="A269" t="str">
-            <v>reservoir_10_5_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_40_0.5_5_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="271">
           <cell r="A271" t="str">
-            <v>reservoir_10_5_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_40_0.5_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="273">
           <cell r="A273" t="str">
-            <v>reservoir_10_5_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_40_1_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="275">
           <cell r="A275" t="str">
-            <v>reservoir_10_5_2_50_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_40_1_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="277">
           <cell r="A277" t="str">
-            <v>reservoir_10_5_2_50_CONSENSUS_SAMPLE</v>
+            <v>reservoir_40_1_2_10_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="279">
           <cell r="A279" t="str">
-            <v>reservoir_10_5_2_50_ROOT_SAMPLE</v>
+            <v>reservoir_40_1_2_10_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="281">
           <cell r="A281" t="str">
-            <v>reservoir_10_5_5_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_40_1_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="283">
           <cell r="A283" t="str">
-            <v>reservoir_10_5_5_10_ROOT_SAMPLE</v>
+            <v>reservoir_40_1_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="285">
           <cell r="A285" t="str">
-            <v>reservoir_10_5_5_15_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_40_1_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="287">
           <cell r="A287" t="str">
-            <v>reservoir_10_5_5_15_ROOT_SAMPLE</v>
+            <v>reservoir_40_1_5_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="289">
           <cell r="A289" t="str">
-            <v>reservoir_10_5_5_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_40_1_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="291">
           <cell r="A291" t="str">
-            <v>reservoir_10_5_5_50_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_40_2_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="293">
           <cell r="A293" t="str">
-            <v>reservoir_10_5_5_50_CONSENSUS_SAMPLE</v>
+            <v>reservoir_40_2_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="295">
           <cell r="A295" t="str">
-            <v>reservoir_10_5_5_50_ROOT_SAMPLE</v>
+            <v>reservoir_40_2_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="297">
           <cell r="A297" t="str">
-            <v>reservoir_10_noop_noop</v>
+            <v>reservoir_40_2_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="299">
           <cell r="A299" t="str">
-            <v>reservoir_10_random_random</v>
+            <v>reservoir_40_2_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="301">
           <cell r="A301" t="str">
-            <v>reservoir_20_0.25_10_1_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_40_2_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="303">
           <cell r="A303" t="str">
-            <v>reservoir_20_0.25_10_1_ROOT_MEAN</v>
+            <v>reservoir_40_noop_noop</v>
           </cell>
         </row>
         <row r="305">
           <cell r="A305" t="str">
-            <v>reservoir_20_0.25_10_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_40_random_random</v>
           </cell>
         </row>
         <row r="307">
           <cell r="A307" t="str">
-            <v>reservoir_20_0.25_2_1_ROOT_MEAN</v>
+            <v>reservoir_50_0.25_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="309">
           <cell r="A309" t="str">
-            <v>reservoir_20_0.25_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_50_0.25_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="311">
           <cell r="A311" t="str">
-            <v>reservoir_20_0.25_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_50_0.25_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="313">
           <cell r="A313" t="str">
-            <v>reservoir_20_0.25_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_50_0.25_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="315">
           <cell r="A315" t="str">
-            <v>reservoir_20_0.25_2_15_CONSENSUS_SAMPLE</v>
+            <v>reservoir_50_0.25_5_1_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="317">
           <cell r="A317" t="str">
-            <v>reservoir_20_0.25_2_30_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_50_0.25_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="319">
           <cell r="A319" t="str">
-            <v>reservoir_20_0.25_2_30_CONSENSUS_SAMPLE</v>
+            <v>reservoir_50_0.25_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="321">
           <cell r="A321" t="str">
-            <v>reservoir_20_0.25_2_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_50_0.5_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="323">
           <cell r="A323" t="str">
-            <v>reservoir_20_0.25_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_50_0.5_2_1_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="325">
           <cell r="A325" t="str">
-            <v>reservoir_20_0.25_2_5_ROOT_SAMPLE</v>
+            <v>reservoir_50_0.5_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="327">
           <cell r="A327" t="str">
-            <v>reservoir_20_0.25_5_1_ROOT_MEAN</v>
+            <v>reservoir_50_0.5_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="329">
           <cell r="A329" t="str">
-            <v>reservoir_20_0.25_5_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_50_0.5_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="331">
           <cell r="A331" t="str">
-            <v>reservoir_20_0.25_5_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_50_0.5_5_1_ALL_ACTIONS_SAMPLE</v>
           </cell>
         </row>
         <row r="333">
           <cell r="A333" t="str">
-            <v>reservoir_20_0.25_5_10_ROOT_SAMPLE</v>
+            <v>reservoir_50_0.5_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="335">
           <cell r="A335" t="str">
-            <v>reservoir_20_0.25_5_15_CONSENSUS_SAMPLE</v>
+            <v>reservoir_50_0.5_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="337">
           <cell r="A337" t="str">
-            <v>reservoir_20_0.25_5_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_50_1_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="339">
           <cell r="A339" t="str">
-            <v>reservoir_20_0.25_5_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_50_1_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="341">
           <cell r="A341" t="str">
-            <v>reservoir_20_0.25_5_5_ROOT_SAMPLE</v>
+            <v>reservoir_50_1_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="343">
           <cell r="A343" t="str">
-            <v>reservoir_20_0.5_10_1_ROOT_MEAN</v>
+            <v>reservoir_50_1_2_5_CONSENSUS_SAMPLE</v>
           </cell>
         </row>
         <row r="345">
           <cell r="A345" t="str">
-            <v>reservoir_20_0.5_2_1_ROOT_MEAN</v>
+            <v>reservoir_50_1_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="347">
           <cell r="A347" t="str">
-            <v>reservoir_20_0.5_2_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_50_1_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="349">
           <cell r="A349" t="str">
-            <v>reservoir_20_0.5_2_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_50_1_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="351">
           <cell r="A351" t="str">
-            <v>reservoir_20_0.5_2_10_ROOT_SAMPLE</v>
+            <v>reservoir_50_2_10_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="353">
           <cell r="A353" t="str">
-            <v>reservoir_20_0.5_2_5_CONSENSUS_SAMPLE</v>
+            <v>reservoir_50_2_2_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="355">
           <cell r="A355" t="str">
-            <v>reservoir_20_0.5_5_1_ROOT_MEAN</v>
+            <v>reservoir_50_2_2_10_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="357">
           <cell r="A357" t="str">
-            <v>reservoir_20_0.5_5_10_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_50_2_2_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="359">
           <cell r="A359" t="str">
-            <v>reservoir_20_0.5_5_10_CONSENSUS_SAMPLE</v>
+            <v>reservoir_50_2_5_1_ROOT_MEAN</v>
           </cell>
         </row>
         <row r="361">
           <cell r="A361" t="str">
-            <v>reservoir_20_0.5_5_10_ROOT_SAMPLE</v>
+            <v>reservoir_50_2_5_5_ROOT_SAMPLE</v>
           </cell>
         </row>
         <row r="363">
           <cell r="A363" t="str">
-            <v>reservoir_20_0.5_5_5_ALL_ACTIONS_SAMPLE</v>
+            <v>reservoir_50_noop_noop</v>
           </cell>
         </row>
         <row r="365">
           <cell r="A365" t="str">
-            <v>reservoir_20_0.5_5_5_CONSENSUS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="367">
-          <cell r="A367" t="str">
-            <v>reservoir_20_0.5_5_5_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="369">
-          <cell r="A369" t="str">
-            <v>reservoir_20_1_10_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="371">
-          <cell r="A371" t="str">
-            <v>reservoir_20_1_2_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="373">
-          <cell r="A373" t="str">
-            <v>reservoir_20_1_2_10_ALL_ACTIONS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="375">
-          <cell r="A375" t="str">
-            <v>reservoir_20_1_2_10_CONSENSUS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="377">
-          <cell r="A377" t="str">
-            <v>reservoir_20_1_2_10_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="379">
-          <cell r="A379" t="str">
-            <v>reservoir_20_1_2_5_ALL_ACTIONS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="381">
-          <cell r="A381" t="str">
-            <v>reservoir_20_1_2_5_CONSENSUS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="383">
-          <cell r="A383" t="str">
-            <v>reservoir_20_1_2_5_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="385">
-          <cell r="A385" t="str">
-            <v>reservoir_20_1_5_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="387">
-          <cell r="A387" t="str">
-            <v>reservoir_20_1_5_10_ALL_ACTIONS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="389">
-          <cell r="A389" t="str">
-            <v>reservoir_20_1_5_10_CONSENSUS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="391">
-          <cell r="A391" t="str">
-            <v>reservoir_20_1_5_5_ALL_ACTIONS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="393">
-          <cell r="A393" t="str">
-            <v>reservoir_20_1_5_5_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="395">
-          <cell r="A395" t="str">
-            <v>reservoir_20_2_10_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="397">
-          <cell r="A397" t="str">
-            <v>reservoir_20_2_10_5_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="399">
-          <cell r="A399" t="str">
-            <v>reservoir_20_2_2_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="401">
-          <cell r="A401" t="str">
-            <v>reservoir_20_2_2_10_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="403">
-          <cell r="A403" t="str">
-            <v>reservoir_20_2_2_5_ALL_ACTIONS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="405">
-          <cell r="A405" t="str">
-            <v>reservoir_20_2_2_5_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="407">
-          <cell r="A407" t="str">
-            <v>reservoir_20_2_5_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="409">
-          <cell r="A409" t="str">
-            <v>reservoir_20_2_5_5_ALL_ACTIONS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="411">
-          <cell r="A411" t="str">
-            <v>reservoir_20_2_5_5_CONSENSUS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="413">
-          <cell r="A413" t="str">
-            <v>reservoir_20_2_5_5_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="415">
-          <cell r="A415" t="str">
-            <v>reservoir_20_noop_noop</v>
-          </cell>
-        </row>
-        <row r="417">
-          <cell r="A417" t="str">
-            <v>reservoir_20_random_random</v>
-          </cell>
-        </row>
-        <row r="419">
-          <cell r="A419" t="str">
-            <v>reservoir_30_0.25_10_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="421">
-          <cell r="A421" t="str">
-            <v>reservoir_30_0.25_2_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="423">
-          <cell r="A423" t="str">
-            <v>reservoir_30_0.25_2_10_ALL_ACTIONS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="425">
-          <cell r="A425" t="str">
-            <v>reservoir_30_0.25_2_10_CONSENSUS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="427">
-          <cell r="A427" t="str">
-            <v>reservoir_30_0.25_2_10_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="429">
-          <cell r="A429" t="str">
-            <v>reservoir_30_0.25_2_5_ALL_ACTIONS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="431">
-          <cell r="A431" t="str">
-            <v>reservoir_30_0.25_2_5_CONSENSUS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="433">
-          <cell r="A433" t="str">
-            <v>reservoir_30_0.25_5_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="435">
-          <cell r="A435" t="str">
-            <v>reservoir_30_0.25_5_10_ALL_ACTIONS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="437">
-          <cell r="A437" t="str">
-            <v>reservoir_30_0.25_5_10_CONSENSUS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="439">
-          <cell r="A439" t="str">
-            <v>reservoir_30_0.25_5_10_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="441">
-          <cell r="A441" t="str">
-            <v>reservoir_30_0.25_5_5_ALL_ACTIONS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="443">
-          <cell r="A443" t="str">
-            <v>reservoir_30_0.25_5_5_CONSENSUS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="445">
-          <cell r="A445" t="str">
-            <v>reservoir_30_0.25_5_5_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="447">
-          <cell r="A447" t="str">
-            <v>reservoir_30_0.5_10_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="449">
-          <cell r="A449" t="str">
-            <v>reservoir_30_0.5_2_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="451">
-          <cell r="A451" t="str">
-            <v>reservoir_30_0.5_2_10_ALL_ACTIONS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="453">
-          <cell r="A453" t="str">
-            <v>reservoir_30_0.5_2_10_CONSENSUS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="455">
-          <cell r="A455" t="str">
-            <v>reservoir_30_0.5_2_10_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="457">
-          <cell r="A457" t="str">
-            <v>reservoir_30_0.5_2_5_ALL_ACTIONS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="459">
-          <cell r="A459" t="str">
-            <v>reservoir_30_0.5_2_5_CONSENSUS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="461">
-          <cell r="A461" t="str">
-            <v>reservoir_30_0.5_5_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="463">
-          <cell r="A463" t="str">
-            <v>reservoir_30_0.5_5_10_ALL_ACTIONS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="465">
-          <cell r="A465" t="str">
-            <v>reservoir_30_0.5_5_10_CONSENSUS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="467">
-          <cell r="A467" t="str">
-            <v>reservoir_30_0.5_5_5_ALL_ACTIONS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="469">
-          <cell r="A469" t="str">
-            <v>reservoir_30_0.5_5_5_CONSENSUS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="471">
-          <cell r="A471" t="str">
-            <v>reservoir_30_0.5_5_5_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="473">
-          <cell r="A473" t="str">
-            <v>reservoir_30_1_10_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="475">
-          <cell r="A475" t="str">
-            <v>reservoir_30_1_2_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="477">
-          <cell r="A477" t="str">
-            <v>reservoir_30_1_2_10_ALL_ACTIONS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="479">
-          <cell r="A479" t="str">
-            <v>reservoir_30_1_2_10_CONSENSUS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="481">
-          <cell r="A481" t="str">
-            <v>reservoir_30_1_2_5_ALL_ACTIONS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="483">
-          <cell r="A483" t="str">
-            <v>reservoir_30_1_2_5_CONSENSUS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="485">
-          <cell r="A485" t="str">
-            <v>reservoir_30_1_2_5_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="487">
-          <cell r="A487" t="str">
-            <v>reservoir_30_1_5_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="489">
-          <cell r="A489" t="str">
-            <v>reservoir_30_1_5_10_ALL_ACTIONS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="491">
-          <cell r="A491" t="str">
-            <v>reservoir_30_1_5_10_CONSENSUS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="493">
-          <cell r="A493" t="str">
-            <v>reservoir_30_1_5_10_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="495">
-          <cell r="A495" t="str">
-            <v>reservoir_30_1_5_5_ALL_ACTIONS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="497">
-          <cell r="A497" t="str">
-            <v>reservoir_30_1_5_5_CONSENSUS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="499">
-          <cell r="A499" t="str">
-            <v>reservoir_30_1_5_5_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="501">
-          <cell r="A501" t="str">
-            <v>reservoir_30_2_10_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="503">
-          <cell r="A503" t="str">
-            <v>reservoir_30_2_2_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="505">
-          <cell r="A505" t="str">
-            <v>reservoir_30_2_2_10_ALL_ACTIONS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="507">
-          <cell r="A507" t="str">
-            <v>reservoir_30_2_2_10_CONSENSUS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="509">
-          <cell r="A509" t="str">
-            <v>reservoir_30_2_2_10_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="511">
-          <cell r="A511" t="str">
-            <v>reservoir_30_2_2_5_ALL_ACTIONS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="513">
-          <cell r="A513" t="str">
-            <v>reservoir_30_2_2_5_CONSENSUS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="515">
-          <cell r="A515" t="str">
-            <v>reservoir_30_2_2_5_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="517">
-          <cell r="A517" t="str">
-            <v>reservoir_30_2_5_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="519">
-          <cell r="A519" t="str">
-            <v>reservoir_30_2_5_10_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="521">
-          <cell r="A521" t="str">
-            <v>reservoir_30_2_5_5_ALL_ACTIONS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="523">
-          <cell r="A523" t="str">
-            <v>reservoir_30_2_5_5_CONSENSUS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="525">
-          <cell r="A525" t="str">
-            <v>reservoir_30_2_5_5_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="527">
-          <cell r="A527" t="str">
-            <v>reservoir_30_noop_noop</v>
-          </cell>
-        </row>
-        <row r="529">
-          <cell r="A529" t="str">
-            <v>reservoir_30_random_random</v>
-          </cell>
-        </row>
-        <row r="531">
-          <cell r="A531" t="str">
-            <v>reservoir_40_0.25_10_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="533">
-          <cell r="A533" t="str">
-            <v>reservoir_40_0.25_2_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="535">
-          <cell r="A535" t="str">
-            <v>reservoir_40_0.25_2_10_ALL_ACTIONS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="537">
-          <cell r="A537" t="str">
-            <v>reservoir_40_0.25_2_10_CONSENSUS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="539">
-          <cell r="A539" t="str">
-            <v>reservoir_40_0.25_2_10_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="541">
-          <cell r="A541" t="str">
-            <v>reservoir_40_0.25_2_5_ALL_ACTIONS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="543">
-          <cell r="A543" t="str">
-            <v>reservoir_40_0.25_2_5_CONSENSUS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="545">
-          <cell r="A545" t="str">
-            <v>reservoir_40_0.25_2_5_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="547">
-          <cell r="A547" t="str">
-            <v>reservoir_40_0.25_5_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="549">
-          <cell r="A549" t="str">
-            <v>reservoir_40_0.25_5_10_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="551">
-          <cell r="A551" t="str">
-            <v>reservoir_40_0.25_5_5_ALL_ACTIONS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="553">
-          <cell r="A553" t="str">
-            <v>reservoir_40_0.25_5_5_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="555">
-          <cell r="A555" t="str">
-            <v>reservoir_40_0.5_10_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="557">
-          <cell r="A557" t="str">
-            <v>reservoir_40_0.5_2_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="559">
-          <cell r="A559" t="str">
-            <v>reservoir_40_0.5_2_10_ALL_ACTIONS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="561">
-          <cell r="A561" t="str">
-            <v>reservoir_40_0.5_2_10_CONSENSUS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="563">
-          <cell r="A563" t="str">
-            <v>reservoir_40_0.5_2_10_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="565">
-          <cell r="A565" t="str">
-            <v>reservoir_40_0.5_2_5_ALL_ACTIONS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="567">
-          <cell r="A567" t="str">
-            <v>reservoir_40_0.5_2_5_CONSENSUS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="569">
-          <cell r="A569" t="str">
-            <v>reservoir_40_0.5_2_5_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="571">
-          <cell r="A571" t="str">
-            <v>reservoir_40_0.5_5_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="573">
-          <cell r="A573" t="str">
-            <v>reservoir_40_0.5_5_10_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="575">
-          <cell r="A575" t="str">
-            <v>reservoir_40_0.5_5_5_CONSENSUS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="577">
-          <cell r="A577" t="str">
-            <v>reservoir_40_0.5_5_5_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="579">
-          <cell r="A579" t="str">
-            <v>reservoir_40_1_10_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="581">
-          <cell r="A581" t="str">
-            <v>reservoir_40_1_2_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="583">
-          <cell r="A583" t="str">
-            <v>reservoir_40_1_2_10_ALL_ACTIONS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="585">
-          <cell r="A585" t="str">
-            <v>reservoir_40_1_2_10_CONSENSUS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="587">
-          <cell r="A587" t="str">
-            <v>reservoir_40_1_2_10_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="589">
-          <cell r="A589" t="str">
-            <v>reservoir_40_1_2_5_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="591">
-          <cell r="A591" t="str">
-            <v>reservoir_40_1_5_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="593">
-          <cell r="A593" t="str">
-            <v>reservoir_40_1_5_10_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="595">
-          <cell r="A595" t="str">
-            <v>reservoir_40_1_5_5_ALL_ACTIONS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="597">
-          <cell r="A597" t="str">
-            <v>reservoir_40_1_5_5_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="599">
-          <cell r="A599" t="str">
-            <v>reservoir_40_2_10_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="601">
-          <cell r="A601" t="str">
-            <v>reservoir_40_2_2_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="603">
-          <cell r="A603" t="str">
-            <v>reservoir_40_2_2_10_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="605">
-          <cell r="A605" t="str">
-            <v>reservoir_40_2_2_5_ALL_ACTIONS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="607">
-          <cell r="A607" t="str">
-            <v>reservoir_40_2_2_5_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="609">
-          <cell r="A609" t="str">
-            <v>reservoir_40_2_5_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="611">
-          <cell r="A611" t="str">
-            <v>reservoir_40_2_5_5_ALL_ACTIONS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="613">
-          <cell r="A613" t="str">
-            <v>reservoir_40_2_5_5_CONSENSUS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="615">
-          <cell r="A615" t="str">
-            <v>reservoir_40_2_5_5_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="617">
-          <cell r="A617" t="str">
-            <v>reservoir_40_noop_noop</v>
-          </cell>
-        </row>
-        <row r="619">
-          <cell r="A619" t="str">
-            <v>reservoir_40_random_random</v>
-          </cell>
-        </row>
-        <row r="621">
-          <cell r="A621" t="str">
-            <v>reservoir_50_0.25_10_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="623">
-          <cell r="A623" t="str">
-            <v>reservoir_50_0.25_2_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="625">
-          <cell r="A625" t="str">
-            <v>reservoir_50_0.25_2_10_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="627">
-          <cell r="A627" t="str">
-            <v>reservoir_50_0.25_2_5_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="629">
-          <cell r="A629" t="str">
-            <v>reservoir_50_0.25_5_1_ALL_ACTIONS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="631">
-          <cell r="A631" t="str">
-            <v>reservoir_50_0.25_5_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="633">
-          <cell r="A633" t="str">
-            <v>reservoir_50_0.25_5_5_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="635">
-          <cell r="A635" t="str">
-            <v>reservoir_50_0.5_10_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="637">
-          <cell r="A637" t="str">
-            <v>reservoir_50_0.5_2_1_ALL_ACTIONS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="639">
-          <cell r="A639" t="str">
-            <v>reservoir_50_0.5_2_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="641">
-          <cell r="A641" t="str">
-            <v>reservoir_50_0.5_2_10_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="643">
-          <cell r="A643" t="str">
-            <v>reservoir_50_0.5_2_5_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="645">
-          <cell r="A645" t="str">
-            <v>reservoir_50_0.5_5_1_ALL_ACTIONS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="647">
-          <cell r="A647" t="str">
-            <v>reservoir_50_0.5_5_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="649">
-          <cell r="A649" t="str">
-            <v>reservoir_50_0.5_5_5_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="651">
-          <cell r="A651" t="str">
-            <v>reservoir_50_1_10_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="653">
-          <cell r="A653" t="str">
-            <v>reservoir_50_1_2_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="655">
-          <cell r="A655" t="str">
-            <v>reservoir_50_1_2_10_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="657">
-          <cell r="A657" t="str">
-            <v>reservoir_50_1_2_5_CONSENSUS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="659">
-          <cell r="A659" t="str">
-            <v>reservoir_50_1_2_5_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="661">
-          <cell r="A661" t="str">
-            <v>reservoir_50_1_5_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="663">
-          <cell r="A663" t="str">
-            <v>reservoir_50_1_5_5_ALL_ACTIONS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="665">
-          <cell r="A665" t="str">
-            <v>reservoir_50_2_10_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="667">
-          <cell r="A667" t="str">
-            <v>reservoir_50_2_2_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="669">
-          <cell r="A669" t="str">
-            <v>reservoir_50_2_2_10_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="671">
-          <cell r="A671" t="str">
-            <v>reservoir_50_2_2_5_CONSENSUS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="673">
-          <cell r="A673" t="str">
-            <v>reservoir_50_2_2_5_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="675">
-          <cell r="A675" t="str">
-            <v>reservoir_50_2_5_1_ROOT_MEAN</v>
-          </cell>
-        </row>
-        <row r="677">
-          <cell r="A677" t="str">
-            <v>reservoir_50_2_5_5_ALL_ACTIONS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="679">
-          <cell r="A679" t="str">
-            <v>reservoir_50_2_5_5_CONSENSUS_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="681">
-          <cell r="A681" t="str">
-            <v>reservoir_50_2_5_5_ROOT_SAMPLE</v>
-          </cell>
-        </row>
-        <row r="683">
-          <cell r="A683" t="str">
-            <v>reservoir_50_noop_noop</v>
-          </cell>
-        </row>
-        <row r="685">
-          <cell r="A685" t="str">
             <v>reservoir_50_random_random</v>
           </cell>
         </row>
@@ -6180,7 +5388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:K3"/>
     </sheetView>
   </sheetViews>
@@ -6223,13 +5431,13 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;B1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;B1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-1040694.4035340393</v>
-      </c>
-      <c r="C2">
+        <v>#N/A</v>
+      </c>
+      <c r="C2" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;B1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;B1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;B1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;B1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>25840.82272770883</v>
+        <v>#N/A</v>
       </c>
       <c r="D2" s="2">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;D1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;D1&amp;"_random"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -6268,13 +5476,13 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="1" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;B1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;B1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-730572.06487864989</v>
-      </c>
-      <c r="C3">
+        <v>#N/A</v>
+      </c>
+      <c r="C3" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;B1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;B1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;B1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;B1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>24616.53439188164</v>
+        <v>#N/A</v>
       </c>
       <c r="D3" s="2">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;D1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;D1&amp;"_noop"&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -6315,19 +5523,19 @@
       </c>
       <c r="B4">
         <f t="array" aca="1" ref="B4" ca="1">MAX( IF(  ISNA(raw!E2:E61), "", raw!E2:E61 ) )</f>
-        <v>-705558.74752460001</v>
-      </c>
-      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="e">
         <f t="array" aca="1" ref="C4" ca="1">INDIRECT( "raw!"&amp;"F"&amp;(1+MATCH(B4, raw!E2:E61, 0) ) )</f>
-        <v>40139.800010333143</v>
+        <v>#N/A</v>
       </c>
       <c r="D4">
         <f t="array" aca="1" ref="D4" ca="1">MAX( IF(  ISNA(raw!G2:G61), "", raw!G2:G61 ) )</f>
-        <v>-150967.35654949996</v>
+        <v>-151004.78483646669</v>
       </c>
       <c r="E4">
         <f ca="1" xml:space="preserve"> INDIRECT("raw!"&amp;"H"&amp;(1+MATCH(D4, raw!G2:G61, 0)))</f>
-        <v>242.20959197173391</v>
+        <v>331.22314261694709</v>
       </c>
       <c r="F4">
         <f t="array" aca="1" ref="F4" ca="1">MAX( IF(  ISNA(raw!I2:I61), "", raw!I2:I61 ) )</f>
@@ -6360,11 +5568,11 @@
       </c>
       <c r="B5" s="3">
         <f t="array" aca="1" ref="B5" ca="1">MAX( IF(  ISNA(raw!E64:E123), "", raw!E64:E123 ) )</f>
-        <v>-706549.62999373302</v>
-      </c>
-      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="e">
         <f t="array" aca="1" ref="C5" ca="1">INDIRECT( "raw!"&amp;"F"&amp;(63+MATCH(B5, raw!E64:E123, 0) ) )</f>
-        <v>40189.103171348594</v>
+        <v>#N/A</v>
       </c>
       <c r="D5" s="3">
         <f t="array" aca="1" ref="D5" ca="1">MAX( IF(  ISNA(raw!G64:G123), "", raw!G64:G123 ) )</f>
@@ -6384,19 +5592,19 @@
       </c>
       <c r="H5" s="3">
         <f t="array" aca="1" ref="H5" ca="1">MAX( IF(  ISNA(raw!K64:K123), "", raw!K64:K123 ) )</f>
-        <v>-303046.13746199937</v>
+        <v>-303372.45221636642</v>
       </c>
       <c r="I5">
         <f t="array" aca="1" ref="I5" ca="1">INDIRECT( "raw!"&amp;"L"&amp;(63+MATCH(H5, raw!K64:K123, 0) ) )</f>
-        <v>900.88642947188555</v>
+        <v>1022.1855558961531</v>
       </c>
       <c r="J5" s="3">
         <f t="array" aca="1" ref="J5" ca="1">MAX( IF(  ISNA(raw!M64:M123), "", raw!M64:M123 ) )</f>
-        <v>-379795.4045771996</v>
+        <v>-383207.67715169961</v>
       </c>
       <c r="K5">
         <f t="array" aca="1" ref="K5" ca="1">INDIRECT( "raw!"&amp;"N"&amp;(63+MATCH(J5, raw!M64:M123, 0) ) )</f>
-        <v>1465.5982741006972</v>
+        <v>1572.7339981239572</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -6405,11 +5613,11 @@
       </c>
       <c r="B6" s="3">
         <f t="array" aca="1" ref="B6" ca="1">MAX( IF(  ISNA(raw!E125:E172), "", raw!E125:E172 ) )</f>
-        <v>-713035.113067133</v>
-      </c>
-      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="e">
         <f ca="1">INDIRECT( "raw!"&amp;"F"&amp;(124+MATCH(B6, raw!E125:E172, 0) ) )</f>
-        <v>40414.68412926286</v>
+        <v>#N/A</v>
       </c>
       <c r="D6" s="3">
         <f t="array" aca="1" ref="D6" ca="1">MAX( IF(  ISNA(raw!G125:G172), "", raw!G125:G172 ) )</f>
@@ -6437,24 +5645,24 @@
       </c>
       <c r="J6" s="3">
         <f t="array" aca="1" ref="J6" ca="1">MAX( IF(  ISNA(raw!M125:M172), "", raw!M125:M172 ) )</f>
-        <v>-380280.0739385999</v>
+        <v>-385520.4935253333</v>
       </c>
       <c r="K6">
         <f ca="1">INDIRECT( "raw!"&amp;"N"&amp;(124+MATCH(J6, raw!M125:M172, 0) ) )</f>
-        <v>1225.158580193593</v>
+        <v>6491.5669504265343</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="3" t="e">
         <f ca="1">MAX( IF(  ISNA(raw!E175:E186), "", raw!E175:E186 ) )</f>
-        <v>-705558.74752460001</v>
-      </c>
-      <c r="C7">
+        <v>#N/A</v>
+      </c>
+      <c r="C7" t="e">
         <f ca="1">INDIRECT( "raw!"&amp;"F"&amp;(174+MATCH(B7, raw!E175:E186, 0) ) )</f>
-        <v>40139.800010333143</v>
+        <v>#N/A</v>
       </c>
       <c r="D7" s="3">
         <f t="array" aca="1" ref="D7" ca="1">MAX( IF(  ISNA(raw!G175:G186), "", raw!G175:G186 ) )</f>
@@ -6466,11 +5674,11 @@
       </c>
       <c r="F7" s="3">
         <f t="array" aca="1" ref="F7" ca="1">MAX( IF(  ISNA(raw!I175:I186), "", raw!I175:I186 ) )</f>
-        <v>-231125.47136529975</v>
+        <v>-231317.32739898053</v>
       </c>
       <c r="G7">
         <f ca="1">INDIRECT( "raw!"&amp;"J"&amp;(174+MATCH(F7, raw!I175:I186, 0) ) )</f>
-        <v>1353.5005305448028</v>
+        <v>1071.7638702089453</v>
       </c>
       <c r="H7" s="3">
         <f t="array" aca="1" ref="H7" ca="1">MAX( IF(  ISNA(raw!K175:K186), "", raw!K175:K186 ) )</f>
@@ -6628,7 +5836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
@@ -6643,7 +5851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -6703,13 +5911,13 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-707176.27752059989</v>
-      </c>
-      <c r="F2">
+        <v>#N/A</v>
+      </c>
+      <c r="F2" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39855.890614731681</v>
+        <v>#N/A</v>
       </c>
       <c r="G2">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -6721,11 +5929,11 @@
       </c>
       <c r="I2">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-232340.58643026644</v>
+        <v>-232536.02684847347</v>
       </c>
       <c r="J2">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1293.0822324989415</v>
+        <v>1304.5793792287777</v>
       </c>
       <c r="K2">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -6737,11 +5945,11 @@
       </c>
       <c r="M2">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-382013.48443266639</v>
+        <v>-382088.91548013926</v>
       </c>
       <c r="N2">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C2&amp;"_"&amp;B2&amp;"_"&amp;D2&amp;"_"&amp;A2&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1476.1752912534562</v>
+        <v>1264.7003961486546</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -6757,13 +5965,13 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-707976.29801479972</v>
-      </c>
-      <c r="F3">
+        <v>#N/A</v>
+      </c>
+      <c r="F3" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39738.507186243383</v>
+        <v>#N/A</v>
       </c>
       <c r="G3">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -6775,11 +5983,11 @@
       </c>
       <c r="I3">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-231125.47136529975</v>
+        <v>-231317.32739898053</v>
       </c>
       <c r="J3">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1353.5005305448028</v>
+        <v>1071.7638702089453</v>
       </c>
       <c r="K3">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C3&amp;"_"&amp;B3&amp;"_"&amp;D3&amp;"_"&amp;A3&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -6811,13 +6019,13 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-706103.40030039928</v>
-      </c>
-      <c r="F4">
+        <v>#N/A</v>
+      </c>
+      <c r="F4" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40125.131817608199</v>
+        <v>#N/A</v>
       </c>
       <c r="G4">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C4&amp;"_"&amp;B4&amp;"_"&amp;D4&amp;"_"&amp;A4&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -6865,13 +6073,13 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-714143.28883299965</v>
-      </c>
-      <c r="F5">
+        <v>#N/A</v>
+      </c>
+      <c r="F5" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>38877.167416105483</v>
+        <v>#N/A</v>
       </c>
       <c r="G5">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C5&amp;"_"&amp;B5&amp;"_"&amp;D5&amp;"_"&amp;A5&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -6919,9 +6127,9 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-708566.26914166659</v>
+        <v>#N/A</v>
       </c>
       <c r="F6" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E4&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E4&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E4&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E4&amp;"_"&amp;C6&amp;"_"&amp;B6&amp;"_"&amp;D6&amp;"_"&amp;A6&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
@@ -6973,13 +6181,13 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-705643.65988346632</v>
-      </c>
-      <c r="F7">
+        <v>#N/A</v>
+      </c>
+      <c r="F7" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40281.680381093174</v>
+        <v>#N/A</v>
       </c>
       <c r="G7">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C7&amp;"_"&amp;B7&amp;"_"&amp;D7&amp;"_"&amp;A7&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7027,13 +6235,13 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-707989.0735569332</v>
-      </c>
-      <c r="F8">
+        <v>#N/A</v>
+      </c>
+      <c r="F8" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40475.706227699477</v>
+        <v>#N/A</v>
       </c>
       <c r="G8">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C8&amp;"_"&amp;B8&amp;"_"&amp;D8&amp;"_"&amp;A8&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7081,13 +6289,13 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-708551.13385009975</v>
-      </c>
-      <c r="F9">
+        <v>#N/A</v>
+      </c>
+      <c r="F9" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40236.89417335426</v>
+        <v>#N/A</v>
       </c>
       <c r="G9">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C9&amp;"_"&amp;B9&amp;"_"&amp;D9&amp;"_"&amp;A9&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7135,13 +6343,13 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-705558.74752460001</v>
-      </c>
-      <c r="F10">
+        <v>#N/A</v>
+      </c>
+      <c r="F10" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40139.800010333143</v>
+        <v>#N/A</v>
       </c>
       <c r="G10">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C10&amp;"_"&amp;B10&amp;"_"&amp;D10&amp;"_"&amp;A10&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7189,13 +6397,13 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-706300.03440493334</v>
-      </c>
-      <c r="F11">
+        <v>#N/A</v>
+      </c>
+      <c r="F11" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40803.957418211088</v>
+        <v>#N/A</v>
       </c>
       <c r="G11">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C11&amp;"_"&amp;B11&amp;"_"&amp;D11&amp;"_"&amp;A11&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7243,13 +6451,13 @@
       <c r="D12" s="12">
         <v>1</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-709560.32436303294</v>
-      </c>
-      <c r="F12">
+        <v>#N/A</v>
+      </c>
+      <c r="F12" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39782.183561187368</v>
+        <v>#N/A</v>
       </c>
       <c r="G12">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C12&amp;"_"&amp;B12&amp;"_"&amp;D12&amp;"_"&amp;A12&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7297,13 +6505,13 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-706146.38933343301</v>
-      </c>
-      <c r="F13">
+        <v>#N/A</v>
+      </c>
+      <c r="F13" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40227.833965427868</v>
+        <v>#N/A</v>
       </c>
       <c r="G13">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C13&amp;"_"&amp;B13&amp;"_"&amp;D13&amp;"_"&amp;A13&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7351,13 +6559,13 @@
       <c r="D14">
         <v>5</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-708354.66271083301</v>
-      </c>
-      <c r="F14">
+        <v>#N/A</v>
+      </c>
+      <c r="F14" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40348.617225192655</v>
+        <v>#N/A</v>
       </c>
       <c r="G14">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C14&amp;"_"&amp;B14&amp;"_"&amp;D14&amp;"_"&amp;A14&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7405,13 +6613,13 @@
       <c r="D15" s="11">
         <v>5</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-712666.43021396652</v>
-      </c>
-      <c r="F15">
+        <v>#N/A</v>
+      </c>
+      <c r="F15" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39847.355988397983</v>
+        <v>#N/A</v>
       </c>
       <c r="G15">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C15&amp;"_"&amp;B15&amp;"_"&amp;D15&amp;"_"&amp;A15&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7459,13 +6667,13 @@
       <c r="D16">
         <v>5</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C16&amp;"_"&amp;B16&amp;"_"&amp;D16&amp;"_"&amp;A16&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C16&amp;"_"&amp;B16&amp;"_"&amp;D16&amp;"_"&amp;A16&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-733045.43069279951</v>
-      </c>
-      <c r="F16">
+        <v>#N/A</v>
+      </c>
+      <c r="F16" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C16&amp;"_"&amp;B16&amp;"_"&amp;D16&amp;"_"&amp;A16&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C16&amp;"_"&amp;B16&amp;"_"&amp;D16&amp;"_"&amp;A16&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C16&amp;"_"&amp;B16&amp;"_"&amp;D16&amp;"_"&amp;A16&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C16&amp;"_"&amp;B16&amp;"_"&amp;D16&amp;"_"&amp;A16&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>38394.629508467391</v>
+        <v>#N/A</v>
       </c>
       <c r="G16" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C16&amp;"_"&amp;B16&amp;"_"&amp;D16&amp;"_"&amp;A16&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C16&amp;"_"&amp;B16&amp;"_"&amp;D16&amp;"_"&amp;A16&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7567,13 +6775,13 @@
       <c r="D18" s="10">
         <v>5</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-710729.47429503326</v>
-      </c>
-      <c r="F18">
+        <v>#N/A</v>
+      </c>
+      <c r="F18" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39957.880652231528</v>
+        <v>#N/A</v>
       </c>
       <c r="G18">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C18&amp;"_"&amp;B18&amp;"_"&amp;D18&amp;"_"&amp;A18&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7621,9 +6829,9 @@
       <c r="D19">
         <v>5</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C19&amp;"_"&amp;B19&amp;"_"&amp;D19&amp;"_"&amp;A19&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C19&amp;"_"&amp;B19&amp;"_"&amp;D19&amp;"_"&amp;A19&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-750009.68659553293</v>
+        <v>#N/A</v>
       </c>
       <c r="F19" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C19&amp;"_"&amp;B19&amp;"_"&amp;D19&amp;"_"&amp;A19&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C19&amp;"_"&amp;B19&amp;"_"&amp;D19&amp;"_"&amp;A19&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C19&amp;"_"&amp;B19&amp;"_"&amp;D19&amp;"_"&amp;A19&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C19&amp;"_"&amp;B19&amp;"_"&amp;D19&amp;"_"&amp;A19&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
@@ -7675,13 +6883,13 @@
       <c r="D20">
         <v>5</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-706746.04652696638</v>
-      </c>
-      <c r="F20">
+        <v>#N/A</v>
+      </c>
+      <c r="F20" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40098.766931812272</v>
+        <v>#N/A</v>
       </c>
       <c r="G20">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C20&amp;"_"&amp;B20&amp;"_"&amp;D20&amp;"_"&amp;A20&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7729,13 +6937,13 @@
       <c r="D21" s="6">
         <v>5</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-709293.04800919991</v>
-      </c>
-      <c r="F21">
+        <v>#N/A</v>
+      </c>
+      <c r="F21" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40019.626090797814</v>
+        <v>#N/A</v>
       </c>
       <c r="G21">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7761,13 +6969,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>941.11619276829333</v>
       </c>
-      <c r="M21" t="e">
+      <c r="M21">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N21" t="e">
+        <v>-398848.29414896597</v>
+      </c>
+      <c r="N21">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C21&amp;"_"&amp;B21&amp;"_"&amp;D21&amp;"_"&amp;A21&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>#N/A</v>
+        <v>21219.331658817551</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -7783,13 +6991,13 @@
       <c r="D22">
         <v>5</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C22&amp;"_"&amp;B22&amp;"_"&amp;D22&amp;"_"&amp;A22&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C22&amp;"_"&amp;B22&amp;"_"&amp;D22&amp;"_"&amp;A22&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-773535.59881746641</v>
-      </c>
-      <c r="F22">
+        <v>#N/A</v>
+      </c>
+      <c r="F22" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C22&amp;"_"&amp;B22&amp;"_"&amp;D22&amp;"_"&amp;A22&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C22&amp;"_"&amp;B22&amp;"_"&amp;D22&amp;"_"&amp;A22&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C22&amp;"_"&amp;B22&amp;"_"&amp;D22&amp;"_"&amp;A22&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C22&amp;"_"&amp;B22&amp;"_"&amp;D22&amp;"_"&amp;A22&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>37424.00645244708</v>
+        <v>#N/A</v>
       </c>
       <c r="G22" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C22&amp;"_"&amp;B22&amp;"_"&amp;D22&amp;"_"&amp;A22&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C22&amp;"_"&amp;B22&amp;"_"&amp;D22&amp;"_"&amp;A22&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7837,13 +7045,13 @@
       <c r="D23" s="8">
         <v>5</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-707811.19175023271</v>
-      </c>
-      <c r="F23">
+        <v>#N/A</v>
+      </c>
+      <c r="F23" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40208.437091762549</v>
+        <v>#N/A</v>
       </c>
       <c r="G23">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C23&amp;"_"&amp;B23&amp;"_"&amp;D23&amp;"_"&amp;A23&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7891,29 +7099,29 @@
       <c r="D24" s="4">
         <v>5</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-708426.35977360001</v>
-      </c>
-      <c r="F24">
+        <v>#N/A</v>
+      </c>
+      <c r="F24" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40181.329055406401</v>
+        <v>#N/A</v>
       </c>
       <c r="G24">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-150967.35654949996</v>
+        <v>-151004.78483646669</v>
       </c>
       <c r="H24">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>242.20959197173391</v>
+        <v>331.22314261694709</v>
       </c>
       <c r="I24">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-227011.61531899983</v>
+        <v>-227135.92624956652</v>
       </c>
       <c r="J24">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>553.97474083882776</v>
+        <v>838.67820589280166</v>
       </c>
       <c r="K24">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C24&amp;"_"&amp;B24&amp;"_"&amp;D24&amp;"_"&amp;A24&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7945,21 +7153,21 @@
       <c r="D25" s="7">
         <v>5</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C25&amp;"_"&amp;B25&amp;"_"&amp;D25&amp;"_"&amp;A25&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C25&amp;"_"&amp;B25&amp;"_"&amp;D25&amp;"_"&amp;A25&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-740969.70362759952</v>
-      </c>
-      <c r="F25">
+        <v>#N/A</v>
+      </c>
+      <c r="F25" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C25&amp;"_"&amp;B25&amp;"_"&amp;D25&amp;"_"&amp;A25&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C25&amp;"_"&amp;B25&amp;"_"&amp;D25&amp;"_"&amp;A25&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C25&amp;"_"&amp;B25&amp;"_"&amp;D25&amp;"_"&amp;A25&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C25&amp;"_"&amp;B25&amp;"_"&amp;D25&amp;"_"&amp;A25&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40993.554614234425</v>
-      </c>
-      <c r="G25">
+        <v>#N/A</v>
+      </c>
+      <c r="G25" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C25&amp;"_"&amp;B25&amp;"_"&amp;D25&amp;"_"&amp;A25&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C25&amp;"_"&amp;B25&amp;"_"&amp;D25&amp;"_"&amp;A25&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-192549.72860203317</v>
-      </c>
-      <c r="H25">
+        <v>#N/A</v>
+      </c>
+      <c r="H25" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C25&amp;"_"&amp;B25&amp;"_"&amp;D25&amp;"_"&amp;A25&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C25&amp;"_"&amp;B25&amp;"_"&amp;D25&amp;"_"&amp;A25&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C25&amp;"_"&amp;B25&amp;"_"&amp;D25&amp;"_"&amp;A25&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C25&amp;"_"&amp;B25&amp;"_"&amp;D25&amp;"_"&amp;A25&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>10707.586151122789</v>
+        <v>#N/A</v>
       </c>
       <c r="I25" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C25&amp;"_"&amp;B25&amp;"_"&amp;D25&amp;"_"&amp;A25&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C25&amp;"_"&amp;B25&amp;"_"&amp;D25&amp;"_"&amp;A25&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -7999,13 +7207,13 @@
       <c r="D26">
         <v>10</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-710017.80558049981</v>
-      </c>
-      <c r="F26">
+        <v>#N/A</v>
+      </c>
+      <c r="F26" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40360.929614461573</v>
+        <v>#N/A</v>
       </c>
       <c r="G26">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C26&amp;"_"&amp;B26&amp;"_"&amp;D26&amp;"_"&amp;A26&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -8107,9 +7315,9 @@
       <c r="D28">
         <v>10</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C28&amp;"_"&amp;B28&amp;"_"&amp;D28&amp;"_"&amp;A28&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C28&amp;"_"&amp;B28&amp;"_"&amp;D28&amp;"_"&amp;A28&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-730924.02649516624</v>
+        <v>#N/A</v>
       </c>
       <c r="F28" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C28&amp;"_"&amp;B28&amp;"_"&amp;D28&amp;"_"&amp;A28&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C28&amp;"_"&amp;B28&amp;"_"&amp;D28&amp;"_"&amp;A28&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C28&amp;"_"&amp;B28&amp;"_"&amp;D28&amp;"_"&amp;A28&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C28&amp;"_"&amp;B28&amp;"_"&amp;D28&amp;"_"&amp;A28&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
@@ -8161,13 +7369,13 @@
       <c r="D29">
         <v>10</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-707681.55103869957</v>
-      </c>
-      <c r="F29">
+        <v>#N/A</v>
+      </c>
+      <c r="F29" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40639.020483363034</v>
+        <v>#N/A</v>
       </c>
       <c r="G29">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C29&amp;"_"&amp;B29&amp;"_"&amp;D29&amp;"_"&amp;A29&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -8269,9 +7477,9 @@
       <c r="D31">
         <v>10</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C31&amp;"_"&amp;B31&amp;"_"&amp;D31&amp;"_"&amp;A31&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C31&amp;"_"&amp;B31&amp;"_"&amp;D31&amp;"_"&amp;A31&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-730991.83668766613</v>
+        <v>#N/A</v>
       </c>
       <c r="F31" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C31&amp;"_"&amp;B31&amp;"_"&amp;D31&amp;"_"&amp;A31&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C31&amp;"_"&amp;B31&amp;"_"&amp;D31&amp;"_"&amp;A31&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C31&amp;"_"&amp;B31&amp;"_"&amp;D31&amp;"_"&amp;A31&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C31&amp;"_"&amp;B31&amp;"_"&amp;D31&amp;"_"&amp;A31&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
@@ -8323,13 +7531,13 @@
       <c r="D32">
         <v>10</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-707955.80275453313</v>
-      </c>
-      <c r="F32">
+        <v>#N/A</v>
+      </c>
+      <c r="F32" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39337.247076057043</v>
+        <v>#N/A</v>
       </c>
       <c r="G32">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C32&amp;"_"&amp;B32&amp;"_"&amp;D32&amp;"_"&amp;A32&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -8377,13 +7585,13 @@
       <c r="D33">
         <v>10</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-709461.00719539984</v>
-      </c>
-      <c r="F33">
+        <v>#N/A</v>
+      </c>
+      <c r="F33" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39759.085613775067</v>
+        <v>#N/A</v>
       </c>
       <c r="G33" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C33&amp;"_"&amp;B33&amp;"_"&amp;D33&amp;"_"&amp;A33&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -8431,13 +7639,13 @@
       <c r="D34">
         <v>10</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C34&amp;"_"&amp;B34&amp;"_"&amp;D34&amp;"_"&amp;A34&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C34&amp;"_"&amp;B34&amp;"_"&amp;D34&amp;"_"&amp;A34&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-730924.02649516624</v>
-      </c>
-      <c r="F34">
+        <v>#N/A</v>
+      </c>
+      <c r="F34" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C34&amp;"_"&amp;B34&amp;"_"&amp;D34&amp;"_"&amp;A34&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C34&amp;"_"&amp;B34&amp;"_"&amp;D34&amp;"_"&amp;A34&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C34&amp;"_"&amp;B34&amp;"_"&amp;D34&amp;"_"&amp;A34&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C34&amp;"_"&amp;B34&amp;"_"&amp;D34&amp;"_"&amp;A34&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39209.763780033012</v>
+        <v>#N/A</v>
       </c>
       <c r="G34" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C34&amp;"_"&amp;B34&amp;"_"&amp;D34&amp;"_"&amp;A34&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C34&amp;"_"&amp;B34&amp;"_"&amp;D34&amp;"_"&amp;A34&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -8485,13 +7693,13 @@
       <c r="D35">
         <v>10</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-706648.56090229948</v>
-      </c>
-      <c r="F35">
+        <v>#N/A</v>
+      </c>
+      <c r="F35" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40159.741416499652</v>
+        <v>#N/A</v>
       </c>
       <c r="G35">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C35&amp;"_"&amp;B35&amp;"_"&amp;D35&amp;"_"&amp;A35&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -8539,13 +7747,13 @@
       <c r="D36" s="5">
         <v>10</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C36&amp;"_"&amp;B36&amp;"_"&amp;D36&amp;"_"&amp;A36&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C36&amp;"_"&amp;B36&amp;"_"&amp;D36&amp;"_"&amp;A36&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-706559.657350066</v>
-      </c>
-      <c r="F36">
+        <v>#N/A</v>
+      </c>
+      <c r="F36" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C36&amp;"_"&amp;B36&amp;"_"&amp;D36&amp;"_"&amp;A36&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C36&amp;"_"&amp;B36&amp;"_"&amp;D36&amp;"_"&amp;A36&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C36&amp;"_"&amp;B36&amp;"_"&amp;D36&amp;"_"&amp;A36&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C36&amp;"_"&amp;B36&amp;"_"&amp;D36&amp;"_"&amp;A36&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40048.2417264506</v>
+        <v>#N/A</v>
       </c>
       <c r="G36" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C36&amp;"_"&amp;B36&amp;"_"&amp;D36&amp;"_"&amp;A36&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C36&amp;"_"&amp;B36&amp;"_"&amp;D36&amp;"_"&amp;A36&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -8593,13 +7801,13 @@
       <c r="D37">
         <v>10</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C37&amp;"_"&amp;B37&amp;"_"&amp;D37&amp;"_"&amp;A37&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C37&amp;"_"&amp;B37&amp;"_"&amp;D37&amp;"_"&amp;A37&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-731507.23811789963</v>
-      </c>
-      <c r="F37">
+        <v>#N/A</v>
+      </c>
+      <c r="F37" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C37&amp;"_"&amp;B37&amp;"_"&amp;D37&amp;"_"&amp;A37&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C37&amp;"_"&amp;B37&amp;"_"&amp;D37&amp;"_"&amp;A37&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C37&amp;"_"&amp;B37&amp;"_"&amp;D37&amp;"_"&amp;A37&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C37&amp;"_"&amp;B37&amp;"_"&amp;D37&amp;"_"&amp;A37&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39531.263700325617</v>
+        <v>#N/A</v>
       </c>
       <c r="G37" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C37&amp;"_"&amp;B37&amp;"_"&amp;D37&amp;"_"&amp;A37&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C37&amp;"_"&amp;B37&amp;"_"&amp;D37&amp;"_"&amp;A37&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -8647,13 +7855,13 @@
       <c r="D38">
         <v>15</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C38&amp;"_"&amp;B38&amp;"_"&amp;D38&amp;"_"&amp;A38&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C38&amp;"_"&amp;B38&amp;"_"&amp;D38&amp;"_"&amp;A38&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-709021.09014419978</v>
-      </c>
-      <c r="F38">
+        <v>#N/A</v>
+      </c>
+      <c r="F38" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C38&amp;"_"&amp;B38&amp;"_"&amp;D38&amp;"_"&amp;A38&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C38&amp;"_"&amp;B38&amp;"_"&amp;D38&amp;"_"&amp;A38&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C38&amp;"_"&amp;B38&amp;"_"&amp;D38&amp;"_"&amp;A38&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C38&amp;"_"&amp;B38&amp;"_"&amp;D38&amp;"_"&amp;A38&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40113.598548335525</v>
+        <v>#N/A</v>
       </c>
       <c r="G38" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C38&amp;"_"&amp;B38&amp;"_"&amp;D38&amp;"_"&amp;A38&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C38&amp;"_"&amp;B38&amp;"_"&amp;D38&amp;"_"&amp;A38&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -8701,9 +7909,9 @@
       <c r="D39">
         <v>15</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C39&amp;"_"&amp;B39&amp;"_"&amp;D39&amp;"_"&amp;A39&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C39&amp;"_"&amp;B39&amp;"_"&amp;D39&amp;"_"&amp;A39&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-835883.99848549964</v>
+        <v>#N/A</v>
       </c>
       <c r="F39" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C39&amp;"_"&amp;B39&amp;"_"&amp;D39&amp;"_"&amp;A39&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C39&amp;"_"&amp;B39&amp;"_"&amp;D39&amp;"_"&amp;A39&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C39&amp;"_"&amp;B39&amp;"_"&amp;D39&amp;"_"&amp;A39&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E2&amp;"_"&amp;C39&amp;"_"&amp;B39&amp;"_"&amp;D39&amp;"_"&amp;A39&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
@@ -8755,9 +7963,9 @@
       <c r="D40">
         <v>15</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C40&amp;"_"&amp;B40&amp;"_"&amp;D40&amp;"_"&amp;A40&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C40&amp;"_"&amp;B40&amp;"_"&amp;D40&amp;"_"&amp;A40&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-730924.02649516624</v>
+        <v>#N/A</v>
       </c>
       <c r="F40" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C40&amp;"_"&amp;B40&amp;"_"&amp;D40&amp;"_"&amp;A40&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C40&amp;"_"&amp;B40&amp;"_"&amp;D40&amp;"_"&amp;A40&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C40&amp;"_"&amp;B40&amp;"_"&amp;D40&amp;"_"&amp;A40&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E3&amp;"_"&amp;C40&amp;"_"&amp;B40&amp;"_"&amp;D40&amp;"_"&amp;A40&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
@@ -8809,13 +8017,13 @@
       <c r="D41">
         <v>15</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C41&amp;"_"&amp;B41&amp;"_"&amp;D41&amp;"_"&amp;A41&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C41&amp;"_"&amp;B41&amp;"_"&amp;D41&amp;"_"&amp;A41&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-708492.99496816634</v>
-      </c>
-      <c r="F41">
+        <v>#N/A</v>
+      </c>
+      <c r="F41" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C41&amp;"_"&amp;B41&amp;"_"&amp;D41&amp;"_"&amp;A41&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C41&amp;"_"&amp;B41&amp;"_"&amp;D41&amp;"_"&amp;A41&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C41&amp;"_"&amp;B41&amp;"_"&amp;D41&amp;"_"&amp;A41&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C41&amp;"_"&amp;B41&amp;"_"&amp;D41&amp;"_"&amp;A41&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40027.392959266566</v>
+        <v>#N/A</v>
       </c>
       <c r="G41" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C41&amp;"_"&amp;B41&amp;"_"&amp;D41&amp;"_"&amp;A41&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C41&amp;"_"&amp;B41&amp;"_"&amp;D41&amp;"_"&amp;A41&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -8971,13 +8179,13 @@
       <c r="D44">
         <v>15</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C44&amp;"_"&amp;B44&amp;"_"&amp;D44&amp;"_"&amp;A44&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C44&amp;"_"&amp;B44&amp;"_"&amp;D44&amp;"_"&amp;A44&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-710976.60654949979</v>
-      </c>
-      <c r="F44">
+        <v>#N/A</v>
+      </c>
+      <c r="F44" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C44&amp;"_"&amp;B44&amp;"_"&amp;D44&amp;"_"&amp;A44&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C44&amp;"_"&amp;B44&amp;"_"&amp;D44&amp;"_"&amp;A44&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C44&amp;"_"&amp;B44&amp;"_"&amp;D44&amp;"_"&amp;A44&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C44&amp;"_"&amp;B44&amp;"_"&amp;D44&amp;"_"&amp;A44&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40337.642309405259</v>
+        <v>#N/A</v>
       </c>
       <c r="G44" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C44&amp;"_"&amp;B44&amp;"_"&amp;D44&amp;"_"&amp;A44&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C44&amp;"_"&amp;B44&amp;"_"&amp;D44&amp;"_"&amp;A44&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -9025,13 +8233,13 @@
       <c r="D45">
         <v>15</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C45&amp;"_"&amp;B45&amp;"_"&amp;D45&amp;"_"&amp;A45&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C45&amp;"_"&amp;B45&amp;"_"&amp;D45&amp;"_"&amp;A45&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-714960.4189565666</v>
-      </c>
-      <c r="F45">
+        <v>#N/A</v>
+      </c>
+      <c r="F45" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C45&amp;"_"&amp;B45&amp;"_"&amp;D45&amp;"_"&amp;A45&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C45&amp;"_"&amp;B45&amp;"_"&amp;D45&amp;"_"&amp;A45&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C45&amp;"_"&amp;B45&amp;"_"&amp;D45&amp;"_"&amp;A45&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C45&amp;"_"&amp;B45&amp;"_"&amp;D45&amp;"_"&amp;A45&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40366.434513595304</v>
+        <v>#N/A</v>
       </c>
       <c r="G45" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C45&amp;"_"&amp;B45&amp;"_"&amp;D45&amp;"_"&amp;A45&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C45&amp;"_"&amp;B45&amp;"_"&amp;D45&amp;"_"&amp;A45&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -9079,13 +8287,13 @@
       <c r="D46">
         <v>15</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-730924.02649516624</v>
-      </c>
-      <c r="F46">
+        <v>#N/A</v>
+      </c>
+      <c r="F46" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39209.763780033012</v>
+        <v>#N/A</v>
       </c>
       <c r="G46" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C46&amp;"_"&amp;B46&amp;"_"&amp;D46&amp;"_"&amp;A46&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -9133,13 +8341,13 @@
       <c r="D47">
         <v>15</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C47&amp;"_"&amp;B47&amp;"_"&amp;D47&amp;"_"&amp;A47&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C47&amp;"_"&amp;B47&amp;"_"&amp;D47&amp;"_"&amp;A47&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-708497.52910989977</v>
-      </c>
-      <c r="F47">
+        <v>#N/A</v>
+      </c>
+      <c r="F47" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C47&amp;"_"&amp;B47&amp;"_"&amp;D47&amp;"_"&amp;A47&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C47&amp;"_"&amp;B47&amp;"_"&amp;D47&amp;"_"&amp;A47&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C47&amp;"_"&amp;B47&amp;"_"&amp;D47&amp;"_"&amp;A47&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C47&amp;"_"&amp;B47&amp;"_"&amp;D47&amp;"_"&amp;A47&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39716.755846609769</v>
+        <v>#N/A</v>
       </c>
       <c r="G47" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C47&amp;"_"&amp;B47&amp;"_"&amp;D47&amp;"_"&amp;A47&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C47&amp;"_"&amp;B47&amp;"_"&amp;D47&amp;"_"&amp;A47&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -9187,13 +8395,13 @@
       <c r="D48" s="9">
         <v>15</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C48&amp;"_"&amp;B48&amp;"_"&amp;D48&amp;"_"&amp;A48&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C48&amp;"_"&amp;B48&amp;"_"&amp;D48&amp;"_"&amp;A48&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-711384.42396793317</v>
-      </c>
-      <c r="F48">
+        <v>#N/A</v>
+      </c>
+      <c r="F48" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C48&amp;"_"&amp;B48&amp;"_"&amp;D48&amp;"_"&amp;A48&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C48&amp;"_"&amp;B48&amp;"_"&amp;D48&amp;"_"&amp;A48&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C48&amp;"_"&amp;B48&amp;"_"&amp;D48&amp;"_"&amp;A48&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C48&amp;"_"&amp;B48&amp;"_"&amp;D48&amp;"_"&amp;A48&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39701.410599280032</v>
+        <v>#N/A</v>
       </c>
       <c r="G48" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C48&amp;"_"&amp;B48&amp;"_"&amp;D48&amp;"_"&amp;A48&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C48&amp;"_"&amp;B48&amp;"_"&amp;D48&amp;"_"&amp;A48&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -9241,13 +8449,13 @@
       <c r="D49">
         <v>15</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C49&amp;"_"&amp;B49&amp;"_"&amp;D49&amp;"_"&amp;A49&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;E1&amp;"_"&amp;C49&amp;"_"&amp;B49&amp;"_"&amp;D49&amp;"_"&amp;A49&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-730924.02649516624</v>
-      </c>
-      <c r="F49">
+        <v>#N/A</v>
+      </c>
+      <c r="F49" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C49&amp;"_"&amp;B49&amp;"_"&amp;D49&amp;"_"&amp;A49&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C49&amp;"_"&amp;B49&amp;"_"&amp;D49&amp;"_"&amp;A49&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C49&amp;"_"&amp;B49&amp;"_"&amp;D49&amp;"_"&amp;A49&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C49&amp;"_"&amp;B49&amp;"_"&amp;D49&amp;"_"&amp;A49&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39209.763780033012</v>
+        <v>#N/A</v>
       </c>
       <c r="G49" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C49&amp;"_"&amp;B49&amp;"_"&amp;D49&amp;"_"&amp;A49&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C49&amp;"_"&amp;B49&amp;"_"&amp;D49&amp;"_"&amp;A49&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10110,13 +9318,13 @@
       <c r="D67">
         <v>1</v>
       </c>
-      <c r="E67">
+      <c r="E67" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C67&amp;"_"&amp;B67&amp;"_"&amp;D67&amp;"_"&amp;A67&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C67&amp;"_"&amp;B67&amp;"_"&amp;D67&amp;"_"&amp;A67&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-715714.54157559981</v>
-      </c>
-      <c r="F67">
+        <v>#N/A</v>
+      </c>
+      <c r="F67" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C67&amp;"_"&amp;B67&amp;"_"&amp;D67&amp;"_"&amp;A67&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C67&amp;"_"&amp;B67&amp;"_"&amp;D67&amp;"_"&amp;A67&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C67&amp;"_"&amp;B67&amp;"_"&amp;D67&amp;"_"&amp;A67&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C67&amp;"_"&amp;B67&amp;"_"&amp;D67&amp;"_"&amp;A67&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>42841.401748626136</v>
+        <v>#N/A</v>
       </c>
       <c r="G67" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C67&amp;"_"&amp;B67&amp;"_"&amp;D67&amp;"_"&amp;A67&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C67&amp;"_"&amp;B67&amp;"_"&amp;D67&amp;"_"&amp;A67&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10164,13 +9372,13 @@
       <c r="D68">
         <v>1</v>
       </c>
-      <c r="E68">
+      <c r="E68" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C68&amp;"_"&amp;B68&amp;"_"&amp;D68&amp;"_"&amp;A68&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C68&amp;"_"&amp;B68&amp;"_"&amp;D68&amp;"_"&amp;A68&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-745195.93566803297</v>
-      </c>
-      <c r="F68">
+        <v>#N/A</v>
+      </c>
+      <c r="F68" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C68&amp;"_"&amp;B68&amp;"_"&amp;D68&amp;"_"&amp;A68&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C68&amp;"_"&amp;B68&amp;"_"&amp;D68&amp;"_"&amp;A68&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C68&amp;"_"&amp;B68&amp;"_"&amp;D68&amp;"_"&amp;A68&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C68&amp;"_"&amp;B68&amp;"_"&amp;D68&amp;"_"&amp;A68&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39852.365122028001</v>
+        <v>#N/A</v>
       </c>
       <c r="G68" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C68&amp;"_"&amp;B68&amp;"_"&amp;D68&amp;"_"&amp;A68&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C68&amp;"_"&amp;B68&amp;"_"&amp;D68&amp;"_"&amp;A68&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10272,13 +9480,13 @@
       <c r="D70">
         <v>1</v>
       </c>
-      <c r="E70">
+      <c r="E70" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C70&amp;"_"&amp;B70&amp;"_"&amp;D70&amp;"_"&amp;A70&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C70&amp;"_"&amp;B70&amp;"_"&amp;D70&amp;"_"&amp;A70&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-717509.22320536652</v>
-      </c>
-      <c r="F70">
+        <v>#N/A</v>
+      </c>
+      <c r="F70" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C70&amp;"_"&amp;B70&amp;"_"&amp;D70&amp;"_"&amp;A70&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C70&amp;"_"&amp;B70&amp;"_"&amp;D70&amp;"_"&amp;A70&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C70&amp;"_"&amp;B70&amp;"_"&amp;D70&amp;"_"&amp;A70&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C70&amp;"_"&amp;B70&amp;"_"&amp;D70&amp;"_"&amp;A70&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>42786.44933553131</v>
+        <v>#N/A</v>
       </c>
       <c r="G70" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C70&amp;"_"&amp;B70&amp;"_"&amp;D70&amp;"_"&amp;A70&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C70&amp;"_"&amp;B70&amp;"_"&amp;D70&amp;"_"&amp;A70&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10434,13 +9642,13 @@
       <c r="D73">
         <v>1</v>
       </c>
-      <c r="E73">
+      <c r="E73" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C73&amp;"_"&amp;B73&amp;"_"&amp;D73&amp;"_"&amp;A73&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C73&amp;"_"&amp;B73&amp;"_"&amp;D73&amp;"_"&amp;A73&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-715540.12051133299</v>
-      </c>
-      <c r="F73">
+        <v>#N/A</v>
+      </c>
+      <c r="F73" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C73&amp;"_"&amp;B73&amp;"_"&amp;D73&amp;"_"&amp;A73&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C73&amp;"_"&amp;B73&amp;"_"&amp;D73&amp;"_"&amp;A73&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C73&amp;"_"&amp;B73&amp;"_"&amp;D73&amp;"_"&amp;A73&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C73&amp;"_"&amp;B73&amp;"_"&amp;D73&amp;"_"&amp;A73&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40275.952943073848</v>
+        <v>#N/A</v>
       </c>
       <c r="G73" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C73&amp;"_"&amp;B73&amp;"_"&amp;D73&amp;"_"&amp;A73&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C73&amp;"_"&amp;B73&amp;"_"&amp;D73&amp;"_"&amp;A73&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10542,13 +9750,13 @@
       <c r="D75">
         <v>1</v>
       </c>
-      <c r="E75">
+      <c r="E75" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C75&amp;"_"&amp;B75&amp;"_"&amp;D75&amp;"_"&amp;A75&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C75&amp;"_"&amp;B75&amp;"_"&amp;D75&amp;"_"&amp;A75&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-753126.90474219969</v>
-      </c>
-      <c r="F75">
+        <v>#N/A</v>
+      </c>
+      <c r="F75" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C75&amp;"_"&amp;B75&amp;"_"&amp;D75&amp;"_"&amp;A75&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C75&amp;"_"&amp;B75&amp;"_"&amp;D75&amp;"_"&amp;A75&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C75&amp;"_"&amp;B75&amp;"_"&amp;D75&amp;"_"&amp;A75&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C75&amp;"_"&amp;B75&amp;"_"&amp;D75&amp;"_"&amp;A75&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40264.607432085722</v>
+        <v>#N/A</v>
       </c>
       <c r="G75" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C75&amp;"_"&amp;B75&amp;"_"&amp;D75&amp;"_"&amp;A75&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C75&amp;"_"&amp;B75&amp;"_"&amp;D75&amp;"_"&amp;A75&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10596,13 +9804,13 @@
       <c r="D76">
         <v>5</v>
       </c>
-      <c r="E76">
+      <c r="E76" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-708425.19139766623</v>
-      </c>
-      <c r="F76">
+        <v>#N/A</v>
+      </c>
+      <c r="F76" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40312.00074460356</v>
+        <v>#N/A</v>
       </c>
       <c r="G76">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C76&amp;"_"&amp;B76&amp;"_"&amp;D76&amp;"_"&amp;A76&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10650,13 +9858,13 @@
       <c r="D77">
         <v>5</v>
       </c>
-      <c r="E77">
+      <c r="E77" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-737097.21774646663</v>
-      </c>
-      <c r="F77">
+        <v>#N/A</v>
+      </c>
+      <c r="F77" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>42615.027854960208</v>
+        <v>#N/A</v>
       </c>
       <c r="G77">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C77&amp;"_"&amp;B77&amp;"_"&amp;D77&amp;"_"&amp;A77&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10758,13 +9966,13 @@
       <c r="D79">
         <v>5</v>
       </c>
-      <c r="E79">
+      <c r="E79" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-708559.80412906618</v>
-      </c>
-      <c r="F79">
+        <v>#N/A</v>
+      </c>
+      <c r="F79" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40142.715762711916</v>
+        <v>#N/A</v>
       </c>
       <c r="G79" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C79&amp;"_"&amp;B79&amp;"_"&amp;D79&amp;"_"&amp;A79&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10812,13 +10020,13 @@
       <c r="D80">
         <v>5</v>
       </c>
-      <c r="E80">
+      <c r="E80" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-731254.21310143324</v>
-      </c>
-      <c r="F80">
+        <v>#N/A</v>
+      </c>
+      <c r="F80" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>41652.037453250014</v>
+        <v>#N/A</v>
       </c>
       <c r="G80">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C80&amp;"_"&amp;B80&amp;"_"&amp;D80&amp;"_"&amp;A80&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10866,13 +10074,13 @@
       <c r="D81">
         <v>5</v>
       </c>
-      <c r="E81">
+      <c r="E81" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C81&amp;"_"&amp;B81&amp;"_"&amp;D81&amp;"_"&amp;A81&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C81&amp;"_"&amp;B81&amp;"_"&amp;D81&amp;"_"&amp;A81&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-730924.02649516624</v>
-      </c>
-      <c r="F81">
+        <v>#N/A</v>
+      </c>
+      <c r="F81" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C81&amp;"_"&amp;B81&amp;"_"&amp;D81&amp;"_"&amp;A81&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C81&amp;"_"&amp;B81&amp;"_"&amp;D81&amp;"_"&amp;A81&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C81&amp;"_"&amp;B81&amp;"_"&amp;D81&amp;"_"&amp;A81&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C81&amp;"_"&amp;B81&amp;"_"&amp;D81&amp;"_"&amp;A81&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39209.763780033012</v>
+        <v>#N/A</v>
       </c>
       <c r="G81" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C81&amp;"_"&amp;B81&amp;"_"&amp;D81&amp;"_"&amp;A81&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C81&amp;"_"&amp;B81&amp;"_"&amp;D81&amp;"_"&amp;A81&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10920,13 +10128,13 @@
       <c r="D82">
         <v>5</v>
       </c>
-      <c r="E82">
+      <c r="E82" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-709157.97949753318</v>
-      </c>
-      <c r="F82">
+        <v>#N/A</v>
+      </c>
+      <c r="F82" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40181.205303027433</v>
+        <v>#N/A</v>
       </c>
       <c r="G82">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C82&amp;"_"&amp;B82&amp;"_"&amp;D82&amp;"_"&amp;A82&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10974,13 +10182,13 @@
       <c r="D83">
         <v>5</v>
       </c>
-      <c r="E83">
+      <c r="E83" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-727351.6761023663</v>
-      </c>
-      <c r="F83">
+        <v>#N/A</v>
+      </c>
+      <c r="F83" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>41394.909182628144</v>
+        <v>#N/A</v>
       </c>
       <c r="G83">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -10998,21 +10206,21 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>1259.4270507140516</v>
       </c>
-      <c r="K83">
+      <c r="K83" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-303046.13746199937</v>
-      </c>
-      <c r="L83">
+        <v>#N/A</v>
+      </c>
+      <c r="L83" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>900.88642947188555</v>
-      </c>
-      <c r="M83">
+        <v>#N/A</v>
+      </c>
+      <c r="M83" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-399833.05372449924</v>
-      </c>
-      <c r="N83">
+        <v>#N/A</v>
+      </c>
+      <c r="N83" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C83&amp;"_"&amp;B83&amp;"_"&amp;D83&amp;"_"&amp;A83&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>11011.391744357237</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
@@ -11028,13 +10236,13 @@
       <c r="D84">
         <v>5</v>
       </c>
-      <c r="E84">
+      <c r="E84" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C84&amp;"_"&amp;B84&amp;"_"&amp;D84&amp;"_"&amp;A84&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C84&amp;"_"&amp;B84&amp;"_"&amp;D84&amp;"_"&amp;A84&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-732076.38258149964</v>
-      </c>
-      <c r="F84">
+        <v>#N/A</v>
+      </c>
+      <c r="F84" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C84&amp;"_"&amp;B84&amp;"_"&amp;D84&amp;"_"&amp;A84&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C84&amp;"_"&amp;B84&amp;"_"&amp;D84&amp;"_"&amp;A84&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C84&amp;"_"&amp;B84&amp;"_"&amp;D84&amp;"_"&amp;A84&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C84&amp;"_"&amp;B84&amp;"_"&amp;D84&amp;"_"&amp;A84&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>38984.211922372982</v>
+        <v>#N/A</v>
       </c>
       <c r="G84" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C84&amp;"_"&amp;B84&amp;"_"&amp;D84&amp;"_"&amp;A84&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C84&amp;"_"&amp;B84&amp;"_"&amp;D84&amp;"_"&amp;A84&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -11082,21 +10290,21 @@
       <c r="D85" s="8">
         <v>5</v>
       </c>
-      <c r="E85">
+      <c r="E85" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-710054.40741833299</v>
-      </c>
-      <c r="F85">
+        <v>#N/A</v>
+      </c>
+      <c r="F85" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39128.405501370347</v>
-      </c>
-      <c r="G85">
+        <v>#N/A</v>
+      </c>
+      <c r="G85" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-155895.68625479986</v>
-      </c>
-      <c r="H85">
+        <v>#N/A</v>
+      </c>
+      <c r="H85" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1430.4176124694761</v>
+        <v>#N/A</v>
       </c>
       <c r="I85">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -11106,13 +10314,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>1397.4312302377432</v>
       </c>
-      <c r="K85">
+      <c r="K85" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-305102.12682239962</v>
-      </c>
-      <c r="L85">
+        <v>#N/A</v>
+      </c>
+      <c r="L85" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1166.8338806249208</v>
+        <v>#N/A</v>
       </c>
       <c r="M85" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C85&amp;"_"&amp;B85&amp;"_"&amp;D85&amp;"_"&amp;A85&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -11136,45 +10344,45 @@
       <c r="D86" s="4">
         <v>5</v>
       </c>
-      <c r="E86">
+      <c r="E86" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-724079.68476471654</v>
-      </c>
-      <c r="F86">
+        <v>#N/A</v>
+      </c>
+      <c r="F86" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>28328.559456726012</v>
-      </c>
-      <c r="G86">
+        <v>#N/A</v>
+      </c>
+      <c r="G86" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-155600.90736036652</v>
-      </c>
-      <c r="H86">
+        <v>#N/A</v>
+      </c>
+      <c r="H86" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1159.7819921319451</v>
+        <v>#N/A</v>
       </c>
       <c r="I86">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-229289.89469091655</v>
+        <v>-229348.97434053311</v>
       </c>
       <c r="J86">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>878.55996756240802</v>
-      </c>
-      <c r="K86">
+        <v>1339.2904010681068</v>
+      </c>
+      <c r="K86" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-304498.7101304995</v>
-      </c>
-      <c r="L86">
+        <v>#N/A</v>
+      </c>
+      <c r="L86" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1131.1377381057916</v>
-      </c>
-      <c r="M86">
+        <v>#N/A</v>
+      </c>
+      <c r="M86" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-379795.4045771996</v>
-      </c>
-      <c r="N86">
+        <v>#N/A</v>
+      </c>
+      <c r="N86" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C86&amp;"_"&amp;B86&amp;"_"&amp;D86&amp;"_"&amp;A86&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1465.5982741006972</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -11190,13 +10398,13 @@
       <c r="D87" s="7">
         <v>5</v>
       </c>
-      <c r="E87">
+      <c r="E87" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C87&amp;"_"&amp;B87&amp;"_"&amp;D87&amp;"_"&amp;A87&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C87&amp;"_"&amp;B87&amp;"_"&amp;D87&amp;"_"&amp;A87&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-730924.02649516624</v>
-      </c>
-      <c r="F87">
+        <v>#N/A</v>
+      </c>
+      <c r="F87" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C87&amp;"_"&amp;B87&amp;"_"&amp;D87&amp;"_"&amp;A87&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C87&amp;"_"&amp;B87&amp;"_"&amp;D87&amp;"_"&amp;A87&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C87&amp;"_"&amp;B87&amp;"_"&amp;D87&amp;"_"&amp;A87&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C87&amp;"_"&amp;B87&amp;"_"&amp;D87&amp;"_"&amp;A87&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39209.763780033012</v>
+        <v>#N/A</v>
       </c>
       <c r="G87" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C87&amp;"_"&amp;B87&amp;"_"&amp;D87&amp;"_"&amp;A87&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C87&amp;"_"&amp;B87&amp;"_"&amp;D87&amp;"_"&amp;A87&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -11244,13 +10452,13 @@
       <c r="D88">
         <v>10</v>
       </c>
-      <c r="E88">
+      <c r="E88" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-709669.41458749969</v>
-      </c>
-      <c r="F88">
+        <v>#N/A</v>
+      </c>
+      <c r="F88" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39924.115151928083</v>
+        <v>#N/A</v>
       </c>
       <c r="G88">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C88&amp;"_"&amp;B88&amp;"_"&amp;D88&amp;"_"&amp;A88&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -11406,13 +10614,13 @@
       <c r="D91">
         <v>10</v>
       </c>
-      <c r="E91">
+      <c r="E91" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-708324.7575454663</v>
-      </c>
-      <c r="F91">
+        <v>#N/A</v>
+      </c>
+      <c r="F91" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39769.163534704297</v>
+        <v>#N/A</v>
       </c>
       <c r="G91">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C91&amp;"_"&amp;B91&amp;"_"&amp;D91&amp;"_"&amp;A91&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -11460,13 +10668,13 @@
       <c r="D92">
         <v>10</v>
       </c>
-      <c r="E92">
+      <c r="E92" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-746107.15572356642</v>
-      </c>
-      <c r="F92">
+        <v>#N/A</v>
+      </c>
+      <c r="F92" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>38447.550808583801</v>
+        <v>#N/A</v>
       </c>
       <c r="G92">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C92&amp;"_"&amp;B92&amp;"_"&amp;D92&amp;"_"&amp;A92&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -11514,13 +10722,13 @@
       <c r="D93">
         <v>10</v>
       </c>
-      <c r="E93">
+      <c r="E93" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C93&amp;"_"&amp;B93&amp;"_"&amp;D93&amp;"_"&amp;A93&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C93&amp;"_"&amp;B93&amp;"_"&amp;D93&amp;"_"&amp;A93&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-730924.02649516624</v>
-      </c>
-      <c r="F93">
+        <v>#N/A</v>
+      </c>
+      <c r="F93" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C93&amp;"_"&amp;B93&amp;"_"&amp;D93&amp;"_"&amp;A93&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C93&amp;"_"&amp;B93&amp;"_"&amp;D93&amp;"_"&amp;A93&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C93&amp;"_"&amp;B93&amp;"_"&amp;D93&amp;"_"&amp;A93&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C93&amp;"_"&amp;B93&amp;"_"&amp;D93&amp;"_"&amp;A93&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39209.763780033012</v>
+        <v>#N/A</v>
       </c>
       <c r="G93" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C93&amp;"_"&amp;B93&amp;"_"&amp;D93&amp;"_"&amp;A93&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C93&amp;"_"&amp;B93&amp;"_"&amp;D93&amp;"_"&amp;A93&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -11568,13 +10776,13 @@
       <c r="D94">
         <v>10</v>
       </c>
-      <c r="E94">
+      <c r="E94" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-708098.77254469949</v>
-      </c>
-      <c r="F94">
+        <v>#N/A</v>
+      </c>
+      <c r="F94" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40369.202032304413</v>
+        <v>#N/A</v>
       </c>
       <c r="G94">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C94&amp;"_"&amp;B94&amp;"_"&amp;D94&amp;"_"&amp;A94&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -11622,13 +10830,13 @@
       <c r="D95">
         <v>10</v>
       </c>
-      <c r="E95">
+      <c r="E95" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C95&amp;"_"&amp;B95&amp;"_"&amp;D95&amp;"_"&amp;A95&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C95&amp;"_"&amp;B95&amp;"_"&amp;D95&amp;"_"&amp;A95&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-736334.7793911997</v>
-      </c>
-      <c r="F95">
+        <v>#N/A</v>
+      </c>
+      <c r="F95" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C95&amp;"_"&amp;B95&amp;"_"&amp;D95&amp;"_"&amp;A95&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C95&amp;"_"&amp;B95&amp;"_"&amp;D95&amp;"_"&amp;A95&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C95&amp;"_"&amp;B95&amp;"_"&amp;D95&amp;"_"&amp;A95&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C95&amp;"_"&amp;B95&amp;"_"&amp;D95&amp;"_"&amp;A95&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>41272.937683721902</v>
+        <v>#N/A</v>
       </c>
       <c r="G95">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C95&amp;"_"&amp;B95&amp;"_"&amp;D95&amp;"_"&amp;A95&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C95&amp;"_"&amp;B95&amp;"_"&amp;D95&amp;"_"&amp;A95&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -11676,13 +10884,13 @@
       <c r="D96">
         <v>10</v>
       </c>
-      <c r="E96">
+      <c r="E96" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C96&amp;"_"&amp;B96&amp;"_"&amp;D96&amp;"_"&amp;A96&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C96&amp;"_"&amp;B96&amp;"_"&amp;D96&amp;"_"&amp;A96&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-730924.02649516624</v>
-      </c>
-      <c r="F96">
+        <v>#N/A</v>
+      </c>
+      <c r="F96" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C96&amp;"_"&amp;B96&amp;"_"&amp;D96&amp;"_"&amp;A96&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C96&amp;"_"&amp;B96&amp;"_"&amp;D96&amp;"_"&amp;A96&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C96&amp;"_"&amp;B96&amp;"_"&amp;D96&amp;"_"&amp;A96&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C96&amp;"_"&amp;B96&amp;"_"&amp;D96&amp;"_"&amp;A96&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39209.763780033012</v>
+        <v>#N/A</v>
       </c>
       <c r="G96" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C96&amp;"_"&amp;B96&amp;"_"&amp;D96&amp;"_"&amp;A96&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C96&amp;"_"&amp;B96&amp;"_"&amp;D96&amp;"_"&amp;A96&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -11730,13 +10938,13 @@
       <c r="D97">
         <v>10</v>
       </c>
-      <c r="E97">
+      <c r="E97" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C97&amp;"_"&amp;B97&amp;"_"&amp;D97&amp;"_"&amp;A97&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C97&amp;"_"&amp;B97&amp;"_"&amp;D97&amp;"_"&amp;A97&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-706549.62999373302</v>
-      </c>
-      <c r="F97">
+        <v>#N/A</v>
+      </c>
+      <c r="F97" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C97&amp;"_"&amp;B97&amp;"_"&amp;D97&amp;"_"&amp;A97&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C97&amp;"_"&amp;B97&amp;"_"&amp;D97&amp;"_"&amp;A97&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C97&amp;"_"&amp;B97&amp;"_"&amp;D97&amp;"_"&amp;A97&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C97&amp;"_"&amp;B97&amp;"_"&amp;D97&amp;"_"&amp;A97&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40189.103171348594</v>
+        <v>#N/A</v>
       </c>
       <c r="G97" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C97&amp;"_"&amp;B97&amp;"_"&amp;D97&amp;"_"&amp;A97&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C97&amp;"_"&amp;B97&amp;"_"&amp;D97&amp;"_"&amp;A97&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -11784,13 +10992,13 @@
       <c r="D98">
         <v>10</v>
       </c>
-      <c r="E98">
+      <c r="E98" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C98&amp;"_"&amp;B98&amp;"_"&amp;D98&amp;"_"&amp;A98&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C98&amp;"_"&amp;B98&amp;"_"&amp;D98&amp;"_"&amp;A98&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-732499.96061569988</v>
-      </c>
-      <c r="F98">
+        <v>#N/A</v>
+      </c>
+      <c r="F98" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C98&amp;"_"&amp;B98&amp;"_"&amp;D98&amp;"_"&amp;A98&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C98&amp;"_"&amp;B98&amp;"_"&amp;D98&amp;"_"&amp;A98&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C98&amp;"_"&amp;B98&amp;"_"&amp;D98&amp;"_"&amp;A98&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C98&amp;"_"&amp;B98&amp;"_"&amp;D98&amp;"_"&amp;A98&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40664.699340411717</v>
+        <v>#N/A</v>
       </c>
       <c r="G98" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C98&amp;"_"&amp;B98&amp;"_"&amp;D98&amp;"_"&amp;A98&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C98&amp;"_"&amp;B98&amp;"_"&amp;D98&amp;"_"&amp;A98&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -11838,13 +11046,13 @@
       <c r="D99">
         <v>10</v>
       </c>
-      <c r="E99">
+      <c r="E99" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C99&amp;"_"&amp;B99&amp;"_"&amp;D99&amp;"_"&amp;A99&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C99&amp;"_"&amp;B99&amp;"_"&amp;D99&amp;"_"&amp;A99&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-730924.02649516624</v>
-      </c>
-      <c r="F99">
+        <v>#N/A</v>
+      </c>
+      <c r="F99" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C99&amp;"_"&amp;B99&amp;"_"&amp;D99&amp;"_"&amp;A99&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C99&amp;"_"&amp;B99&amp;"_"&amp;D99&amp;"_"&amp;A99&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C99&amp;"_"&amp;B99&amp;"_"&amp;D99&amp;"_"&amp;A99&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C99&amp;"_"&amp;B99&amp;"_"&amp;D99&amp;"_"&amp;A99&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39209.763780033012</v>
+        <v>#N/A</v>
       </c>
       <c r="G99" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C99&amp;"_"&amp;B99&amp;"_"&amp;D99&amp;"_"&amp;A99&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C99&amp;"_"&amp;B99&amp;"_"&amp;D99&amp;"_"&amp;A99&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -11946,13 +11154,13 @@
       <c r="D101">
         <v>15</v>
       </c>
-      <c r="E101">
+      <c r="E101" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C101&amp;"_"&amp;B101&amp;"_"&amp;D101&amp;"_"&amp;A101&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C101&amp;"_"&amp;B101&amp;"_"&amp;D101&amp;"_"&amp;A101&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-807860.49984823295</v>
-      </c>
-      <c r="F101">
+        <v>#N/A</v>
+      </c>
+      <c r="F101" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C101&amp;"_"&amp;B101&amp;"_"&amp;D101&amp;"_"&amp;A101&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C101&amp;"_"&amp;B101&amp;"_"&amp;D101&amp;"_"&amp;A101&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C101&amp;"_"&amp;B101&amp;"_"&amp;D101&amp;"_"&amp;A101&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C101&amp;"_"&amp;B101&amp;"_"&amp;D101&amp;"_"&amp;A101&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>52748.596064635116</v>
+        <v>#N/A</v>
       </c>
       <c r="G101" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C101&amp;"_"&amp;B101&amp;"_"&amp;D101&amp;"_"&amp;A101&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C101&amp;"_"&amp;B101&amp;"_"&amp;D101&amp;"_"&amp;A101&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -12000,13 +11208,13 @@
       <c r="D102">
         <v>15</v>
       </c>
-      <c r="E102">
+      <c r="E102" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C102&amp;"_"&amp;B102&amp;"_"&amp;D102&amp;"_"&amp;A102&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C102&amp;"_"&amp;B102&amp;"_"&amp;D102&amp;"_"&amp;A102&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-730924.02649516624</v>
-      </c>
-      <c r="F102">
+        <v>#N/A</v>
+      </c>
+      <c r="F102" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C102&amp;"_"&amp;B102&amp;"_"&amp;D102&amp;"_"&amp;A102&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C102&amp;"_"&amp;B102&amp;"_"&amp;D102&amp;"_"&amp;A102&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C102&amp;"_"&amp;B102&amp;"_"&amp;D102&amp;"_"&amp;A102&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C102&amp;"_"&amp;B102&amp;"_"&amp;D102&amp;"_"&amp;A102&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39209.763780033012</v>
+        <v>#N/A</v>
       </c>
       <c r="G102" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C102&amp;"_"&amp;B102&amp;"_"&amp;D102&amp;"_"&amp;A102&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C102&amp;"_"&amp;B102&amp;"_"&amp;D102&amp;"_"&amp;A102&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -12054,13 +11262,13 @@
       <c r="D103">
         <v>15</v>
       </c>
-      <c r="E103">
+      <c r="E103" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C103&amp;"_"&amp;B103&amp;"_"&amp;D103&amp;"_"&amp;A103&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C103&amp;"_"&amp;B103&amp;"_"&amp;D103&amp;"_"&amp;A103&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-707505.43711016641</v>
-      </c>
-      <c r="F103">
+        <v>#N/A</v>
+      </c>
+      <c r="F103" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C103&amp;"_"&amp;B103&amp;"_"&amp;D103&amp;"_"&amp;A103&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C103&amp;"_"&amp;B103&amp;"_"&amp;D103&amp;"_"&amp;A103&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C103&amp;"_"&amp;B103&amp;"_"&amp;D103&amp;"_"&amp;A103&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C103&amp;"_"&amp;B103&amp;"_"&amp;D103&amp;"_"&amp;A103&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39913.89044183708</v>
+        <v>#N/A</v>
       </c>
       <c r="G103" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C103&amp;"_"&amp;B103&amp;"_"&amp;D103&amp;"_"&amp;A103&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C103&amp;"_"&amp;B103&amp;"_"&amp;D103&amp;"_"&amp;A103&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -12108,13 +11316,13 @@
       <c r="D104">
         <v>15</v>
       </c>
-      <c r="E104">
+      <c r="E104" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C104&amp;"_"&amp;B104&amp;"_"&amp;D104&amp;"_"&amp;A104&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C104&amp;"_"&amp;B104&amp;"_"&amp;D104&amp;"_"&amp;A104&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-790026.68128093251</v>
-      </c>
-      <c r="F104">
+        <v>#N/A</v>
+      </c>
+      <c r="F104" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C104&amp;"_"&amp;B104&amp;"_"&amp;D104&amp;"_"&amp;A104&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C104&amp;"_"&amp;B104&amp;"_"&amp;D104&amp;"_"&amp;A104&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C104&amp;"_"&amp;B104&amp;"_"&amp;D104&amp;"_"&amp;A104&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C104&amp;"_"&amp;B104&amp;"_"&amp;D104&amp;"_"&amp;A104&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>43928.294066663948</v>
+        <v>#N/A</v>
       </c>
       <c r="G104" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C104&amp;"_"&amp;B104&amp;"_"&amp;D104&amp;"_"&amp;A104&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C104&amp;"_"&amp;B104&amp;"_"&amp;D104&amp;"_"&amp;A104&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -12162,13 +11370,13 @@
       <c r="D105">
         <v>15</v>
       </c>
-      <c r="E105">
+      <c r="E105" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C105&amp;"_"&amp;B105&amp;"_"&amp;D105&amp;"_"&amp;A105&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C105&amp;"_"&amp;B105&amp;"_"&amp;D105&amp;"_"&amp;A105&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-730924.02649516624</v>
-      </c>
-      <c r="F105">
+        <v>#N/A</v>
+      </c>
+      <c r="F105" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C105&amp;"_"&amp;B105&amp;"_"&amp;D105&amp;"_"&amp;A105&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C105&amp;"_"&amp;B105&amp;"_"&amp;D105&amp;"_"&amp;A105&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C105&amp;"_"&amp;B105&amp;"_"&amp;D105&amp;"_"&amp;A105&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C105&amp;"_"&amp;B105&amp;"_"&amp;D105&amp;"_"&amp;A105&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39209.763780033012</v>
+        <v>#N/A</v>
       </c>
       <c r="G105" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C105&amp;"_"&amp;B105&amp;"_"&amp;D105&amp;"_"&amp;A105&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C105&amp;"_"&amp;B105&amp;"_"&amp;D105&amp;"_"&amp;A105&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -12216,13 +11424,13 @@
       <c r="D106">
         <v>15</v>
       </c>
-      <c r="E106">
+      <c r="E106" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C106&amp;"_"&amp;B106&amp;"_"&amp;D106&amp;"_"&amp;A106&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C106&amp;"_"&amp;B106&amp;"_"&amp;D106&amp;"_"&amp;A106&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-706827.69584709988</v>
-      </c>
-      <c r="F106">
+        <v>#N/A</v>
+      </c>
+      <c r="F106" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C106&amp;"_"&amp;B106&amp;"_"&amp;D106&amp;"_"&amp;A106&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C106&amp;"_"&amp;B106&amp;"_"&amp;D106&amp;"_"&amp;A106&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C106&amp;"_"&amp;B106&amp;"_"&amp;D106&amp;"_"&amp;A106&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C106&amp;"_"&amp;B106&amp;"_"&amp;D106&amp;"_"&amp;A106&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40226.864704484491</v>
+        <v>#N/A</v>
       </c>
       <c r="G106" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C106&amp;"_"&amp;B106&amp;"_"&amp;D106&amp;"_"&amp;A106&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C106&amp;"_"&amp;B106&amp;"_"&amp;D106&amp;"_"&amp;A106&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -12270,13 +11478,13 @@
       <c r="D107">
         <v>15</v>
       </c>
-      <c r="E107">
+      <c r="E107" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C107&amp;"_"&amp;B107&amp;"_"&amp;D107&amp;"_"&amp;A107&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C107&amp;"_"&amp;B107&amp;"_"&amp;D107&amp;"_"&amp;A107&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-739942.03326276643</v>
-      </c>
-      <c r="F107">
+        <v>#N/A</v>
+      </c>
+      <c r="F107" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C107&amp;"_"&amp;B107&amp;"_"&amp;D107&amp;"_"&amp;A107&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C107&amp;"_"&amp;B107&amp;"_"&amp;D107&amp;"_"&amp;A107&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C107&amp;"_"&amp;B107&amp;"_"&amp;D107&amp;"_"&amp;A107&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C107&amp;"_"&amp;B107&amp;"_"&amp;D107&amp;"_"&amp;A107&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39793.802778238038</v>
+        <v>#N/A</v>
       </c>
       <c r="G107" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C107&amp;"_"&amp;B107&amp;"_"&amp;D107&amp;"_"&amp;A107&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C107&amp;"_"&amp;B107&amp;"_"&amp;D107&amp;"_"&amp;A107&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -12324,13 +11532,13 @@
       <c r="D108">
         <v>15</v>
       </c>
-      <c r="E108">
+      <c r="E108" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C108&amp;"_"&amp;B108&amp;"_"&amp;D108&amp;"_"&amp;A108&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C108&amp;"_"&amp;B108&amp;"_"&amp;D108&amp;"_"&amp;A108&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-730924.02649516624</v>
-      </c>
-      <c r="F108">
+        <v>#N/A</v>
+      </c>
+      <c r="F108" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C108&amp;"_"&amp;B108&amp;"_"&amp;D108&amp;"_"&amp;A108&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C108&amp;"_"&amp;B108&amp;"_"&amp;D108&amp;"_"&amp;A108&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C108&amp;"_"&amp;B108&amp;"_"&amp;D108&amp;"_"&amp;A108&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C108&amp;"_"&amp;B108&amp;"_"&amp;D108&amp;"_"&amp;A108&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39209.763780033012</v>
+        <v>#N/A</v>
       </c>
       <c r="G108" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C108&amp;"_"&amp;B108&amp;"_"&amp;D108&amp;"_"&amp;A108&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C108&amp;"_"&amp;B108&amp;"_"&amp;D108&amp;"_"&amp;A108&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -12378,13 +11586,13 @@
       <c r="D109">
         <v>15</v>
       </c>
-      <c r="E109">
+      <c r="E109" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C109&amp;"_"&amp;B109&amp;"_"&amp;D109&amp;"_"&amp;A109&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C109&amp;"_"&amp;B109&amp;"_"&amp;D109&amp;"_"&amp;A109&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-707188.78812913294</v>
-      </c>
-      <c r="F109">
+        <v>#N/A</v>
+      </c>
+      <c r="F109" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C109&amp;"_"&amp;B109&amp;"_"&amp;D109&amp;"_"&amp;A109&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C109&amp;"_"&amp;B109&amp;"_"&amp;D109&amp;"_"&amp;A109&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C109&amp;"_"&amp;B109&amp;"_"&amp;D109&amp;"_"&amp;A109&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C109&amp;"_"&amp;B109&amp;"_"&amp;D109&amp;"_"&amp;A109&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40485.049910290254</v>
+        <v>#N/A</v>
       </c>
       <c r="G109" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C109&amp;"_"&amp;B109&amp;"_"&amp;D109&amp;"_"&amp;A109&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C109&amp;"_"&amp;B109&amp;"_"&amp;D109&amp;"_"&amp;A109&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -12432,13 +11640,13 @@
       <c r="D110">
         <v>15</v>
       </c>
-      <c r="E110">
+      <c r="E110" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C110&amp;"_"&amp;B110&amp;"_"&amp;D110&amp;"_"&amp;A110&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C110&amp;"_"&amp;B110&amp;"_"&amp;D110&amp;"_"&amp;A110&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-733059.41159813304</v>
-      </c>
-      <c r="F110">
+        <v>#N/A</v>
+      </c>
+      <c r="F110" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C110&amp;"_"&amp;B110&amp;"_"&amp;D110&amp;"_"&amp;A110&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C110&amp;"_"&amp;B110&amp;"_"&amp;D110&amp;"_"&amp;A110&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C110&amp;"_"&amp;B110&amp;"_"&amp;D110&amp;"_"&amp;A110&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C110&amp;"_"&amp;B110&amp;"_"&amp;D110&amp;"_"&amp;A110&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40115.200783175598</v>
+        <v>#N/A</v>
       </c>
       <c r="G110" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C110&amp;"_"&amp;B110&amp;"_"&amp;D110&amp;"_"&amp;A110&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C110&amp;"_"&amp;B110&amp;"_"&amp;D110&amp;"_"&amp;A110&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -12486,13 +11694,13 @@
       <c r="D111">
         <v>15</v>
       </c>
-      <c r="E111">
+      <c r="E111" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C111&amp;"_"&amp;B111&amp;"_"&amp;D111&amp;"_"&amp;A111&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C111&amp;"_"&amp;B111&amp;"_"&amp;D111&amp;"_"&amp;A111&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-730924.02649516624</v>
-      </c>
-      <c r="F111">
+        <v>#N/A</v>
+      </c>
+      <c r="F111" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C111&amp;"_"&amp;B111&amp;"_"&amp;D111&amp;"_"&amp;A111&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C111&amp;"_"&amp;B111&amp;"_"&amp;D111&amp;"_"&amp;A111&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C111&amp;"_"&amp;B111&amp;"_"&amp;D111&amp;"_"&amp;A111&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C111&amp;"_"&amp;B111&amp;"_"&amp;D111&amp;"_"&amp;A111&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39209.763780033012</v>
+        <v>#N/A</v>
       </c>
       <c r="G111" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C111&amp;"_"&amp;B111&amp;"_"&amp;D111&amp;"_"&amp;A111&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C111&amp;"_"&amp;B111&amp;"_"&amp;D111&amp;"_"&amp;A111&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -13188,13 +12396,13 @@
       <c r="D125">
         <v>5</v>
       </c>
-      <c r="E125">
+      <c r="E125" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-714124.91394350003</v>
-      </c>
-      <c r="F125">
+        <v>#N/A</v>
+      </c>
+      <c r="F125" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>27851.870407653441</v>
+        <v>#N/A</v>
       </c>
       <c r="G125">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C125&amp;"_"&amp;B125&amp;"_"&amp;D125&amp;"_"&amp;A125&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -13242,13 +12450,13 @@
       <c r="D126">
         <v>5</v>
       </c>
-      <c r="E126">
+      <c r="E126" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-752521.93103133305</v>
-      </c>
-      <c r="F126">
+        <v>#N/A</v>
+      </c>
+      <c r="F126" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40533.687895286574</v>
+        <v>#N/A</v>
       </c>
       <c r="G126">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C126&amp;"_"&amp;B126&amp;"_"&amp;D126&amp;"_"&amp;A126&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -13296,13 +12504,13 @@
       <c r="D127">
         <v>5</v>
       </c>
-      <c r="E127">
+      <c r="E127" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C127&amp;"_"&amp;B127&amp;"_"&amp;D127&amp;"_"&amp;A127&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C127&amp;"_"&amp;B127&amp;"_"&amp;D127&amp;"_"&amp;A127&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-746163.16622353287</v>
-      </c>
-      <c r="F127">
+        <v>#N/A</v>
+      </c>
+      <c r="F127" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C127&amp;"_"&amp;B127&amp;"_"&amp;D127&amp;"_"&amp;A127&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C127&amp;"_"&amp;B127&amp;"_"&amp;D127&amp;"_"&amp;A127&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C127&amp;"_"&amp;B127&amp;"_"&amp;D127&amp;"_"&amp;A127&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C127&amp;"_"&amp;B127&amp;"_"&amp;D127&amp;"_"&amp;A127&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>37321.169100987951</v>
+        <v>#N/A</v>
       </c>
       <c r="G127">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C127&amp;"_"&amp;B127&amp;"_"&amp;D127&amp;"_"&amp;A127&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C127&amp;"_"&amp;B127&amp;"_"&amp;D127&amp;"_"&amp;A127&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -13350,13 +12558,13 @@
       <c r="D128">
         <v>5</v>
       </c>
-      <c r="E128">
+      <c r="E128" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-714595.82531023282</v>
-      </c>
-      <c r="F128">
+        <v>#N/A</v>
+      </c>
+      <c r="F128" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39485.98687277516</v>
+        <v>#N/A</v>
       </c>
       <c r="G128">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C128&amp;"_"&amp;B128&amp;"_"&amp;D128&amp;"_"&amp;A128&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -13458,13 +12666,13 @@
       <c r="D130">
         <v>5</v>
       </c>
-      <c r="E130">
+      <c r="E130" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C130&amp;"_"&amp;B130&amp;"_"&amp;D130&amp;"_"&amp;A130&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C130&amp;"_"&amp;B130&amp;"_"&amp;D130&amp;"_"&amp;A130&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-773556.11898486607</v>
-      </c>
-      <c r="F130">
+        <v>#N/A</v>
+      </c>
+      <c r="F130" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C130&amp;"_"&amp;B130&amp;"_"&amp;D130&amp;"_"&amp;A130&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C130&amp;"_"&amp;B130&amp;"_"&amp;D130&amp;"_"&amp;A130&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C130&amp;"_"&amp;B130&amp;"_"&amp;D130&amp;"_"&amp;A130&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C130&amp;"_"&amp;B130&amp;"_"&amp;D130&amp;"_"&amp;A130&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>48792.920472500533</v>
+        <v>#N/A</v>
       </c>
       <c r="G130" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C130&amp;"_"&amp;B130&amp;"_"&amp;D130&amp;"_"&amp;A130&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C130&amp;"_"&amp;B130&amp;"_"&amp;D130&amp;"_"&amp;A130&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -13512,13 +12720,13 @@
       <c r="D131">
         <v>5</v>
       </c>
-      <c r="E131">
+      <c r="E131" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-715213.57556976634</v>
-      </c>
-      <c r="F131">
+        <v>#N/A</v>
+      </c>
+      <c r="F131" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39550.200888157648</v>
+        <v>#N/A</v>
       </c>
       <c r="G131">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C131&amp;"_"&amp;B131&amp;"_"&amp;D131&amp;"_"&amp;A131&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -13620,13 +12828,13 @@
       <c r="D133">
         <v>5</v>
       </c>
-      <c r="E133">
+      <c r="E133" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C133&amp;"_"&amp;B133&amp;"_"&amp;D133&amp;"_"&amp;A133&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C133&amp;"_"&amp;B133&amp;"_"&amp;D133&amp;"_"&amp;A133&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-837084.29739576601</v>
-      </c>
-      <c r="F133">
+        <v>#N/A</v>
+      </c>
+      <c r="F133" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C133&amp;"_"&amp;B133&amp;"_"&amp;D133&amp;"_"&amp;A133&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C133&amp;"_"&amp;B133&amp;"_"&amp;D133&amp;"_"&amp;A133&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C133&amp;"_"&amp;B133&amp;"_"&amp;D133&amp;"_"&amp;A133&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C133&amp;"_"&amp;B133&amp;"_"&amp;D133&amp;"_"&amp;A133&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>54107.183301082485</v>
+        <v>#N/A</v>
       </c>
       <c r="G133" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C133&amp;"_"&amp;B133&amp;"_"&amp;D133&amp;"_"&amp;A133&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C133&amp;"_"&amp;B133&amp;"_"&amp;D133&amp;"_"&amp;A133&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -13674,13 +12882,13 @@
       <c r="D134" s="8">
         <v>5</v>
       </c>
-      <c r="E134">
+      <c r="E134" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-714376.77399009967</v>
-      </c>
-      <c r="F134">
+        <v>#N/A</v>
+      </c>
+      <c r="F134" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40619.408553817986</v>
+        <v>#N/A</v>
       </c>
       <c r="G134" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -13706,13 +12914,13 @@
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
         <v>#N/A</v>
       </c>
-      <c r="M134">
+      <c r="M134" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-380280.0739385999</v>
-      </c>
-      <c r="N134">
+        <v>#N/A</v>
+      </c>
+      <c r="N134" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C134&amp;"_"&amp;B134&amp;"_"&amp;D134&amp;"_"&amp;A134&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1225.158580193593</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
@@ -13728,45 +12936,45 @@
       <c r="D135" s="4">
         <v>5</v>
       </c>
-      <c r="E135">
+      <c r="E135" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-743403.19166289992</v>
-      </c>
-      <c r="F135">
+        <v>#N/A</v>
+      </c>
+      <c r="F135" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40471.010743909159</v>
-      </c>
-      <c r="G135">
+        <v>#N/A</v>
+      </c>
+      <c r="G135" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-178291.13138956661</v>
-      </c>
-      <c r="H135">
+        <v>#N/A</v>
+      </c>
+      <c r="H135" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>4522.5545957991026</v>
+        <v>#N/A</v>
       </c>
       <c r="I135">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-260555.24446754984</v>
+        <v>-260734.40222013328</v>
       </c>
       <c r="J135">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>3646.188371918282</v>
-      </c>
-      <c r="K135">
+        <v>4775.8070975943856</v>
+      </c>
+      <c r="K135" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-324786.42054246593</v>
-      </c>
-      <c r="L135">
+        <v>#N/A</v>
+      </c>
+      <c r="L135" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>3869.5567684325961</v>
-      </c>
-      <c r="M135">
+        <v>#N/A</v>
+      </c>
+      <c r="M135" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-401736.7755404326</v>
-      </c>
-      <c r="N135">
+        <v>#N/A</v>
+      </c>
+      <c r="N135" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C135&amp;"_"&amp;B135&amp;"_"&amp;D135&amp;"_"&amp;A135&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>4701.0365684485732</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
@@ -13782,13 +12990,13 @@
       <c r="D136" s="7">
         <v>5</v>
       </c>
-      <c r="E136">
+      <c r="E136" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C136&amp;"_"&amp;B136&amp;"_"&amp;D136&amp;"_"&amp;A136&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C136&amp;"_"&amp;B136&amp;"_"&amp;D136&amp;"_"&amp;A136&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-826315.28215753217</v>
-      </c>
-      <c r="F136">
+        <v>#N/A</v>
+      </c>
+      <c r="F136" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C136&amp;"_"&amp;B136&amp;"_"&amp;D136&amp;"_"&amp;A136&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C136&amp;"_"&amp;B136&amp;"_"&amp;D136&amp;"_"&amp;A136&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C136&amp;"_"&amp;B136&amp;"_"&amp;D136&amp;"_"&amp;A136&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C136&amp;"_"&amp;B136&amp;"_"&amp;D136&amp;"_"&amp;A136&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>51876.741761108176</v>
+        <v>#N/A</v>
       </c>
       <c r="G136" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C136&amp;"_"&amp;B136&amp;"_"&amp;D136&amp;"_"&amp;A136&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C136&amp;"_"&amp;B136&amp;"_"&amp;D136&amp;"_"&amp;A136&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -13836,13 +13044,13 @@
       <c r="D137">
         <v>10</v>
       </c>
-      <c r="E137">
+      <c r="E137" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-715546.92807864991</v>
-      </c>
-      <c r="F137">
+        <v>#N/A</v>
+      </c>
+      <c r="F137" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>27788.203454202911</v>
+        <v>#N/A</v>
       </c>
       <c r="G137">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C137&amp;"_"&amp;B137&amp;"_"&amp;D137&amp;"_"&amp;A137&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -13944,13 +13152,13 @@
       <c r="D139">
         <v>10</v>
       </c>
-      <c r="E139">
+      <c r="E139" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C139&amp;"_"&amp;B139&amp;"_"&amp;D139&amp;"_"&amp;A139&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C139&amp;"_"&amp;B139&amp;"_"&amp;D139&amp;"_"&amp;A139&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-732849.63164091646</v>
-      </c>
-      <c r="F139">
+        <v>#N/A</v>
+      </c>
+      <c r="F139" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C139&amp;"_"&amp;B139&amp;"_"&amp;D139&amp;"_"&amp;A139&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C139&amp;"_"&amp;B139&amp;"_"&amp;D139&amp;"_"&amp;A139&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C139&amp;"_"&amp;B139&amp;"_"&amp;D139&amp;"_"&amp;A139&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C139&amp;"_"&amp;B139&amp;"_"&amp;D139&amp;"_"&amp;A139&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>28335.319444239012</v>
+        <v>#N/A</v>
       </c>
       <c r="G139" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C139&amp;"_"&amp;B139&amp;"_"&amp;D139&amp;"_"&amp;A139&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C139&amp;"_"&amp;B139&amp;"_"&amp;D139&amp;"_"&amp;A139&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -13998,13 +13206,13 @@
       <c r="D140">
         <v>10</v>
       </c>
-      <c r="E140">
+      <c r="E140" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-713035.113067133</v>
-      </c>
-      <c r="F140">
+        <v>#N/A</v>
+      </c>
+      <c r="F140" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40414.68412926286</v>
+        <v>#N/A</v>
       </c>
       <c r="G140">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C140&amp;"_"&amp;B140&amp;"_"&amp;D140&amp;"_"&amp;A140&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -14106,13 +13314,13 @@
       <c r="D142">
         <v>10</v>
       </c>
-      <c r="E142">
+      <c r="E142" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C142&amp;"_"&amp;B142&amp;"_"&amp;D142&amp;"_"&amp;A142&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C142&amp;"_"&amp;B142&amp;"_"&amp;D142&amp;"_"&amp;A142&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-732753.45328009943</v>
-      </c>
-      <c r="F142">
+        <v>#N/A</v>
+      </c>
+      <c r="F142" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C142&amp;"_"&amp;B142&amp;"_"&amp;D142&amp;"_"&amp;A142&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C142&amp;"_"&amp;B142&amp;"_"&amp;D142&amp;"_"&amp;A142&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C142&amp;"_"&amp;B142&amp;"_"&amp;D142&amp;"_"&amp;A142&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C142&amp;"_"&amp;B142&amp;"_"&amp;D142&amp;"_"&amp;A142&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39281.195102493497</v>
+        <v>#N/A</v>
       </c>
       <c r="G142" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C142&amp;"_"&amp;B142&amp;"_"&amp;D142&amp;"_"&amp;A142&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C142&amp;"_"&amp;B142&amp;"_"&amp;D142&amp;"_"&amp;A142&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -14160,13 +13368,13 @@
       <c r="D143">
         <v>10</v>
       </c>
-      <c r="E143">
+      <c r="E143" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-716349.76971509994</v>
-      </c>
-      <c r="F143">
+        <v>#N/A</v>
+      </c>
+      <c r="F143" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40175.815756743526</v>
+        <v>#N/A</v>
       </c>
       <c r="G143">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C143&amp;"_"&amp;B143&amp;"_"&amp;D143&amp;"_"&amp;A143&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -14268,13 +13476,13 @@
       <c r="D145">
         <v>10</v>
       </c>
-      <c r="E145">
+      <c r="E145" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C145&amp;"_"&amp;B145&amp;"_"&amp;D145&amp;"_"&amp;A145&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C145&amp;"_"&amp;B145&amp;"_"&amp;D145&amp;"_"&amp;A145&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-739040.60820436629</v>
-      </c>
-      <c r="F145">
+        <v>#N/A</v>
+      </c>
+      <c r="F145" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C145&amp;"_"&amp;B145&amp;"_"&amp;D145&amp;"_"&amp;A145&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C145&amp;"_"&amp;B145&amp;"_"&amp;D145&amp;"_"&amp;A145&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C145&amp;"_"&amp;B145&amp;"_"&amp;D145&amp;"_"&amp;A145&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C145&amp;"_"&amp;B145&amp;"_"&amp;D145&amp;"_"&amp;A145&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39724.370474166986</v>
+        <v>#N/A</v>
       </c>
       <c r="G145" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C145&amp;"_"&amp;B145&amp;"_"&amp;D145&amp;"_"&amp;A145&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C145&amp;"_"&amp;B145&amp;"_"&amp;D145&amp;"_"&amp;A145&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -14322,13 +13530,13 @@
       <c r="D146">
         <v>10</v>
       </c>
-      <c r="E146">
+      <c r="E146" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C146&amp;"_"&amp;B146&amp;"_"&amp;D146&amp;"_"&amp;A146&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C146&amp;"_"&amp;B146&amp;"_"&amp;D146&amp;"_"&amp;A146&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-715325.8811065997</v>
-      </c>
-      <c r="F146">
+        <v>#N/A</v>
+      </c>
+      <c r="F146" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C146&amp;"_"&amp;B146&amp;"_"&amp;D146&amp;"_"&amp;A146&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C146&amp;"_"&amp;B146&amp;"_"&amp;D146&amp;"_"&amp;A146&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C146&amp;"_"&amp;B146&amp;"_"&amp;D146&amp;"_"&amp;A146&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C146&amp;"_"&amp;B146&amp;"_"&amp;D146&amp;"_"&amp;A146&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39634.451264737036</v>
+        <v>#N/A</v>
       </c>
       <c r="G146" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C146&amp;"_"&amp;B146&amp;"_"&amp;D146&amp;"_"&amp;A146&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C146&amp;"_"&amp;B146&amp;"_"&amp;D146&amp;"_"&amp;A146&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -14646,13 +13854,13 @@
       <c r="D152">
         <v>15</v>
       </c>
-      <c r="E152">
+      <c r="E152" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C152&amp;"_"&amp;B152&amp;"_"&amp;D152&amp;"_"&amp;A152&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C152&amp;"_"&amp;B152&amp;"_"&amp;D152&amp;"_"&amp;A152&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-716188.77303919976</v>
-      </c>
-      <c r="F152">
+        <v>#N/A</v>
+      </c>
+      <c r="F152" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C152&amp;"_"&amp;B152&amp;"_"&amp;D152&amp;"_"&amp;A152&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C152&amp;"_"&amp;B152&amp;"_"&amp;D152&amp;"_"&amp;A152&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C152&amp;"_"&amp;B152&amp;"_"&amp;D152&amp;"_"&amp;A152&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C152&amp;"_"&amp;B152&amp;"_"&amp;D152&amp;"_"&amp;A152&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39582.194171625953</v>
+        <v>#N/A</v>
       </c>
       <c r="G152" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C152&amp;"_"&amp;B152&amp;"_"&amp;D152&amp;"_"&amp;A152&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C152&amp;"_"&amp;B152&amp;"_"&amp;D152&amp;"_"&amp;A152&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -14754,13 +13962,13 @@
       <c r="D154">
         <v>15</v>
       </c>
-      <c r="E154">
+      <c r="E154" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C154&amp;"_"&amp;B154&amp;"_"&amp;D154&amp;"_"&amp;A154&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C154&amp;"_"&amp;B154&amp;"_"&amp;D154&amp;"_"&amp;A154&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-730924.02649516624</v>
-      </c>
-      <c r="F154">
+        <v>#N/A</v>
+      </c>
+      <c r="F154" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C154&amp;"_"&amp;B154&amp;"_"&amp;D154&amp;"_"&amp;A154&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C154&amp;"_"&amp;B154&amp;"_"&amp;D154&amp;"_"&amp;A154&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C154&amp;"_"&amp;B154&amp;"_"&amp;D154&amp;"_"&amp;A154&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C154&amp;"_"&amp;B154&amp;"_"&amp;D154&amp;"_"&amp;A154&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39209.763780033012</v>
+        <v>#N/A</v>
       </c>
       <c r="G154" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C154&amp;"_"&amp;B154&amp;"_"&amp;D154&amp;"_"&amp;A154&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C154&amp;"_"&amp;B154&amp;"_"&amp;D154&amp;"_"&amp;A154&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -14808,13 +14016,13 @@
       <c r="D155">
         <v>15</v>
       </c>
-      <c r="E155">
+      <c r="E155" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C155&amp;"_"&amp;B155&amp;"_"&amp;D155&amp;"_"&amp;A155&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C155&amp;"_"&amp;B155&amp;"_"&amp;D155&amp;"_"&amp;A155&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-715900.29055189982</v>
-      </c>
-      <c r="F155">
+        <v>#N/A</v>
+      </c>
+      <c r="F155" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C155&amp;"_"&amp;B155&amp;"_"&amp;D155&amp;"_"&amp;A155&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C155&amp;"_"&amp;B155&amp;"_"&amp;D155&amp;"_"&amp;A155&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C155&amp;"_"&amp;B155&amp;"_"&amp;D155&amp;"_"&amp;A155&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C155&amp;"_"&amp;B155&amp;"_"&amp;D155&amp;"_"&amp;A155&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>38289.925219148936</v>
+        <v>#N/A</v>
       </c>
       <c r="G155" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C155&amp;"_"&amp;B155&amp;"_"&amp;D155&amp;"_"&amp;A155&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C155&amp;"_"&amp;B155&amp;"_"&amp;D155&amp;"_"&amp;A155&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -14862,13 +14070,13 @@
       <c r="D156">
         <v>15</v>
       </c>
-      <c r="E156">
+      <c r="E156" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C156&amp;"_"&amp;B156&amp;"_"&amp;D156&amp;"_"&amp;A156&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C156&amp;"_"&amp;B156&amp;"_"&amp;D156&amp;"_"&amp;A156&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-781973.40183826652</v>
-      </c>
-      <c r="F156">
+        <v>#N/A</v>
+      </c>
+      <c r="F156" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C156&amp;"_"&amp;B156&amp;"_"&amp;D156&amp;"_"&amp;A156&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C156&amp;"_"&amp;B156&amp;"_"&amp;D156&amp;"_"&amp;A156&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C156&amp;"_"&amp;B156&amp;"_"&amp;D156&amp;"_"&amp;A156&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C156&amp;"_"&amp;B156&amp;"_"&amp;D156&amp;"_"&amp;A156&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>44599.55274327637</v>
+        <v>#N/A</v>
       </c>
       <c r="G156" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C156&amp;"_"&amp;B156&amp;"_"&amp;D156&amp;"_"&amp;A156&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C156&amp;"_"&amp;B156&amp;"_"&amp;D156&amp;"_"&amp;A156&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -14916,13 +14124,13 @@
       <c r="D157">
         <v>15</v>
       </c>
-      <c r="E157">
+      <c r="E157" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C157&amp;"_"&amp;B157&amp;"_"&amp;D157&amp;"_"&amp;A157&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C157&amp;"_"&amp;B157&amp;"_"&amp;D157&amp;"_"&amp;A157&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-730924.02649516624</v>
-      </c>
-      <c r="F157">
+        <v>#N/A</v>
+      </c>
+      <c r="F157" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C157&amp;"_"&amp;B157&amp;"_"&amp;D157&amp;"_"&amp;A157&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C157&amp;"_"&amp;B157&amp;"_"&amp;D157&amp;"_"&amp;A157&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C157&amp;"_"&amp;B157&amp;"_"&amp;D157&amp;"_"&amp;A157&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C157&amp;"_"&amp;B157&amp;"_"&amp;D157&amp;"_"&amp;A157&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39209.763780033012</v>
+        <v>#N/A</v>
       </c>
       <c r="G157" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C157&amp;"_"&amp;B157&amp;"_"&amp;D157&amp;"_"&amp;A157&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C157&amp;"_"&amp;B157&amp;"_"&amp;D157&amp;"_"&amp;A157&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -14970,13 +14178,13 @@
       <c r="D158">
         <v>15</v>
       </c>
-      <c r="E158">
+      <c r="E158" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C158&amp;"_"&amp;B158&amp;"_"&amp;D158&amp;"_"&amp;A158&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C158&amp;"_"&amp;B158&amp;"_"&amp;D158&amp;"_"&amp;A158&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-716209.02677286649</v>
-      </c>
-      <c r="F158">
+        <v>#N/A</v>
+      </c>
+      <c r="F158" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C158&amp;"_"&amp;B158&amp;"_"&amp;D158&amp;"_"&amp;A158&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C158&amp;"_"&amp;B158&amp;"_"&amp;D158&amp;"_"&amp;A158&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C158&amp;"_"&amp;B158&amp;"_"&amp;D158&amp;"_"&amp;A158&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C158&amp;"_"&amp;B158&amp;"_"&amp;D158&amp;"_"&amp;A158&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>38995.753012943926</v>
+        <v>#N/A</v>
       </c>
       <c r="G158" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C158&amp;"_"&amp;B158&amp;"_"&amp;D158&amp;"_"&amp;A158&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C158&amp;"_"&amp;B158&amp;"_"&amp;D158&amp;"_"&amp;A158&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -15024,13 +14232,13 @@
       <c r="D159">
         <v>15</v>
       </c>
-      <c r="E159">
+      <c r="E159" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C159&amp;"_"&amp;B159&amp;"_"&amp;D159&amp;"_"&amp;A159&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C159&amp;"_"&amp;B159&amp;"_"&amp;D159&amp;"_"&amp;A159&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-748935.00915383326</v>
-      </c>
-      <c r="F159">
+        <v>#N/A</v>
+      </c>
+      <c r="F159" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C159&amp;"_"&amp;B159&amp;"_"&amp;D159&amp;"_"&amp;A159&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C159&amp;"_"&amp;B159&amp;"_"&amp;D159&amp;"_"&amp;A159&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C159&amp;"_"&amp;B159&amp;"_"&amp;D159&amp;"_"&amp;A159&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C159&amp;"_"&amp;B159&amp;"_"&amp;D159&amp;"_"&amp;A159&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40632.864281399059</v>
+        <v>#N/A</v>
       </c>
       <c r="G159" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C159&amp;"_"&amp;B159&amp;"_"&amp;D159&amp;"_"&amp;A159&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C159&amp;"_"&amp;B159&amp;"_"&amp;D159&amp;"_"&amp;A159&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -15078,13 +14286,13 @@
       <c r="D160">
         <v>15</v>
       </c>
-      <c r="E160">
+      <c r="E160" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C160&amp;"_"&amp;B160&amp;"_"&amp;D160&amp;"_"&amp;A160&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C160&amp;"_"&amp;B160&amp;"_"&amp;D160&amp;"_"&amp;A160&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-730924.02649516624</v>
-      </c>
-      <c r="F160">
+        <v>#N/A</v>
+      </c>
+      <c r="F160" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C160&amp;"_"&amp;B160&amp;"_"&amp;D160&amp;"_"&amp;A160&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C160&amp;"_"&amp;B160&amp;"_"&amp;D160&amp;"_"&amp;A160&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C160&amp;"_"&amp;B160&amp;"_"&amp;D160&amp;"_"&amp;A160&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C160&amp;"_"&amp;B160&amp;"_"&amp;D160&amp;"_"&amp;A160&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39209.763780033012</v>
+        <v>#N/A</v>
       </c>
       <c r="G160" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C160&amp;"_"&amp;B160&amp;"_"&amp;D160&amp;"_"&amp;A160&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C160&amp;"_"&amp;B160&amp;"_"&amp;D160&amp;"_"&amp;A160&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -15785,13 +14993,13 @@
       <c r="D175">
         <v>1</v>
       </c>
-      <c r="E175">
+      <c r="E175" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-707176.27752059989</v>
-      </c>
-      <c r="F175">
+        <v>#N/A</v>
+      </c>
+      <c r="F175" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39855.890614731681</v>
+        <v>#N/A</v>
       </c>
       <c r="G175">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -15803,11 +15011,11 @@
       </c>
       <c r="I175">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-232340.58643026644</v>
+        <v>-232536.02684847347</v>
       </c>
       <c r="J175">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1293.0822324989415</v>
+        <v>1304.5793792287777</v>
       </c>
       <c r="K175">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -15819,11 +15027,11 @@
       </c>
       <c r="M175">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-382013.48443266639</v>
+        <v>-382088.91548013926</v>
       </c>
       <c r="N175">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$M$1&amp;"_"&amp;C175&amp;"_"&amp;B175&amp;"_"&amp;D175&amp;"_"&amp;A175&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1476.1752912534562</v>
+        <v>1264.7003961486546</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
@@ -15839,13 +15047,13 @@
       <c r="D176">
         <v>1</v>
       </c>
-      <c r="E176">
+      <c r="E176" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-707976.29801479972</v>
-      </c>
-      <c r="F176">
+        <v>#N/A</v>
+      </c>
+      <c r="F176" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39738.507186243383</v>
+        <v>#N/A</v>
       </c>
       <c r="G176">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -15857,11 +15065,11 @@
       </c>
       <c r="I176">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-231125.47136529975</v>
+        <v>-231317.32739898053</v>
       </c>
       <c r="J176">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$I$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>1353.5005305448028</v>
+        <v>1071.7638702089453</v>
       </c>
       <c r="K176">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$K$1&amp;"_"&amp;C176&amp;"_"&amp;B176&amp;"_"&amp;D176&amp;"_"&amp;A176&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -15893,13 +15101,13 @@
       <c r="D177">
         <v>1</v>
       </c>
-      <c r="E177">
+      <c r="E177" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-706103.40030039928</v>
-      </c>
-      <c r="F177">
+        <v>#N/A</v>
+      </c>
+      <c r="F177" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40125.131817608199</v>
+        <v>#N/A</v>
       </c>
       <c r="G177">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C177&amp;"_"&amp;B177&amp;"_"&amp;D177&amp;"_"&amp;A177&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -15947,13 +15155,13 @@
       <c r="D178">
         <v>1</v>
       </c>
-      <c r="E178">
+      <c r="E178" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-714143.28883299965</v>
-      </c>
-      <c r="F178">
+        <v>#N/A</v>
+      </c>
+      <c r="F178" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>38877.167416105483</v>
+        <v>#N/A</v>
       </c>
       <c r="G178">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C178&amp;"_"&amp;B178&amp;"_"&amp;D178&amp;"_"&amp;A178&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -16001,13 +15209,13 @@
       <c r="D179">
         <v>1</v>
       </c>
-      <c r="E179">
+      <c r="E179" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-708566.26914166659</v>
-      </c>
-      <c r="F179">
+        <v>#N/A</v>
+      </c>
+      <c r="F179" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39820.842678963665</v>
+        <v>#N/A</v>
       </c>
       <c r="G179">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C179&amp;"_"&amp;B179&amp;"_"&amp;D179&amp;"_"&amp;A179&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -16055,13 +15263,13 @@
       <c r="D180">
         <v>1</v>
       </c>
-      <c r="E180">
+      <c r="E180" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-705643.65988346632</v>
-      </c>
-      <c r="F180">
+        <v>#N/A</v>
+      </c>
+      <c r="F180" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40281.680381093174</v>
+        <v>#N/A</v>
       </c>
       <c r="G180">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C180&amp;"_"&amp;B180&amp;"_"&amp;D180&amp;"_"&amp;A180&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -16109,13 +15317,13 @@
       <c r="D181">
         <v>1</v>
       </c>
-      <c r="E181">
+      <c r="E181" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-707989.0735569332</v>
-      </c>
-      <c r="F181">
+        <v>#N/A</v>
+      </c>
+      <c r="F181" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40475.706227699477</v>
+        <v>#N/A</v>
       </c>
       <c r="G181">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C181&amp;"_"&amp;B181&amp;"_"&amp;D181&amp;"_"&amp;A181&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -16163,13 +15371,13 @@
       <c r="D182">
         <v>1</v>
       </c>
-      <c r="E182">
+      <c r="E182" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-708551.13385009975</v>
-      </c>
-      <c r="F182">
+        <v>#N/A</v>
+      </c>
+      <c r="F182" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40236.89417335426</v>
+        <v>#N/A</v>
       </c>
       <c r="G182">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C182&amp;"_"&amp;B182&amp;"_"&amp;D182&amp;"_"&amp;A182&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -16217,13 +15425,13 @@
       <c r="D183">
         <v>1</v>
       </c>
-      <c r="E183">
+      <c r="E183" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-705558.74752460001</v>
-      </c>
-      <c r="F183">
+        <v>#N/A</v>
+      </c>
+      <c r="F183" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40139.800010333143</v>
+        <v>#N/A</v>
       </c>
       <c r="G183">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C183&amp;"_"&amp;B183&amp;"_"&amp;D183&amp;"_"&amp;A183&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -16271,13 +15479,13 @@
       <c r="D184" s="8">
         <v>1</v>
       </c>
-      <c r="E184">
+      <c r="E184" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-706300.03440493334</v>
-      </c>
-      <c r="F184">
+        <v>#N/A</v>
+      </c>
+      <c r="F184" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40803.957418211088</v>
+        <v>#N/A</v>
       </c>
       <c r="G184">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C184&amp;"_"&amp;B184&amp;"_"&amp;D184&amp;"_"&amp;A184&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -16325,13 +15533,13 @@
       <c r="D185" s="4">
         <v>1</v>
       </c>
-      <c r="E185">
+      <c r="E185" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-709560.32436303294</v>
-      </c>
-      <c r="F185">
+        <v>#N/A</v>
+      </c>
+      <c r="F185" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>39782.183561187368</v>
+        <v>#N/A</v>
       </c>
       <c r="G185">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C185&amp;"_"&amp;B185&amp;"_"&amp;D185&amp;"_"&amp;A185&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -16379,13 +15587,13 @@
       <c r="D186" s="7">
         <v>1</v>
       </c>
-      <c r="E186">
+      <c r="E186" t="e">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
-        <v>-706146.38933343301</v>
-      </c>
-      <c r="F186">
+        <v>#N/A</v>
+      </c>
+      <c r="F186" t="e">
         <f ca="1">CONFIDENCE( 0.05, STDEV( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE) ), COUNT( INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$E$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE)  ) )</f>
-        <v>40227.833965427868</v>
+        <v>#N/A</v>
       </c>
       <c r="G186">
         <f ca="1">AVERAGE(INDIRECT("[reservoir.csv]reservoir!B"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE):INDIRECT("[reservoir.csv]reservoir!XFD"&amp;(MATCH("reservoir_"&amp;$G$1&amp;"_"&amp;C186&amp;"_"&amp;B186&amp;"_"&amp;D186&amp;"_"&amp;A186&amp;"*",[1]reservoir!$A$1:$A$1202,0)+1),TRUE))</f>
@@ -17067,17 +16275,17 @@
       <c r="C15">
         <v>10</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="e">
         <f ca="1">raw!E23</f>
-        <v>-707811.19175023271</v>
-      </c>
-      <c r="E15">
+        <v>#N/A</v>
+      </c>
+      <c r="E15" t="e">
         <f ca="1">raw!E24</f>
-        <v>-708426.35977360001</v>
-      </c>
-      <c r="F15">
+        <v>#N/A</v>
+      </c>
+      <c r="F15" t="e">
         <f ca="1">raw!E25</f>
-        <v>-740969.70362759952</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -17090,11 +16298,11 @@
       </c>
       <c r="E16">
         <f ca="1">raw!G24</f>
-        <v>-150967.35654949996</v>
-      </c>
-      <c r="F16">
+        <v>-151004.78483646669</v>
+      </c>
+      <c r="F16" t="e">
         <f ca="1">raw!G25</f>
-        <v>-192549.72860203317</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -17107,7 +16315,7 @@
       </c>
       <c r="E17">
         <f ca="1">raw!I24</f>
-        <v>-227011.61531899983</v>
+        <v>-227135.92624956652</v>
       </c>
       <c r="F17" t="e">
         <f ca="1">raw!I25</f>
@@ -17155,30 +16363,30 @@
       <c r="C20">
         <v>10</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="e">
         <f ca="1">raw!E85</f>
-        <v>-710054.40741833299</v>
-      </c>
-      <c r="E20">
+        <v>#N/A</v>
+      </c>
+      <c r="E20" t="e">
         <f ca="1">raw!E86</f>
-        <v>-724079.68476471654</v>
-      </c>
-      <c r="F20">
+        <v>#N/A</v>
+      </c>
+      <c r="F20" t="e">
         <f ca="1">raw!E87</f>
-        <v>-730924.02649516624</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>20</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="e">
         <f ca="1">raw!G85</f>
-        <v>-155895.68625479986</v>
-      </c>
-      <c r="E21">
+        <v>#N/A</v>
+      </c>
+      <c r="E21" t="e">
         <f ca="1">raw!G86</f>
-        <v>-155600.90736036652</v>
+        <v>#N/A</v>
       </c>
       <c r="F21" t="e">
         <f ca="1">raw!G87</f>
@@ -17195,7 +16403,7 @@
       </c>
       <c r="E22">
         <f ca="1">raw!I86</f>
-        <v>-229289.89469091655</v>
+        <v>-229348.97434053311</v>
       </c>
       <c r="F22" t="e">
         <f ca="1">raw!I87</f>
@@ -17206,13 +16414,13 @@
       <c r="C23">
         <v>40</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="e">
         <f ca="1">raw!K85</f>
-        <v>-305102.12682239962</v>
-      </c>
-      <c r="E23">
+        <v>#N/A</v>
+      </c>
+      <c r="E23" t="e">
         <f ca="1">raw!K86</f>
-        <v>-304498.7101304995</v>
+        <v>#N/A</v>
       </c>
       <c r="F23" t="e">
         <f ca="1">raw!K87</f>
@@ -17227,9 +16435,9 @@
         <f ca="1">raw!M85</f>
         <v>#N/A</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="e">
         <f ca="1">raw!M86</f>
-        <v>-379795.4045771996</v>
+        <v>#N/A</v>
       </c>
       <c r="F24" t="e">
         <f ca="1">raw!M87</f>
@@ -17243,17 +16451,17 @@
       <c r="C25">
         <v>10</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="e">
         <f ca="1">raw!E134</f>
-        <v>-714376.77399009967</v>
-      </c>
-      <c r="E25">
+        <v>#N/A</v>
+      </c>
+      <c r="E25" t="e">
         <f ca="1">raw!E135</f>
-        <v>-743403.19166289992</v>
-      </c>
-      <c r="F25">
+        <v>#N/A</v>
+      </c>
+      <c r="F25" t="e">
         <f ca="1">raw!E136</f>
-        <v>-826315.28215753217</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -17264,9 +16472,9 @@
         <f ca="1">raw!G134</f>
         <v>#N/A</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="e">
         <f ca="1">raw!G135</f>
-        <v>-178291.13138956661</v>
+        <v>#N/A</v>
       </c>
       <c r="F26" t="e">
         <f ca="1">raw!G136</f>
@@ -17283,7 +16491,7 @@
       </c>
       <c r="E27">
         <f ca="1">raw!I135</f>
-        <v>-260555.24446754984</v>
+        <v>-260734.40222013328</v>
       </c>
       <c r="F27" t="e">
         <f ca="1">raw!I136</f>
@@ -17298,9 +16506,9 @@
         <f ca="1">raw!K134</f>
         <v>#N/A</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="e">
         <f ca="1">raw!K135</f>
-        <v>-324786.42054246593</v>
+        <v>#N/A</v>
       </c>
       <c r="F28" t="e">
         <f ca="1">raw!K136</f>
@@ -17311,13 +16519,13 @@
       <c r="C29">
         <v>50</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="e">
         <f ca="1">raw!M134</f>
-        <v>-380280.0739385999</v>
-      </c>
-      <c r="E29">
+        <v>#N/A</v>
+      </c>
+      <c r="E29" t="e">
         <f ca="1">raw!M135</f>
-        <v>-401736.7755404326</v>
+        <v>#N/A</v>
       </c>
       <c r="F29" t="e">
         <f ca="1">raw!M136</f>
